--- a/stocks/gama.xlsx
+++ b/stocks/gama.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7485"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -1173,10 +1173,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Plan1"/>
   <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1425,31 +1426,31 @@
         <v>0</v>
       </c>
       <c r="F3" s="3">
+        <v>426.94</v>
+      </c>
+      <c r="G3" s="3">
+        <f>0</f>
         <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <f>380</f>
-        <v>380</v>
       </c>
       <c r="H3" s="3">
         <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
-        <v>760</v>
+        <v>380</v>
       </c>
       <c r="I3" s="3">
         <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
-        <v>838.24</v>
+        <v>458.24</v>
       </c>
       <c r="J3" s="3">
         <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
-        <v>0.31</v>
+        <v>0.16</v>
       </c>
       <c r="K3" s="3">
         <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
-        <v>0.23</v>
+        <v>0.12</v>
       </c>
       <c r="L3" s="3">
         <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
-        <v>0.57999999999999996</v>
+        <v>0.31</v>
       </c>
       <c r="M3" s="3">
         <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
@@ -1461,19 +1462,19 @@
       </c>
       <c r="O3" s="3">
         <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>16.89</v>
+        <v>16.36</v>
       </c>
       <c r="P3" s="3">
         <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
-        <v>0.62</v>
+        <v>0.33</v>
       </c>
       <c r="Q3" s="3">
         <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
-        <v>0.46</v>
+        <v>0.25</v>
       </c>
       <c r="R3" s="3">
         <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
-        <v>1.1599999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="S3" s="3">
         <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
@@ -1485,39 +1486,39 @@
       </c>
       <c r="U3" s="3">
         <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>18.010000000000002</v>
+        <v>16.98</v>
       </c>
       <c r="V3" s="3">
         <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
-        <v>682.83900000000006</v>
+        <v>361.16499999999996</v>
       </c>
       <c r="W3" s="11">
         <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
-        <v>806.94</v>
+        <v>426.94</v>
       </c>
       <c r="X3" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.96265985875167026</v>
+        <v>0.9316951815642458</v>
       </c>
       <c r="Y3" s="4">
         <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z3" s="3">
         <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
-        <v>0</v>
+        <v>341.55</v>
       </c>
       <c r="AA3" s="3">
         <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
-        <v>0</v>
+        <v>85.389999999999986</v>
       </c>
       <c r="AB3" s="3">
         <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
-        <v>312.95999999999998</v>
+        <v>654.51</v>
       </c>
       <c r="AC3" s="6">
         <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
-        <v>1151.2</v>
+        <v>1198.1399999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1530,6 +1531,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Plan2"/>
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1635,6 +1637,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Plan3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/stocks/gama.xlsx
+++ b/stocks/gama.xlsx
@@ -231,7 +231,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -246,6 +246,8 @@
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -329,23 +331,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -397,6 +382,24 @@
         <vertAlign val="baseline"/>
         <sz val="8"/>
         <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -803,8 +806,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AC3" totalsRowShown="0" headerRowDxfId="29">
-  <autoFilter ref="A1:AC3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AC5" totalsRowShown="0" headerRowDxfId="29">
+  <autoFilter ref="A1:AC5"/>
   <tableColumns count="29">
     <tableColumn id="1" name="TRADE" dataDxfId="28"/>
     <tableColumn id="2" name="DATA" dataDxfId="27"/>
@@ -812,73 +815,73 @@
     <tableColumn id="26" name="APORTE RF" dataDxfId="25" dataCellStyle="Moeda"/>
     <tableColumn id="9" name="SAQUE" dataDxfId="24" dataCellStyle="Moeda"/>
     <tableColumn id="5" name="LUCRO" dataDxfId="23" dataCellStyle="Moeda"/>
-    <tableColumn id="3" name="APORTE" dataDxfId="0" dataCellStyle="Moeda">
+    <tableColumn id="3" name="APORTE" dataDxfId="22" dataCellStyle="Moeda">
       <calculatedColumnFormula>380</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="MONTANTE" dataDxfId="22" dataCellStyle="Moeda">
+    <tableColumn id="4" name="MONTANTE" dataDxfId="21" dataCellStyle="Moeda">
       <calculatedColumnFormula>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="21" dataCellStyle="Moeda">
+    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="20" dataCellStyle="Moeda">
       <calculatedColumnFormula>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EMOL CP" dataDxfId="20" dataCellStyle="Moeda">
+    <tableColumn id="11" name="EMOL CP" dataDxfId="19" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="LIQD CP" dataDxfId="19" dataCellStyle="Moeda">
+    <tableColumn id="13" name="LIQD CP" dataDxfId="18" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="REG CP" dataDxfId="18" dataCellStyle="Moeda">
+    <tableColumn id="14" name="REG CP" dataDxfId="17" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="ISS CP" dataDxfId="17" dataCellStyle="Moeda">
+    <tableColumn id="16" name="ISS CP" dataDxfId="16" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="OUTRAS CP" dataDxfId="16" dataCellStyle="Moeda">
+    <tableColumn id="19" name="OUTRAS CP" dataDxfId="15" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="TAXA CP" dataDxfId="15" dataCellStyle="Moeda">
+    <tableColumn id="18" name="TAXA CP" dataDxfId="14" dataCellStyle="Moeda">
       <calculatedColumnFormula>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="EMOL VD" dataDxfId="14" dataCellStyle="Moeda">
+    <tableColumn id="25" name="EMOL VD" dataDxfId="13" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="LIQD VD" dataDxfId="13" dataCellStyle="Moeda">
+    <tableColumn id="24" name="LIQD VD" dataDxfId="12" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="REG VD" dataDxfId="12" dataCellStyle="Moeda">
+    <tableColumn id="23" name="REG VD" dataDxfId="11" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="ISS VD" dataDxfId="11" dataCellStyle="Moeda">
+    <tableColumn id="22" name="ISS VD" dataDxfId="10" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="OUTRAS VD" dataDxfId="10" dataCellStyle="Moeda">
+    <tableColumn id="21" name="OUTRAS VD" dataDxfId="9" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="TAXA VD" dataDxfId="9" dataCellStyle="Moeda">
+    <tableColumn id="20" name="TAXA VD" dataDxfId="8" dataCellStyle="Moeda">
       <calculatedColumnFormula>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="PREV LUCRO" dataDxfId="8" dataCellStyle="Moeda">
+    <tableColumn id="17" name="PREV LUCRO" dataDxfId="7" dataCellStyle="Moeda">
       <calculatedColumnFormula>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="PERDA MAX" dataDxfId="7" dataCellStyle="Moeda">
+    <tableColumn id="28" name="PERDA MAX" dataDxfId="6" dataCellStyle="Moeda">
       <calculatedColumnFormula>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="% PERDA" dataDxfId="6" dataCellStyle="Porcentagem">
+    <tableColumn id="29" name="% PERDA" dataDxfId="5" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="NO BOLSO" dataDxfId="5">
+    <tableColumn id="6" name="NO BOLSO" dataDxfId="4">
       <calculatedColumnFormula>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="4" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" name="REINVESTIR" dataDxfId="3" dataCellStyle="Moeda">
+    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="0" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(Tabela1[LUCRO] &lt; 0, Tabela1[LUCRO], ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="REINVESTIR" dataDxfId="1" dataCellStyle="Moeda">
       <calculatedColumnFormula>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="TOT RF" dataDxfId="2" dataCellStyle="Moeda">
+    <tableColumn id="15" name="TOT RF" dataDxfId="3" dataCellStyle="Moeda">
       <calculatedColumnFormula>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="1" dataCellStyle="Moeda">
+    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="2" dataCellStyle="Moeda">
       <calculatedColumnFormula>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1174,10 +1177,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan1"/>
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1314,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="3">
-        <v>391.2</v>
+        <v>-278.12</v>
       </c>
       <c r="G2" s="3">
         <f>380</f>
@@ -1390,23 +1393,23 @@
       </c>
       <c r="Y2" s="4">
         <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="Z2" s="3">
-        <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
-        <v>312.95999999999998</v>
+        <f>IF(Tabela1[LUCRO] &lt; 0, Tabela1[LUCRO], ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
+        <v>-278.12</v>
       </c>
       <c r="AA2" s="3">
         <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
-        <v>78.240000000000009</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="3">
         <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
-        <v>312.95999999999998</v>
+        <v>-278.12</v>
       </c>
       <c r="AC2" s="6">
         <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
-        <v>771.2</v>
+        <v>101.88</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
@@ -1417,7 +1420,7 @@
         <v>41000</v>
       </c>
       <c r="C3" s="3">
-        <v>312.95999999999998</v>
+        <v>-278.12</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
@@ -1426,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="3">
-        <v>426.94</v>
+        <v>1034.6500000000001</v>
       </c>
       <c r="G3" s="3">
         <f>0</f>
@@ -1438,19 +1441,19 @@
       </c>
       <c r="I3" s="3">
         <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
-        <v>458.24</v>
+        <v>380</v>
       </c>
       <c r="J3" s="3">
         <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K3" s="3">
         <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="L3" s="3">
         <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
       <c r="M3" s="3">
         <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
@@ -1462,19 +1465,19 @@
       </c>
       <c r="O3" s="3">
         <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>16.36</v>
+        <v>16.27</v>
       </c>
       <c r="P3" s="3">
         <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
-        <v>0.33</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Q3" s="3">
         <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="R3" s="3">
         <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
-        <v>0.63</v>
+        <v>0.52</v>
       </c>
       <c r="S3" s="3">
         <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
@@ -1486,39 +1489,259 @@
       </c>
       <c r="U3" s="3">
         <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>16.98</v>
+        <v>16.77</v>
       </c>
       <c r="V3" s="3">
         <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
-        <v>361.16499999999996</v>
+        <v>294.916</v>
       </c>
       <c r="W3" s="11">
         <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
-        <v>426.94</v>
+        <v>407.81</v>
       </c>
       <c r="X3" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.9316951815642458</v>
+        <v>1.0731842105263159</v>
       </c>
       <c r="Y3" s="4">
         <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
         <v>0.8</v>
       </c>
       <c r="Z3" s="3">
-        <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
-        <v>341.55</v>
+        <f>IF(Tabela1[LUCRO] &lt; 0, Tabela1[LUCRO], ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
+        <v>827.72</v>
       </c>
       <c r="AA3" s="3">
         <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
-        <v>85.389999999999986</v>
+        <v>206.93000000000006</v>
       </c>
       <c r="AB3" s="3">
         <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
-        <v>654.51</v>
+        <v>549.6</v>
       </c>
       <c r="AC3" s="6">
         <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
-        <v>1198.1399999999999</v>
+        <v>1136.5300000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>41000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>549.6</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>470.1</v>
+      </c>
+      <c r="G4" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
+        <v>380</v>
+      </c>
+      <c r="I4" s="6">
+        <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
+        <v>586.93000000000006</v>
+      </c>
+      <c r="J4" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
+        <v>0.21</v>
+      </c>
+      <c r="K4" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
+        <v>0.16</v>
+      </c>
+      <c r="L4" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
+        <v>0.4</v>
+      </c>
+      <c r="M4" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N4" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O4" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>16.54</v>
+      </c>
+      <c r="P4" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
+        <v>0.43</v>
+      </c>
+      <c r="Q4" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
+        <v>0.32</v>
+      </c>
+      <c r="R4" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
+        <v>0.81</v>
+      </c>
+      <c r="S4" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T4" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U4" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>17.330000000000002</v>
+      </c>
+      <c r="V4" s="6">
+        <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
+        <v>470.10100000000011</v>
+      </c>
+      <c r="W4" s="14">
+        <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
+        <v>531.97</v>
+      </c>
+      <c r="X4" s="4">
+        <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
+        <v>0.90636021331334227</v>
+      </c>
+      <c r="Y4" s="15">
+        <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z4" s="6">
+        <f>IF(Tabela1[LUCRO] &lt; 0, Tabela1[LUCRO], ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
+        <v>376.08</v>
+      </c>
+      <c r="AA4" s="3">
+        <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
+        <v>94.020000000000039</v>
+      </c>
+      <c r="AB4" s="6">
+        <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
+        <v>925.68000000000006</v>
+      </c>
+      <c r="AC4" s="6">
+        <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
+        <v>1606.63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>41000</v>
+      </c>
+      <c r="C5" s="3">
+        <v>925.68</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
+        <v>549.70000000000005</v>
+      </c>
+      <c r="G5" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
+        <v>380</v>
+      </c>
+      <c r="I5" s="6">
+        <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
+        <v>680.95</v>
+      </c>
+      <c r="J5" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
+        <v>0.25</v>
+      </c>
+      <c r="K5" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
+        <v>0.18</v>
+      </c>
+      <c r="L5" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
+        <v>0.47</v>
+      </c>
+      <c r="M5" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N5" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O5" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>16.670000000000002</v>
+      </c>
+      <c r="P5" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
+        <v>0.37</v>
+      </c>
+      <c r="R5" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
+        <v>0.94</v>
+      </c>
+      <c r="S5" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T5" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U5" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>17.580000000000002</v>
+      </c>
+      <c r="V5" s="6">
+        <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
+        <v>549.69500000000016</v>
+      </c>
+      <c r="W5" s="14">
+        <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
+        <v>588.38000000000011</v>
+      </c>
+      <c r="X5" s="4">
+        <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
+        <v>0.86405756663484845</v>
+      </c>
+      <c r="Y5" s="15">
+        <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z5" s="6">
+        <f>IF(Tabela1[LUCRO] &lt; 0, Tabela1[LUCRO], ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
+        <v>439.76</v>
+      </c>
+      <c r="AA5" s="3">
+        <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
+        <v>109.94000000000005</v>
+      </c>
+      <c r="AB5" s="6">
+        <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
+        <v>1365.44</v>
+      </c>
+      <c r="AC5" s="6">
+        <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
+        <v>2156.33</v>
       </c>
     </row>
   </sheetData>
@@ -1551,23 +1774,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1590,9 +1813,9 @@
       <c r="F2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="8">

--- a/stocks/gama.xlsx
+++ b/stocks/gama.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="7425"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="19320" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -132,13 +132,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0000%"/>
-    <numFmt numFmtId="165" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0000%"/>
+    <numFmt numFmtId="166" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,25 +228,25 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -277,61 +277,61 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -385,381 +385,381 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -819,19 +819,19 @@
       <calculatedColumnFormula>380</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="MONTANTE" dataDxfId="21" dataCellStyle="Moeda">
-      <calculatedColumnFormula>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</calculatedColumnFormula>
+      <calculatedColumnFormula>SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE RF])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="APLICAÇÃO" dataDxfId="20" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</calculatedColumnFormula>
+      <calculatedColumnFormula>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" name="EMOL CP" dataDxfId="19" dataCellStyle="Moeda">
-      <calculatedColumnFormula>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</calculatedColumnFormula>
+      <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * Plan2!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" name="LIQD CP" dataDxfId="18" dataCellStyle="Moeda">
-      <calculatedColumnFormula>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</calculatedColumnFormula>
+      <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * Plan2!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" name="REG CP" dataDxfId="17" dataCellStyle="Moeda">
-      <calculatedColumnFormula>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</calculatedColumnFormula>
+      <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * Plan2!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="ISS CP" dataDxfId="16" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</calculatedColumnFormula>
@@ -843,13 +843,13 @@
       <calculatedColumnFormula>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="25" name="EMOL VD" dataDxfId="13" dataCellStyle="Moeda">
-      <calculatedColumnFormula>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</calculatedColumnFormula>
+      <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * Plan2!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="24" name="LIQD VD" dataDxfId="12" dataCellStyle="Moeda">
-      <calculatedColumnFormula>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</calculatedColumnFormula>
+      <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * Plan2!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="23" name="REG VD" dataDxfId="11" dataCellStyle="Moeda">
-      <calculatedColumnFormula>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</calculatedColumnFormula>
+      <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * Plan2!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="22" name="ISS VD" dataDxfId="10" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</calculatedColumnFormula>
@@ -861,28 +861,28 @@
       <calculatedColumnFormula>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="17" name="PREV LUCRO" dataDxfId="7" dataCellStyle="Moeda">
-      <calculatedColumnFormula>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</calculatedColumnFormula>
+      <calculatedColumnFormula>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="28" name="PERDA MAX" dataDxfId="6" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</calculatedColumnFormula>
+      <calculatedColumnFormula>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="29" name="% PERDA" dataDxfId="5" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="NO BOLSO" dataDxfId="4">
-      <calculatedColumnFormula>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</calculatedColumnFormula>
+      <calculatedColumnFormula>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.5, 0.8)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="0" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF(Tabela1[LUCRO] &lt; 0, Tabela1[LUCRO], ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" name="REINVESTIR" dataDxfId="1" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="15" name="TOT RF" dataDxfId="3" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="2" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</calculatedColumnFormula>
+      <calculatedColumnFormula>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="REINVESTIR" dataDxfId="3" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[LUCRO]-[PROTEÇÃO MÊS]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" name="TOT RF" dataDxfId="2" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="1" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -964,7 +964,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -999,7 +998,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -1175,7 +1173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Plan1"/>
   <dimension ref="A1:AC5"/>
   <sheetViews>
@@ -1183,13 +1181,13 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" style="1" hidden="1" customWidth="1"/>
@@ -1211,7 +1209,7 @@
     <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -1300,7 +1298,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1317,31 +1315,31 @@
         <v>0</v>
       </c>
       <c r="F2" s="3">
-        <v>-278.12</v>
+        <v>366.15</v>
       </c>
       <c r="G2" s="3">
-        <f>380</f>
-        <v>380</v>
+        <f>400</f>
+        <v>400</v>
       </c>
       <c r="H2" s="3">
-        <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
-        <v>380</v>
+        <f>SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE RF])</f>
+        <v>400</v>
       </c>
       <c r="I2" s="3">
-        <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
-        <v>380</v>
+        <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
+        <v>400</v>
       </c>
       <c r="J2" s="3">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
+        <f>TRUNC([APLICAÇÃO]  * Plan2!$A$3, 2)</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="K2" s="3">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
-        <v>0.1</v>
+        <f>TRUNC([APLICAÇÃO]  * Plan2!$B$3, 2)</f>
+        <v>0.11</v>
       </c>
       <c r="L2" s="3">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
-        <v>0.26</v>
+        <f>TRUNC([APLICAÇÃO]  * Plan2!$C$3, 2)</f>
+        <v>0.27</v>
       </c>
       <c r="M2" s="3">
         <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
@@ -1353,19 +1351,19 @@
       </c>
       <c r="O2" s="3">
         <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>16.27</v>
+        <v>16.29</v>
       </c>
       <c r="P2" s="3">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
-        <v>0.28000000000000003</v>
+        <f>TRUNC([APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
+        <v>0.28999999999999998</v>
       </c>
       <c r="Q2" s="3">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
-        <v>0.2</v>
+        <f>TRUNC([APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
+        <v>0.22</v>
       </c>
       <c r="R2" s="3">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
-        <v>0.52</v>
+        <f>TRUNC([APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
+        <v>0.55000000000000004</v>
       </c>
       <c r="S2" s="3">
         <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
@@ -1377,42 +1375,42 @@
       </c>
       <c r="U2" s="3">
         <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>16.77</v>
+        <v>16.830000000000002</v>
       </c>
       <c r="V2" s="3">
-        <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
-        <v>294.916</v>
+        <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
+        <v>311.84799999999996</v>
       </c>
       <c r="W2" s="11">
-        <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
-        <v>380</v>
+        <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
+        <v>400</v>
       </c>
       <c r="X2" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
         <v>1</v>
       </c>
       <c r="Y2" s="4">
-        <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
-        <v>0.5</v>
+        <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.5, 0.8)</f>
+        <v>0.8</v>
       </c>
       <c r="Z2" s="3">
-        <f>IF(Tabela1[LUCRO] &lt; 0, Tabela1[LUCRO], ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
-        <v>-278.12</v>
+        <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
+        <v>292.92</v>
       </c>
       <c r="AA2" s="3">
-        <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
-        <v>0</v>
+        <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
+        <v>73.229999999999961</v>
       </c>
       <c r="AB2" s="3">
-        <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
-        <v>-278.12</v>
+        <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
+        <v>292.92</v>
       </c>
       <c r="AC2" s="6">
-        <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
-        <v>101.88</v>
+        <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
+        <v>766.15</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1420,7 +1418,7 @@
         <v>41000</v>
       </c>
       <c r="C3" s="3">
-        <v>-278.12</v>
+        <v>366.15</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
@@ -1429,31 +1427,31 @@
         <v>0</v>
       </c>
       <c r="F3" s="3">
-        <v>1034.6500000000001</v>
+        <v>-615.23</v>
       </c>
       <c r="G3" s="3">
-        <f>0</f>
-        <v>0</v>
+        <f>142</f>
+        <v>142</v>
       </c>
       <c r="H3" s="3">
-        <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
-        <v>380</v>
+        <f>SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE RF])</f>
+        <v>542</v>
       </c>
       <c r="I3" s="3">
-        <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
-        <v>380</v>
+        <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
+        <v>615.23</v>
       </c>
       <c r="J3" s="3">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
-        <v>0.14000000000000001</v>
+        <f>TRUNC([APLICAÇÃO]  * Plan2!$A$3, 2)</f>
+        <v>0.22</v>
       </c>
       <c r="K3" s="3">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
-        <v>0.1</v>
+        <f>TRUNC([APLICAÇÃO]  * Plan2!$B$3, 2)</f>
+        <v>0.16</v>
       </c>
       <c r="L3" s="3">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
-        <v>0.26</v>
+        <f>TRUNC([APLICAÇÃO]  * Plan2!$C$3, 2)</f>
+        <v>0.42</v>
       </c>
       <c r="M3" s="3">
         <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
@@ -1465,19 +1463,19 @@
       </c>
       <c r="O3" s="3">
         <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>16.27</v>
+        <v>16.57</v>
       </c>
       <c r="P3" s="3">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
-        <v>0.28000000000000003</v>
+        <f>TRUNC([APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
+        <v>0.45</v>
       </c>
       <c r="Q3" s="3">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
-        <v>0.2</v>
+        <f>TRUNC([APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
+        <v>0.33</v>
       </c>
       <c r="R3" s="3">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
-        <v>0.52</v>
+        <f>TRUNC([APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
+        <v>0.85</v>
       </c>
       <c r="S3" s="3">
         <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
@@ -1489,42 +1487,42 @@
       </c>
       <c r="U3" s="3">
         <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>16.77</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="V3" s="3">
-        <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
-        <v>294.916</v>
+        <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
+        <v>494.07099999999986</v>
       </c>
       <c r="W3" s="11">
-        <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
-        <v>407.81</v>
+        <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
+        <v>578.61</v>
       </c>
       <c r="X3" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>1.0731842105263159</v>
+        <v>0.94047754498317704</v>
       </c>
       <c r="Y3" s="4">
-        <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
-        <v>0.8</v>
+        <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.5, 0.8)</f>
+        <v>0.5</v>
       </c>
       <c r="Z3" s="3">
-        <f>IF(Tabela1[LUCRO] &lt; 0, Tabela1[LUCRO], ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
-        <v>827.72</v>
+        <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
+        <v>0</v>
       </c>
       <c r="AA3" s="3">
-        <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
-        <v>206.93000000000006</v>
+        <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
+        <v>-615.23</v>
       </c>
       <c r="AB3" s="3">
-        <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
-        <v>549.6</v>
+        <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
+        <v>366.15</v>
       </c>
       <c r="AC3" s="6">
-        <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
-        <v>1136.5300000000002</v>
+        <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
+        <v>366.15</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1541,31 +1539,31 @@
         <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>470.1</v>
+        <v>93.44</v>
       </c>
       <c r="G4" s="6">
-        <f>0</f>
-        <v>0</v>
+        <f>142</f>
+        <v>142</v>
       </c>
       <c r="H4" s="6">
-        <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
-        <v>380</v>
+        <f>SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE RF])</f>
+        <v>684</v>
       </c>
       <c r="I4" s="6">
-        <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
-        <v>586.93000000000006</v>
+        <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
+        <v>142</v>
       </c>
       <c r="J4" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
-        <v>0.21</v>
+        <f>TRUNC([APLICAÇÃO]  * Plan2!$A$3, 2)</f>
+        <v>0.05</v>
       </c>
       <c r="K4" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
-        <v>0.16</v>
+        <f>TRUNC([APLICAÇÃO]  * Plan2!$B$3, 2)</f>
+        <v>0.03</v>
       </c>
       <c r="L4" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
-        <v>0.4</v>
+        <f>TRUNC([APLICAÇÃO]  * Plan2!$C$3, 2)</f>
+        <v>0.09</v>
       </c>
       <c r="M4" s="6">
         <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
@@ -1577,19 +1575,19 @@
       </c>
       <c r="O4" s="6">
         <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>16.54</v>
+        <v>15.940000000000001</v>
       </c>
       <c r="P4" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
-        <v>0.43</v>
+        <f>TRUNC([APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
+        <v>0.1</v>
       </c>
       <c r="Q4" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
-        <v>0.32</v>
+        <f>TRUNC([APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="R4" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
-        <v>0.81</v>
+        <f>TRUNC([APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
+        <v>0.19</v>
       </c>
       <c r="S4" s="6">
         <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
@@ -1601,42 +1599,42 @@
       </c>
       <c r="U4" s="6">
         <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>17.330000000000002</v>
+        <v>16.13</v>
       </c>
       <c r="V4" s="6">
-        <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
-        <v>470.10100000000011</v>
+        <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
+        <v>93.4405</v>
       </c>
       <c r="W4" s="14">
-        <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
-        <v>531.97</v>
+        <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
+        <v>87.039999999999992</v>
       </c>
       <c r="X4" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.90636021331334227</v>
+        <v>0.61295774647887313</v>
       </c>
       <c r="Y4" s="15">
-        <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
-        <v>0.8</v>
+        <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.5, 0.8)</f>
+        <v>0.5</v>
       </c>
       <c r="Z4" s="6">
-        <f>IF(Tabela1[LUCRO] &lt; 0, Tabela1[LUCRO], ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
-        <v>376.08</v>
+        <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
+        <v>46.72</v>
       </c>
       <c r="AA4" s="3">
-        <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
-        <v>94.020000000000039</v>
+        <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
+        <v>46.72</v>
       </c>
       <c r="AB4" s="6">
-        <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
-        <v>925.68000000000006</v>
+        <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
+        <v>596.32000000000005</v>
       </c>
       <c r="AC4" s="6">
-        <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
-        <v>1606.63</v>
+        <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
+        <v>785.04000000000008</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1649,31 +1647,31 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
-        <v>549.70000000000005</v>
+        <v>0</v>
       </c>
       <c r="G5" s="6">
         <f>0</f>
         <v>0</v>
       </c>
       <c r="H5" s="6">
-        <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
-        <v>380</v>
+        <f>SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE RF])</f>
+        <v>684</v>
       </c>
       <c r="I5" s="6">
-        <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
-        <v>680.95</v>
+        <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
+        <v>188.72000000000003</v>
       </c>
       <c r="J5" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
-        <v>0.25</v>
+        <f>TRUNC([APLICAÇÃO]  * Plan2!$A$3, 2)</f>
+        <v>0.06</v>
       </c>
       <c r="K5" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
-        <v>0.18</v>
+        <f>TRUNC([APLICAÇÃO]  * Plan2!$B$3, 2)</f>
+        <v>0.05</v>
       </c>
       <c r="L5" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
-        <v>0.47</v>
+        <f>TRUNC([APLICAÇÃO]  * Plan2!$C$3, 2)</f>
+        <v>0.13</v>
       </c>
       <c r="M5" s="6">
         <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
@@ -1685,19 +1683,19 @@
       </c>
       <c r="O5" s="6">
         <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>16.670000000000002</v>
+        <v>16.010000000000002</v>
       </c>
       <c r="P5" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
-        <v>0.5</v>
+        <f>TRUNC([APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
+        <v>0.13</v>
       </c>
       <c r="Q5" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
-        <v>0.37</v>
+        <f>TRUNC([APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
+        <v>0.1</v>
       </c>
       <c r="R5" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
-        <v>0.94</v>
+        <f>TRUNC([APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
+        <v>0.26</v>
       </c>
       <c r="S5" s="6">
         <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
@@ -1709,39 +1707,39 @@
       </c>
       <c r="U5" s="6">
         <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>17.580000000000002</v>
+        <v>16.260000000000002</v>
       </c>
       <c r="V5" s="6">
-        <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
-        <v>549.69500000000016</v>
+        <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
+        <v>132.98250000000004</v>
       </c>
       <c r="W5" s="14">
-        <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
-        <v>588.38000000000011</v>
+        <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
+        <v>96.150000000000034</v>
       </c>
       <c r="X5" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.86405756663484845</v>
+        <v>0.50948495125052995</v>
       </c>
       <c r="Y5" s="15">
-        <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
-        <v>0.8</v>
+        <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.5, 0.8)</f>
+        <v>0.5</v>
       </c>
       <c r="Z5" s="6">
-        <f>IF(Tabela1[LUCRO] &lt; 0, Tabela1[LUCRO], ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
-        <v>439.76</v>
+        <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
+        <v>0</v>
       </c>
       <c r="AA5" s="3">
-        <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
-        <v>109.94000000000005</v>
+        <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
+        <v>0</v>
       </c>
       <c r="AB5" s="6">
-        <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
-        <v>1365.44</v>
+        <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
+        <v>925.68</v>
       </c>
       <c r="AC5" s="6">
-        <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
-        <v>2156.33</v>
+        <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
+        <v>1114.4000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1753,15 +1751,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Plan2"/>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="2" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -1773,7 +1771,7 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
@@ -1794,7 +1792,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -1817,7 +1815,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="8">
         <v>3.6999999999999999E-4</v>
       </c>
@@ -1859,13 +1857,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Plan3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/stocks/gama.xlsx
+++ b/stocks/gama.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="19320" windowHeight="7425"/>
@@ -11,12 +11,12 @@
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>APORTE</t>
   </si>
@@ -128,17 +128,20 @@
   <si>
     <t>PROTEÇÃO MÊS</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0000%"/>
-    <numFmt numFmtId="166" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
+    <numFmt numFmtId="165" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,25 +231,25 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -254,84 +257,606 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  <dxfs count="59">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -385,381 +910,381 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -806,83 +1331,83 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AC5" totalsRowShown="0" headerRowDxfId="29">
-  <autoFilter ref="A1:AC5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AC29" totalsRowCount="1" headerRowDxfId="58">
+  <autoFilter ref="A1:AC28"/>
   <tableColumns count="29">
-    <tableColumn id="1" name="TRADE" dataDxfId="28"/>
-    <tableColumn id="2" name="DATA" dataDxfId="27"/>
-    <tableColumn id="12" name="RENDA FIXA" dataDxfId="26" dataCellStyle="Moeda"/>
-    <tableColumn id="26" name="APORTE RF" dataDxfId="25" dataCellStyle="Moeda"/>
-    <tableColumn id="9" name="SAQUE" dataDxfId="24" dataCellStyle="Moeda"/>
-    <tableColumn id="5" name="LUCRO" dataDxfId="23" dataCellStyle="Moeda"/>
-    <tableColumn id="3" name="APORTE" dataDxfId="22" dataCellStyle="Moeda">
+    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="57" totalsRowDxfId="28"/>
+    <tableColumn id="2" name="DATA" dataDxfId="56" totalsRowDxfId="27"/>
+    <tableColumn id="12" name="RENDA FIXA" dataDxfId="55" totalsRowDxfId="26" dataCellStyle="Moeda"/>
+    <tableColumn id="26" name="APORTE RF" dataDxfId="54" totalsRowDxfId="25" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="SAQUE" dataDxfId="53" totalsRowDxfId="24" dataCellStyle="Moeda"/>
+    <tableColumn id="5" name="LUCRO" dataDxfId="52" totalsRowDxfId="23" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="APORTE" dataDxfId="51" totalsRowDxfId="22" dataCellStyle="Moeda">
       <calculatedColumnFormula>380</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="MONTANTE" dataDxfId="21" dataCellStyle="Moeda">
-      <calculatedColumnFormula>SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE RF])</calculatedColumnFormula>
+    <tableColumn id="4" name="MONTANTE" dataDxfId="50" totalsRowDxfId="21" dataCellStyle="Moeda">
+      <calculatedColumnFormula>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="20" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</calculatedColumnFormula>
+    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="49" totalsRowDxfId="20" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EMOL CP" dataDxfId="19" dataCellStyle="Moeda">
-      <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * Plan2!$A$3, 2)</calculatedColumnFormula>
+    <tableColumn id="11" name="EMOL CP" dataDxfId="48" totalsRowDxfId="19" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="LIQD CP" dataDxfId="18" dataCellStyle="Moeda">
-      <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * Plan2!$B$3, 2)</calculatedColumnFormula>
+    <tableColumn id="13" name="LIQD CP" dataDxfId="47" totalsRowDxfId="18" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="REG CP" dataDxfId="17" dataCellStyle="Moeda">
-      <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * Plan2!$C$3, 2)</calculatedColumnFormula>
+    <tableColumn id="14" name="REG CP" dataDxfId="46" totalsRowDxfId="17" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="ISS CP" dataDxfId="16" dataCellStyle="Moeda">
+    <tableColumn id="16" name="ISS CP" dataDxfId="45" totalsRowDxfId="16" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="OUTRAS CP" dataDxfId="15" dataCellStyle="Moeda">
+    <tableColumn id="19" name="OUTRAS CP" dataDxfId="44" totalsRowDxfId="15" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="TAXA CP" dataDxfId="14" dataCellStyle="Moeda">
+    <tableColumn id="18" name="TAXA CP" dataDxfId="43" totalsRowDxfId="14" dataCellStyle="Moeda">
       <calculatedColumnFormula>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="EMOL VD" dataDxfId="13" dataCellStyle="Moeda">
-      <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * Plan2!$A$3, 2)</calculatedColumnFormula>
+    <tableColumn id="25" name="EMOL VD" dataDxfId="42" totalsRowDxfId="13" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="LIQD VD" dataDxfId="12" dataCellStyle="Moeda">
-      <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * Plan2!$B$3, 2)</calculatedColumnFormula>
+    <tableColumn id="24" name="LIQD VD" dataDxfId="41" totalsRowDxfId="12" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="REG VD" dataDxfId="11" dataCellStyle="Moeda">
-      <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * Plan2!$C$3, 2)</calculatedColumnFormula>
+    <tableColumn id="23" name="REG VD" dataDxfId="40" totalsRowDxfId="11" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="ISS VD" dataDxfId="10" dataCellStyle="Moeda">
+    <tableColumn id="22" name="ISS VD" dataDxfId="39" totalsRowDxfId="10" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="OUTRAS VD" dataDxfId="9" dataCellStyle="Moeda">
+    <tableColumn id="21" name="OUTRAS VD" dataDxfId="38" totalsRowDxfId="9" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="TAXA VD" dataDxfId="8" dataCellStyle="Moeda">
+    <tableColumn id="20" name="TAXA VD" dataDxfId="37" totalsRowDxfId="8" dataCellStyle="Moeda">
       <calculatedColumnFormula>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="PREV LUCRO" dataDxfId="7" dataCellStyle="Moeda">
-      <calculatedColumnFormula>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</calculatedColumnFormula>
+    <tableColumn id="17" name="PREV LUCRO" dataDxfId="36" totalsRowDxfId="7" dataCellStyle="Moeda">
+      <calculatedColumnFormula>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="PERDA MAX" dataDxfId="6" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</calculatedColumnFormula>
+    <tableColumn id="28" name="PERDA MAX" dataDxfId="35" totalsRowDxfId="6" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="% PERDA" dataDxfId="5" dataCellStyle="Porcentagem">
+    <tableColumn id="29" name="% PERDA" dataDxfId="34" totalsRowDxfId="5" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="NO BOLSO" dataDxfId="4">
-      <calculatedColumnFormula>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.5, 0.8)</calculatedColumnFormula>
+    <tableColumn id="6" name="NO BOLSO" dataDxfId="33" totalsRowDxfId="4">
+      <calculatedColumnFormula>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="0" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</calculatedColumnFormula>
+    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="32" totalsRowDxfId="3" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="REINVESTIR" dataDxfId="3" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[LUCRO]-[PROTEÇÃO MÊS]</calculatedColumnFormula>
+    <tableColumn id="8" name="REINVESTIR" dataDxfId="31" totalsRowDxfId="2" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="TOT RF" dataDxfId="2" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</calculatedColumnFormula>
+    <tableColumn id="15" name="TOT RF" dataDxfId="30" totalsRowDxfId="1" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="1" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</calculatedColumnFormula>
+    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="29" totalsRowDxfId="0" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -964,6 +1489,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -998,6 +1524,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -1173,19 +1700,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan1"/>
-  <dimension ref="A1:AC5"/>
+  <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="AC26" sqref="AC26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
@@ -1209,7 +1736,7 @@
     <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -1298,12 +1825,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>40969</v>
+        <v>41000</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
@@ -1322,23 +1849,23 @@
         <v>400</v>
       </c>
       <c r="H2" s="3">
-        <f>SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE RF])</f>
+        <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
         <v>400</v>
       </c>
       <c r="I2" s="3">
-        <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
+        <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
         <v>400</v>
       </c>
       <c r="J2" s="3">
-        <f>TRUNC([APLICAÇÃO]  * Plan2!$A$3, 2)</f>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="K2" s="3">
-        <f>TRUNC([APLICAÇÃO]  * Plan2!$B$3, 2)</f>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
         <v>0.11</v>
       </c>
       <c r="L2" s="3">
-        <f>TRUNC([APLICAÇÃO]  * Plan2!$C$3, 2)</f>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
         <v>0.27</v>
       </c>
       <c r="M2" s="3">
@@ -1354,15 +1881,15 @@
         <v>16.29</v>
       </c>
       <c r="P2" s="3">
-        <f>TRUNC([APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="Q2" s="3">
-        <f>TRUNC([APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
         <v>0.22</v>
       </c>
       <c r="R2" s="3">
-        <f>TRUNC([APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="S2" s="3">
@@ -1378,11 +1905,11 @@
         <v>16.830000000000002</v>
       </c>
       <c r="V2" s="3">
-        <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
+        <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
         <v>311.84799999999996</v>
       </c>
       <c r="W2" s="11">
-        <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
+        <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
         <v>400</v>
       </c>
       <c r="X2" s="4">
@@ -1390,35 +1917,35 @@
         <v>1</v>
       </c>
       <c r="Y2" s="4">
-        <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.5, 0.8)</f>
+        <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
         <v>0.8</v>
       </c>
       <c r="Z2" s="3">
-        <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
+        <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
         <v>292.92</v>
       </c>
       <c r="AA2" s="3">
-        <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
+        <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
         <v>73.229999999999961</v>
       </c>
       <c r="AB2" s="3">
-        <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
+        <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
         <v>292.92</v>
       </c>
       <c r="AC2" s="6">
-        <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
+        <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
         <v>766.15</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="5">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="C3" s="3">
-        <v>366.15</v>
+        <v>292.92</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
@@ -1427,30 +1954,30 @@
         <v>0</v>
       </c>
       <c r="F3" s="3">
-        <v>-615.23</v>
+        <v>494.07</v>
       </c>
       <c r="G3" s="3">
         <f>142</f>
         <v>142</v>
       </c>
       <c r="H3" s="3">
-        <f>SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE RF])</f>
+        <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
         <v>542</v>
       </c>
       <c r="I3" s="3">
-        <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
+        <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
         <v>615.23</v>
       </c>
       <c r="J3" s="3">
-        <f>TRUNC([APLICAÇÃO]  * Plan2!$A$3, 2)</f>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
         <v>0.22</v>
       </c>
       <c r="K3" s="3">
-        <f>TRUNC([APLICAÇÃO]  * Plan2!$B$3, 2)</f>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
         <v>0.16</v>
       </c>
       <c r="L3" s="3">
-        <f>TRUNC([APLICAÇÃO]  * Plan2!$C$3, 2)</f>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
         <v>0.42</v>
       </c>
       <c r="M3" s="3">
@@ -1466,15 +1993,15 @@
         <v>16.57</v>
       </c>
       <c r="P3" s="3">
-        <f>TRUNC([APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
         <v>0.45</v>
       </c>
       <c r="Q3" s="3">
-        <f>TRUNC([APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
         <v>0.33</v>
       </c>
       <c r="R3" s="3">
-        <f>TRUNC([APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
         <v>0.85</v>
       </c>
       <c r="S3" s="3">
@@ -1490,47 +2017,47 @@
         <v>17.399999999999999</v>
       </c>
       <c r="V3" s="3">
-        <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
+        <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
         <v>494.07099999999986</v>
       </c>
       <c r="W3" s="11">
-        <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>578.61</v>
+        <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
+        <v>585.94000000000005</v>
       </c>
       <c r="X3" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.94047754498317704</v>
+        <v>0.9523917884368448</v>
       </c>
       <c r="Y3" s="4">
-        <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.5, 0.8)</f>
-        <v>0.5</v>
+        <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
+        <v>0.8</v>
       </c>
       <c r="Z3" s="3">
-        <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
-        <v>0</v>
+        <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
+        <v>395.26</v>
       </c>
       <c r="AA3" s="3">
-        <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
-        <v>-615.23</v>
+        <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
+        <v>98.81</v>
       </c>
       <c r="AB3" s="3">
-        <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
-        <v>366.15</v>
+        <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
+        <v>688.18000000000006</v>
       </c>
       <c r="AC3" s="6">
-        <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>366.15</v>
+        <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
+        <v>1402.22</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="5">
-        <v>41000</v>
+        <v>41061</v>
       </c>
       <c r="C4" s="3">
-        <v>549.6</v>
+        <v>688.18</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
@@ -1539,31 +2066,31 @@
         <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>93.44</v>
+        <v>697.93</v>
       </c>
       <c r="G4" s="6">
         <f>142</f>
         <v>142</v>
       </c>
       <c r="H4" s="6">
-        <f>SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE RF])</f>
+        <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
         <v>684</v>
       </c>
       <c r="I4" s="6">
-        <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>142</v>
+        <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
+        <v>856.04</v>
       </c>
       <c r="J4" s="6">
-        <f>TRUNC([APLICAÇÃO]  * Plan2!$A$3, 2)</f>
-        <v>0.05</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
+        <v>0.31</v>
       </c>
       <c r="K4" s="6">
-        <f>TRUNC([APLICAÇÃO]  * Plan2!$B$3, 2)</f>
-        <v>0.03</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
+        <v>0.23</v>
       </c>
       <c r="L4" s="6">
-        <f>TRUNC([APLICAÇÃO]  * Plan2!$C$3, 2)</f>
-        <v>0.09</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
+        <v>0.59</v>
       </c>
       <c r="M4" s="6">
         <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
@@ -1575,19 +2102,19 @@
       </c>
       <c r="O4" s="6">
         <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>15.940000000000001</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="P4" s="6">
-        <f>TRUNC([APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
-        <v>0.1</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
+        <v>0.63</v>
       </c>
       <c r="Q4" s="6">
-        <f>TRUNC([APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
-        <v>7.0000000000000007E-2</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
+        <v>0.47</v>
       </c>
       <c r="R4" s="6">
-        <f>TRUNC([APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
-        <v>0.19</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
+        <v>1.18</v>
       </c>
       <c r="S4" s="6">
         <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
@@ -1599,79 +2126,83 @@
       </c>
       <c r="U4" s="6">
         <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>16.13</v>
+        <v>18.05</v>
       </c>
       <c r="V4" s="6">
-        <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>93.4405</v>
+        <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
+        <v>697.92650000000003</v>
       </c>
       <c r="W4" s="14">
-        <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>87.039999999999992</v>
+        <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
+        <v>787.22</v>
       </c>
       <c r="X4" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.61295774647887313</v>
+        <v>0.91960656044110101</v>
       </c>
       <c r="Y4" s="15">
-        <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.5, 0.8)</f>
-        <v>0.5</v>
+        <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
+        <v>0.8</v>
       </c>
       <c r="Z4" s="6">
-        <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
-        <v>46.72</v>
+        <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
+        <v>558.34</v>
       </c>
       <c r="AA4" s="3">
-        <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
-        <v>46.72</v>
+        <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
+        <v>139.58999999999992</v>
       </c>
       <c r="AB4" s="6">
-        <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
-        <v>596.32000000000005</v>
+        <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
+        <v>1246.52</v>
       </c>
       <c r="AC4" s="6">
-        <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>785.04000000000008</v>
+        <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
+        <v>2242.1499999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>41000</v>
+        <v>41091</v>
       </c>
       <c r="C5" s="3">
-        <v>925.68</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+        <v>1246.52</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <v>936.3</v>
       </c>
       <c r="G5" s="6">
-        <f>0</f>
-        <v>0</v>
+        <f>142</f>
+        <v>142</v>
       </c>
       <c r="H5" s="6">
-        <f>SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE RF])</f>
-        <v>684</v>
+        <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
+        <v>826</v>
       </c>
       <c r="I5" s="6">
-        <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>188.72000000000003</v>
+        <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
+        <v>1137.6299999999999</v>
       </c>
       <c r="J5" s="6">
-        <f>TRUNC([APLICAÇÃO]  * Plan2!$A$3, 2)</f>
-        <v>0.06</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
+        <v>0.42</v>
       </c>
       <c r="K5" s="6">
-        <f>TRUNC([APLICAÇÃO]  * Plan2!$B$3, 2)</f>
-        <v>0.05</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
+        <v>0.31</v>
       </c>
       <c r="L5" s="6">
-        <f>TRUNC([APLICAÇÃO]  * Plan2!$C$3, 2)</f>
-        <v>0.13</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
+        <v>0.79</v>
       </c>
       <c r="M5" s="6">
         <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
@@ -1683,19 +2214,19 @@
       </c>
       <c r="O5" s="6">
         <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>16.010000000000002</v>
+        <v>17.29</v>
       </c>
       <c r="P5" s="6">
-        <f>TRUNC([APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
-        <v>0.13</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
+        <v>0.84</v>
       </c>
       <c r="Q5" s="6">
-        <f>TRUNC([APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
-        <v>0.1</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
+        <v>0.62</v>
       </c>
       <c r="R5" s="6">
-        <f>TRUNC([APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
-        <v>0.26</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
+        <v>1.58</v>
       </c>
       <c r="S5" s="6">
         <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
@@ -1707,40 +2238,2575 @@
       </c>
       <c r="U5" s="6">
         <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>16.260000000000002</v>
+        <v>18.810000000000002</v>
       </c>
       <c r="V5" s="6">
-        <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>132.98250000000004</v>
+        <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
+        <v>936.30049999999994</v>
       </c>
       <c r="W5" s="14">
-        <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>96.150000000000034</v>
+        <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
+        <v>1012.9799999999999</v>
       </c>
       <c r="X5" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.50948495125052995</v>
+        <v>0.89043010469133199</v>
       </c>
       <c r="Y5" s="15">
-        <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.5, 0.8)</f>
+        <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z5" s="6">
+        <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
+        <v>749.04</v>
+      </c>
+      <c r="AA5" s="3">
+        <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
+        <v>187.26</v>
+      </c>
+      <c r="AB5" s="6">
+        <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
+        <v>1995.56</v>
+      </c>
+      <c r="AC5" s="6">
+        <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
+        <v>3320.45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>41122</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1995.56</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1215.07</v>
+      </c>
+      <c r="G6" s="6">
+        <f>142</f>
+        <v>142</v>
+      </c>
+      <c r="H6" s="6">
+        <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
+        <v>968</v>
+      </c>
+      <c r="I6" s="6">
+        <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
+        <v>1466.8899999999999</v>
+      </c>
+      <c r="J6" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
+        <v>0.54</v>
+      </c>
+      <c r="K6" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
+        <v>0.4</v>
+      </c>
+      <c r="L6" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
+        <v>1.01</v>
+      </c>
+      <c r="M6" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N6" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O6" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>17.72</v>
+      </c>
+      <c r="P6" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
+        <v>1.08</v>
+      </c>
+      <c r="Q6" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
+        <v>0.8</v>
+      </c>
+      <c r="R6" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="S6" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T6" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U6" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>19.68</v>
+      </c>
+      <c r="V6" s="6">
+        <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
+        <v>1215.0664999999999</v>
+      </c>
+      <c r="W6" s="14">
+        <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
+        <v>1267.33</v>
+      </c>
+      <c r="X6" s="4">
+        <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
+        <v>0.86395707926293042</v>
+      </c>
+      <c r="Y6" s="15">
+        <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z6" s="6">
+        <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
+        <v>972.06</v>
+      </c>
+      <c r="AA6" s="6">
+        <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
+        <v>243.01</v>
+      </c>
+      <c r="AB6" s="6">
+        <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
+        <v>2967.62</v>
+      </c>
+      <c r="AC6" s="6">
+        <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
+        <v>4677.5200000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>41153</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2967.62</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1541.01</v>
+      </c>
+      <c r="G7" s="6">
+        <f>142</f>
+        <v>142</v>
+      </c>
+      <c r="H7" s="6">
+        <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
+        <v>1110</v>
+      </c>
+      <c r="I7" s="6">
+        <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
+        <v>1851.8999999999999</v>
+      </c>
+      <c r="J7" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
+        <v>0.68</v>
+      </c>
+      <c r="K7" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
         <v>0.5</v>
       </c>
-      <c r="Z5" s="6">
-        <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
+      <c r="L7" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
+        <v>1.28</v>
+      </c>
+      <c r="M7" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N7" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O7" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>18.23</v>
+      </c>
+      <c r="P7" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
+        <v>1.37</v>
+      </c>
+      <c r="Q7" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
+        <v>1.01</v>
+      </c>
+      <c r="R7" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
+        <v>2.57</v>
+      </c>
+      <c r="S7" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T7" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U7" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>20.72</v>
+      </c>
+      <c r="V7" s="6">
+        <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
+        <v>1541.0074999999999</v>
+      </c>
+      <c r="W7" s="14">
+        <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
+        <v>1555.1399999999999</v>
+      </c>
+      <c r="X7" s="4">
+        <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
+        <v>0.83975376640207355</v>
+      </c>
+      <c r="Y7" s="15">
+        <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z7" s="6">
+        <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
+        <v>1232.81</v>
+      </c>
+      <c r="AA7" s="6">
+        <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
+        <v>308.20000000000005</v>
+      </c>
+      <c r="AB7" s="6">
+        <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
+        <v>4200.43</v>
+      </c>
+      <c r="AC7" s="6">
+        <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
+        <v>6360.53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>41183</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4200.43</v>
+      </c>
+      <c r="D8" s="3">
         <v>0</v>
       </c>
-      <c r="AA5" s="3">
-        <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
+      <c r="E8" s="3">
         <v>0</v>
       </c>
-      <c r="AB5" s="6">
-        <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
-        <v>925.68</v>
-      </c>
-      <c r="AC5" s="6">
-        <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>1114.4000000000001</v>
-      </c>
+      <c r="F8" s="3">
+        <v>1922.14</v>
+      </c>
+      <c r="G8" s="6">
+        <f>142</f>
+        <v>142</v>
+      </c>
+      <c r="H8" s="6">
+        <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
+        <v>1252</v>
+      </c>
+      <c r="I8" s="6">
+        <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
+        <v>2302.1</v>
+      </c>
+      <c r="J8" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
+        <v>0.85</v>
+      </c>
+      <c r="K8" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
+        <v>0.63</v>
+      </c>
+      <c r="L8" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
+        <v>1.59</v>
+      </c>
+      <c r="M8" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N8" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O8" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>18.84</v>
+      </c>
+      <c r="P8" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
+        <v>1.7</v>
+      </c>
+      <c r="Q8" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
+        <v>1.26</v>
+      </c>
+      <c r="R8" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
+        <v>3.19</v>
+      </c>
+      <c r="S8" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T8" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U8" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>21.92</v>
+      </c>
+      <c r="V8" s="6">
+        <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
+        <v>1922.1389999999997</v>
+      </c>
+      <c r="W8" s="14">
+        <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
+        <v>1882.06</v>
+      </c>
+      <c r="X8" s="4">
+        <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
+        <v>0.81754050649407062</v>
+      </c>
+      <c r="Y8" s="15">
+        <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
+        <v>0.5</v>
+      </c>
+      <c r="Z8" s="6">
+        <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
+        <v>961.07</v>
+      </c>
+      <c r="AA8" s="6">
+        <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
+        <v>961.07</v>
+      </c>
+      <c r="AB8" s="6">
+        <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
+        <v>5161.5</v>
+      </c>
+      <c r="AC8" s="6">
+        <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
+        <v>8424.67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>41214</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5161.5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2855.98</v>
+      </c>
+      <c r="G9" s="6">
+        <f>142</f>
+        <v>142</v>
+      </c>
+      <c r="H9" s="6">
+        <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
+        <v>1394</v>
+      </c>
+      <c r="I9" s="6">
+        <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
+        <v>3405.17</v>
+      </c>
+      <c r="J9" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
+        <v>1.25</v>
+      </c>
+      <c r="K9" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
+        <v>0.93</v>
+      </c>
+      <c r="L9" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
+        <v>2.36</v>
+      </c>
+      <c r="M9" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N9" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O9" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>20.310000000000002</v>
+      </c>
+      <c r="P9" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="Q9" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
+        <v>1.87</v>
+      </c>
+      <c r="R9" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="S9" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T9" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U9" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>24.88</v>
+      </c>
+      <c r="V9" s="6">
+        <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
+        <v>2855.9829999999997</v>
+      </c>
+      <c r="W9" s="14">
+        <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
+        <v>2889.02</v>
+      </c>
+      <c r="X9" s="4">
+        <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
+        <v>0.84842166470396485</v>
+      </c>
+      <c r="Y9" s="15">
+        <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z9" s="6">
+        <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
+        <v>2284.7800000000002</v>
+      </c>
+      <c r="AA9" s="6">
+        <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
+        <v>571.19999999999982</v>
+      </c>
+      <c r="AB9" s="6">
+        <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
+        <v>7446.2800000000007</v>
+      </c>
+      <c r="AC9" s="6">
+        <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
+        <v>11422.650000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>41244</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7446.28</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3459.76</v>
+      </c>
+      <c r="G10" s="6">
+        <f>142</f>
+        <v>142</v>
+      </c>
+      <c r="H10" s="6">
+        <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
+        <v>1536</v>
+      </c>
+      <c r="I10" s="6">
+        <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
+        <v>4118.37</v>
+      </c>
+      <c r="J10" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
+        <v>1.52</v>
+      </c>
+      <c r="K10" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L10" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
+        <v>2.86</v>
+      </c>
+      <c r="M10" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N10" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O10" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>21.28</v>
+      </c>
+      <c r="P10" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
+        <v>3.04</v>
+      </c>
+      <c r="Q10" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="R10" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
+        <v>5.72</v>
+      </c>
+      <c r="S10" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T10" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U10" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>26.79</v>
+      </c>
+      <c r="V10" s="6">
+        <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
+        <v>3459.7549999999992</v>
+      </c>
+      <c r="W10" s="14">
+        <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
+        <v>3373.74</v>
+      </c>
+      <c r="X10" s="4">
+        <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
+        <v>0.81919303025225998</v>
+      </c>
+      <c r="Y10" s="15">
+        <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
+        <v>0.5</v>
+      </c>
+      <c r="Z10" s="6">
+        <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
+        <v>1729.88</v>
+      </c>
+      <c r="AA10" s="6">
+        <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
+        <v>1729.88</v>
+      </c>
+      <c r="AB10" s="6">
+        <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
+        <v>9176.16</v>
+      </c>
+      <c r="AC10" s="6">
+        <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
+        <v>15024.41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>41275</v>
+      </c>
+      <c r="C11" s="3">
+        <v>9176.16</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3">
+        <v>5044.46</v>
+      </c>
+      <c r="G11" s="6">
+        <f>142</f>
+        <v>142</v>
+      </c>
+      <c r="H11" s="6">
+        <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
+        <v>1678</v>
+      </c>
+      <c r="I11" s="6">
+        <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
+        <v>5990.25</v>
+      </c>
+      <c r="J11" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
+        <v>2.21</v>
+      </c>
+      <c r="K11" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
+        <v>1.64</v>
+      </c>
+      <c r="L11" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
+        <v>4.16</v>
+      </c>
+      <c r="M11" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N11" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O11" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>23.78</v>
+      </c>
+      <c r="P11" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
+        <v>4.43</v>
+      </c>
+      <c r="Q11" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
+        <v>3.29</v>
+      </c>
+      <c r="R11" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
+        <v>8.32</v>
+      </c>
+      <c r="S11" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T11" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U11" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>31.809999999999995</v>
+      </c>
+      <c r="V11" s="6">
+        <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
+        <v>5044.4610000000002</v>
+      </c>
+      <c r="W11" s="14">
+        <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
+        <v>5072.63</v>
+      </c>
+      <c r="X11" s="4">
+        <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
+        <v>0.84681440674429287</v>
+      </c>
+      <c r="Y11" s="15">
+        <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z11" s="6">
+        <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
+        <v>4035.57</v>
+      </c>
+      <c r="AA11" s="6">
+        <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
+        <v>1008.8899999999999</v>
+      </c>
+      <c r="AB11" s="6">
+        <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
+        <v>13211.73</v>
+      </c>
+      <c r="AC11" s="6">
+        <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
+        <v>20210.87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>41306</v>
+      </c>
+      <c r="C12" s="3">
+        <v>13211.73</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
+        <v>6018.78</v>
+      </c>
+      <c r="G12" s="6">
+        <f>142</f>
+        <v>142</v>
+      </c>
+      <c r="H12" s="6">
+        <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
+        <v>1820</v>
+      </c>
+      <c r="I12" s="6">
+        <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
+        <v>7141.1399999999994</v>
+      </c>
+      <c r="J12" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
+        <v>2.64</v>
+      </c>
+      <c r="K12" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
+        <v>1.96</v>
+      </c>
+      <c r="L12" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
+        <v>4.96</v>
+      </c>
+      <c r="M12" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N12" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O12" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>25.33</v>
+      </c>
+      <c r="P12" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
+        <v>5.28</v>
+      </c>
+      <c r="Q12" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
+        <v>3.92</v>
+      </c>
+      <c r="R12" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
+        <v>9.92</v>
+      </c>
+      <c r="S12" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T12" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U12" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>34.889999999999993</v>
+      </c>
+      <c r="V12" s="6">
+        <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
+        <v>6018.7820000000002</v>
+      </c>
+      <c r="W12" s="14">
+        <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
+        <v>5819.9699999999993</v>
+      </c>
+      <c r="X12" s="4">
+        <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
+        <v>0.81499172401045206</v>
+      </c>
+      <c r="Y12" s="15">
+        <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
+        <v>0.5</v>
+      </c>
+      <c r="Z12" s="6">
+        <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
+        <v>3009.39</v>
+      </c>
+      <c r="AA12" s="6">
+        <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
+        <v>3009.39</v>
+      </c>
+      <c r="AB12" s="6">
+        <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
+        <v>16221.119999999999</v>
+      </c>
+      <c r="AC12" s="6">
+        <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
+        <v>26371.649999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>41334</v>
+      </c>
+      <c r="C13" s="3">
+        <v>16221.12</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3">
+        <v>8686.69</v>
+      </c>
+      <c r="G13" s="6">
+        <f>142</f>
+        <v>142</v>
+      </c>
+      <c r="H13" s="6">
+        <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
+        <v>1962</v>
+      </c>
+      <c r="I13" s="6">
+        <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
+        <v>10292.529999999999</v>
+      </c>
+      <c r="J13" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
+        <v>3.8</v>
+      </c>
+      <c r="K13" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
+        <v>2.83</v>
+      </c>
+      <c r="L13" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
+        <v>7.15</v>
+      </c>
+      <c r="M13" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N13" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O13" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>29.55</v>
+      </c>
+      <c r="P13" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
+        <v>7.61</v>
+      </c>
+      <c r="Q13" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
+        <v>5.66</v>
+      </c>
+      <c r="R13" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
+        <v>14.3</v>
+      </c>
+      <c r="S13" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T13" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U13" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>43.339999999999996</v>
+      </c>
+      <c r="V13" s="6">
+        <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
+        <v>8686.6939999999995</v>
+      </c>
+      <c r="W13" s="14">
+        <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
+        <v>8670.4199999999983</v>
+      </c>
+      <c r="X13" s="4">
+        <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
+        <v>0.84239929346817544</v>
+      </c>
+      <c r="Y13" s="15">
+        <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z13" s="6">
+        <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
+        <v>6949.35</v>
+      </c>
+      <c r="AA13" s="6">
+        <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
+        <v>1737.3400000000001</v>
+      </c>
+      <c r="AB13" s="6">
+        <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
+        <v>23170.47</v>
+      </c>
+      <c r="AC13" s="6">
+        <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
+        <v>35200.339999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
+        <v>41365</v>
+      </c>
+      <c r="C14" s="3">
+        <v>23170.47</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3">
+        <v>10277.719999999999</v>
+      </c>
+      <c r="G14" s="6">
+        <f>142</f>
+        <v>142</v>
+      </c>
+      <c r="H14" s="6">
+        <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
+        <v>2104</v>
+      </c>
+      <c r="I14" s="6">
+        <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
+        <v>12171.869999999999</v>
+      </c>
+      <c r="J14" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
+        <v>4.5</v>
+      </c>
+      <c r="K14" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
+        <v>3.34</v>
+      </c>
+      <c r="L14" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="M14" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N14" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O14" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>32.059999999999995</v>
+      </c>
+      <c r="P14" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
+        <v>9</v>
+      </c>
+      <c r="Q14" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
+        <v>6.69</v>
+      </c>
+      <c r="R14" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
+        <v>16.91</v>
+      </c>
+      <c r="S14" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T14" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U14" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>48.37</v>
+      </c>
+      <c r="V14" s="6">
+        <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
+        <v>10277.724</v>
+      </c>
+      <c r="W14" s="14">
+        <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
+        <v>9854.82</v>
+      </c>
+      <c r="X14" s="4">
+        <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
+        <v>0.80963894619314869</v>
+      </c>
+      <c r="Y14" s="15">
+        <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
+        <v>0.5</v>
+      </c>
+      <c r="Z14" s="6">
+        <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
+        <v>5138.8599999999997</v>
+      </c>
+      <c r="AA14" s="6">
+        <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
+        <v>5138.8599999999997</v>
+      </c>
+      <c r="AB14" s="6">
+        <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
+        <v>28309.33</v>
+      </c>
+      <c r="AC14" s="6">
+        <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
+        <v>45620.06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
+        <v>41395</v>
+      </c>
+      <c r="C15" s="3">
+        <v>28309.33</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3">
+        <v>14748.42</v>
+      </c>
+      <c r="G15" s="6">
+        <f>142</f>
+        <v>142</v>
+      </c>
+      <c r="H15" s="6">
+        <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
+        <v>2246</v>
+      </c>
+      <c r="I15" s="6">
+        <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
+        <v>17452.73</v>
+      </c>
+      <c r="J15" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
+        <v>6.45</v>
+      </c>
+      <c r="K15" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
+        <v>4.79</v>
+      </c>
+      <c r="L15" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
+        <v>12.12</v>
+      </c>
+      <c r="M15" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N15" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O15" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>39.129999999999995</v>
+      </c>
+      <c r="P15" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
+        <v>12.91</v>
+      </c>
+      <c r="Q15" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
+        <v>9.59</v>
+      </c>
+      <c r="R15" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
+        <v>24.25</v>
+      </c>
+      <c r="S15" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T15" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U15" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>62.519999999999996</v>
+      </c>
+      <c r="V15" s="6">
+        <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
+        <v>14748.418000000001</v>
+      </c>
+      <c r="W15" s="14">
+        <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
+        <v>14621.8</v>
+      </c>
+      <c r="X15" s="4">
+        <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
+        <v>0.83779443101451745</v>
+      </c>
+      <c r="Y15" s="15">
+        <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z15" s="6">
+        <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
+        <v>11798.74</v>
+      </c>
+      <c r="AA15" s="6">
+        <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
+        <v>2949.6800000000003</v>
+      </c>
+      <c r="AB15" s="6">
+        <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
+        <v>40108.07</v>
+      </c>
+      <c r="AC15" s="6">
+        <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
+        <v>60510.479999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5">
+        <v>41426</v>
+      </c>
+      <c r="C16" s="3">
+        <v>40108.07</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3">
+        <v>17365.77</v>
+      </c>
+      <c r="G16" s="6">
+        <f>142</f>
+        <v>142</v>
+      </c>
+      <c r="H16" s="6">
+        <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
+        <v>2388</v>
+      </c>
+      <c r="I16" s="6">
+        <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
+        <v>20544.41</v>
+      </c>
+      <c r="J16" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
+        <v>7.6</v>
+      </c>
+      <c r="K16" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
+        <v>5.64</v>
+      </c>
+      <c r="L16" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
+        <v>14.27</v>
+      </c>
+      <c r="M16" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N16" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O16" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>43.279999999999994</v>
+      </c>
+      <c r="P16" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
+        <v>15.2</v>
+      </c>
+      <c r="Q16" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
+        <v>11.29</v>
+      </c>
+      <c r="R16" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
+        <v>28.55</v>
+      </c>
+      <c r="S16" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T16" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U16" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>70.81</v>
+      </c>
+      <c r="V16" s="6">
+        <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
+        <v>17365.772000000001</v>
+      </c>
+      <c r="W16" s="14">
+        <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
+        <v>16533.599999999999</v>
+      </c>
+      <c r="X16" s="4">
+        <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
+        <v>0.80477365862538752</v>
+      </c>
+      <c r="Y16" s="15">
+        <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
+        <v>0.5</v>
+      </c>
+      <c r="Z16" s="6">
+        <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
+        <v>8682.89</v>
+      </c>
+      <c r="AA16" s="6">
+        <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
+        <v>8682.880000000001</v>
+      </c>
+      <c r="AB16" s="6">
+        <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
+        <v>48790.96</v>
+      </c>
+      <c r="AC16" s="6">
+        <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
+        <v>78018.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5">
+        <v>41456</v>
+      </c>
+      <c r="C17" s="3">
+        <v>48790.96</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3">
+        <v>24836.75</v>
+      </c>
+      <c r="G17" s="6">
+        <f>142</f>
+        <v>142</v>
+      </c>
+      <c r="H17" s="6">
+        <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
+        <v>2530</v>
+      </c>
+      <c r="I17" s="6">
+        <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
+        <v>29369.29</v>
+      </c>
+      <c r="J17" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
+        <v>10.86</v>
+      </c>
+      <c r="K17" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
+        <v>8.07</v>
+      </c>
+      <c r="L17" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
+        <v>20.41</v>
+      </c>
+      <c r="M17" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N17" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O17" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>55.11</v>
+      </c>
+      <c r="P17" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
+        <v>21.73</v>
+      </c>
+      <c r="Q17" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
+        <v>16.149999999999999</v>
+      </c>
+      <c r="R17" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
+        <v>40.82</v>
+      </c>
+      <c r="S17" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T17" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U17" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>94.47</v>
+      </c>
+      <c r="V17" s="6">
+        <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
+        <v>24836.753499999999</v>
+      </c>
+      <c r="W17" s="14">
+        <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
+        <v>24490.190000000002</v>
+      </c>
+      <c r="X17" s="4">
+        <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
+        <v>0.83387068601249814</v>
+      </c>
+      <c r="Y17" s="15">
+        <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z17" s="6">
+        <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
+        <v>19869.400000000001</v>
+      </c>
+      <c r="AA17" s="6">
+        <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
+        <v>4967.3499999999985</v>
+      </c>
+      <c r="AB17" s="6">
+        <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
+        <v>68660.36</v>
+      </c>
+      <c r="AC17" s="6">
+        <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
+        <v>102997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5">
+        <v>41487</v>
+      </c>
+      <c r="C18" s="3">
+        <v>68660.36</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3">
+        <v>29162.240000000002</v>
+      </c>
+      <c r="G18" s="6">
+        <f>142</f>
+        <v>142</v>
+      </c>
+      <c r="H18" s="6">
+        <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
+        <v>2672</v>
+      </c>
+      <c r="I18" s="6">
+        <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
+        <v>34478.639999999999</v>
+      </c>
+      <c r="J18" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
+        <v>12.75</v>
+      </c>
+      <c r="K18" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
+        <v>9.48</v>
+      </c>
+      <c r="L18" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
+        <v>23.96</v>
+      </c>
+      <c r="M18" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N18" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O18" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>61.959999999999994</v>
+      </c>
+      <c r="P18" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
+        <v>25.51</v>
+      </c>
+      <c r="Q18" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
+        <v>18.96</v>
+      </c>
+      <c r="R18" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
+        <v>47.92</v>
+      </c>
+      <c r="S18" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T18" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U18" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>108.16000000000001</v>
+      </c>
+      <c r="V18" s="6">
+        <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
+        <v>29162.241999999995</v>
+      </c>
+      <c r="W18" s="14">
+        <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
+        <v>27612.6</v>
+      </c>
+      <c r="X18" s="4">
+        <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
+        <v>0.80086105484439063</v>
+      </c>
+      <c r="Y18" s="15">
+        <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
+        <v>0.5</v>
+      </c>
+      <c r="Z18" s="6">
+        <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
+        <v>14581.12</v>
+      </c>
+      <c r="AA18" s="6">
+        <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
+        <v>14581.12</v>
+      </c>
+      <c r="AB18" s="6">
+        <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
+        <v>83241.48</v>
+      </c>
+      <c r="AC18" s="6">
+        <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
+        <v>132301.24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5">
+        <v>41518</v>
+      </c>
+      <c r="C19" s="3">
+        <v>83241.48</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3">
+        <v>41626.58</v>
+      </c>
+      <c r="G19" s="6">
+        <f>142</f>
+        <v>142</v>
+      </c>
+      <c r="H19" s="6">
+        <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
+        <v>2814</v>
+      </c>
+      <c r="I19" s="6">
+        <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
+        <v>49201.760000000002</v>
+      </c>
+      <c r="J19" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
+        <v>18.2</v>
+      </c>
+      <c r="K19" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
+        <v>13.53</v>
+      </c>
+      <c r="L19" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
+        <v>34.19</v>
+      </c>
+      <c r="M19" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N19" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O19" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>81.69</v>
+      </c>
+      <c r="P19" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
+        <v>36.4</v>
+      </c>
+      <c r="Q19" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
+        <v>27.06</v>
+      </c>
+      <c r="R19" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
+        <v>68.39</v>
+      </c>
+      <c r="S19" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T19" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U19" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>147.62</v>
+      </c>
+      <c r="V19" s="6">
+        <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
+        <v>41626.582500000004</v>
+      </c>
+      <c r="W19" s="14">
+        <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
+        <v>40877.61</v>
+      </c>
+      <c r="X19" s="4">
+        <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
+        <v>0.83081601145975259</v>
+      </c>
+      <c r="Y19" s="15">
+        <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z19" s="6">
+        <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
+        <v>33301.26</v>
+      </c>
+      <c r="AA19" s="6">
+        <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
+        <v>8325.32</v>
+      </c>
+      <c r="AB19" s="6">
+        <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
+        <v>116542.73999999999</v>
+      </c>
+      <c r="AC19" s="6">
+        <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
+        <v>174069.82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5">
+        <v>41548</v>
+      </c>
+      <c r="C20" s="3">
+        <v>116542.74</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3">
+        <v>48794.879999999997</v>
+      </c>
+      <c r="G20" s="6">
+        <f>142</f>
+        <v>142</v>
+      </c>
+      <c r="H20" s="6">
+        <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
+        <v>2956</v>
+      </c>
+      <c r="I20" s="6">
+        <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
+        <v>57669.08</v>
+      </c>
+      <c r="J20" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
+        <v>21.33</v>
+      </c>
+      <c r="K20" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
+        <v>15.85</v>
+      </c>
+      <c r="L20" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
+        <v>40.08</v>
+      </c>
+      <c r="M20" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N20" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O20" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>93.03</v>
+      </c>
+      <c r="P20" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
+        <v>42.67</v>
+      </c>
+      <c r="Q20" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
+        <v>31.71</v>
+      </c>
+      <c r="R20" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
+        <v>80.16</v>
+      </c>
+      <c r="S20" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T20" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U20" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>170.31</v>
+      </c>
+      <c r="V20" s="6">
+        <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
+        <v>48794.879000000001</v>
+      </c>
+      <c r="W20" s="14">
+        <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
+        <v>46014.81</v>
+      </c>
+      <c r="X20" s="4">
+        <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
+        <v>0.79791128972406</v>
+      </c>
+      <c r="Y20" s="15">
+        <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
+        <v>0.5</v>
+      </c>
+      <c r="Z20" s="6">
+        <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
+        <v>24397.439999999999</v>
+      </c>
+      <c r="AA20" s="6">
+        <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
+        <v>24397.439999999999</v>
+      </c>
+      <c r="AB20" s="6">
+        <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
+        <v>140940.18</v>
+      </c>
+      <c r="AC20" s="6">
+        <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
+        <v>223006.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5">
+        <v>41579</v>
+      </c>
+      <c r="C21" s="3">
+        <v>140940.18</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3">
+        <v>69569.56</v>
+      </c>
+      <c r="G21" s="6">
+        <f>142</f>
+        <v>142</v>
+      </c>
+      <c r="H21" s="6">
+        <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
+        <v>3098</v>
+      </c>
+      <c r="I21" s="6">
+        <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
+        <v>82208.52</v>
+      </c>
+      <c r="J21" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
+        <v>30.41</v>
+      </c>
+      <c r="K21" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
+        <v>22.6</v>
+      </c>
+      <c r="L21" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
+        <v>57.13</v>
+      </c>
+      <c r="M21" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N21" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O21" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>125.91000000000003</v>
+      </c>
+      <c r="P21" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
+        <v>60.83</v>
+      </c>
+      <c r="Q21" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
+        <v>45.21</v>
+      </c>
+      <c r="R21" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
+        <v>114.26</v>
+      </c>
+      <c r="S21" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T21" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U21" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>236.07000000000002</v>
+      </c>
+      <c r="V21" s="6">
+        <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
+        <v>69569.558999999994</v>
+      </c>
+      <c r="W21" s="14">
+        <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
+        <v>68114.5</v>
+      </c>
+      <c r="X21" s="4">
+        <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
+        <v>0.82855767261106261</v>
+      </c>
+      <c r="Y21" s="15">
+        <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
+        <v>0.5</v>
+      </c>
+      <c r="Z21" s="6">
+        <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
+        <v>34784.78</v>
+      </c>
+      <c r="AA21" s="6">
+        <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
+        <v>34784.78</v>
+      </c>
+      <c r="AB21" s="6">
+        <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
+        <v>175724.96</v>
+      </c>
+      <c r="AC21" s="6">
+        <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
+        <v>292718.26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5">
+        <v>41609</v>
+      </c>
+      <c r="C22" s="3">
+        <v>175724.96</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3">
+        <v>99137.97</v>
+      </c>
+      <c r="G22" s="6">
+        <f>142</f>
+        <v>142</v>
+      </c>
+      <c r="H22" s="6">
+        <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
+        <v>3240</v>
+      </c>
+      <c r="I22" s="6">
+        <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
+        <v>117135.3</v>
+      </c>
+      <c r="J22" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
+        <v>43.34</v>
+      </c>
+      <c r="K22" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
+        <v>32.21</v>
+      </c>
+      <c r="L22" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
+        <v>81.400000000000006</v>
+      </c>
+      <c r="M22" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N22" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O22" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>172.72000000000003</v>
+      </c>
+      <c r="P22" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
+        <v>86.68</v>
+      </c>
+      <c r="Q22" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
+        <v>64.42</v>
+      </c>
+      <c r="R22" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
+        <v>162.81</v>
+      </c>
+      <c r="S22" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T22" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U22" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>329.68</v>
+      </c>
+      <c r="V22" s="6">
+        <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
+        <v>99137.965000000011</v>
+      </c>
+      <c r="W22" s="14">
+        <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
+        <v>99562.8</v>
+      </c>
+      <c r="X22" s="4">
+        <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
+        <v>0.84998117561486586</v>
+      </c>
+      <c r="Y22" s="15">
+        <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z22" s="6">
+        <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
+        <v>79310.38</v>
+      </c>
+      <c r="AA22" s="6">
+        <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
+        <v>19827.589999999997</v>
+      </c>
+      <c r="AB22" s="6">
+        <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
+        <v>255035.34</v>
+      </c>
+      <c r="AC22" s="6">
+        <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
+        <v>391998.23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5">
+        <v>41640</v>
+      </c>
+      <c r="C23" s="3">
+        <v>255035.34</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3">
+        <v>116043.9</v>
+      </c>
+      <c r="G23" s="6">
+        <f>142</f>
+        <v>142</v>
+      </c>
+      <c r="H23" s="6">
+        <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
+        <v>3382</v>
+      </c>
+      <c r="I23" s="6">
+        <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
+        <v>137104.89000000001</v>
+      </c>
+      <c r="J23" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
+        <v>50.72</v>
+      </c>
+      <c r="K23" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="L23" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
+        <v>95.28</v>
+      </c>
+      <c r="M23" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N23" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O23" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>199.47</v>
+      </c>
+      <c r="P23" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
+        <v>101.45</v>
+      </c>
+      <c r="Q23" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
+        <v>75.400000000000006</v>
+      </c>
+      <c r="R23" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
+        <v>190.57</v>
+      </c>
+      <c r="S23" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T23" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U23" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>383.19</v>
+      </c>
+      <c r="V23" s="6">
+        <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
+        <v>116043.8955</v>
+      </c>
+      <c r="W23" s="14">
+        <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
+        <v>111601.36000000002</v>
+      </c>
+      <c r="X23" s="4">
+        <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
+        <v>0.81398526339943089</v>
+      </c>
+      <c r="Y23" s="15">
+        <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
+        <v>0.5</v>
+      </c>
+      <c r="Z23" s="6">
+        <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
+        <v>58021.95</v>
+      </c>
+      <c r="AA23" s="6">
+        <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
+        <v>58021.95</v>
+      </c>
+      <c r="AB23" s="6">
+        <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
+        <v>313057.28999999998</v>
+      </c>
+      <c r="AC23" s="6">
+        <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
+        <v>508184.13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5">
+        <v>41671</v>
+      </c>
+      <c r="C24" s="3">
+        <v>313057.28999999998</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3">
+        <v>165284.51</v>
+      </c>
+      <c r="G24" s="6">
+        <f>142</f>
+        <v>142</v>
+      </c>
+      <c r="H24" s="6">
+        <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
+        <v>3524</v>
+      </c>
+      <c r="I24" s="6">
+        <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
+        <v>195268.84000000003</v>
+      </c>
+      <c r="J24" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
+        <v>72.239999999999995</v>
+      </c>
+      <c r="K24" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
+        <v>53.69</v>
+      </c>
+      <c r="L24" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
+        <v>135.71</v>
+      </c>
+      <c r="M24" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N24" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O24" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>277.40999999999997</v>
+      </c>
+      <c r="P24" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
+        <v>144.49</v>
+      </c>
+      <c r="Q24" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
+        <v>107.39</v>
+      </c>
+      <c r="R24" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
+        <v>271.42</v>
+      </c>
+      <c r="S24" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T24" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U24" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>539.06999999999994</v>
+      </c>
+      <c r="V24" s="6">
+        <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
+        <v>165284.50600000002</v>
+      </c>
+      <c r="W24" s="14">
+        <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
+        <v>163963.11000000002</v>
+      </c>
+      <c r="X24" s="4">
+        <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
+        <v>0.83967882433264818</v>
+      </c>
+      <c r="Y24" s="15">
+        <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z24" s="6">
+        <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
+        <v>132227.60999999999</v>
+      </c>
+      <c r="AA24" s="6">
+        <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
+        <v>33056.900000000023</v>
+      </c>
+      <c r="AB24" s="6">
+        <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
+        <v>445284.89999999997</v>
+      </c>
+      <c r="AC24" s="6">
+        <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
+        <v>673610.64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5">
+        <v>41699</v>
+      </c>
+      <c r="C25" s="3">
+        <v>445284.9</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3">
+        <v>193390.12</v>
+      </c>
+      <c r="G25" s="6">
+        <f>142</f>
+        <v>142</v>
+      </c>
+      <c r="H25" s="6">
+        <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
+        <v>3666</v>
+      </c>
+      <c r="I25" s="6">
+        <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
+        <v>228467.74000000005</v>
+      </c>
+      <c r="J25" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
+        <v>84.53</v>
+      </c>
+      <c r="K25" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
+        <v>62.82</v>
+      </c>
+      <c r="L25" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
+        <v>158.78</v>
+      </c>
+      <c r="M25" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N25" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O25" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>321.89999999999998</v>
+      </c>
+      <c r="P25" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
+        <v>169.06</v>
+      </c>
+      <c r="Q25" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
+        <v>125.65</v>
+      </c>
+      <c r="R25" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
+        <v>317.57</v>
+      </c>
+      <c r="S25" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T25" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U25" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>628.04999999999995</v>
+      </c>
+      <c r="V25" s="6">
+        <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
+        <v>193390.12150000004</v>
+      </c>
+      <c r="W25" s="14">
+        <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
+        <v>183939.25000000006</v>
+      </c>
+      <c r="X25" s="4">
+        <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
+        <v>0.80509944204814221</v>
+      </c>
+      <c r="Y25" s="15">
+        <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
+        <v>0.5</v>
+      </c>
+      <c r="Z25" s="6">
+        <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
+        <v>96695.06</v>
+      </c>
+      <c r="AA25" s="6">
+        <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
+        <v>96695.06</v>
+      </c>
+      <c r="AB25" s="6">
+        <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
+        <v>541979.96</v>
+      </c>
+      <c r="AC25" s="6">
+        <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
+        <v>867142.76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5">
+        <v>41730</v>
+      </c>
+      <c r="C26" s="3">
+        <v>541979.96</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3">
+        <v>275370.73</v>
+      </c>
+      <c r="G26" s="6">
+        <f>142</f>
+        <v>142</v>
+      </c>
+      <c r="H26" s="6">
+        <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
+        <v>3808</v>
+      </c>
+      <c r="I26" s="6">
+        <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
+        <v>325304.80000000005</v>
+      </c>
+      <c r="J26" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
+        <v>120.36</v>
+      </c>
+      <c r="K26" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
+        <v>89.45</v>
+      </c>
+      <c r="L26" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
+        <v>226.08</v>
+      </c>
+      <c r="M26" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N26" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O26" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>451.65999999999997</v>
+      </c>
+      <c r="P26" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
+        <v>240.72</v>
+      </c>
+      <c r="Q26" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
+        <v>178.91</v>
+      </c>
+      <c r="R26" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
+        <v>452.17</v>
+      </c>
+      <c r="S26" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T26" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U26" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>887.56999999999994</v>
+      </c>
+      <c r="V26" s="6">
+        <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
+        <v>275370.73450000008</v>
+      </c>
+      <c r="W26" s="14">
+        <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
+        <v>271106.80000000005</v>
+      </c>
+      <c r="X26" s="4">
+        <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
+        <v>0.83339317464728468</v>
+      </c>
+      <c r="Y26" s="15">
+        <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z26" s="6">
+        <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
+        <v>220296.58</v>
+      </c>
+      <c r="AA26" s="6">
+        <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
+        <v>55074.149999999994</v>
+      </c>
+      <c r="AB26" s="6">
+        <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
+        <v>762276.53999999992</v>
+      </c>
+      <c r="AC26" s="6">
+        <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
+        <v>1142655.49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5">
+        <v>41760</v>
+      </c>
+      <c r="C27" s="3">
+        <v>762276.54</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3">
+        <v>322115.78000000003</v>
+      </c>
+      <c r="G27" s="6">
+        <f>142</f>
+        <v>142</v>
+      </c>
+      <c r="H27" s="6">
+        <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
+        <v>3950</v>
+      </c>
+      <c r="I27" s="6">
+        <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
+        <v>380520.95000000007</v>
+      </c>
+      <c r="J27" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
+        <v>140.79</v>
+      </c>
+      <c r="K27" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
+        <v>104.64</v>
+      </c>
+      <c r="L27" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
+        <v>264.45999999999998</v>
+      </c>
+      <c r="M27" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N27" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O27" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>525.66</v>
+      </c>
+      <c r="P27" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
+        <v>281.58</v>
+      </c>
+      <c r="Q27" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
+        <v>209.28</v>
+      </c>
+      <c r="R27" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
+        <v>528.91999999999996</v>
+      </c>
+      <c r="S27" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T27" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U27" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>1035.55</v>
+      </c>
+      <c r="V27" s="6">
+        <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
+        <v>322115.77900000004</v>
+      </c>
+      <c r="W27" s="14">
+        <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
+        <v>304293.30000000005</v>
+      </c>
+      <c r="X27" s="4">
+        <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
+        <v>0.79967555005841329</v>
+      </c>
+      <c r="Y27" s="15">
+        <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
+        <v>0.5</v>
+      </c>
+      <c r="Z27" s="6">
+        <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
+        <v>161057.89000000001</v>
+      </c>
+      <c r="AA27" s="6">
+        <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
+        <v>161057.89000000001</v>
+      </c>
+      <c r="AB27" s="6">
+        <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
+        <v>923334.43</v>
+      </c>
+      <c r="AC27" s="6">
+        <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
+        <v>1464913.27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5">
+        <v>41791</v>
+      </c>
+      <c r="C28" s="3">
+        <v>923334.43</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3">
+        <v>458584.87</v>
+      </c>
+      <c r="G28" s="6">
+        <f>142</f>
+        <v>142</v>
+      </c>
+      <c r="H28" s="6">
+        <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
+        <v>4092</v>
+      </c>
+      <c r="I28" s="6">
+        <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
+        <v>541720.84000000008</v>
+      </c>
+      <c r="J28" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
+        <v>200.43</v>
+      </c>
+      <c r="K28" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
+        <v>148.97</v>
+      </c>
+      <c r="L28" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
+        <v>376.49</v>
+      </c>
+      <c r="M28" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N28" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O28" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>741.66</v>
+      </c>
+      <c r="P28" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
+        <v>400.87</v>
+      </c>
+      <c r="Q28" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
+        <v>297.94</v>
+      </c>
+      <c r="R28" s="6">
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
+        <v>752.99</v>
+      </c>
+      <c r="S28" s="6">
+        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T28" s="6">
+        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U28" s="6">
+        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>1467.57</v>
+      </c>
+      <c r="V28" s="6">
+        <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
+        <v>458584.86849999998</v>
+      </c>
+      <c r="W28" s="14">
+        <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
+        <v>449387.40000000008</v>
+      </c>
+      <c r="X28" s="4">
+        <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
+        <v>0.82955531118204717</v>
+      </c>
+      <c r="Y28" s="15">
+        <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
+        <v>0.5</v>
+      </c>
+      <c r="Z28" s="6">
+        <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
+        <v>229292.44</v>
+      </c>
+      <c r="AA28" s="6">
+        <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
+        <v>229292.43</v>
+      </c>
+      <c r="AB28" s="6">
+        <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
+        <v>1152626.8700000001</v>
+      </c>
+      <c r="AC28" s="6">
+        <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
+        <v>1923640.1400000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1751,7 +4817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan2"/>
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -1759,7 +4825,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -1771,7 +4837,7 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
@@ -1792,7 +4858,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -1815,7 +4881,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>3.6999999999999999E-4</v>
       </c>
@@ -1857,13 +4923,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/stocks/gama.xlsx
+++ b/stocks/gama.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="19320" windowHeight="7425"/>
+    <workbookView xWindow="240" yWindow="210" windowWidth="19320" windowHeight="7305"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
+    <sheet name="VOLATILIDADE" sheetId="1" r:id="rId1"/>
+    <sheet name="TRAVA" sheetId="3" r:id="rId2"/>
+    <sheet name="TENDENCIA" sheetId="4" r:id="rId3"/>
+    <sheet name="SETUP" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="38">
   <si>
     <t>APORTE</t>
   </si>
@@ -251,22 +252,22 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="177">
     <dxf>
       <font>
         <b val="0"/>
@@ -319,6 +320,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -337,6 +356,23 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -351,24 +387,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -386,6 +405,615 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
         <color rgb="FFFF0000"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -404,6 +1032,24 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -426,6 +1072,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -444,6 +1108,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -462,6 +1144,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -480,6 +1180,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -498,6 +1216,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -516,6 +1252,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -534,6 +1288,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -552,6 +1324,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -570,6 +1360,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -588,6 +1396,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -606,6 +1432,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -624,6 +1468,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -642,6 +1504,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -660,6 +1540,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -678,6 +1576,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -696,6 +1612,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -714,6 +1648,23 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -732,6 +1683,23 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -750,6 +1718,23 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -772,6 +1757,1128 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1331,83 +3438,251 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AC29" totalsRowCount="1" headerRowDxfId="58">
-  <autoFilter ref="A1:AC28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AC26" totalsRowCount="1" headerRowDxfId="176">
+  <autoFilter ref="A1:AC25"/>
   <tableColumns count="29">
-    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="57" totalsRowDxfId="28"/>
-    <tableColumn id="2" name="DATA" dataDxfId="56" totalsRowDxfId="27"/>
-    <tableColumn id="12" name="RENDA FIXA" dataDxfId="55" totalsRowDxfId="26" dataCellStyle="Moeda"/>
-    <tableColumn id="26" name="APORTE RF" dataDxfId="54" totalsRowDxfId="25" dataCellStyle="Moeda"/>
-    <tableColumn id="9" name="SAQUE" dataDxfId="53" totalsRowDxfId="24" dataCellStyle="Moeda"/>
-    <tableColumn id="5" name="LUCRO" dataDxfId="52" totalsRowDxfId="23" dataCellStyle="Moeda"/>
-    <tableColumn id="3" name="APORTE" dataDxfId="51" totalsRowDxfId="22" dataCellStyle="Moeda">
+    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="175" totalsRowDxfId="28"/>
+    <tableColumn id="2" name="DATA" dataDxfId="174" totalsRowDxfId="27"/>
+    <tableColumn id="12" name="RENDA FIXA" dataDxfId="173" totalsRowDxfId="26" dataCellStyle="Moeda"/>
+    <tableColumn id="26" name="APORTE RF" dataDxfId="172" totalsRowDxfId="25" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="SAQUE" dataDxfId="171" totalsRowDxfId="24" dataCellStyle="Moeda"/>
+    <tableColumn id="5" name="LUCRO" dataDxfId="170" totalsRowDxfId="23" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="APORTE" totalsRowFunction="sum" dataDxfId="169" totalsRowDxfId="22" dataCellStyle="Moeda">
       <calculatedColumnFormula>380</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="MONTANTE" dataDxfId="50" totalsRowDxfId="21" dataCellStyle="Moeda">
+    <tableColumn id="4" name="MONTANTE" dataDxfId="168" totalsRowDxfId="21" dataCellStyle="Moeda">
       <calculatedColumnFormula>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="49" totalsRowDxfId="20" dataCellStyle="Moeda">
+    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="167" totalsRowDxfId="20" dataCellStyle="Moeda">
       <calculatedColumnFormula>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EMOL CP" dataDxfId="48" totalsRowDxfId="19" dataCellStyle="Moeda">
-      <calculatedColumnFormula>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</calculatedColumnFormula>
+    <tableColumn id="11" name="EMOL CP" dataDxfId="166" totalsRowDxfId="19" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="LIQD CP" dataDxfId="47" totalsRowDxfId="18" dataCellStyle="Moeda">
-      <calculatedColumnFormula>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</calculatedColumnFormula>
+    <tableColumn id="13" name="LIQD CP" dataDxfId="165" totalsRowDxfId="18" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="REG CP" dataDxfId="46" totalsRowDxfId="17" dataCellStyle="Moeda">
-      <calculatedColumnFormula>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</calculatedColumnFormula>
+    <tableColumn id="14" name="REG CP" dataDxfId="164" totalsRowDxfId="17" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="ISS CP" dataDxfId="45" totalsRowDxfId="16" dataCellStyle="Moeda">
-      <calculatedColumnFormula>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</calculatedColumnFormula>
+    <tableColumn id="16" name="ISS CP" dataDxfId="163" totalsRowDxfId="16" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="OUTRAS CP" dataDxfId="44" totalsRowDxfId="15" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</calculatedColumnFormula>
+    <tableColumn id="19" name="OUTRAS CP" dataDxfId="162" totalsRowDxfId="15" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="TAXA CP" dataDxfId="43" totalsRowDxfId="14" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</calculatedColumnFormula>
+    <tableColumn id="18" name="TAXA CP" dataDxfId="161" totalsRowDxfId="14" dataCellStyle="Moeda">
+      <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="EMOL VD" dataDxfId="42" totalsRowDxfId="13" dataCellStyle="Moeda">
-      <calculatedColumnFormula>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</calculatedColumnFormula>
+    <tableColumn id="25" name="EMOL VD" dataDxfId="160" totalsRowDxfId="13" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="LIQD VD" dataDxfId="41" totalsRowDxfId="12" dataCellStyle="Moeda">
-      <calculatedColumnFormula>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</calculatedColumnFormula>
+    <tableColumn id="24" name="LIQD VD" dataDxfId="159" totalsRowDxfId="12" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="REG VD" dataDxfId="40" totalsRowDxfId="11" dataCellStyle="Moeda">
-      <calculatedColumnFormula>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</calculatedColumnFormula>
+    <tableColumn id="23" name="REG VD" dataDxfId="158" totalsRowDxfId="11" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="ISS VD" dataDxfId="39" totalsRowDxfId="10" dataCellStyle="Moeda">
-      <calculatedColumnFormula>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</calculatedColumnFormula>
+    <tableColumn id="22" name="ISS VD" dataDxfId="157" totalsRowDxfId="10" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="OUTRAS VD" dataDxfId="38" totalsRowDxfId="9" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</calculatedColumnFormula>
+    <tableColumn id="21" name="OUTRAS VD" dataDxfId="156" totalsRowDxfId="9" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="TAXA VD" dataDxfId="37" totalsRowDxfId="8" dataCellStyle="Moeda">
-      <calculatedColumnFormula>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</calculatedColumnFormula>
+    <tableColumn id="20" name="TAXA VD" dataDxfId="155" totalsRowDxfId="8" dataCellStyle="Moeda">
+      <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="PREV LUCRO" dataDxfId="36" totalsRowDxfId="7" dataCellStyle="Moeda">
+    <tableColumn id="17" name="PREV LUCRO" dataDxfId="154" totalsRowDxfId="7" dataCellStyle="Moeda">
       <calculatedColumnFormula>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="PERDA MAX" dataDxfId="35" totalsRowDxfId="6" dataCellStyle="Moeda">
+    <tableColumn id="28" name="PERDA MAX" dataDxfId="153" totalsRowDxfId="6" dataCellStyle="Moeda">
       <calculatedColumnFormula>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="% PERDA" dataDxfId="34" totalsRowDxfId="5" dataCellStyle="Porcentagem">
+    <tableColumn id="29" name="% PERDA" dataDxfId="152" totalsRowDxfId="5" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="NO BOLSO" dataDxfId="33" totalsRowDxfId="4">
+    <tableColumn id="6" name="NO BOLSO" dataDxfId="151" totalsRowDxfId="4">
       <calculatedColumnFormula>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="32" totalsRowDxfId="3" dataCellStyle="Moeda">
+    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="150" totalsRowDxfId="3" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="REINVESTIR" dataDxfId="31" totalsRowDxfId="2" dataCellStyle="Moeda">
+    <tableColumn id="8" name="REINVESTIR" totalsRowFunction="sum" dataDxfId="149" totalsRowDxfId="2" dataCellStyle="Moeda">
       <calculatedColumnFormula>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="TOT RF" dataDxfId="30" totalsRowDxfId="1" dataCellStyle="Moeda">
+    <tableColumn id="15" name="TOT RF" dataDxfId="148" totalsRowDxfId="1" dataCellStyle="Moeda">
       <calculatedColumnFormula>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="29" totalsRowDxfId="0" dataCellStyle="Moeda">
+    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="147" totalsRowDxfId="0" dataCellStyle="Moeda">
       <calculatedColumnFormula>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:AC4" totalsRowCount="1" headerRowDxfId="146">
+  <autoFilter ref="A1:AC3"/>
+  <tableColumns count="29">
+    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="145" totalsRowDxfId="144"/>
+    <tableColumn id="2" name="DATA" dataDxfId="143" totalsRowDxfId="142"/>
+    <tableColumn id="12" name="RENDA FIXA" dataDxfId="141" totalsRowDxfId="140" dataCellStyle="Moeda"/>
+    <tableColumn id="26" name="APORTE RF" dataDxfId="139" totalsRowDxfId="138" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="SAQUE" dataDxfId="137" totalsRowDxfId="136" dataCellStyle="Moeda"/>
+    <tableColumn id="5" name="LUCRO" dataDxfId="135" totalsRowDxfId="134" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="APORTE" dataDxfId="133" totalsRowDxfId="132" dataCellStyle="Moeda">
+      <calculatedColumnFormula>100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="MONTANTE" dataDxfId="131" totalsRowDxfId="130" dataCellStyle="Moeda">
+      <calculatedColumnFormula>SUMPRODUCT(N(Tabela13[TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), Tabela13[APORTE]) + SUMPRODUCT(N(Tabela13[TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), Tabela13[APORTE RF])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="129" totalsRowDxfId="128" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela13[MONTANTE] - SUMPRODUCT(N(Tabela13[TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), Tabela13[SAQUE]) + SUMPRODUCT(N(Tabela13[TRADE] &lt; Tabela13[[#This Row],[TRADE]]), Tabela13[REINVESTIR])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" name="EMOL CP" dataDxfId="127" totalsRowDxfId="126" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC(Tabela13[APLICAÇÃO]  * SETUP!$A$3, 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" name="LIQD CP" dataDxfId="125" totalsRowDxfId="124" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC(Tabela13[APLICAÇÃO]  * SETUP!$B$3, 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name="REG CP" dataDxfId="123" totalsRowDxfId="122" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC(Tabela13[APLICAÇÃO]  * SETUP!$C$3, 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" name="ISS CP" dataDxfId="121" totalsRowDxfId="120" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" name="OUTRAS CP" dataDxfId="119" totalsRowDxfId="118" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="TAXA CP" dataDxfId="117" totalsRowDxfId="116" dataCellStyle="Moeda">
+      <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL CP]]:Tabela13[[#This Row],[OUTRAS CP]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="25" name="EMOL VD" dataDxfId="115" totalsRowDxfId="114" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC(Tabela13[APLICAÇÃO] * 2  * SETUP!$A$3, 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="24" name="LIQD VD" dataDxfId="113" totalsRowDxfId="112" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC(Tabela13[APLICAÇÃO] * 2  * SETUP!$B$3, 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="23" name="REG VD" dataDxfId="111" totalsRowDxfId="110" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC(Tabela13[APLICAÇÃO] * 2  * SETUP!$C$3, 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" name="ISS VD" dataDxfId="109" totalsRowDxfId="108" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" name="OUTRAS VD" dataDxfId="107" totalsRowDxfId="106" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" name="TAXA VD" dataDxfId="105" totalsRowDxfId="104" dataCellStyle="Moeda">
+      <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL VD]]:Tabela13[[#This Row],[OUTRAS VD]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" name="PREV LUCRO" dataDxfId="103" totalsRowDxfId="102" dataCellStyle="Moeda">
+      <calculatedColumnFormula>(((Tabela13[APLICAÇÃO] * 2) - Tabela13[TAXA VD]) - (Tabela13[APLICAÇÃO] + Tabela13[TAXA CP])) * 0.85</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="28" name="PERDA MAX" dataDxfId="101" totalsRowDxfId="100" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela13[APLICAÇÃO] - (ROUND(Tabela13[RENDA FIXA] * 0.1,2))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="29" name="% PERDA" dataDxfId="99" totalsRowDxfId="98" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="NO BOLSO" dataDxfId="97" totalsRowDxfId="96">
+      <calculatedColumnFormula>IF(Tabela13[LUCRO] &lt; (Tabela13[RENDA FIXA]/2), 0.5, 0.8)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="95" totalsRowDxfId="94" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(Tabela13[LUCRO] &lt; 0, 0, ROUND(Tabela13[LUCRO]*Tabela13[NO BOLSO], 2))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="REINVESTIR" dataDxfId="93" totalsRowDxfId="92" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela13[LUCRO]-Tabela13[PROTEÇÃO MÊS]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" name="TOT RF" dataDxfId="91" totalsRowDxfId="90" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela13[RENDA FIXA] + Tabela13[PROTEÇÃO MÊS] - Tabela13[APORTE RF]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="89" totalsRowDxfId="88" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela13[TOT RF] + Tabela13[REINVESTIR] + Tabela13[APLICAÇÃO]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela134" displayName="Tabela134" ref="A1:AC5" totalsRowCount="1" headerRowDxfId="87">
+  <autoFilter ref="A1:AC4"/>
+  <tableColumns count="29">
+    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="86" totalsRowDxfId="85"/>
+    <tableColumn id="2" name="DATA" dataDxfId="84" totalsRowDxfId="83"/>
+    <tableColumn id="12" name="RENDA FIXA" dataDxfId="82" totalsRowDxfId="81" dataCellStyle="Moeda"/>
+    <tableColumn id="26" name="APORTE RF" dataDxfId="80" totalsRowDxfId="79" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="SAQUE" dataDxfId="78" totalsRowDxfId="77" dataCellStyle="Moeda"/>
+    <tableColumn id="5" name="LUCRO" dataDxfId="76" totalsRowDxfId="75" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="APORTE" dataDxfId="74" totalsRowDxfId="73" dataCellStyle="Moeda">
+      <calculatedColumnFormula>100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="MONTANTE" dataDxfId="72" totalsRowDxfId="71" dataCellStyle="Moeda">
+      <calculatedColumnFormula>SUMPRODUCT(N(Tabela134[TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), Tabela134[APORTE]) + SUMPRODUCT(N(Tabela134[TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), Tabela134[APORTE RF])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="70" totalsRowDxfId="69" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela134[MONTANTE] - SUMPRODUCT(N(Tabela134[TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), Tabela134[SAQUE]) + SUMPRODUCT(N(Tabela134[TRADE] &lt; Tabela134[[#This Row],[TRADE]]), Tabela134[REINVESTIR])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" name="EMOL CP" dataDxfId="68" totalsRowDxfId="67" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC(Tabela134[APLICAÇÃO]  * SETUP!$A$3, 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" name="LIQD CP" dataDxfId="66" totalsRowDxfId="65" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC(Tabela134[APLICAÇÃO]  * SETUP!$B$3, 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name="REG CP" dataDxfId="64" totalsRowDxfId="63" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC(Tabela134[APLICAÇÃO]  * SETUP!$C$3, 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" name="ISS CP" dataDxfId="62" totalsRowDxfId="61" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" name="OUTRAS CP" dataDxfId="60" totalsRowDxfId="59" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="TAXA CP" dataDxfId="58" totalsRowDxfId="57" dataCellStyle="Moeda">
+      <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela134[[#This Row],[EMOL CP]]:Tabela134[[#This Row],[OUTRAS CP]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="25" name="EMOL VD" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC(Tabela134[APLICAÇÃO] * 2  * SETUP!$A$3, 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="24" name="LIQD VD" dataDxfId="54" totalsRowDxfId="53" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC(Tabela134[APLICAÇÃO] * 2  * SETUP!$B$3, 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="23" name="REG VD" dataDxfId="52" totalsRowDxfId="51" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC(Tabela134[APLICAÇÃO] * 2  * SETUP!$C$3, 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" name="ISS VD" dataDxfId="50" totalsRowDxfId="49" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" name="OUTRAS VD" dataDxfId="48" totalsRowDxfId="47" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" name="TAXA VD" dataDxfId="46" totalsRowDxfId="45" dataCellStyle="Moeda">
+      <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela134[[#This Row],[EMOL VD]]:Tabela134[[#This Row],[OUTRAS VD]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" name="PREV LUCRO" dataDxfId="44" totalsRowDxfId="43" dataCellStyle="Moeda">
+      <calculatedColumnFormula>(((Tabela134[APLICAÇÃO] * 2) - Tabela134[TAXA VD]) - (Tabela134[APLICAÇÃO] + Tabela134[TAXA CP])) * 0.85</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="28" name="PERDA MAX" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela134[APLICAÇÃO] - (ROUND(Tabela134[RENDA FIXA] * 0.1,2))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="29" name="% PERDA" dataDxfId="40" totalsRowDxfId="39" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>Tabela134[[#This Row],[PERDA MAX]]/Tabela134[[#This Row],[APLICAÇÃO]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="NO BOLSO" dataDxfId="38" totalsRowDxfId="37">
+      <calculatedColumnFormula>IF(Tabela134[LUCRO] &lt; (Tabela134[RENDA FIXA]/2), 0.5, 0.8)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="36" totalsRowDxfId="35" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(Tabela134[LUCRO] &lt; 0, 0, ROUND(Tabela134[LUCRO]*Tabela134[NO BOLSO], 2))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="REINVESTIR" dataDxfId="34" totalsRowDxfId="33" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela134[LUCRO]-Tabela134[PROTEÇÃO MÊS]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" name="TOT RF" dataDxfId="32" totalsRowDxfId="31" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela134[RENDA FIXA] + Tabela134[PROTEÇÃO MÊS] - Tabela134[APORTE RF]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="30" totalsRowDxfId="29" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela134[TOT RF] + Tabela134[REINVESTIR] + Tabela134[APLICAÇÃO]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1702,10 +3977,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan1"/>
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AC26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC26" sqref="AC26"/>
+      <selection activeCell="AC25" sqref="AC25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1842,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="3">
-        <v>366.15</v>
+        <v>366.88</v>
       </c>
       <c r="G2" s="3">
         <f>400</f>
@@ -1857,51 +4132,51 @@
         <v>400</v>
       </c>
       <c r="J2" s="3">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$A$3, 2)</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="K2" s="3">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$B$3, 2)</f>
         <v>0.11</v>
       </c>
       <c r="L2" s="3">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$C$3, 2)</f>
         <v>0.27</v>
       </c>
       <c r="M2" s="3">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="N2" s="3">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="O2" s="3">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
         <v>16.29</v>
       </c>
       <c r="P2" s="3">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="Q2" s="3">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
         <v>0.22</v>
       </c>
       <c r="R2" s="3">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="S2" s="3">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="T2" s="3">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="U2" s="3">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
         <v>16.830000000000002</v>
       </c>
       <c r="V2" s="3">
@@ -1922,19 +4197,19 @@
       </c>
       <c r="Z2" s="3">
         <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
-        <v>292.92</v>
+        <v>293.5</v>
       </c>
       <c r="AA2" s="3">
         <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
-        <v>73.229999999999961</v>
+        <v>73.38</v>
       </c>
       <c r="AB2" s="3">
         <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
-        <v>292.92</v>
+        <v>293.5</v>
       </c>
       <c r="AC2" s="6">
-        <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
-        <v>766.15</v>
+        <f>Tabela1[TOT RF] + Tabela1[REINVESTIR]</f>
+        <v>366.88</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
@@ -1945,7 +4220,7 @@
         <v>41030</v>
       </c>
       <c r="C3" s="3">
-        <v>292.92</v>
+        <v>293.5</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
@@ -1954,79 +4229,79 @@
         <v>0</v>
       </c>
       <c r="F3" s="3">
-        <v>494.07</v>
+        <v>712.6</v>
       </c>
       <c r="G3" s="3">
-        <f>142</f>
-        <v>142</v>
+        <f>400</f>
+        <v>400</v>
       </c>
       <c r="H3" s="3">
         <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
-        <v>542</v>
+        <v>800</v>
       </c>
       <c r="I3" s="3">
         <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
-        <v>615.23</v>
+        <v>873.38</v>
       </c>
       <c r="J3" s="3">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
-        <v>0.22</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>0.32</v>
       </c>
       <c r="K3" s="3">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
-        <v>0.16</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>0.24</v>
       </c>
       <c r="L3" s="3">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
-        <v>0.42</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>0.6</v>
       </c>
       <c r="M3" s="3">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="N3" s="3">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="O3" s="3">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>16.57</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>16.93</v>
       </c>
       <c r="P3" s="3">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
-        <v>0.45</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>0.64</v>
       </c>
       <c r="Q3" s="3">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
-        <v>0.33</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>0.48</v>
       </c>
       <c r="R3" s="3">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
-        <v>0.85</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>1.21</v>
       </c>
       <c r="S3" s="3">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="T3" s="3">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="U3" s="3">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>17.399999999999999</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>18.100000000000001</v>
       </c>
       <c r="V3" s="3">
         <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
-        <v>494.07099999999986</v>
+        <v>712.59750000000008</v>
       </c>
       <c r="W3" s="11">
         <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
-        <v>585.94000000000005</v>
+        <v>844.03</v>
       </c>
       <c r="X3" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.9523917884368448</v>
+        <v>0.96639492546199823</v>
       </c>
       <c r="Y3" s="4">
         <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
@@ -2034,19 +4309,19 @@
       </c>
       <c r="Z3" s="3">
         <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
-        <v>395.26</v>
+        <v>570.08000000000004</v>
       </c>
       <c r="AA3" s="3">
         <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
-        <v>98.81</v>
+        <v>142.51999999999998</v>
       </c>
       <c r="AB3" s="3">
         <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
-        <v>688.18000000000006</v>
+        <v>863.58</v>
       </c>
       <c r="AC3" s="6">
         <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
-        <v>1402.22</v>
+        <v>1879.48</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
@@ -2057,108 +4332,104 @@
         <v>41061</v>
       </c>
       <c r="C4" s="3">
-        <v>688.18</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
+        <v>863.58</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="3">
-        <v>697.93</v>
+        <v>1171.9000000000001</v>
       </c>
       <c r="G4" s="6">
-        <f>142</f>
-        <v>142</v>
+        <f>400</f>
+        <v>400</v>
       </c>
       <c r="H4" s="6">
         <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
-        <v>684</v>
+        <v>1200</v>
       </c>
       <c r="I4" s="6">
         <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
-        <v>856.04</v>
+        <v>1415.9</v>
       </c>
       <c r="J4" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
-        <v>0.31</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>0.52</v>
       </c>
       <c r="K4" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
-        <v>0.23</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>0.38</v>
       </c>
       <c r="L4" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
-        <v>0.59</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>0.98</v>
       </c>
       <c r="M4" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="N4" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="O4" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>16.899999999999999</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>17.649999999999999</v>
       </c>
       <c r="P4" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
-        <v>0.63</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>1.04</v>
       </c>
       <c r="Q4" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
-        <v>0.47</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>0.77</v>
       </c>
       <c r="R4" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
-        <v>1.18</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>1.96</v>
       </c>
       <c r="S4" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="T4" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="U4" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>18.05</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>19.54</v>
       </c>
       <c r="V4" s="6">
         <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
-        <v>697.92650000000003</v>
+        <v>1171.9034999999999</v>
       </c>
       <c r="W4" s="14">
         <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
-        <v>787.22</v>
+        <v>1329.5400000000002</v>
       </c>
       <c r="X4" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.91960656044110101</v>
-      </c>
-      <c r="Y4" s="15">
+        <v>0.93900699201921045</v>
+      </c>
+      <c r="Y4" s="4">
         <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
         <v>0.8</v>
       </c>
       <c r="Z4" s="6">
         <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
-        <v>558.34</v>
-      </c>
-      <c r="AA4" s="3">
+        <v>937.52</v>
+      </c>
+      <c r="AA4" s="6">
         <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
-        <v>139.58999999999992</v>
+        <v>234.38000000000011</v>
       </c>
       <c r="AB4" s="6">
         <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
-        <v>1246.52</v>
+        <v>1801.1</v>
       </c>
       <c r="AC4" s="6">
         <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
-        <v>2242.1499999999996</v>
+        <v>3451.38</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
@@ -2169,108 +4440,104 @@
         <v>41091</v>
       </c>
       <c r="C5" s="3">
-        <v>1246.52</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
+        <v>1801.1</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="3">
-        <v>936.3</v>
+        <v>1708.96</v>
       </c>
       <c r="G5" s="6">
-        <f>142</f>
-        <v>142</v>
+        <f>400</f>
+        <v>400</v>
       </c>
       <c r="H5" s="6">
         <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
-        <v>826</v>
+        <v>1600</v>
       </c>
       <c r="I5" s="6">
         <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
-        <v>1137.6299999999999</v>
+        <v>2050.2800000000002</v>
       </c>
       <c r="J5" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
-        <v>0.42</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>0.75</v>
       </c>
       <c r="K5" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
-        <v>0.31</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L5" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
-        <v>0.79</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>1.42</v>
       </c>
       <c r="M5" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="N5" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="O5" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>17.29</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>18.5</v>
       </c>
       <c r="P5" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
-        <v>0.84</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>1.51</v>
       </c>
       <c r="Q5" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
-        <v>0.62</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>1.1200000000000001</v>
       </c>
       <c r="R5" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
-        <v>1.58</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>2.84</v>
       </c>
       <c r="S5" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="T5" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="U5" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>18.810000000000002</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>21.240000000000002</v>
       </c>
       <c r="V5" s="6">
         <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
-        <v>936.30049999999994</v>
+        <v>1708.9590000000003</v>
       </c>
       <c r="W5" s="14">
         <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
-        <v>1012.9799999999999</v>
+        <v>1870.17</v>
       </c>
       <c r="X5" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.89043010469133199</v>
-      </c>
-      <c r="Y5" s="15">
+        <v>0.91215346196617042</v>
+      </c>
+      <c r="Y5" s="4">
         <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
         <v>0.8</v>
       </c>
       <c r="Z5" s="6">
         <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
-        <v>749.04</v>
-      </c>
-      <c r="AA5" s="3">
+        <v>1367.17</v>
+      </c>
+      <c r="AA5" s="6">
         <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
-        <v>187.26</v>
+        <v>341.78999999999996</v>
       </c>
       <c r="AB5" s="6">
         <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
-        <v>1995.56</v>
+        <v>3168.27</v>
       </c>
       <c r="AC5" s="6">
         <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
-        <v>3320.45</v>
+        <v>5560.34</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
@@ -2281,88 +4548,84 @@
         <v>41122</v>
       </c>
       <c r="C6" s="3">
-        <v>1995.56</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
+        <v>3168.27</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="3">
-        <v>1215.07</v>
+        <v>2366.5700000000002</v>
       </c>
       <c r="G6" s="6">
-        <f>142</f>
-        <v>142</v>
+        <f>435</f>
+        <v>435</v>
       </c>
       <c r="H6" s="6">
         <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
-        <v>968</v>
+        <v>2035</v>
       </c>
       <c r="I6" s="6">
         <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
-        <v>1466.8899999999999</v>
+        <v>2827.07</v>
       </c>
       <c r="J6" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
-        <v>0.54</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>1.04</v>
       </c>
       <c r="K6" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
-        <v>0.4</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>0.77</v>
       </c>
       <c r="L6" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
-        <v>1.01</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>1.96</v>
       </c>
       <c r="M6" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="N6" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="O6" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>17.72</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>19.54</v>
       </c>
       <c r="P6" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
-        <v>1.08</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>2.09</v>
       </c>
       <c r="Q6" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
-        <v>0.8</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>1.55</v>
       </c>
       <c r="R6" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
-        <v>2.0299999999999998</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>3.92</v>
       </c>
       <c r="S6" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="T6" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="U6" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>19.68</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>23.33</v>
       </c>
       <c r="V6" s="6">
         <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
-        <v>1215.0664999999999</v>
+        <v>2366.5700000000002</v>
       </c>
       <c r="W6" s="14">
         <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
-        <v>1267.33</v>
+        <v>2510.2400000000002</v>
       </c>
       <c r="X6" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.86395707926293042</v>
+        <v>0.88792990622800283</v>
       </c>
       <c r="Y6" s="15">
         <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
@@ -2370,19 +4633,19 @@
       </c>
       <c r="Z6" s="6">
         <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
-        <v>972.06</v>
+        <v>1893.26</v>
       </c>
       <c r="AA6" s="6">
         <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
-        <v>243.01</v>
+        <v>473.31000000000017</v>
       </c>
       <c r="AB6" s="6">
         <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
-        <v>2967.62</v>
+        <v>5061.53</v>
       </c>
       <c r="AC6" s="6">
         <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
-        <v>4677.5200000000004</v>
+        <v>8361.91</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
@@ -2393,88 +4656,84 @@
         <v>41153</v>
       </c>
       <c r="C7" s="3">
-        <v>2967.62</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
+        <v>5061.53</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="3">
-        <v>1541.01</v>
+        <v>3135.52</v>
       </c>
       <c r="G7" s="6">
-        <f>142</f>
-        <v>142</v>
+        <f>435</f>
+        <v>435</v>
       </c>
       <c r="H7" s="6">
         <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
-        <v>1110</v>
+        <v>2470</v>
       </c>
       <c r="I7" s="6">
         <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
-        <v>1851.8999999999999</v>
+        <v>3735.38</v>
       </c>
       <c r="J7" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
-        <v>0.68</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>1.38</v>
       </c>
       <c r="K7" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
-        <v>0.5</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>1.02</v>
       </c>
       <c r="L7" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
-        <v>1.28</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>2.59</v>
       </c>
       <c r="M7" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="N7" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="O7" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>18.23</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>20.76</v>
       </c>
       <c r="P7" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
-        <v>1.37</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>2.76</v>
       </c>
       <c r="Q7" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
-        <v>1.01</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>2.0499999999999998</v>
       </c>
       <c r="R7" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
-        <v>2.57</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>5.19</v>
       </c>
       <c r="S7" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="T7" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="U7" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>20.72</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>25.77</v>
       </c>
       <c r="V7" s="6">
         <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
-        <v>1541.0074999999999</v>
+        <v>3135.5224999999996</v>
       </c>
       <c r="W7" s="14">
         <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
-        <v>1555.1399999999999</v>
+        <v>3229.23</v>
       </c>
       <c r="X7" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.83975376640207355</v>
+        <v>0.86449839106061499</v>
       </c>
       <c r="Y7" s="15">
         <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
@@ -2482,19 +4741,19 @@
       </c>
       <c r="Z7" s="6">
         <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
-        <v>1232.81</v>
+        <v>2508.42</v>
       </c>
       <c r="AA7" s="6">
         <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
-        <v>308.20000000000005</v>
+        <v>627.09999999999991</v>
       </c>
       <c r="AB7" s="6">
         <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
-        <v>4200.43</v>
+        <v>7569.95</v>
       </c>
       <c r="AC7" s="6">
         <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
-        <v>6360.53</v>
+        <v>11932.43</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
@@ -2505,108 +4764,104 @@
         <v>41183</v>
       </c>
       <c r="C8" s="3">
-        <v>4200.43</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
+        <v>7569.95</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="3">
-        <v>1922.14</v>
+        <v>4034.69</v>
       </c>
       <c r="G8" s="6">
-        <f>142</f>
-        <v>142</v>
+        <f>435</f>
+        <v>435</v>
       </c>
       <c r="H8" s="6">
         <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
-        <v>1252</v>
+        <v>2905</v>
       </c>
       <c r="I8" s="6">
         <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
-        <v>2302.1</v>
+        <v>4797.4799999999996</v>
       </c>
       <c r="J8" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
-        <v>0.85</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>1.77</v>
       </c>
       <c r="K8" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
-        <v>0.63</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>1.31</v>
       </c>
       <c r="L8" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
-        <v>1.59</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>3.33</v>
       </c>
       <c r="M8" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="N8" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="O8" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>18.84</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>22.18</v>
       </c>
       <c r="P8" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
-        <v>1.7</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>3.55</v>
       </c>
       <c r="Q8" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
-        <v>1.26</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>2.63</v>
       </c>
       <c r="R8" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
-        <v>3.19</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>6.66</v>
       </c>
       <c r="S8" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="T8" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="U8" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>21.92</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>28.61</v>
       </c>
       <c r="V8" s="6">
         <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
-        <v>1922.1389999999997</v>
+        <v>4034.6864999999989</v>
       </c>
       <c r="W8" s="14">
         <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
-        <v>1882.06</v>
+        <v>4040.4799999999996</v>
       </c>
       <c r="X8" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.81754050649407062</v>
+        <v>0.84220882630047444</v>
       </c>
       <c r="Y8" s="15">
         <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z8" s="6">
         <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
-        <v>961.07</v>
+        <v>3227.75</v>
       </c>
       <c r="AA8" s="6">
         <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
-        <v>961.07</v>
+        <v>806.94</v>
       </c>
       <c r="AB8" s="6">
         <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
-        <v>5161.5</v>
+        <v>10797.7</v>
       </c>
       <c r="AC8" s="6">
         <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
-        <v>8424.67</v>
+        <v>16402.120000000003</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
@@ -2617,108 +4872,104 @@
         <v>41214</v>
       </c>
       <c r="C9" s="3">
-        <v>5161.5</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
+        <v>10797.7</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="3">
-        <v>2855.98</v>
+        <v>5340.06</v>
       </c>
       <c r="G9" s="6">
-        <f>142</f>
-        <v>142</v>
+        <f>735</f>
+        <v>735</v>
       </c>
       <c r="H9" s="6">
         <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
-        <v>1394</v>
+        <v>3640</v>
       </c>
       <c r="I9" s="6">
         <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
-        <v>3405.17</v>
+        <v>6339.42</v>
       </c>
       <c r="J9" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
-        <v>1.25</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>2.34</v>
       </c>
       <c r="K9" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
-        <v>0.93</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>1.74</v>
       </c>
       <c r="L9" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
-        <v>2.36</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="M9" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="N9" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="O9" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>20.310000000000002</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>24.25</v>
       </c>
       <c r="P9" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
-        <v>2.5099999999999998</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>4.6900000000000004</v>
       </c>
       <c r="Q9" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
-        <v>1.87</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>3.48</v>
       </c>
       <c r="R9" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
-        <v>4.7300000000000004</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>8.81</v>
       </c>
       <c r="S9" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="T9" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="U9" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>24.88</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>32.75</v>
       </c>
       <c r="V9" s="6">
         <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
-        <v>2855.9829999999997</v>
+        <v>5340.0569999999998</v>
       </c>
       <c r="W9" s="14">
         <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
-        <v>2889.02</v>
+        <v>5259.65</v>
       </c>
       <c r="X9" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.84842166470396485</v>
+        <v>0.82967369254600576</v>
       </c>
       <c r="Y9" s="15">
         <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="Z9" s="6">
         <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
-        <v>2284.7800000000002</v>
+        <v>2670.03</v>
       </c>
       <c r="AA9" s="6">
         <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
-        <v>571.19999999999982</v>
+        <v>2670.03</v>
       </c>
       <c r="AB9" s="6">
         <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
-        <v>7446.2800000000007</v>
+        <v>13467.730000000001</v>
       </c>
       <c r="AC9" s="6">
         <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
-        <v>11422.650000000001</v>
+        <v>22477.18</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
@@ -2729,108 +4980,104 @@
         <v>41244</v>
       </c>
       <c r="C10" s="3">
-        <v>7446.28</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
+        <v>13467.73</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="3">
-        <v>3459.76</v>
+        <v>8222.7000000000007</v>
       </c>
       <c r="G10" s="6">
-        <f>142</f>
-        <v>142</v>
+        <f>735</f>
+        <v>735</v>
       </c>
       <c r="H10" s="6">
         <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
-        <v>1536</v>
+        <v>4375</v>
       </c>
       <c r="I10" s="6">
         <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
-        <v>4118.37</v>
+        <v>9744.4500000000007</v>
       </c>
       <c r="J10" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
-        <v>1.52</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>3.6</v>
       </c>
       <c r="K10" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
-        <v>1.1299999999999999</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>2.67</v>
       </c>
       <c r="L10" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
-        <v>2.86</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>6.77</v>
       </c>
       <c r="M10" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="N10" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="O10" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>21.28</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>28.81</v>
       </c>
       <c r="P10" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
-        <v>3.04</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>7.21</v>
       </c>
       <c r="Q10" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
-        <v>2.2599999999999998</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>5.35</v>
       </c>
       <c r="R10" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
-        <v>5.72</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>13.54</v>
       </c>
       <c r="S10" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="T10" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="U10" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>26.79</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>41.87</v>
       </c>
       <c r="V10" s="6">
         <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
-        <v>3459.7549999999992</v>
+        <v>8222.7045000000016</v>
       </c>
       <c r="W10" s="14">
         <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
-        <v>3373.74</v>
+        <v>8397.68</v>
       </c>
       <c r="X10" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.81919303025225998</v>
+        <v>0.86179107081466888</v>
       </c>
       <c r="Y10" s="15">
         <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z10" s="6">
         <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
-        <v>1729.88</v>
+        <v>6578.16</v>
       </c>
       <c r="AA10" s="6">
         <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
-        <v>1729.88</v>
+        <v>1644.5400000000009</v>
       </c>
       <c r="AB10" s="6">
         <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
-        <v>9176.16</v>
+        <v>20045.89</v>
       </c>
       <c r="AC10" s="6">
         <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
-        <v>15024.41</v>
+        <v>31434.880000000001</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
@@ -2841,84 +5088,84 @@
         <v>41275</v>
       </c>
       <c r="C11" s="3">
-        <v>9176.16</v>
+        <v>20045.89</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
-        <v>5044.46</v>
+        <v>10237.18</v>
       </c>
       <c r="G11" s="6">
-        <f>142</f>
-        <v>142</v>
+        <f>735</f>
+        <v>735</v>
       </c>
       <c r="H11" s="6">
         <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
-        <v>1678</v>
+        <v>5110</v>
       </c>
       <c r="I11" s="6">
         <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
-        <v>5990.25</v>
+        <v>12123.990000000002</v>
       </c>
       <c r="J11" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
-        <v>2.21</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>4.4800000000000004</v>
       </c>
       <c r="K11" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
-        <v>1.64</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>3.33</v>
       </c>
       <c r="L11" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
-        <v>4.16</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>8.42</v>
       </c>
       <c r="M11" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="N11" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="O11" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>23.78</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>32</v>
       </c>
       <c r="P11" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
-        <v>4.43</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>8.9700000000000006</v>
       </c>
       <c r="Q11" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
-        <v>3.29</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>6.66</v>
       </c>
       <c r="R11" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
-        <v>8.32</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>16.850000000000001</v>
       </c>
       <c r="S11" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="T11" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="U11" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>31.809999999999995</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>48.25</v>
       </c>
       <c r="V11" s="6">
         <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
-        <v>5044.4610000000002</v>
+        <v>10237.179000000002</v>
       </c>
       <c r="W11" s="14">
         <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
-        <v>5072.63</v>
+        <v>10119.400000000001</v>
       </c>
       <c r="X11" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.84681440674429287</v>
+        <v>0.83465921697394996</v>
       </c>
       <c r="Y11" s="15">
         <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
@@ -2926,19 +5173,19 @@
       </c>
       <c r="Z11" s="6">
         <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
-        <v>4035.57</v>
+        <v>8189.74</v>
       </c>
       <c r="AA11" s="6">
         <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
-        <v>1008.8899999999999</v>
+        <v>2047.4400000000005</v>
       </c>
       <c r="AB11" s="6">
         <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
-        <v>13211.73</v>
+        <v>28235.629999999997</v>
       </c>
       <c r="AC11" s="6">
         <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
-        <v>20210.87</v>
+        <v>42407.06</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
@@ -2949,84 +5196,84 @@
         <v>41306</v>
       </c>
       <c r="C12" s="3">
-        <v>13211.73</v>
+        <v>28235.63</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3">
-        <v>6018.78</v>
+        <v>12592.76</v>
       </c>
       <c r="G12" s="6">
-        <f>142</f>
-        <v>142</v>
+        <f>735</f>
+        <v>735</v>
       </c>
       <c r="H12" s="6">
         <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
-        <v>1820</v>
+        <v>5845</v>
       </c>
       <c r="I12" s="6">
         <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
-        <v>7141.1399999999994</v>
+        <v>14906.430000000002</v>
       </c>
       <c r="J12" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
-        <v>2.64</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>5.51</v>
       </c>
       <c r="K12" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
-        <v>1.96</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>4.09</v>
       </c>
       <c r="L12" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
-        <v>4.96</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>10.35</v>
       </c>
       <c r="M12" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="N12" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="O12" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>25.33</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>35.72</v>
       </c>
       <c r="P12" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
-        <v>5.28</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>11.03</v>
       </c>
       <c r="Q12" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
-        <v>3.92</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>8.19</v>
       </c>
       <c r="R12" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
-        <v>9.92</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>20.71</v>
       </c>
       <c r="S12" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="T12" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="U12" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>34.889999999999993</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>55.699999999999996</v>
       </c>
       <c r="V12" s="6">
         <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
-        <v>6018.7820000000002</v>
+        <v>12592.758500000002</v>
       </c>
       <c r="W12" s="14">
         <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
-        <v>5819.9699999999993</v>
+        <v>12082.870000000003</v>
       </c>
       <c r="X12" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.81499172401045206</v>
+        <v>0.81058107138999758</v>
       </c>
       <c r="Y12" s="15">
         <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
@@ -3034,19 +5281,19 @@
       </c>
       <c r="Z12" s="6">
         <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
-        <v>3009.39</v>
+        <v>6296.38</v>
       </c>
       <c r="AA12" s="6">
         <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
-        <v>3009.39</v>
+        <v>6296.38</v>
       </c>
       <c r="AB12" s="6">
         <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
-        <v>16221.119999999999</v>
+        <v>34532.01</v>
       </c>
       <c r="AC12" s="6">
         <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
-        <v>26371.649999999998</v>
+        <v>55734.82</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
@@ -3057,84 +5304,84 @@
         <v>41334</v>
       </c>
       <c r="C13" s="3">
-        <v>16221.12</v>
+        <v>34532.01</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3">
-        <v>8686.69</v>
+        <v>18545.39</v>
       </c>
       <c r="G13" s="6">
-        <f>142</f>
-        <v>142</v>
+        <f>735</f>
+        <v>735</v>
       </c>
       <c r="H13" s="6">
         <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
-        <v>1962</v>
+        <v>6580</v>
       </c>
       <c r="I13" s="6">
         <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
-        <v>10292.529999999999</v>
+        <v>21937.81</v>
       </c>
       <c r="J13" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
-        <v>3.8</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>8.11</v>
       </c>
       <c r="K13" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
-        <v>2.83</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>6.03</v>
       </c>
       <c r="L13" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
-        <v>7.15</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>15.24</v>
       </c>
       <c r="M13" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="N13" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="O13" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>29.55</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>45.15</v>
       </c>
       <c r="P13" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
-        <v>7.61</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>16.23</v>
       </c>
       <c r="Q13" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
-        <v>5.66</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>12.06</v>
       </c>
       <c r="R13" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
-        <v>14.3</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>30.49</v>
       </c>
       <c r="S13" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="T13" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="U13" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>43.339999999999996</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>74.55</v>
       </c>
       <c r="V13" s="6">
         <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
-        <v>8686.6939999999995</v>
+        <v>18545.393499999998</v>
       </c>
       <c r="W13" s="14">
         <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
-        <v>8670.4199999999983</v>
+        <v>18484.61</v>
       </c>
       <c r="X13" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.84239929346817544</v>
+        <v>0.84259139813864736</v>
       </c>
       <c r="Y13" s="15">
         <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
@@ -3142,19 +5389,19 @@
       </c>
       <c r="Z13" s="6">
         <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
-        <v>6949.35</v>
+        <v>14836.31</v>
       </c>
       <c r="AA13" s="6">
         <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
-        <v>1737.3400000000001</v>
+        <v>3709.08</v>
       </c>
       <c r="AB13" s="6">
         <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
-        <v>23170.47</v>
+        <v>49368.32</v>
       </c>
       <c r="AC13" s="6">
         <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
-        <v>35200.339999999997</v>
+        <v>75015.210000000006</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
@@ -3165,84 +5412,84 @@
         <v>41365</v>
       </c>
       <c r="C14" s="3">
-        <v>23170.47</v>
+        <v>49368.32</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3">
-        <v>10277.719999999999</v>
+        <v>22532.04</v>
       </c>
       <c r="G14" s="6">
-        <f>142</f>
-        <v>142</v>
+        <f>1000</f>
+        <v>1000</v>
       </c>
       <c r="H14" s="6">
         <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
-        <v>2104</v>
+        <v>7580</v>
       </c>
       <c r="I14" s="6">
         <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
-        <v>12171.869999999999</v>
+        <v>26646.89</v>
       </c>
       <c r="J14" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
-        <v>4.5</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>9.85</v>
       </c>
       <c r="K14" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
-        <v>3.34</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>7.32</v>
       </c>
       <c r="L14" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
-        <v>8.4499999999999993</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>18.510000000000002</v>
       </c>
       <c r="M14" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="N14" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="O14" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>32.059999999999995</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>51.45</v>
       </c>
       <c r="P14" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
-        <v>9</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>19.71</v>
       </c>
       <c r="Q14" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
-        <v>6.69</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>14.65</v>
       </c>
       <c r="R14" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
-        <v>16.91</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>37.03</v>
       </c>
       <c r="S14" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="T14" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="U14" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>48.37</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>87.160000000000011</v>
       </c>
       <c r="V14" s="6">
         <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
-        <v>10277.724</v>
+        <v>22532.037999999997</v>
       </c>
       <c r="W14" s="14">
         <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
-        <v>9854.82</v>
+        <v>21710.059999999998</v>
       </c>
       <c r="X14" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.80963894619314869</v>
+        <v>0.81473147523031764</v>
       </c>
       <c r="Y14" s="15">
         <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
@@ -3250,19 +5497,19 @@
       </c>
       <c r="Z14" s="6">
         <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
-        <v>5138.8599999999997</v>
+        <v>11266.02</v>
       </c>
       <c r="AA14" s="6">
         <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
-        <v>5138.8599999999997</v>
+        <v>11266.02</v>
       </c>
       <c r="AB14" s="6">
         <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
-        <v>28309.33</v>
+        <v>60634.34</v>
       </c>
       <c r="AC14" s="6">
         <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
-        <v>45620.06</v>
+        <v>98547.25</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
@@ -3273,84 +5520,84 @@
         <v>41395</v>
       </c>
       <c r="C15" s="3">
-        <v>28309.33</v>
+        <v>60634.34</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3">
-        <v>14748.42</v>
+        <v>32916.22</v>
       </c>
       <c r="G15" s="6">
-        <f>142</f>
-        <v>142</v>
+        <f>1000</f>
+        <v>1000</v>
       </c>
       <c r="H15" s="6">
         <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
-        <v>2246</v>
+        <v>8580</v>
       </c>
       <c r="I15" s="6">
         <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
-        <v>17452.73</v>
+        <v>38912.910000000003</v>
       </c>
       <c r="J15" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
-        <v>6.45</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>14.39</v>
       </c>
       <c r="K15" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
-        <v>4.79</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>10.7</v>
       </c>
       <c r="L15" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
-        <v>12.12</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>27.04</v>
       </c>
       <c r="M15" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="N15" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="O15" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>39.129999999999995</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>67.899999999999991</v>
       </c>
       <c r="P15" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
-        <v>12.91</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>28.79</v>
       </c>
       <c r="Q15" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
-        <v>9.59</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>21.4</v>
       </c>
       <c r="R15" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
-        <v>24.25</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>54.08</v>
       </c>
       <c r="S15" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="T15" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="U15" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>62.519999999999996</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>120.04</v>
       </c>
       <c r="V15" s="6">
         <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
-        <v>14748.418000000001</v>
+        <v>32916.224500000004</v>
       </c>
       <c r="W15" s="14">
         <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
-        <v>14621.8</v>
+        <v>32849.480000000003</v>
       </c>
       <c r="X15" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.83779443101451745</v>
+        <v>0.84417947668267423</v>
       </c>
       <c r="Y15" s="15">
         <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
@@ -3358,19 +5605,19 @@
       </c>
       <c r="Z15" s="6">
         <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
-        <v>11798.74</v>
+        <v>26332.98</v>
       </c>
       <c r="AA15" s="6">
         <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
-        <v>2949.6800000000003</v>
+        <v>6583.2400000000016</v>
       </c>
       <c r="AB15" s="6">
         <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
-        <v>40108.07</v>
+        <v>86967.319999999992</v>
       </c>
       <c r="AC15" s="6">
         <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
-        <v>60510.479999999996</v>
+        <v>132463.47</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
@@ -3381,84 +5628,84 @@
         <v>41426</v>
       </c>
       <c r="C16" s="3">
-        <v>40108.07</v>
+        <v>86967.32</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3">
-        <v>17365.77</v>
+        <v>39336.07</v>
       </c>
       <c r="G16" s="6">
-        <f>142</f>
-        <v>142</v>
+        <f>1000</f>
+        <v>1000</v>
       </c>
       <c r="H16" s="6">
         <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
-        <v>2388</v>
+        <v>9580</v>
       </c>
       <c r="I16" s="6">
         <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
-        <v>20544.41</v>
+        <v>46496.15</v>
       </c>
       <c r="J16" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
-        <v>7.6</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>17.2</v>
       </c>
       <c r="K16" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
-        <v>5.64</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>12.78</v>
       </c>
       <c r="L16" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
-        <v>14.27</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>32.31</v>
       </c>
       <c r="M16" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="N16" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="O16" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>43.279999999999994</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>78.06</v>
       </c>
       <c r="P16" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
-        <v>15.2</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>34.4</v>
       </c>
       <c r="Q16" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
-        <v>11.29</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>25.57</v>
       </c>
       <c r="R16" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
-        <v>28.55</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>64.62</v>
       </c>
       <c r="S16" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="T16" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="U16" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>70.81</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>140.36000000000001</v>
       </c>
       <c r="V16" s="6">
         <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
-        <v>17365.772000000001</v>
+        <v>39336.070500000002</v>
       </c>
       <c r="W16" s="14">
         <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
-        <v>16533.599999999999</v>
+        <v>37799.42</v>
       </c>
       <c r="X16" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.80477365862538752</v>
+        <v>0.81295806211912158</v>
       </c>
       <c r="Y16" s="15">
         <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
@@ -3466,19 +5713,19 @@
       </c>
       <c r="Z16" s="6">
         <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
-        <v>8682.89</v>
+        <v>19668.04</v>
       </c>
       <c r="AA16" s="6">
         <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
-        <v>8682.880000000001</v>
+        <v>19668.03</v>
       </c>
       <c r="AB16" s="6">
         <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
-        <v>48790.96</v>
+        <v>106635.36000000002</v>
       </c>
       <c r="AC16" s="6">
         <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
-        <v>78018.25</v>
+        <v>172799.54</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
@@ -3489,84 +5736,84 @@
         <v>41456</v>
       </c>
       <c r="C17" s="3">
-        <v>48790.96</v>
+        <v>106635.36</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3">
-        <v>24836.75</v>
+        <v>56883.26</v>
       </c>
       <c r="G17" s="6">
-        <f>142</f>
-        <v>142</v>
+        <f>1000</f>
+        <v>1000</v>
       </c>
       <c r="H17" s="6">
         <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
-        <v>2530</v>
+        <v>10580</v>
       </c>
       <c r="I17" s="6">
         <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
-        <v>29369.29</v>
+        <v>67164.179999999993</v>
       </c>
       <c r="J17" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
-        <v>10.86</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>24.85</v>
       </c>
       <c r="K17" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
-        <v>8.07</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>18.47</v>
       </c>
       <c r="L17" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
-        <v>20.41</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>46.67</v>
       </c>
       <c r="M17" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="N17" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="O17" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>55.11</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>105.76000000000002</v>
       </c>
       <c r="P17" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
-        <v>21.73</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>49.7</v>
       </c>
       <c r="Q17" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
-        <v>16.149999999999999</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>36.94</v>
       </c>
       <c r="R17" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
-        <v>40.82</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>93.35</v>
       </c>
       <c r="S17" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="T17" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="U17" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>94.47</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>195.76000000000002</v>
       </c>
       <c r="V17" s="6">
         <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
-        <v>24836.753499999999</v>
+        <v>56833.260999999991</v>
       </c>
       <c r="W17" s="14">
         <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
-        <v>24490.190000000002</v>
+        <v>56500.639999999992</v>
       </c>
       <c r="X17" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.83387068601249814</v>
+        <v>0.84123173989468791</v>
       </c>
       <c r="Y17" s="15">
         <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
@@ -3574,19 +5821,19 @@
       </c>
       <c r="Z17" s="6">
         <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
-        <v>19869.400000000001</v>
+        <v>45506.61</v>
       </c>
       <c r="AA17" s="6">
         <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
-        <v>4967.3499999999985</v>
+        <v>11376.650000000001</v>
       </c>
       <c r="AB17" s="6">
         <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
-        <v>68660.36</v>
+        <v>152141.97</v>
       </c>
       <c r="AC17" s="6">
         <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
-        <v>102997</v>
+        <v>230682.8</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
@@ -3597,84 +5844,84 @@
         <v>41487</v>
       </c>
       <c r="C18" s="3">
-        <v>68660.36</v>
+        <v>152141.97</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3">
-        <v>29162.240000000002</v>
+        <v>67311.12</v>
       </c>
       <c r="G18" s="6">
-        <f>142</f>
-        <v>142</v>
+        <f>1000</f>
+        <v>1000</v>
       </c>
       <c r="H18" s="6">
         <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
-        <v>2672</v>
+        <v>11580</v>
       </c>
       <c r="I18" s="6">
         <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
-        <v>34478.639999999999</v>
+        <v>79540.83</v>
       </c>
       <c r="J18" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
-        <v>12.75</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>29.43</v>
       </c>
       <c r="K18" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
-        <v>9.48</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>21.87</v>
       </c>
       <c r="L18" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
-        <v>23.96</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>55.28</v>
       </c>
       <c r="M18" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="N18" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="O18" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>61.959999999999994</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>122.35000000000001</v>
       </c>
       <c r="P18" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
-        <v>25.51</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>58.86</v>
       </c>
       <c r="Q18" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
-        <v>18.96</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>43.74</v>
       </c>
       <c r="R18" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
-        <v>47.92</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>110.56</v>
       </c>
       <c r="S18" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="T18" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="U18" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>108.16000000000001</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>228.93</v>
       </c>
       <c r="V18" s="6">
         <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
-        <v>29162.241999999995</v>
+        <v>67311.117500000008</v>
       </c>
       <c r="W18" s="14">
         <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
-        <v>27612.6</v>
+        <v>64326.630000000005</v>
       </c>
       <c r="X18" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.80086105484439063</v>
+        <v>0.80872465122629478</v>
       </c>
       <c r="Y18" s="15">
         <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
@@ -3682,19 +5929,19 @@
       </c>
       <c r="Z18" s="6">
         <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
-        <v>14581.12</v>
+        <v>33655.56</v>
       </c>
       <c r="AA18" s="6">
         <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
-        <v>14581.12</v>
+        <v>33655.56</v>
       </c>
       <c r="AB18" s="6">
         <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
-        <v>83241.48</v>
+        <v>185797.53</v>
       </c>
       <c r="AC18" s="6">
         <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
-        <v>132301.24</v>
+        <v>298993.91999999998</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
@@ -3705,84 +5952,84 @@
         <v>41518</v>
       </c>
       <c r="C19" s="3">
-        <v>83241.48</v>
+        <v>185797.53</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3">
-        <v>41626.58</v>
+        <v>96649.94</v>
       </c>
       <c r="G19" s="6">
-        <f>142</f>
-        <v>142</v>
+        <f>1000</f>
+        <v>1000</v>
       </c>
       <c r="H19" s="6">
         <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
-        <v>2814</v>
+        <v>12580</v>
       </c>
       <c r="I19" s="6">
         <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
-        <v>49201.760000000002</v>
+        <v>114196.39</v>
       </c>
       <c r="J19" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
-        <v>18.2</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>42.25</v>
       </c>
       <c r="K19" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
-        <v>13.53</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>31.4</v>
       </c>
       <c r="L19" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
-        <v>34.19</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>79.36</v>
       </c>
       <c r="M19" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="N19" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="O19" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>81.69</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>168.78</v>
       </c>
       <c r="P19" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
-        <v>36.4</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>84.5</v>
       </c>
       <c r="Q19" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
-        <v>27.06</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>62.8</v>
       </c>
       <c r="R19" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
-        <v>68.39</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>158.72999999999999</v>
       </c>
       <c r="S19" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="T19" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="U19" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>147.62</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>321.79999999999995</v>
       </c>
       <c r="V19" s="6">
         <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
-        <v>41626.582500000004</v>
+        <v>96649.938500000004</v>
       </c>
       <c r="W19" s="14">
         <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
-        <v>40877.61</v>
+        <v>95616.639999999999</v>
       </c>
       <c r="X19" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.83081601145975259</v>
+        <v>0.83730002323190778</v>
       </c>
       <c r="Y19" s="15">
         <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
@@ -3790,19 +6037,19 @@
       </c>
       <c r="Z19" s="6">
         <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
-        <v>33301.26</v>
+        <v>77319.95</v>
       </c>
       <c r="AA19" s="6">
         <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
-        <v>8325.32</v>
+        <v>19329.990000000005</v>
       </c>
       <c r="AB19" s="6">
         <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
-        <v>116542.73999999999</v>
+        <v>263117.48</v>
       </c>
       <c r="AC19" s="6">
         <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
-        <v>174069.82</v>
+        <v>396643.86</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
@@ -3813,84 +6060,84 @@
         <v>41548</v>
       </c>
       <c r="C20" s="3">
-        <v>116542.74</v>
+        <v>263117.48</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3">
-        <v>48794.879999999997</v>
+        <v>113860.97</v>
       </c>
       <c r="G20" s="6">
-        <f>142</f>
-        <v>142</v>
+        <f>1000</f>
+        <v>1000</v>
       </c>
       <c r="H20" s="6">
         <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
-        <v>2956</v>
+        <v>13580</v>
       </c>
       <c r="I20" s="6">
         <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
-        <v>57669.08</v>
+        <v>134526.38</v>
       </c>
       <c r="J20" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
-        <v>21.33</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>49.77</v>
       </c>
       <c r="K20" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
-        <v>15.85</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>36.99</v>
       </c>
       <c r="L20" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
-        <v>40.08</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>93.49</v>
       </c>
       <c r="M20" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="N20" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="O20" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>93.03</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>196.02</v>
       </c>
       <c r="P20" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
-        <v>42.67</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>99.54</v>
       </c>
       <c r="Q20" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
-        <v>31.71</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>73.98</v>
       </c>
       <c r="R20" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
-        <v>80.16</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>186.99</v>
       </c>
       <c r="S20" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="T20" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="U20" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>170.31</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>376.28</v>
       </c>
       <c r="V20" s="6">
         <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
-        <v>48794.879000000001</v>
+        <v>113860.96799999998</v>
       </c>
       <c r="W20" s="14">
         <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
-        <v>46014.81</v>
+        <v>108214.63</v>
       </c>
       <c r="X20" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.79791128972406</v>
+        <v>0.80441196737769949</v>
       </c>
       <c r="Y20" s="15">
         <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
@@ -3898,19 +6145,19 @@
       </c>
       <c r="Z20" s="6">
         <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
-        <v>24397.439999999999</v>
+        <v>56930.49</v>
       </c>
       <c r="AA20" s="6">
         <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
-        <v>24397.439999999999</v>
+        <v>56930.48</v>
       </c>
       <c r="AB20" s="6">
         <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
-        <v>140940.18</v>
+        <v>320047.96999999997</v>
       </c>
       <c r="AC20" s="6">
         <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
-        <v>223006.7</v>
+        <v>511504.82999999996</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
@@ -3921,104 +6168,104 @@
         <v>41579</v>
       </c>
       <c r="C21" s="3">
-        <v>140940.18</v>
+        <v>320047.96999999997</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3">
-        <v>69569.56</v>
+        <v>162903.93</v>
       </c>
       <c r="G21" s="6">
-        <f>142</f>
-        <v>142</v>
+        <f>1000</f>
+        <v>1000</v>
       </c>
       <c r="H21" s="6">
         <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
-        <v>3098</v>
+        <v>14580</v>
       </c>
       <c r="I21" s="6">
         <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
-        <v>82208.52</v>
+        <v>192456.86000000002</v>
       </c>
       <c r="J21" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
-        <v>30.41</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>71.2</v>
       </c>
       <c r="K21" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
-        <v>22.6</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>52.92</v>
       </c>
       <c r="L21" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
-        <v>57.13</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>133.75</v>
       </c>
       <c r="M21" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="N21" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="O21" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>125.91000000000003</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>273.64</v>
       </c>
       <c r="P21" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
-        <v>60.83</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>142.41</v>
       </c>
       <c r="Q21" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
-        <v>45.21</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>105.85</v>
       </c>
       <c r="R21" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
-        <v>114.26</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>267.51</v>
       </c>
       <c r="S21" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="T21" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="U21" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>236.07000000000002</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>531.54</v>
       </c>
       <c r="V21" s="6">
         <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
-        <v>69569.558999999994</v>
+        <v>162903.92800000001</v>
       </c>
       <c r="W21" s="14">
         <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
-        <v>68114.5</v>
+        <v>160452.06000000003</v>
       </c>
       <c r="X21" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.82855767261106261</v>
+        <v>0.83370403112676794</v>
       </c>
       <c r="Y21" s="15">
         <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z21" s="6">
         <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
-        <v>34784.78</v>
+        <v>130323.14</v>
       </c>
       <c r="AA21" s="6">
         <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
-        <v>34784.78</v>
+        <v>32580.789999999994</v>
       </c>
       <c r="AB21" s="6">
         <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
-        <v>175724.96</v>
+        <v>450371.11</v>
       </c>
       <c r="AC21" s="6">
         <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
-        <v>292718.26</v>
+        <v>675408.76</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
@@ -4029,104 +6276,104 @@
         <v>41609</v>
       </c>
       <c r="C22" s="3">
-        <v>175724.96</v>
+        <v>450371.11</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3">
-        <v>99137.97</v>
+        <v>191332.84</v>
       </c>
       <c r="G22" s="6">
-        <f>142</f>
-        <v>142</v>
+        <f>1000</f>
+        <v>1000</v>
       </c>
       <c r="H22" s="6">
         <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
-        <v>3240</v>
+        <v>15580</v>
       </c>
       <c r="I22" s="6">
         <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
-        <v>117135.3</v>
+        <v>226037.65000000002</v>
       </c>
       <c r="J22" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
-        <v>43.34</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>83.63</v>
       </c>
       <c r="K22" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
-        <v>32.21</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>62.16</v>
       </c>
       <c r="L22" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
-        <v>81.400000000000006</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>157.09</v>
       </c>
       <c r="M22" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="N22" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="O22" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>172.72000000000003</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>318.64999999999998</v>
       </c>
       <c r="P22" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
-        <v>86.68</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>167.26</v>
       </c>
       <c r="Q22" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
-        <v>64.42</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>124.32</v>
       </c>
       <c r="R22" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
-        <v>162.81</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>314.19</v>
       </c>
       <c r="S22" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="T22" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="U22" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>329.68</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>621.54</v>
       </c>
       <c r="V22" s="6">
         <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
-        <v>99137.965000000011</v>
+        <v>191332.84100000004</v>
       </c>
       <c r="W22" s="14">
         <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
-        <v>99562.8</v>
+        <v>181000.54000000004</v>
       </c>
       <c r="X22" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.84998117561486586</v>
+        <v>0.80075394519452847</v>
       </c>
       <c r="Y22" s="15">
         <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="Z22" s="6">
         <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
-        <v>79310.38</v>
+        <v>95666.42</v>
       </c>
       <c r="AA22" s="6">
         <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
-        <v>19827.589999999997</v>
+        <v>95666.42</v>
       </c>
       <c r="AB22" s="6">
         <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
-        <v>255035.34</v>
+        <v>546037.53</v>
       </c>
       <c r="AC22" s="6">
         <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
-        <v>391998.23</v>
+        <v>867741.60000000009</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
@@ -4137,104 +6384,104 @@
         <v>41640</v>
       </c>
       <c r="C23" s="3">
-        <v>255035.34</v>
+        <v>546037.53</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3">
-        <v>116043.9</v>
+        <v>273169</v>
       </c>
       <c r="G23" s="6">
-        <f>142</f>
-        <v>142</v>
+        <f>1000</f>
+        <v>1000</v>
       </c>
       <c r="H23" s="6">
         <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
-        <v>3382</v>
+        <v>16580</v>
       </c>
       <c r="I23" s="6">
         <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
-        <v>137104.89000000001</v>
+        <v>322704.07</v>
       </c>
       <c r="J23" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
-        <v>50.72</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>119.4</v>
       </c>
       <c r="K23" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
-        <v>37.700000000000003</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>88.74</v>
       </c>
       <c r="L23" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
-        <v>95.28</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>224.27</v>
       </c>
       <c r="M23" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="N23" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="O23" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>199.47</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>448.17999999999995</v>
       </c>
       <c r="P23" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
-        <v>101.45</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>238.8</v>
       </c>
       <c r="Q23" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
-        <v>75.400000000000006</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>177.48</v>
       </c>
       <c r="R23" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
-        <v>190.57</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>448.55</v>
       </c>
       <c r="S23" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="T23" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="U23" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>383.19</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>880.59999999999991</v>
       </c>
       <c r="V23" s="6">
         <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
-        <v>116043.8955</v>
+        <v>273168.99650000001</v>
       </c>
       <c r="W23" s="14">
         <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
-        <v>111601.36000000002</v>
+        <v>268100.32</v>
       </c>
       <c r="X23" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.81398526339943089</v>
+        <v>0.83079311643017084</v>
       </c>
       <c r="Y23" s="15">
         <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z23" s="6">
         <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
-        <v>58021.95</v>
+        <v>218535.2</v>
       </c>
       <c r="AA23" s="6">
         <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
-        <v>58021.95</v>
+        <v>54633.799999999988</v>
       </c>
       <c r="AB23" s="6">
         <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
-        <v>313057.28999999998</v>
+        <v>764572.73</v>
       </c>
       <c r="AC23" s="6">
         <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
-        <v>508184.13</v>
+        <v>1141910.6000000001</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
@@ -4245,104 +6492,104 @@
         <v>41671</v>
       </c>
       <c r="C24" s="3">
-        <v>313057.28999999998</v>
+        <v>764572.73</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3">
-        <v>165284.51</v>
+        <v>320267.62</v>
       </c>
       <c r="G24" s="6">
-        <f>142</f>
-        <v>142</v>
+        <f>1000</f>
+        <v>1000</v>
       </c>
       <c r="H24" s="6">
         <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
-        <v>3524</v>
+        <v>17580</v>
       </c>
       <c r="I24" s="6">
         <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
-        <v>195268.84000000003</v>
+        <v>378337.87</v>
       </c>
       <c r="J24" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
-        <v>72.239999999999995</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>139.97999999999999</v>
       </c>
       <c r="K24" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
-        <v>53.69</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>104.04</v>
       </c>
       <c r="L24" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
-        <v>135.71</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>262.94</v>
       </c>
       <c r="M24" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="N24" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="O24" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>277.40999999999997</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>522.73</v>
       </c>
       <c r="P24" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
-        <v>144.49</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>279.97000000000003</v>
       </c>
       <c r="Q24" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
-        <v>107.39</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>208.08</v>
       </c>
       <c r="R24" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
-        <v>271.42</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>525.88</v>
       </c>
       <c r="S24" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="T24" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="U24" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>539.06999999999994</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>1029.7</v>
       </c>
       <c r="V24" s="6">
         <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
-        <v>165284.50600000002</v>
+        <v>320267.62400000007</v>
       </c>
       <c r="W24" s="14">
         <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
-        <v>163963.11000000002</v>
+        <v>301880.59999999998</v>
       </c>
       <c r="X24" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.83967882433264818</v>
+        <v>0.79791272282629278</v>
       </c>
       <c r="Y24" s="15">
         <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="Z24" s="6">
         <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
-        <v>132227.60999999999</v>
+        <v>160133.81</v>
       </c>
       <c r="AA24" s="6">
         <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
-        <v>33056.900000000023</v>
+        <v>160133.81</v>
       </c>
       <c r="AB24" s="6">
         <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
-        <v>445284.89999999997</v>
+        <v>924706.54</v>
       </c>
       <c r="AC24" s="6">
         <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
-        <v>673610.64</v>
+        <v>1463178.2200000002</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
@@ -4353,84 +6600,84 @@
         <v>41699</v>
       </c>
       <c r="C25" s="3">
-        <v>445284.9</v>
+        <v>924706.54</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3">
-        <v>193390.12</v>
+        <v>456680.78</v>
       </c>
       <c r="G25" s="6">
-        <f>142</f>
-        <v>142</v>
+        <f>1000</f>
+        <v>1000</v>
       </c>
       <c r="H25" s="6">
         <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
-        <v>3666</v>
+        <v>18580</v>
       </c>
       <c r="I25" s="6">
         <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
-        <v>228467.74000000005</v>
+        <v>539471.67999999993</v>
       </c>
       <c r="J25" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
-        <v>84.53</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>199.6</v>
       </c>
       <c r="K25" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
-        <v>62.82</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>148.35</v>
       </c>
       <c r="L25" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
-        <v>158.78</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>374.93</v>
       </c>
       <c r="M25" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="N25" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="O25" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>321.89999999999998</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>738.65</v>
       </c>
       <c r="P25" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
-        <v>169.06</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>399.2</v>
       </c>
       <c r="Q25" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
-        <v>125.65</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>296.7</v>
       </c>
       <c r="R25" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
-        <v>317.57</v>
+        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>749.86</v>
       </c>
       <c r="S25" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="T25" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="U25" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>628.04999999999995</v>
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>1461.53</v>
       </c>
       <c r="V25" s="6">
         <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
-        <v>193390.12150000004</v>
+        <v>456680.77499999991</v>
       </c>
       <c r="W25" s="14">
         <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
-        <v>183939.25000000006</v>
+        <v>447001.02999999991</v>
       </c>
       <c r="X25" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.80509944204814221</v>
+        <v>0.82859035343616183</v>
       </c>
       <c r="Y25" s="15">
         <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
@@ -4438,375 +6685,57 @@
       </c>
       <c r="Z25" s="6">
         <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
-        <v>96695.06</v>
+        <v>228340.39</v>
       </c>
       <c r="AA25" s="6">
         <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
-        <v>96695.06</v>
+        <v>228340.39</v>
       </c>
       <c r="AB25" s="6">
         <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
-        <v>541979.96</v>
+        <v>1153046.9300000002</v>
       </c>
       <c r="AC25" s="6">
         <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
-        <v>867142.76</v>
+        <v>1920859.0000000002</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5">
-        <v>41730</v>
-      </c>
-      <c r="C26" s="3">
-        <v>541979.96</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3">
-        <v>275370.73</v>
-      </c>
-      <c r="G26" s="6">
-        <f>142</f>
-        <v>142</v>
-      </c>
-      <c r="H26" s="6">
-        <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
-        <v>3808</v>
-      </c>
-      <c r="I26" s="6">
-        <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
-        <v>325304.80000000005</v>
-      </c>
-      <c r="J26" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
-        <v>120.36</v>
-      </c>
-      <c r="K26" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
-        <v>89.45</v>
-      </c>
-      <c r="L26" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
-        <v>226.08</v>
-      </c>
-      <c r="M26" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="N26" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="O26" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>451.65999999999997</v>
-      </c>
-      <c r="P26" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
-        <v>240.72</v>
-      </c>
-      <c r="Q26" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
-        <v>178.91</v>
-      </c>
-      <c r="R26" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
-        <v>452.17</v>
-      </c>
-      <c r="S26" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="T26" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="U26" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>887.56999999999994</v>
-      </c>
-      <c r="V26" s="6">
-        <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
-        <v>275370.73450000008</v>
-      </c>
-      <c r="W26" s="14">
-        <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
-        <v>271106.80000000005</v>
-      </c>
-      <c r="X26" s="4">
-        <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.83339317464728468</v>
-      </c>
-      <c r="Y26" s="15">
-        <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
-        <v>0.8</v>
-      </c>
-      <c r="Z26" s="6">
-        <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
-        <v>220296.58</v>
-      </c>
-      <c r="AA26" s="6">
-        <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
-        <v>55074.149999999994</v>
-      </c>
-      <c r="AB26" s="6">
-        <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
-        <v>762276.53999999992</v>
-      </c>
-      <c r="AC26" s="6">
-        <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
-        <v>1142655.49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5">
-        <v>41760</v>
-      </c>
-      <c r="C27" s="3">
-        <v>762276.54</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3">
-        <v>322115.78000000003</v>
-      </c>
-      <c r="G27" s="6">
-        <f>142</f>
-        <v>142</v>
-      </c>
-      <c r="H27" s="6">
-        <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
-        <v>3950</v>
-      </c>
-      <c r="I27" s="6">
-        <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
-        <v>380520.95000000007</v>
-      </c>
-      <c r="J27" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
-        <v>140.79</v>
-      </c>
-      <c r="K27" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
-        <v>104.64</v>
-      </c>
-      <c r="L27" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
-        <v>264.45999999999998</v>
-      </c>
-      <c r="M27" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="N27" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="O27" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>525.66</v>
-      </c>
-      <c r="P27" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
-        <v>281.58</v>
-      </c>
-      <c r="Q27" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
-        <v>209.28</v>
-      </c>
-      <c r="R27" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
-        <v>528.91999999999996</v>
-      </c>
-      <c r="S27" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="T27" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="U27" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>1035.55</v>
-      </c>
-      <c r="V27" s="6">
-        <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
-        <v>322115.77900000004</v>
-      </c>
-      <c r="W27" s="14">
-        <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
-        <v>304293.30000000005</v>
-      </c>
-      <c r="X27" s="4">
-        <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.79967555005841329</v>
-      </c>
-      <c r="Y27" s="15">
-        <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
-        <v>0.5</v>
-      </c>
-      <c r="Z27" s="6">
-        <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
-        <v>161057.89000000001</v>
-      </c>
-      <c r="AA27" s="6">
-        <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
-        <v>161057.89000000001</v>
-      </c>
-      <c r="AB27" s="6">
-        <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
-        <v>923334.43</v>
-      </c>
-      <c r="AC27" s="6">
-        <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
-        <v>1464913.27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="5">
-        <v>41791</v>
-      </c>
-      <c r="C28" s="3">
-        <v>923334.43</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3">
-        <v>458584.87</v>
-      </c>
-      <c r="G28" s="6">
-        <f>142</f>
-        <v>142</v>
-      </c>
-      <c r="H28" s="6">
-        <f>SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[APORTE RF])</f>
-        <v>4092</v>
-      </c>
-      <c r="I28" s="6">
-        <f>Tabela1[MONTANTE] - SUMPRODUCT(N(Tabela1[TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), Tabela1[SAQUE]) + SUMPRODUCT(N(Tabela1[TRADE] &lt; Tabela1[[#This Row],[TRADE]]), Tabela1[REINVESTIR])</f>
-        <v>541720.84000000008</v>
-      </c>
-      <c r="J28" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$A$3, 2)</f>
-        <v>200.43</v>
-      </c>
-      <c r="K28" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$B$3, 2)</f>
-        <v>148.97</v>
-      </c>
-      <c r="L28" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO]  * Plan2!$C$3, 2)</f>
-        <v>376.49</v>
-      </c>
-      <c r="M28" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="N28" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="O28" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>741.66</v>
-      </c>
-      <c r="P28" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$A$3, 2)</f>
-        <v>400.87</v>
-      </c>
-      <c r="Q28" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$B$3, 2)</f>
-        <v>297.94</v>
-      </c>
-      <c r="R28" s="6">
-        <f>TRUNC(Tabela1[APLICAÇÃO] * 2  * Plan2!$C$3, 2)</f>
-        <v>752.99</v>
-      </c>
-      <c r="S28" s="6">
-        <f>TRUNC(Plan2!$G$3  * Plan2!$H$3, 2)</f>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="T28" s="6">
-        <f>ROUND(Plan2!$G$3 * Plan2!$I$3, 2)</f>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="U28" s="6">
-        <f>Plan2!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>1467.57</v>
-      </c>
-      <c r="V28" s="6">
-        <f>(((Tabela1[APLICAÇÃO] * 2) - Tabela1[TAXA VD]) - (Tabela1[APLICAÇÃO] + Tabela1[TAXA CP])) * 0.85</f>
-        <v>458584.86849999998</v>
-      </c>
-      <c r="W28" s="14">
-        <f>Tabela1[APLICAÇÃO] - (ROUND(Tabela1[RENDA FIXA] * 0.1,2))</f>
-        <v>449387.40000000008</v>
-      </c>
-      <c r="X28" s="4">
-        <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.82955531118204717</v>
-      </c>
-      <c r="Y28" s="15">
-        <f>IF(Tabela1[LUCRO] &lt; (Tabela1[RENDA FIXA]/2), 0.5, 0.8)</f>
-        <v>0.5</v>
-      </c>
-      <c r="Z28" s="6">
-        <f>IF(Tabela1[LUCRO] &lt; 0, 0, ROUND(Tabela1[LUCRO]*Tabela1[NO BOLSO], 2))</f>
-        <v>229292.44</v>
-      </c>
-      <c r="AA28" s="6">
-        <f>Tabela1[LUCRO]-Tabela1[PROTEÇÃO MÊS]</f>
-        <v>229292.43</v>
-      </c>
-      <c r="AB28" s="6">
-        <f>Tabela1[RENDA FIXA] + Tabela1[PROTEÇÃO MÊS] - Tabela1[APORTE RF]</f>
-        <v>1152626.8700000001</v>
-      </c>
-      <c r="AC28" s="6">
-        <f>Tabela1[TOT RF] + Tabela1[REINVESTIR] + Tabela1[APLICAÇÃO]</f>
-        <v>1923640.1400000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="19"/>
-      <c r="Z29" s="19"/>
-      <c r="AA29" s="19"/>
-      <c r="AB29" s="19"/>
-      <c r="AC29" s="18"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="16">
+        <f>SUBTOTAL(109,Tabela1[APORTE])</f>
+        <v>18580</v>
+      </c>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="17"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="16">
+        <f>SUBTOTAL(109,Tabela1[REINVESTIR])</f>
+        <v>749232.07000000007</v>
+      </c>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -4817,6 +6746,885 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Plan3"/>
+  <dimension ref="A1:AC4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="19" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="11.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>41030</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <f>100</f>
+        <v>100</v>
+      </c>
+      <c r="H2" s="3">
+        <f>SUMPRODUCT(N(Tabela13[TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), Tabela13[APORTE]) + SUMPRODUCT(N(Tabela13[TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), Tabela13[APORTE RF])</f>
+        <v>100</v>
+      </c>
+      <c r="I2" s="3">
+        <f>Tabela13[MONTANTE] - SUMPRODUCT(N(Tabela13[TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), Tabela13[SAQUE]) + SUMPRODUCT(N(Tabela13[TRADE] &lt; Tabela13[[#This Row],[TRADE]]), Tabela13[REINVESTIR])</f>
+        <v>100</v>
+      </c>
+      <c r="J2" s="3">
+        <f>TRUNC(Tabela13[APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="K2" s="3">
+        <f>TRUNC(Tabela13[APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="L2" s="3">
+        <f>TRUNC(Tabela13[APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>0.06</v>
+      </c>
+      <c r="M2" s="3">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N2" s="3">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O2" s="3">
+        <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL CP]]:Tabela13[[#This Row],[OUTRAS CP]])</f>
+        <v>15.88</v>
+      </c>
+      <c r="P2" s="3">
+        <f>TRUNC(Tabela13[APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q2" s="3">
+        <f>TRUNC(Tabela13[APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="R2" s="3">
+        <f>TRUNC(Tabela13[APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>0.13</v>
+      </c>
+      <c r="S2" s="3">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T2" s="3">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U2" s="3">
+        <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL VD]]:Tabela13[[#This Row],[OUTRAS VD]])</f>
+        <v>16.02</v>
+      </c>
+      <c r="V2" s="3">
+        <f>(((Tabela13[APLICAÇÃO] * 2) - Tabela13[TAXA VD]) - (Tabela13[APLICAÇÃO] + Tabela13[TAXA CP])) * 0.85</f>
+        <v>57.884999999999991</v>
+      </c>
+      <c r="W2" s="11">
+        <f>Tabela13[APLICAÇÃO] - (ROUND(Tabela13[RENDA FIXA] * 0.1,2))</f>
+        <v>100</v>
+      </c>
+      <c r="X2" s="4">
+        <f>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</f>
+        <v>1</v>
+      </c>
+      <c r="Y2" s="4">
+        <f>IF(Tabela13[LUCRO] &lt; (Tabela13[RENDA FIXA]/2), 0.5, 0.8)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z2" s="3">
+        <f>IF(Tabela13[LUCRO] &lt; 0, 0, ROUND(Tabela13[LUCRO]*Tabela13[NO BOLSO], 2))</f>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="3">
+        <f>Tabela13[LUCRO]-Tabela13[PROTEÇÃO MÊS]</f>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="3">
+        <f>Tabela13[RENDA FIXA] + Tabela13[PROTEÇÃO MÊS] - Tabela13[APORTE RF]</f>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="6">
+        <f>Tabela13[TOT RF] + Tabela13[REINVESTIR] + Tabela13[APLICAÇÃO]</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>41061</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <f>100</f>
+        <v>100</v>
+      </c>
+      <c r="H3" s="3">
+        <f>SUMPRODUCT(N(Tabela13[TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), Tabela13[APORTE]) + SUMPRODUCT(N(Tabela13[TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), Tabela13[APORTE RF])</f>
+        <v>200</v>
+      </c>
+      <c r="I3" s="3">
+        <f>Tabela13[MONTANTE] - SUMPRODUCT(N(Tabela13[TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), Tabela13[SAQUE]) + SUMPRODUCT(N(Tabela13[TRADE] &lt; Tabela13[[#This Row],[TRADE]]), Tabela13[REINVESTIR])</f>
+        <v>200</v>
+      </c>
+      <c r="J3" s="3">
+        <f>TRUNC(Tabela13[APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K3" s="3">
+        <f>TRUNC(Tabela13[APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="L3" s="3">
+        <f>TRUNC(Tabela13[APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>0.13</v>
+      </c>
+      <c r="M3" s="3">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N3" s="3">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O3" s="3">
+        <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL CP]]:Tabela13[[#This Row],[OUTRAS CP]])</f>
+        <v>16.02</v>
+      </c>
+      <c r="P3" s="3">
+        <f>TRUNC(Tabela13[APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q3" s="3">
+        <f>TRUNC(Tabela13[APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>0.11</v>
+      </c>
+      <c r="R3" s="3">
+        <f>TRUNC(Tabela13[APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>0.27</v>
+      </c>
+      <c r="S3" s="3">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T3" s="3">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U3" s="3">
+        <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL VD]]:Tabela13[[#This Row],[OUTRAS VD]])</f>
+        <v>16.29</v>
+      </c>
+      <c r="V3" s="3">
+        <f>(((Tabela13[APLICAÇÃO] * 2) - Tabela13[TAXA VD]) - (Tabela13[APLICAÇÃO] + Tabela13[TAXA CP])) * 0.85</f>
+        <v>142.53649999999996</v>
+      </c>
+      <c r="W3" s="11">
+        <f>Tabela13[APLICAÇÃO] - (ROUND(Tabela13[RENDA FIXA] * 0.1,2))</f>
+        <v>200</v>
+      </c>
+      <c r="X3" s="4">
+        <f>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</f>
+        <v>1</v>
+      </c>
+      <c r="Y3" s="4">
+        <f>IF(Tabela13[LUCRO] &lt; (Tabela13[RENDA FIXA]/2), 0.5, 0.8)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z3" s="3">
+        <f>IF(Tabela13[LUCRO] &lt; 0, 0, ROUND(Tabela13[LUCRO]*Tabela13[NO BOLSO], 2))</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="3">
+        <f>Tabela13[LUCRO]-Tabela13[PROTEÇÃO MÊS]</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="3">
+        <f>Tabela13[RENDA FIXA] + Tabela13[PROTEÇÃO MÊS] - Tabela13[APORTE RF]</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="6">
+        <f>Tabela13[TOT RF] + Tabela13[REINVESTIR] + Tabela13[APLICAÇÃO]</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="19" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="11.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>41030</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="G2" s="3">
+        <f>100</f>
+        <v>100</v>
+      </c>
+      <c r="H2" s="3">
+        <f>SUMPRODUCT(N(Tabela134[TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), Tabela134[APORTE]) + SUMPRODUCT(N(Tabela134[TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), Tabela134[APORTE RF])</f>
+        <v>100</v>
+      </c>
+      <c r="I2" s="3">
+        <f>Tabela134[MONTANTE] - SUMPRODUCT(N(Tabela134[TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), Tabela134[SAQUE]) + SUMPRODUCT(N(Tabela134[TRADE] &lt; Tabela134[[#This Row],[TRADE]]), Tabela134[REINVESTIR])</f>
+        <v>100</v>
+      </c>
+      <c r="J2" s="3">
+        <f>TRUNC(Tabela134[APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="K2" s="3">
+        <f>TRUNC(Tabela134[APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="L2" s="3">
+        <f>TRUNC(Tabela134[APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>0.06</v>
+      </c>
+      <c r="M2" s="3">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N2" s="3">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O2" s="3">
+        <f>SETUP!$G$3 + SUM(Tabela134[[#This Row],[EMOL CP]]:Tabela134[[#This Row],[OUTRAS CP]])</f>
+        <v>15.88</v>
+      </c>
+      <c r="P2" s="3">
+        <f>TRUNC(Tabela134[APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q2" s="3">
+        <f>TRUNC(Tabela134[APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="R2" s="3">
+        <f>TRUNC(Tabela134[APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>0.13</v>
+      </c>
+      <c r="S2" s="3">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T2" s="3">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U2" s="3">
+        <f>SETUP!$G$3 + SUM(Tabela134[[#This Row],[EMOL VD]]:Tabela134[[#This Row],[OUTRAS VD]])</f>
+        <v>16.02</v>
+      </c>
+      <c r="V2" s="3">
+        <f>(((Tabela134[APLICAÇÃO] * 2) - Tabela134[TAXA VD]) - (Tabela134[APLICAÇÃO] + Tabela134[TAXA CP])) * 0.85</f>
+        <v>57.884999999999991</v>
+      </c>
+      <c r="W2" s="11">
+        <f>Tabela134[APLICAÇÃO] - (ROUND(Tabela134[RENDA FIXA] * 0.1,2))</f>
+        <v>100</v>
+      </c>
+      <c r="X2" s="4">
+        <f>Tabela134[[#This Row],[PERDA MAX]]/Tabela134[[#This Row],[APLICAÇÃO]]</f>
+        <v>1</v>
+      </c>
+      <c r="Y2" s="4">
+        <f>IF(Tabela134[LUCRO] &lt; (Tabela134[RENDA FIXA]/2), 0.5, 0.8)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z2" s="3">
+        <f>IF(Tabela134[LUCRO] &lt; 0, 0, ROUND(Tabela134[LUCRO]*Tabela134[NO BOLSO], 2))</f>
+        <v>51.28</v>
+      </c>
+      <c r="AA2" s="3">
+        <f>Tabela134[LUCRO]-Tabela134[PROTEÇÃO MÊS]</f>
+        <v>12.819999999999993</v>
+      </c>
+      <c r="AB2" s="3">
+        <f>Tabela134[RENDA FIXA] + Tabela134[PROTEÇÃO MÊS] - Tabela134[APORTE RF]</f>
+        <v>51.28</v>
+      </c>
+      <c r="AC2" s="6">
+        <f>Tabela134[TOT RF] + Tabela134[REINVESTIR] + Tabela134[APLICAÇÃO]</f>
+        <v>164.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>41030</v>
+      </c>
+      <c r="C3" s="3">
+        <v>51.28</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>-123.89</v>
+      </c>
+      <c r="G3" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <f>SUMPRODUCT(N(Tabela134[TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), Tabela134[APORTE]) + SUMPRODUCT(N(Tabela134[TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), Tabela134[APORTE RF])</f>
+        <v>100</v>
+      </c>
+      <c r="I3" s="3">
+        <f>Tabela134[MONTANTE] - SUMPRODUCT(N(Tabela134[TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), Tabela134[SAQUE]) + SUMPRODUCT(N(Tabela134[TRADE] &lt; Tabela134[[#This Row],[TRADE]]), Tabela134[REINVESTIR])</f>
+        <v>112.82</v>
+      </c>
+      <c r="J3" s="3">
+        <f>TRUNC(Tabela134[APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="K3" s="3">
+        <f>TRUNC(Tabela134[APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="L3" s="3">
+        <f>TRUNC(Tabela134[APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M3" s="3">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N3" s="3">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O3" s="3">
+        <f>SETUP!$G$3 + SUM(Tabela134[[#This Row],[EMOL CP]]:Tabela134[[#This Row],[OUTRAS CP]])</f>
+        <v>15.91</v>
+      </c>
+      <c r="P3" s="3">
+        <f>TRUNC(Tabela134[APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>0.08</v>
+      </c>
+      <c r="Q3" s="3">
+        <f>TRUNC(Tabela134[APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>0.06</v>
+      </c>
+      <c r="R3" s="3">
+        <f>TRUNC(Tabela134[APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>0.15</v>
+      </c>
+      <c r="S3" s="3">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T3" s="3">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U3" s="3">
+        <f>SETUP!$G$3 + SUM(Tabela134[[#This Row],[EMOL VD]]:Tabela134[[#This Row],[OUTRAS VD]])</f>
+        <v>16.060000000000002</v>
+      </c>
+      <c r="V3" s="3">
+        <f>(((Tabela134[APLICAÇÃO] * 2) - Tabela134[TAXA VD]) - (Tabela134[APLICAÇÃO] + Tabela134[TAXA CP])) * 0.85</f>
+        <v>68.722499999999997</v>
+      </c>
+      <c r="W3" s="11">
+        <f>Tabela134[APLICAÇÃO] - (ROUND(Tabela134[RENDA FIXA] * 0.1,2))</f>
+        <v>107.69</v>
+      </c>
+      <c r="X3" s="4">
+        <f>Tabela134[[#This Row],[PERDA MAX]]/Tabela134[[#This Row],[APLICAÇÃO]]</f>
+        <v>0.95452933876972168</v>
+      </c>
+      <c r="Y3" s="4">
+        <f>IF(Tabela134[LUCRO] &lt; (Tabela134[RENDA FIXA]/2), 0.5, 0.8)</f>
+        <v>0.5</v>
+      </c>
+      <c r="Z3" s="3">
+        <f>IF(Tabela134[LUCRO] &lt; 0, 0, ROUND(Tabela134[LUCRO]*Tabela134[NO BOLSO], 2))</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="3">
+        <f>Tabela134[LUCRO]-Tabela134[PROTEÇÃO MÊS]</f>
+        <v>-123.89</v>
+      </c>
+      <c r="AB3" s="3">
+        <f>Tabela134[RENDA FIXA] + Tabela134[PROTEÇÃO MÊS] - Tabela134[APORTE RF]</f>
+        <v>51.28</v>
+      </c>
+      <c r="AC3" s="6">
+        <f>Tabela134[TOT RF] + Tabela134[REINVESTIR] + Tabela134[APLICAÇÃO]</f>
+        <v>40.209999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>41061</v>
+      </c>
+      <c r="C4" s="3">
+        <v>51.28</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="G4" s="6">
+        <f>100</f>
+        <v>100</v>
+      </c>
+      <c r="H4" s="6">
+        <f>SUMPRODUCT(N(Tabela134[TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), Tabela134[APORTE]) + SUMPRODUCT(N(Tabela134[TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), Tabela134[APORTE RF])</f>
+        <v>200</v>
+      </c>
+      <c r="I4" s="6">
+        <f>Tabela134[MONTANTE] - SUMPRODUCT(N(Tabela134[TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), Tabela134[SAQUE]) + SUMPRODUCT(N(Tabela134[TRADE] &lt; Tabela134[[#This Row],[TRADE]]), Tabela134[REINVESTIR])</f>
+        <v>88.929999999999993</v>
+      </c>
+      <c r="J4" s="6">
+        <f>TRUNC(Tabela134[APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="K4" s="6">
+        <f>TRUNC(Tabela134[APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="L4" s="6">
+        <f>TRUNC(Tabela134[APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>0.06</v>
+      </c>
+      <c r="M4" s="6">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N4" s="6">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O4" s="6">
+        <f>SETUP!$G$3 + SUM(Tabela134[[#This Row],[EMOL CP]]:Tabela134[[#This Row],[OUTRAS CP]])</f>
+        <v>15.88</v>
+      </c>
+      <c r="P4" s="6">
+        <f>TRUNC(Tabela134[APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>0.06</v>
+      </c>
+      <c r="Q4" s="6">
+        <f>TRUNC(Tabela134[APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="R4" s="6">
+        <f>TRUNC(Tabela134[APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>0.12</v>
+      </c>
+      <c r="S4" s="6">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T4" s="6">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U4" s="6">
+        <f>SETUP!$G$3 + SUM(Tabela134[[#This Row],[EMOL VD]]:Tabela134[[#This Row],[OUTRAS VD]])</f>
+        <v>15.99</v>
+      </c>
+      <c r="V4" s="6">
+        <f>(((Tabela134[APLICAÇÃO] * 2) - Tabela134[TAXA VD]) - (Tabela134[APLICAÇÃO] + Tabela134[TAXA CP])) * 0.85</f>
+        <v>48.500999999999991</v>
+      </c>
+      <c r="W4" s="14">
+        <f>Tabela134[APLICAÇÃO] - (ROUND(Tabela134[RENDA FIXA] * 0.1,2))</f>
+        <v>83.8</v>
+      </c>
+      <c r="X4" s="4">
+        <f>Tabela134[[#This Row],[PERDA MAX]]/Tabela134[[#This Row],[APLICAÇÃO]]</f>
+        <v>0.94231417969189257</v>
+      </c>
+      <c r="Y4" s="15">
+        <f>IF(Tabela134[LUCRO] &lt; (Tabela134[RENDA FIXA]/2), 0.5, 0.8)</f>
+        <v>0.5</v>
+      </c>
+      <c r="Z4" s="6">
+        <f>IF(Tabela134[LUCRO] &lt; 0, 0, ROUND(Tabela134[LUCRO]*Tabela134[NO BOLSO], 2))</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="6">
+        <f>Tabela134[LUCRO]-Tabela134[PROTEÇÃO MÊS]</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="6">
+        <f>Tabela134[RENDA FIXA] + Tabela134[PROTEÇÃO MÊS] - Tabela134[APORTE RF]</f>
+        <v>51.28</v>
+      </c>
+      <c r="AC4" s="6">
+        <f>Tabela134[TOT RF] + Tabela134[REINVESTIR] + Tabela134[APLICAÇÃO]</f>
+        <v>140.20999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan2"/>
   <dimension ref="A1:I3"/>
@@ -4838,23 +7646,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="17" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="20" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4877,9 +7685,9 @@
       <c r="F2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
@@ -4920,17 +7728,4 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Plan3"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/stocks/gama.xlsx
+++ b/stocks/gama.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="210" windowWidth="19320" windowHeight="7305" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="210" windowWidth="19320" windowHeight="7305" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VOLATILIDADE" sheetId="1" r:id="rId1"/>
-    <sheet name="TRAVA" sheetId="3" r:id="rId2"/>
+    <sheet name="TRAVA BAIXA" sheetId="3" r:id="rId2"/>
     <sheet name="TENDENCIA" sheetId="4" r:id="rId3"/>
     <sheet name="SETUP" sheetId="2" r:id="rId4"/>
   </sheets>
@@ -141,7 +141,7 @@
     <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
     <numFmt numFmtId="166" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
-    <numFmt numFmtId="169" formatCode="[$-416]mmm\-yy;@"/>
+    <numFmt numFmtId="167" formatCode="[$-416]mmm\-yy;@"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -256,19 +256,19 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -292,6 +292,686 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -310,6 +990,60 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -346,6 +1080,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -364,6 +1116,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -382,6 +1152,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -413,10 +1184,1256 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
         <color rgb="FFFF0000"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -435,6 +2452,60 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -453,6 +2524,59 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -471,6 +2595,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -485,6 +2627,24 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -507,6 +2667,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -525,6 +2703,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -543,6 +2739,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -561,6 +2775,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -579,6 +2811,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -597,6 +2847,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -615,6 +2883,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -633,6 +2919,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -651,6 +2955,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -669,6 +2991,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -687,6 +3027,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -705,6 +3063,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -723,6 +3099,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -741,6 +3135,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -759,6 +3171,60 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -777,6 +3243,23 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -812,59 +3295,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -883,6 +3313,23 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -901,2489 +3348,42 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="169" formatCode="[$-416]mmm\-yy;@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="169" formatCode="[$-416]mmm\-yy;@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="[$-416]mmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="[$-416]mmm\-yy;@"/>
     </dxf>
     <dxf>
       <font>
@@ -3450,79 +3450,79 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AC31" totalsRowCount="1" headerRowDxfId="176">
   <autoFilter ref="A1:AC30"/>
   <tableColumns count="29">
-    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="175" totalsRowDxfId="88"/>
-    <tableColumn id="2" name="DATA" dataDxfId="90" totalsRowDxfId="87"/>
-    <tableColumn id="12" name="RENDA FIXA" dataDxfId="174" totalsRowDxfId="86" dataCellStyle="Moeda"/>
-    <tableColumn id="26" name="APORTE RF" dataDxfId="173" totalsRowDxfId="85" dataCellStyle="Moeda"/>
-    <tableColumn id="9" name="SAQUE" dataDxfId="172" totalsRowDxfId="84" dataCellStyle="Moeda"/>
-    <tableColumn id="5" name="LUCRO" dataDxfId="171" totalsRowDxfId="83" dataCellStyle="Moeda"/>
-    <tableColumn id="3" name="APORTE" totalsRowFunction="sum" dataDxfId="170" totalsRowDxfId="82" dataCellStyle="Moeda">
+    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="175" totalsRowDxfId="174"/>
+    <tableColumn id="2" name="DATA" dataDxfId="173" totalsRowDxfId="172"/>
+    <tableColumn id="12" name="RENDA FIXA" dataDxfId="171" totalsRowDxfId="170" dataCellStyle="Moeda"/>
+    <tableColumn id="26" name="APORTE RF" dataDxfId="169" totalsRowDxfId="168" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="SAQUE" dataDxfId="167" totalsRowDxfId="166" dataCellStyle="Moeda"/>
+    <tableColumn id="5" name="LUCRO" dataDxfId="165" totalsRowDxfId="164" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="APORTE" totalsRowFunction="sum" dataDxfId="163" totalsRowDxfId="162" dataCellStyle="Moeda">
       <calculatedColumnFormula>380</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="MONTANTE" dataDxfId="169" totalsRowDxfId="81" dataCellStyle="Moeda">
+    <tableColumn id="4" name="MONTANTE" dataDxfId="161" totalsRowDxfId="160" dataCellStyle="Moeda">
       <calculatedColumnFormula>SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE RF])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="168" totalsRowDxfId="80" dataCellStyle="Moeda">
+    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="159" totalsRowDxfId="158" dataCellStyle="Moeda">
       <calculatedColumnFormula>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EMOL CP" dataDxfId="167" totalsRowDxfId="79" dataCellStyle="Moeda">
+    <tableColumn id="11" name="EMOL CP" dataDxfId="157" totalsRowDxfId="156" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="LIQD CP" dataDxfId="166" totalsRowDxfId="78" dataCellStyle="Moeda">
+    <tableColumn id="13" name="LIQD CP" dataDxfId="155" totalsRowDxfId="154" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="REG CP" dataDxfId="165" totalsRowDxfId="77" dataCellStyle="Moeda">
+    <tableColumn id="14" name="REG CP" dataDxfId="153" totalsRowDxfId="152" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="ISS CP" dataDxfId="164" totalsRowDxfId="76" dataCellStyle="Moeda">
+    <tableColumn id="16" name="ISS CP" dataDxfId="151" totalsRowDxfId="150" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="OUTRAS CP" dataDxfId="163" totalsRowDxfId="75" dataCellStyle="Moeda">
+    <tableColumn id="19" name="OUTRAS CP" dataDxfId="149" totalsRowDxfId="148" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="TAXA CP" dataDxfId="162" totalsRowDxfId="74" dataCellStyle="Moeda">
+    <tableColumn id="18" name="TAXA CP" dataDxfId="147" totalsRowDxfId="146" dataCellStyle="Moeda">
       <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="EMOL VD" dataDxfId="161" totalsRowDxfId="73" dataCellStyle="Moeda">
+    <tableColumn id="25" name="EMOL VD" dataDxfId="145" totalsRowDxfId="144" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="LIQD VD" dataDxfId="160" totalsRowDxfId="72" dataCellStyle="Moeda">
+    <tableColumn id="24" name="LIQD VD" dataDxfId="143" totalsRowDxfId="142" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="REG VD" dataDxfId="159" totalsRowDxfId="71" dataCellStyle="Moeda">
+    <tableColumn id="23" name="REG VD" dataDxfId="141" totalsRowDxfId="140" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="ISS VD" dataDxfId="158" totalsRowDxfId="70" dataCellStyle="Moeda">
+    <tableColumn id="22" name="ISS VD" dataDxfId="139" totalsRowDxfId="138" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="OUTRAS VD" dataDxfId="157" totalsRowDxfId="69" dataCellStyle="Moeda">
+    <tableColumn id="21" name="OUTRAS VD" dataDxfId="137" totalsRowDxfId="136" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="TAXA VD" dataDxfId="156" totalsRowDxfId="68" dataCellStyle="Moeda">
+    <tableColumn id="20" name="TAXA VD" dataDxfId="135" totalsRowDxfId="134" dataCellStyle="Moeda">
       <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="PREV LUCRO" dataDxfId="155" totalsRowDxfId="67" dataCellStyle="Moeda">
+    <tableColumn id="17" name="PREV LUCRO" dataDxfId="133" totalsRowDxfId="132" dataCellStyle="Moeda">
       <calculatedColumnFormula>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="PERDA MAX" dataDxfId="154" totalsRowDxfId="66" dataCellStyle="Moeda">
+    <tableColumn id="28" name="PERDA MAX" dataDxfId="131" totalsRowDxfId="130" dataCellStyle="Moeda">
       <calculatedColumnFormula>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="% PERDA" dataDxfId="153" totalsRowDxfId="65" dataCellStyle="Porcentagem">
+    <tableColumn id="29" name="% PERDA" dataDxfId="129" totalsRowDxfId="128" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="NO BOLSO" dataDxfId="89" totalsRowDxfId="64">
+    <tableColumn id="6" name="NO BOLSO" dataDxfId="127" totalsRowDxfId="126">
       <calculatedColumnFormula>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="152" totalsRowDxfId="63" dataCellStyle="Moeda">
+    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="125" totalsRowDxfId="124" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="REINVESTIR" totalsRowFunction="sum" dataDxfId="151" totalsRowDxfId="62" dataCellStyle="Moeda">
+    <tableColumn id="8" name="REINVESTIR" totalsRowFunction="sum" dataDxfId="123" totalsRowDxfId="122" dataCellStyle="Moeda">
       <calculatedColumnFormula>[LUCRO]-[PROTEÇÃO MÊS]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="TOT RF" dataDxfId="150" totalsRowDxfId="61" dataCellStyle="Moeda">
+    <tableColumn id="15" name="TOT RF" dataDxfId="121" totalsRowDxfId="120" dataCellStyle="Moeda">
       <calculatedColumnFormula>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="149" totalsRowDxfId="60" dataCellStyle="Moeda">
+    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="119" totalsRowDxfId="118" dataCellStyle="Moeda">
       <calculatedColumnFormula>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3531,82 +3531,82 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:AC4" totalsRowCount="1" headerRowDxfId="148">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:AC4" totalsRowCount="1" headerRowDxfId="117">
   <autoFilter ref="A1:AC3"/>
   <tableColumns count="29">
-    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="147" totalsRowDxfId="59"/>
-    <tableColumn id="2" name="DATA" dataDxfId="146" totalsRowDxfId="58"/>
-    <tableColumn id="12" name="RENDA FIXA" dataDxfId="145" totalsRowDxfId="57" dataCellStyle="Moeda"/>
-    <tableColumn id="26" name="APORTE RF" dataDxfId="144" totalsRowDxfId="56" dataCellStyle="Moeda"/>
-    <tableColumn id="9" name="SAQUE" dataDxfId="143" totalsRowDxfId="55" dataCellStyle="Moeda"/>
-    <tableColumn id="5" name="LUCRO" dataDxfId="142" totalsRowDxfId="54" dataCellStyle="Moeda"/>
-    <tableColumn id="3" name="APORTE" dataDxfId="141" totalsRowDxfId="53" dataCellStyle="Moeda">
+    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="116" totalsRowDxfId="28"/>
+    <tableColumn id="2" name="DATA" dataDxfId="115" totalsRowDxfId="27"/>
+    <tableColumn id="12" name="RENDA FIXA" dataDxfId="114" totalsRowDxfId="26" dataCellStyle="Moeda"/>
+    <tableColumn id="26" name="APORTE RF" dataDxfId="113" totalsRowDxfId="25" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="SAQUE" dataDxfId="112" totalsRowDxfId="24" dataCellStyle="Moeda"/>
+    <tableColumn id="5" name="LUCRO" dataDxfId="111" totalsRowDxfId="23" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="APORTE" dataDxfId="110" totalsRowDxfId="22" dataCellStyle="Moeda">
       <calculatedColumnFormula>100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="MONTANTE" dataDxfId="140" totalsRowDxfId="52" dataCellStyle="Moeda">
+    <tableColumn id="4" name="MONTANTE" dataDxfId="109" totalsRowDxfId="21" dataCellStyle="Moeda">
       <calculatedColumnFormula>SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE RF])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="139" totalsRowDxfId="51" dataCellStyle="Moeda">
+    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="108" totalsRowDxfId="20" dataCellStyle="Moeda">
       <calculatedColumnFormula>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela13[[#This Row],[TRADE]]), [REINVESTIR])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EMOL CP" dataDxfId="138" totalsRowDxfId="50" dataCellStyle="Moeda">
+    <tableColumn id="11" name="EMOL CP" dataDxfId="107" totalsRowDxfId="19" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="LIQD CP" dataDxfId="137" totalsRowDxfId="49" dataCellStyle="Moeda">
+    <tableColumn id="13" name="LIQD CP" dataDxfId="106" totalsRowDxfId="18" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="REG CP" dataDxfId="136" totalsRowDxfId="48" dataCellStyle="Moeda">
+    <tableColumn id="14" name="REG CP" dataDxfId="105" totalsRowDxfId="17" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="ISS CP" dataDxfId="135" totalsRowDxfId="47" dataCellStyle="Moeda">
+    <tableColumn id="16" name="ISS CP" dataDxfId="104" totalsRowDxfId="16" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="OUTRAS CP" dataDxfId="134" totalsRowDxfId="46" dataCellStyle="Moeda">
+    <tableColumn id="19" name="OUTRAS CP" dataDxfId="103" totalsRowDxfId="15" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="TAXA CP" dataDxfId="133" totalsRowDxfId="45" dataCellStyle="Moeda">
+    <tableColumn id="18" name="TAXA CP" dataDxfId="102" totalsRowDxfId="14" dataCellStyle="Moeda">
       <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL CP]]:Tabela13[[#This Row],[OUTRAS CP]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="EMOL VD" dataDxfId="132" totalsRowDxfId="44" dataCellStyle="Moeda">
+    <tableColumn id="25" name="EMOL VD" dataDxfId="101" totalsRowDxfId="13" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="LIQD VD" dataDxfId="131" totalsRowDxfId="43" dataCellStyle="Moeda">
+    <tableColumn id="24" name="LIQD VD" dataDxfId="100" totalsRowDxfId="12" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="REG VD" dataDxfId="130" totalsRowDxfId="42" dataCellStyle="Moeda">
+    <tableColumn id="23" name="REG VD" dataDxfId="99" totalsRowDxfId="11" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="ISS VD" dataDxfId="129" totalsRowDxfId="41" dataCellStyle="Moeda">
+    <tableColumn id="22" name="ISS VD" dataDxfId="98" totalsRowDxfId="10" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="OUTRAS VD" dataDxfId="128" totalsRowDxfId="40" dataCellStyle="Moeda">
+    <tableColumn id="21" name="OUTRAS VD" dataDxfId="97" totalsRowDxfId="9" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="TAXA VD" dataDxfId="127" totalsRowDxfId="39" dataCellStyle="Moeda">
+    <tableColumn id="20" name="TAXA VD" dataDxfId="96" totalsRowDxfId="8" dataCellStyle="Moeda">
       <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL VD]]:Tabela13[[#This Row],[OUTRAS VD]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="PREV LUCRO" dataDxfId="126" totalsRowDxfId="38" dataCellStyle="Moeda">
+    <tableColumn id="17" name="PREV LUCRO" dataDxfId="95" totalsRowDxfId="7" dataCellStyle="Moeda">
       <calculatedColumnFormula>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="PERDA MAX" dataDxfId="125" totalsRowDxfId="37" dataCellStyle="Moeda">
+    <tableColumn id="28" name="PERDA MAX" dataDxfId="94" totalsRowDxfId="6" dataCellStyle="Moeda">
       <calculatedColumnFormula>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="% PERDA" dataDxfId="124" totalsRowDxfId="36" dataCellStyle="Porcentagem">
+    <tableColumn id="29" name="% PERDA" dataDxfId="93" totalsRowDxfId="5" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="NO BOLSO" dataDxfId="30" totalsRowDxfId="35">
+    <tableColumn id="6" name="NO BOLSO" dataDxfId="92" totalsRowDxfId="4">
       <calculatedColumnFormula>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="123" totalsRowDxfId="34" dataCellStyle="Moeda">
+    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="91" totalsRowDxfId="3" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="REINVESTIR" dataDxfId="122" totalsRowDxfId="33" dataCellStyle="Moeda">
+    <tableColumn id="8" name="REINVESTIR" dataDxfId="90" totalsRowDxfId="2" dataCellStyle="Moeda">
       <calculatedColumnFormula>[LUCRO]-[PROTEÇÃO MÊS]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="TOT RF" dataDxfId="121" totalsRowDxfId="32" dataCellStyle="Moeda">
+    <tableColumn id="15" name="TOT RF" dataDxfId="89" totalsRowDxfId="1" dataCellStyle="Moeda">
       <calculatedColumnFormula>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="120" totalsRowDxfId="31" dataCellStyle="Moeda">
+    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="88" totalsRowDxfId="0" dataCellStyle="Moeda">
       <calculatedColumnFormula>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3615,82 +3615,82 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela134" displayName="Tabela134" ref="A1:AC5" totalsRowCount="1" headerRowDxfId="119">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela134" displayName="Tabela134" ref="A1:AC5" totalsRowCount="1" headerRowDxfId="87">
   <autoFilter ref="A1:AC4"/>
   <tableColumns count="29">
-    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="118" totalsRowDxfId="29"/>
-    <tableColumn id="2" name="DATA" dataDxfId="117" totalsRowDxfId="28"/>
-    <tableColumn id="12" name="RENDA FIXA" dataDxfId="116" totalsRowDxfId="27" dataCellStyle="Moeda"/>
-    <tableColumn id="26" name="APORTE RF" dataDxfId="115" totalsRowDxfId="26" dataCellStyle="Moeda"/>
-    <tableColumn id="9" name="SAQUE" dataDxfId="114" totalsRowDxfId="25" dataCellStyle="Moeda"/>
-    <tableColumn id="5" name="LUCRO" dataDxfId="113" totalsRowDxfId="24" dataCellStyle="Moeda"/>
-    <tableColumn id="3" name="APORTE" dataDxfId="112" totalsRowDxfId="23" dataCellStyle="Moeda">
+    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="86" totalsRowDxfId="85"/>
+    <tableColumn id="2" name="DATA" dataDxfId="84" totalsRowDxfId="83"/>
+    <tableColumn id="12" name="RENDA FIXA" dataDxfId="82" totalsRowDxfId="81" dataCellStyle="Moeda"/>
+    <tableColumn id="26" name="APORTE RF" dataDxfId="80" totalsRowDxfId="79" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="SAQUE" dataDxfId="78" totalsRowDxfId="77" dataCellStyle="Moeda"/>
+    <tableColumn id="5" name="LUCRO" dataDxfId="76" totalsRowDxfId="75" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="APORTE" dataDxfId="74" totalsRowDxfId="73" dataCellStyle="Moeda">
       <calculatedColumnFormula>100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="MONTANTE" dataDxfId="111" totalsRowDxfId="22" dataCellStyle="Moeda">
+    <tableColumn id="4" name="MONTANTE" dataDxfId="72" totalsRowDxfId="71" dataCellStyle="Moeda">
       <calculatedColumnFormula>SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [APORTE RF])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="110" totalsRowDxfId="21" dataCellStyle="Moeda">
+    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="70" totalsRowDxfId="69" dataCellStyle="Moeda">
       <calculatedColumnFormula>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela134[[#This Row],[TRADE]]), [REINVESTIR])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EMOL CP" dataDxfId="109" totalsRowDxfId="20" dataCellStyle="Moeda">
+    <tableColumn id="11" name="EMOL CP" dataDxfId="68" totalsRowDxfId="67" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="LIQD CP" dataDxfId="108" totalsRowDxfId="19" dataCellStyle="Moeda">
+    <tableColumn id="13" name="LIQD CP" dataDxfId="66" totalsRowDxfId="65" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="REG CP" dataDxfId="107" totalsRowDxfId="18" dataCellStyle="Moeda">
+    <tableColumn id="14" name="REG CP" dataDxfId="64" totalsRowDxfId="63" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="ISS CP" dataDxfId="106" totalsRowDxfId="17" dataCellStyle="Moeda">
+    <tableColumn id="16" name="ISS CP" dataDxfId="62" totalsRowDxfId="61" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="OUTRAS CP" dataDxfId="105" totalsRowDxfId="16" dataCellStyle="Moeda">
+    <tableColumn id="19" name="OUTRAS CP" dataDxfId="60" totalsRowDxfId="59" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="TAXA CP" dataDxfId="104" totalsRowDxfId="15" dataCellStyle="Moeda">
+    <tableColumn id="18" name="TAXA CP" dataDxfId="58" totalsRowDxfId="57" dataCellStyle="Moeda">
       <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela134[[#This Row],[EMOL CP]]:Tabela134[[#This Row],[OUTRAS CP]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="EMOL VD" dataDxfId="103" totalsRowDxfId="14" dataCellStyle="Moeda">
+    <tableColumn id="25" name="EMOL VD" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="LIQD VD" dataDxfId="102" totalsRowDxfId="13" dataCellStyle="Moeda">
+    <tableColumn id="24" name="LIQD VD" dataDxfId="54" totalsRowDxfId="53" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="REG VD" dataDxfId="101" totalsRowDxfId="12" dataCellStyle="Moeda">
+    <tableColumn id="23" name="REG VD" dataDxfId="52" totalsRowDxfId="51" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="ISS VD" dataDxfId="100" totalsRowDxfId="11" dataCellStyle="Moeda">
+    <tableColumn id="22" name="ISS VD" dataDxfId="50" totalsRowDxfId="49" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="OUTRAS VD" dataDxfId="99" totalsRowDxfId="10" dataCellStyle="Moeda">
+    <tableColumn id="21" name="OUTRAS VD" dataDxfId="48" totalsRowDxfId="47" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="TAXA VD" dataDxfId="98" totalsRowDxfId="9" dataCellStyle="Moeda">
+    <tableColumn id="20" name="TAXA VD" dataDxfId="46" totalsRowDxfId="45" dataCellStyle="Moeda">
       <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela134[[#This Row],[EMOL VD]]:Tabela134[[#This Row],[OUTRAS VD]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="PREV LUCRO" dataDxfId="97" totalsRowDxfId="8" dataCellStyle="Moeda">
+    <tableColumn id="17" name="PREV LUCRO" dataDxfId="44" totalsRowDxfId="43" dataCellStyle="Moeda">
       <calculatedColumnFormula>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="PERDA MAX" dataDxfId="96" totalsRowDxfId="7" dataCellStyle="Moeda">
+    <tableColumn id="28" name="PERDA MAX" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="Moeda">
       <calculatedColumnFormula>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="% PERDA" dataDxfId="95" totalsRowDxfId="6" dataCellStyle="Porcentagem">
+    <tableColumn id="29" name="% PERDA" dataDxfId="40" totalsRowDxfId="39" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela134[[#This Row],[PERDA MAX]]/Tabela134[[#This Row],[APLICAÇÃO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="NO BOLSO" dataDxfId="0" totalsRowDxfId="5">
+    <tableColumn id="6" name="NO BOLSO" dataDxfId="38" totalsRowDxfId="37">
       <calculatedColumnFormula>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="94" totalsRowDxfId="4" dataCellStyle="Moeda">
+    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="36" totalsRowDxfId="35" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="REINVESTIR" dataDxfId="93" totalsRowDxfId="3" dataCellStyle="Moeda">
+    <tableColumn id="8" name="REINVESTIR" dataDxfId="34" totalsRowDxfId="33" dataCellStyle="Moeda">
       <calculatedColumnFormula>[LUCRO]-[PROTEÇÃO MÊS]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="TOT RF" dataDxfId="92" totalsRowDxfId="2" dataCellStyle="Moeda">
+    <tableColumn id="15" name="TOT RF" dataDxfId="32" totalsRowDxfId="31" dataCellStyle="Moeda">
       <calculatedColumnFormula>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="91" totalsRowDxfId="1" dataCellStyle="Moeda">
+    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="30" totalsRowDxfId="29" dataCellStyle="Moeda">
       <calculatedColumnFormula>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3993,7 +3993,7 @@
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" style="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -4022,7 +4022,7 @@
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -4111,7 +4111,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="20">
         <v>41000</v>
       </c>
       <c r="C2" s="3">
@@ -4223,7 +4223,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="20">
         <v>41030</v>
       </c>
       <c r="C3" s="3">
@@ -4335,7 +4335,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="20">
         <v>41061</v>
       </c>
       <c r="C4" s="3">
@@ -4443,7 +4443,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="20">
         <v>41091</v>
       </c>
       <c r="C5" s="3">
@@ -4551,7 +4551,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="20">
         <v>41122</v>
       </c>
       <c r="C6" s="3">
@@ -4659,7 +4659,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="20">
         <v>41153</v>
       </c>
       <c r="C7" s="3">
@@ -4767,7 +4767,7 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="20">
         <v>41183</v>
       </c>
       <c r="C8" s="3">
@@ -4875,7 +4875,7 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="20">
         <v>41214</v>
       </c>
       <c r="C9" s="3">
@@ -4983,7 +4983,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="20">
         <v>41244</v>
       </c>
       <c r="C10" s="3">
@@ -5091,7 +5091,7 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="20">
         <v>41275</v>
       </c>
       <c r="C11" s="3">
@@ -5199,7 +5199,7 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="20">
         <v>41306</v>
       </c>
       <c r="C12" s="3">
@@ -5307,7 +5307,7 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="20">
         <v>41334</v>
       </c>
       <c r="C13" s="3">
@@ -5415,7 +5415,7 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="20">
         <v>41365</v>
       </c>
       <c r="C14" s="3">
@@ -5523,7 +5523,7 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="20">
         <v>41395</v>
       </c>
       <c r="C15" s="3">
@@ -5631,7 +5631,7 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="20">
         <v>41426</v>
       </c>
       <c r="C16" s="3">
@@ -5739,7 +5739,7 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="20">
         <v>41456</v>
       </c>
       <c r="C17" s="3">
@@ -5847,7 +5847,7 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="20">
         <v>41487</v>
       </c>
       <c r="C18" s="3">
@@ -5955,7 +5955,7 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="20">
         <v>41518</v>
       </c>
       <c r="C19" s="3">
@@ -6063,7 +6063,7 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="20">
         <v>41548</v>
       </c>
       <c r="C20" s="3">
@@ -6171,7 +6171,7 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="20">
         <v>41579</v>
       </c>
       <c r="C21" s="3">
@@ -6279,7 +6279,7 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="20">
         <v>41609</v>
       </c>
       <c r="C22" s="3">
@@ -6387,7 +6387,7 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="20">
         <v>41640</v>
       </c>
       <c r="C23" s="3">
@@ -6495,7 +6495,7 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="20">
         <v>41671</v>
       </c>
       <c r="C24" s="3">
@@ -6603,7 +6603,7 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="20">
         <v>41699</v>
       </c>
       <c r="C25" s="3">
@@ -6711,7 +6711,7 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="20">
         <v>41730</v>
       </c>
       <c r="C26" s="3">
@@ -6819,7 +6819,7 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="22">
+      <c r="B27" s="20">
         <v>41760</v>
       </c>
       <c r="C27" s="3">
@@ -6927,7 +6927,7 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="20">
         <v>41791</v>
       </c>
       <c r="C28" s="3">
@@ -7035,7 +7035,7 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="22">
+      <c r="B29" s="20">
         <v>41821</v>
       </c>
       <c r="C29" s="3">
@@ -7143,106 +7143,106 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30" s="20">
         <v>41852</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="21">
         <v>1075783.71</v>
       </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23">
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21">
         <v>247620.71</v>
       </c>
       <c r="G30" s="6">
         <f>1000</f>
         <v>1000</v>
       </c>
-      <c r="H30" s="24">
+      <c r="H30" s="22">
         <f>SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE RF])</f>
         <v>23580</v>
       </c>
-      <c r="I30" s="24">
+      <c r="I30" s="22">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
         <v>292525.94000000006</v>
       </c>
-      <c r="J30" s="24">
+      <c r="J30" s="22">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
         <v>108.23</v>
       </c>
-      <c r="K30" s="24">
+      <c r="K30" s="22">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
         <v>80.44</v>
       </c>
-      <c r="L30" s="24">
+      <c r="L30" s="22">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
         <v>203.3</v>
       </c>
-      <c r="M30" s="24">
+      <c r="M30" s="22">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="N30" s="24">
+      <c r="N30" s="22">
         <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="O30" s="24">
+      <c r="O30" s="22">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
         <v>407.74</v>
       </c>
-      <c r="P30" s="24">
+      <c r="P30" s="22">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
         <v>216.46</v>
       </c>
-      <c r="Q30" s="24">
+      <c r="Q30" s="22">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
         <v>160.88</v>
       </c>
-      <c r="R30" s="24">
+      <c r="R30" s="22">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
         <v>406.61</v>
       </c>
-      <c r="S30" s="24">
+      <c r="S30" s="22">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="T30" s="24">
+      <c r="T30" s="22">
         <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="U30" s="24">
+      <c r="U30" s="22">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
         <v>799.72</v>
       </c>
-      <c r="V30" s="24">
+      <c r="V30" s="22">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
         <v>247620.70800000007</v>
       </c>
-      <c r="W30" s="25">
+      <c r="W30" s="23">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
         <v>184947.57000000007</v>
       </c>
-      <c r="X30" s="26">
+      <c r="X30" s="24">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
         <v>0.63224331490055219</v>
       </c>
-      <c r="Y30" s="27">
+      <c r="Y30" s="25">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
         <v>0.8</v>
       </c>
-      <c r="Z30" s="24">
+      <c r="Z30" s="22">
         <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
         <v>198096.57</v>
       </c>
-      <c r="AA30" s="24">
+      <c r="AA30" s="22">
         <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
         <v>49524.139999999985</v>
       </c>
-      <c r="AB30" s="24">
+      <c r="AB30" s="22">
         <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
         <v>1273880.28</v>
       </c>
-      <c r="AC30" s="24">
+      <c r="AC30" s="22">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>1615930.3599999999</v>
       </c>
@@ -7297,8 +7297,8 @@
   <sheetPr codeName="Plan3"/>
   <dimension ref="A1:AC4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -7435,7 +7435,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="3">
-        <v>0</v>
+        <v>346.12</v>
       </c>
       <c r="G2" s="3">
         <f>100</f>
@@ -7515,19 +7515,19 @@
       </c>
       <c r="Z2" s="3">
         <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
-        <v>0</v>
+        <v>276.89999999999998</v>
       </c>
       <c r="AA2" s="3">
         <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
-        <v>0</v>
+        <v>69.220000000000027</v>
       </c>
       <c r="AB2" s="3">
         <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
-        <v>0</v>
+        <v>276.89999999999998</v>
       </c>
       <c r="AC2" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>100</v>
+        <v>446.12</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -7556,19 +7556,19 @@
       </c>
       <c r="I3" s="3">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela13[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>200</v>
+        <v>269.22000000000003</v>
       </c>
       <c r="J3" s="3">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="K3" s="3">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L3" s="3">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="M3" s="3">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -7580,19 +7580,19 @@
       </c>
       <c r="O3" s="3">
         <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL CP]]:Tabela13[[#This Row],[OUTRAS CP]])</f>
-        <v>16.02</v>
+        <v>16.11</v>
       </c>
       <c r="P3" s="3">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>0.14000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="Q3" s="3">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R3" s="3">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>0.27</v>
+        <v>0.37</v>
       </c>
       <c r="S3" s="3">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -7604,15 +7604,15 @@
       </c>
       <c r="U3" s="3">
         <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL VD]]:Tabela13[[#This Row],[OUTRAS VD]])</f>
-        <v>16.29</v>
+        <v>16.47</v>
       </c>
       <c r="V3" s="3">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>142.53649999999996</v>
+        <v>201.14399999999998</v>
       </c>
       <c r="W3" s="11">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>200</v>
+        <v>269.22000000000003</v>
       </c>
       <c r="X3" s="4">
         <f>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</f>
@@ -7636,7 +7636,7 @@
       </c>
       <c r="AC3" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>200</v>
+        <v>269.22000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -7682,7 +7682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
@@ -8193,23 +8193,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="27" t="s">
         <v>23</v>
       </c>
     </row>
@@ -8232,9 +8232,9 @@
       <c r="F2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="8">

--- a/stocks/gama.xlsx
+++ b/stocks/gama.xlsx
@@ -8,16 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="VOLATILIDADE" sheetId="1" r:id="rId1"/>
-    <sheet name="TRAVA BAIXA" sheetId="3" r:id="rId2"/>
+    <sheet name="TRAVA" sheetId="3" r:id="rId2"/>
     <sheet name="TENDENCIA" sheetId="4" r:id="rId3"/>
     <sheet name="SETUP" sheetId="2" r:id="rId4"/>
+    <sheet name="RESUMO DE PROTEÇÃO" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="39">
   <si>
     <t>APORTE</t>
   </si>
@@ -132,16 +133,20 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
     <numFmt numFmtId="166" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
     <numFmt numFmtId="167" formatCode="[$-416]mmm\-yy;@"/>
+    <numFmt numFmtId="170" formatCode="[$-416]mmmm\-yy;@"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -236,7 +241,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -269,6 +274,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -292,6 +308,42 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="170" formatCode="[$-416]mmmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="170" formatCode="[$-416]mmmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -328,6 +380,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -346,6 +416,23 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -360,24 +447,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -395,6 +465,508 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="[$-416]mmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
         <color rgb="FFFF0000"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -829,6 +1401,490 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -847,24 +1903,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -883,24 +1921,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -919,24 +1939,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -955,23 +1957,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -990,24 +1975,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -1026,7 +1993,523 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <font>
@@ -1062,24 +2545,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1098,24 +2563,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1134,24 +2581,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1170,24 +2599,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1206,24 +2617,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1242,24 +2635,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1278,24 +2653,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1314,24 +2671,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1350,24 +2689,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1386,24 +2707,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1422,24 +2725,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1458,24 +2743,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1494,24 +2761,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1530,24 +2779,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1566,24 +2797,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1602,24 +2815,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1638,164 +2833,40 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2346,1061 +3417,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="167" formatCode="[$-416]mmm\-yy;@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="[$-416]mmm\-yy;@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -3447,82 +3464,82 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AC31" totalsRowCount="1" headerRowDxfId="176">
-  <autoFilter ref="A1:AC30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AC32" totalsRowCount="1" headerRowDxfId="176">
+  <autoFilter ref="A1:AC31"/>
   <tableColumns count="29">
-    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="175" totalsRowDxfId="174"/>
-    <tableColumn id="2" name="DATA" dataDxfId="173" totalsRowDxfId="172"/>
-    <tableColumn id="12" name="RENDA FIXA" dataDxfId="171" totalsRowDxfId="170" dataCellStyle="Moeda"/>
-    <tableColumn id="26" name="APORTE RF" dataDxfId="169" totalsRowDxfId="168" dataCellStyle="Moeda"/>
-    <tableColumn id="9" name="SAQUE" dataDxfId="167" totalsRowDxfId="166" dataCellStyle="Moeda"/>
-    <tableColumn id="5" name="LUCRO" dataDxfId="165" totalsRowDxfId="164" dataCellStyle="Moeda"/>
-    <tableColumn id="3" name="APORTE" totalsRowFunction="sum" dataDxfId="163" totalsRowDxfId="162" dataCellStyle="Moeda">
+    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="175" totalsRowDxfId="30"/>
+    <tableColumn id="2" name="DATA" dataDxfId="174" totalsRowDxfId="29"/>
+    <tableColumn id="12" name="RENDA FIXA" dataDxfId="173" totalsRowDxfId="28" dataCellStyle="Moeda"/>
+    <tableColumn id="26" name="APORTE RF" dataDxfId="172" totalsRowDxfId="27" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="SAQUE" dataDxfId="171" totalsRowDxfId="26" dataCellStyle="Moeda"/>
+    <tableColumn id="5" name="LUCRO" dataDxfId="170" totalsRowDxfId="25" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="APORTE" totalsRowFunction="sum" dataDxfId="169" totalsRowDxfId="24" dataCellStyle="Moeda">
       <calculatedColumnFormula>380</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="MONTANTE" dataDxfId="161" totalsRowDxfId="160" dataCellStyle="Moeda">
+    <tableColumn id="4" name="MONTANTE" dataDxfId="168" totalsRowDxfId="23" dataCellStyle="Moeda">
       <calculatedColumnFormula>SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE RF])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="159" totalsRowDxfId="158" dataCellStyle="Moeda">
+    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="167" totalsRowDxfId="22" dataCellStyle="Moeda">
       <calculatedColumnFormula>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EMOL CP" dataDxfId="157" totalsRowDxfId="156" dataCellStyle="Moeda">
+    <tableColumn id="11" name="EMOL CP" dataDxfId="166" totalsRowDxfId="21" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="LIQD CP" dataDxfId="155" totalsRowDxfId="154" dataCellStyle="Moeda">
+    <tableColumn id="13" name="LIQD CP" dataDxfId="165" totalsRowDxfId="20" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="REG CP" dataDxfId="153" totalsRowDxfId="152" dataCellStyle="Moeda">
+    <tableColumn id="14" name="REG CP" dataDxfId="164" totalsRowDxfId="19" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="ISS CP" dataDxfId="151" totalsRowDxfId="150" dataCellStyle="Moeda">
+    <tableColumn id="16" name="ISS CP" dataDxfId="163" totalsRowDxfId="18" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="OUTRAS CP" dataDxfId="149" totalsRowDxfId="148" dataCellStyle="Moeda">
+    <tableColumn id="19" name="OUTRAS CP" dataDxfId="162" totalsRowDxfId="17" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="TAXA CP" dataDxfId="147" totalsRowDxfId="146" dataCellStyle="Moeda">
+    <tableColumn id="18" name="TAXA CP" dataDxfId="161" totalsRowDxfId="16" dataCellStyle="Moeda">
       <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="EMOL VD" dataDxfId="145" totalsRowDxfId="144" dataCellStyle="Moeda">
+    <tableColumn id="25" name="EMOL VD" dataDxfId="160" totalsRowDxfId="15" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="LIQD VD" dataDxfId="143" totalsRowDxfId="142" dataCellStyle="Moeda">
+    <tableColumn id="24" name="LIQD VD" dataDxfId="159" totalsRowDxfId="14" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="REG VD" dataDxfId="141" totalsRowDxfId="140" dataCellStyle="Moeda">
+    <tableColumn id="23" name="REG VD" dataDxfId="158" totalsRowDxfId="13" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="ISS VD" dataDxfId="139" totalsRowDxfId="138" dataCellStyle="Moeda">
+    <tableColumn id="22" name="ISS VD" dataDxfId="157" totalsRowDxfId="12" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="OUTRAS VD" dataDxfId="137" totalsRowDxfId="136" dataCellStyle="Moeda">
+    <tableColumn id="21" name="OUTRAS VD" dataDxfId="156" totalsRowDxfId="11" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="TAXA VD" dataDxfId="135" totalsRowDxfId="134" dataCellStyle="Moeda">
+    <tableColumn id="20" name="TAXA VD" dataDxfId="155" totalsRowDxfId="10" dataCellStyle="Moeda">
       <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="PREV LUCRO" dataDxfId="133" totalsRowDxfId="132" dataCellStyle="Moeda">
+    <tableColumn id="17" name="PREV LUCRO" dataDxfId="154" totalsRowDxfId="9" dataCellStyle="Moeda">
       <calculatedColumnFormula>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="PERDA MAX" dataDxfId="131" totalsRowDxfId="130" dataCellStyle="Moeda">
+    <tableColumn id="28" name="PERDA MAX" dataDxfId="153" totalsRowDxfId="8" dataCellStyle="Moeda">
       <calculatedColumnFormula>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="% PERDA" dataDxfId="129" totalsRowDxfId="128" dataCellStyle="Porcentagem">
+    <tableColumn id="29" name="% PERDA" dataDxfId="152" totalsRowDxfId="7" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="NO BOLSO" dataDxfId="127" totalsRowDxfId="126">
+    <tableColumn id="6" name="NO BOLSO" dataDxfId="151" totalsRowDxfId="6">
       <calculatedColumnFormula>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="125" totalsRowDxfId="124" dataCellStyle="Moeda">
+    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="150" totalsRowDxfId="5" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="REINVESTIR" totalsRowFunction="sum" dataDxfId="123" totalsRowDxfId="122" dataCellStyle="Moeda">
+    <tableColumn id="8" name="REINVESTIR" totalsRowFunction="sum" dataDxfId="149" totalsRowDxfId="4" dataCellStyle="Moeda">
       <calculatedColumnFormula>[LUCRO]-[PROTEÇÃO MÊS]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="TOT RF" dataDxfId="121" totalsRowDxfId="120" dataCellStyle="Moeda">
+    <tableColumn id="15" name="TOT RF" dataDxfId="148" totalsRowDxfId="3" dataCellStyle="Moeda">
       <calculatedColumnFormula>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="119" totalsRowDxfId="118" dataCellStyle="Moeda">
+    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="147" totalsRowDxfId="2" dataCellStyle="Moeda">
       <calculatedColumnFormula>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3531,82 +3548,82 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:AC4" totalsRowCount="1" headerRowDxfId="117">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:AC4" totalsRowCount="1" headerRowDxfId="146">
   <autoFilter ref="A1:AC3"/>
   <tableColumns count="29">
-    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="116" totalsRowDxfId="28"/>
-    <tableColumn id="2" name="DATA" dataDxfId="115" totalsRowDxfId="27"/>
-    <tableColumn id="12" name="RENDA FIXA" dataDxfId="114" totalsRowDxfId="26" dataCellStyle="Moeda"/>
-    <tableColumn id="26" name="APORTE RF" dataDxfId="113" totalsRowDxfId="25" dataCellStyle="Moeda"/>
-    <tableColumn id="9" name="SAQUE" dataDxfId="112" totalsRowDxfId="24" dataCellStyle="Moeda"/>
-    <tableColumn id="5" name="LUCRO" dataDxfId="111" totalsRowDxfId="23" dataCellStyle="Moeda"/>
-    <tableColumn id="3" name="APORTE" dataDxfId="110" totalsRowDxfId="22" dataCellStyle="Moeda">
+    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="145" totalsRowDxfId="87"/>
+    <tableColumn id="2" name="DATA" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="12" name="RENDA FIXA" dataDxfId="144" totalsRowDxfId="86" dataCellStyle="Moeda"/>
+    <tableColumn id="26" name="APORTE RF" dataDxfId="143" totalsRowDxfId="85" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="SAQUE" dataDxfId="142" totalsRowDxfId="84" dataCellStyle="Moeda"/>
+    <tableColumn id="5" name="LUCRO" dataDxfId="141" totalsRowDxfId="83" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="APORTE" dataDxfId="140" totalsRowDxfId="82" dataCellStyle="Moeda">
       <calculatedColumnFormula>100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="MONTANTE" dataDxfId="109" totalsRowDxfId="21" dataCellStyle="Moeda">
+    <tableColumn id="4" name="MONTANTE" dataDxfId="139" totalsRowDxfId="81" dataCellStyle="Moeda">
       <calculatedColumnFormula>SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE RF])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="108" totalsRowDxfId="20" dataCellStyle="Moeda">
+    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="138" totalsRowDxfId="80" dataCellStyle="Moeda">
       <calculatedColumnFormula>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela13[[#This Row],[TRADE]]), [REINVESTIR])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EMOL CP" dataDxfId="107" totalsRowDxfId="19" dataCellStyle="Moeda">
+    <tableColumn id="11" name="EMOL CP" dataDxfId="137" totalsRowDxfId="79" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="LIQD CP" dataDxfId="106" totalsRowDxfId="18" dataCellStyle="Moeda">
+    <tableColumn id="13" name="LIQD CP" dataDxfId="136" totalsRowDxfId="78" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="REG CP" dataDxfId="105" totalsRowDxfId="17" dataCellStyle="Moeda">
+    <tableColumn id="14" name="REG CP" dataDxfId="135" totalsRowDxfId="77" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="ISS CP" dataDxfId="104" totalsRowDxfId="16" dataCellStyle="Moeda">
+    <tableColumn id="16" name="ISS CP" dataDxfId="134" totalsRowDxfId="76" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="OUTRAS CP" dataDxfId="103" totalsRowDxfId="15" dataCellStyle="Moeda">
+    <tableColumn id="19" name="OUTRAS CP" dataDxfId="133" totalsRowDxfId="75" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="TAXA CP" dataDxfId="102" totalsRowDxfId="14" dataCellStyle="Moeda">
+    <tableColumn id="18" name="TAXA CP" dataDxfId="132" totalsRowDxfId="74" dataCellStyle="Moeda">
       <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL CP]]:Tabela13[[#This Row],[OUTRAS CP]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="EMOL VD" dataDxfId="101" totalsRowDxfId="13" dataCellStyle="Moeda">
+    <tableColumn id="25" name="EMOL VD" dataDxfId="131" totalsRowDxfId="73" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="LIQD VD" dataDxfId="100" totalsRowDxfId="12" dataCellStyle="Moeda">
+    <tableColumn id="24" name="LIQD VD" dataDxfId="130" totalsRowDxfId="72" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="REG VD" dataDxfId="99" totalsRowDxfId="11" dataCellStyle="Moeda">
+    <tableColumn id="23" name="REG VD" dataDxfId="129" totalsRowDxfId="71" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="ISS VD" dataDxfId="98" totalsRowDxfId="10" dataCellStyle="Moeda">
+    <tableColumn id="22" name="ISS VD" dataDxfId="128" totalsRowDxfId="70" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="OUTRAS VD" dataDxfId="97" totalsRowDxfId="9" dataCellStyle="Moeda">
+    <tableColumn id="21" name="OUTRAS VD" dataDxfId="127" totalsRowDxfId="69" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="TAXA VD" dataDxfId="96" totalsRowDxfId="8" dataCellStyle="Moeda">
+    <tableColumn id="20" name="TAXA VD" dataDxfId="126" totalsRowDxfId="68" dataCellStyle="Moeda">
       <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL VD]]:Tabela13[[#This Row],[OUTRAS VD]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="PREV LUCRO" dataDxfId="95" totalsRowDxfId="7" dataCellStyle="Moeda">
+    <tableColumn id="17" name="PREV LUCRO" dataDxfId="125" totalsRowDxfId="67" dataCellStyle="Moeda">
       <calculatedColumnFormula>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="PERDA MAX" dataDxfId="94" totalsRowDxfId="6" dataCellStyle="Moeda">
+    <tableColumn id="28" name="PERDA MAX" dataDxfId="124" totalsRowDxfId="66" dataCellStyle="Moeda">
       <calculatedColumnFormula>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="% PERDA" dataDxfId="93" totalsRowDxfId="5" dataCellStyle="Porcentagem">
+    <tableColumn id="29" name="% PERDA" dataDxfId="123" totalsRowDxfId="65" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="NO BOLSO" dataDxfId="92" totalsRowDxfId="4">
+    <tableColumn id="6" name="NO BOLSO" dataDxfId="122" totalsRowDxfId="64">
       <calculatedColumnFormula>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="91" totalsRowDxfId="3" dataCellStyle="Moeda">
+    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="121" totalsRowDxfId="63" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="REINVESTIR" dataDxfId="90" totalsRowDxfId="2" dataCellStyle="Moeda">
+    <tableColumn id="8" name="REINVESTIR" dataDxfId="120" totalsRowDxfId="62" dataCellStyle="Moeda">
       <calculatedColumnFormula>[LUCRO]-[PROTEÇÃO MÊS]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="TOT RF" dataDxfId="89" totalsRowDxfId="1" dataCellStyle="Moeda">
+    <tableColumn id="15" name="TOT RF" dataDxfId="119" totalsRowDxfId="61" dataCellStyle="Moeda">
       <calculatedColumnFormula>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="88" totalsRowDxfId="0" dataCellStyle="Moeda">
+    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="118" totalsRowDxfId="60" dataCellStyle="Moeda">
       <calculatedColumnFormula>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3615,82 +3632,82 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela134" displayName="Tabela134" ref="A1:AC5" totalsRowCount="1" headerRowDxfId="87">
-  <autoFilter ref="A1:AC4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela134" displayName="Tabela134" ref="A1:AC4" totalsRowCount="1" headerRowDxfId="117">
+  <autoFilter ref="A1:AC3"/>
   <tableColumns count="29">
-    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="86" totalsRowDxfId="85"/>
-    <tableColumn id="2" name="DATA" dataDxfId="84" totalsRowDxfId="83"/>
-    <tableColumn id="12" name="RENDA FIXA" dataDxfId="82" totalsRowDxfId="81" dataCellStyle="Moeda"/>
-    <tableColumn id="26" name="APORTE RF" dataDxfId="80" totalsRowDxfId="79" dataCellStyle="Moeda"/>
-    <tableColumn id="9" name="SAQUE" dataDxfId="78" totalsRowDxfId="77" dataCellStyle="Moeda"/>
-    <tableColumn id="5" name="LUCRO" dataDxfId="76" totalsRowDxfId="75" dataCellStyle="Moeda"/>
-    <tableColumn id="3" name="APORTE" dataDxfId="74" totalsRowDxfId="73" dataCellStyle="Moeda">
+    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="116" totalsRowDxfId="59"/>
+    <tableColumn id="2" name="DATA" dataDxfId="115" totalsRowDxfId="58"/>
+    <tableColumn id="12" name="RENDA FIXA" dataDxfId="114" totalsRowDxfId="57" dataCellStyle="Moeda"/>
+    <tableColumn id="26" name="APORTE RF" dataDxfId="113" totalsRowDxfId="56" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="SAQUE" dataDxfId="112" totalsRowDxfId="55" dataCellStyle="Moeda"/>
+    <tableColumn id="5" name="LUCRO" dataDxfId="111" totalsRowDxfId="54" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="APORTE" dataDxfId="110" totalsRowDxfId="53" dataCellStyle="Moeda">
       <calculatedColumnFormula>100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="MONTANTE" dataDxfId="72" totalsRowDxfId="71" dataCellStyle="Moeda">
+    <tableColumn id="4" name="MONTANTE" dataDxfId="109" totalsRowDxfId="52" dataCellStyle="Moeda">
       <calculatedColumnFormula>SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [APORTE RF])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="70" totalsRowDxfId="69" dataCellStyle="Moeda">
+    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="108" totalsRowDxfId="51" dataCellStyle="Moeda">
       <calculatedColumnFormula>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela134[[#This Row],[TRADE]]), [REINVESTIR])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EMOL CP" dataDxfId="68" totalsRowDxfId="67" dataCellStyle="Moeda">
+    <tableColumn id="11" name="EMOL CP" dataDxfId="107" totalsRowDxfId="50" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="LIQD CP" dataDxfId="66" totalsRowDxfId="65" dataCellStyle="Moeda">
+    <tableColumn id="13" name="LIQD CP" dataDxfId="106" totalsRowDxfId="49" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="REG CP" dataDxfId="64" totalsRowDxfId="63" dataCellStyle="Moeda">
+    <tableColumn id="14" name="REG CP" dataDxfId="105" totalsRowDxfId="48" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="ISS CP" dataDxfId="62" totalsRowDxfId="61" dataCellStyle="Moeda">
+    <tableColumn id="16" name="ISS CP" dataDxfId="104" totalsRowDxfId="47" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="OUTRAS CP" dataDxfId="60" totalsRowDxfId="59" dataCellStyle="Moeda">
+    <tableColumn id="19" name="OUTRAS CP" dataDxfId="103" totalsRowDxfId="46" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="TAXA CP" dataDxfId="58" totalsRowDxfId="57" dataCellStyle="Moeda">
+    <tableColumn id="18" name="TAXA CP" dataDxfId="102" totalsRowDxfId="45" dataCellStyle="Moeda">
       <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela134[[#This Row],[EMOL CP]]:Tabela134[[#This Row],[OUTRAS CP]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="EMOL VD" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Moeda">
+    <tableColumn id="25" name="EMOL VD" dataDxfId="101" totalsRowDxfId="44" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="LIQD VD" dataDxfId="54" totalsRowDxfId="53" dataCellStyle="Moeda">
+    <tableColumn id="24" name="LIQD VD" dataDxfId="100" totalsRowDxfId="43" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="REG VD" dataDxfId="52" totalsRowDxfId="51" dataCellStyle="Moeda">
+    <tableColumn id="23" name="REG VD" dataDxfId="99" totalsRowDxfId="42" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="ISS VD" dataDxfId="50" totalsRowDxfId="49" dataCellStyle="Moeda">
+    <tableColumn id="22" name="ISS VD" dataDxfId="98" totalsRowDxfId="41" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="OUTRAS VD" dataDxfId="48" totalsRowDxfId="47" dataCellStyle="Moeda">
+    <tableColumn id="21" name="OUTRAS VD" dataDxfId="97" totalsRowDxfId="40" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="TAXA VD" dataDxfId="46" totalsRowDxfId="45" dataCellStyle="Moeda">
+    <tableColumn id="20" name="TAXA VD" dataDxfId="96" totalsRowDxfId="39" dataCellStyle="Moeda">
       <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela134[[#This Row],[EMOL VD]]:Tabela134[[#This Row],[OUTRAS VD]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="PREV LUCRO" dataDxfId="44" totalsRowDxfId="43" dataCellStyle="Moeda">
+    <tableColumn id="17" name="PREV LUCRO" dataDxfId="95" totalsRowDxfId="38" dataCellStyle="Moeda">
       <calculatedColumnFormula>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="PERDA MAX" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="Moeda">
+    <tableColumn id="28" name="PERDA MAX" dataDxfId="94" totalsRowDxfId="37" dataCellStyle="Moeda">
       <calculatedColumnFormula>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="% PERDA" dataDxfId="40" totalsRowDxfId="39" dataCellStyle="Porcentagem">
+    <tableColumn id="29" name="% PERDA" dataDxfId="93" totalsRowDxfId="36" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela134[[#This Row],[PERDA MAX]]/Tabela134[[#This Row],[APLICAÇÃO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="NO BOLSO" dataDxfId="38" totalsRowDxfId="37">
+    <tableColumn id="6" name="NO BOLSO" dataDxfId="92" totalsRowDxfId="35">
       <calculatedColumnFormula>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="36" totalsRowDxfId="35" dataCellStyle="Moeda">
+    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="91" totalsRowDxfId="34" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="REINVESTIR" dataDxfId="34" totalsRowDxfId="33" dataCellStyle="Moeda">
+    <tableColumn id="8" name="REINVESTIR" dataDxfId="90" totalsRowDxfId="33" dataCellStyle="Moeda">
       <calculatedColumnFormula>[LUCRO]-[PROTEÇÃO MÊS]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="TOT RF" dataDxfId="32" totalsRowDxfId="31" dataCellStyle="Moeda">
+    <tableColumn id="15" name="TOT RF" dataDxfId="89" totalsRowDxfId="32" dataCellStyle="Moeda">
       <calculatedColumnFormula>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="30" totalsRowDxfId="29" dataCellStyle="Moeda">
+    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="88" totalsRowDxfId="31" dataCellStyle="Moeda">
       <calculatedColumnFormula>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3984,10 +4001,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Plan1"/>
-  <dimension ref="A1:AC31"/>
+  <dimension ref="A1:AC32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AC7" sqref="AC7"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -7248,41 +7265,149 @@
       </c>
     </row>
     <row r="31" spans="1:29">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="20">
+        <v>41883</v>
+      </c>
+      <c r="C31" s="21">
+        <v>1273880.28</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21">
+        <v>290393.59999999998</v>
+      </c>
+      <c r="G31" s="6">
+        <f>1000</f>
+        <v>1000</v>
+      </c>
+      <c r="H31" s="22">
+        <f>SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE RF])</f>
+        <v>24580</v>
+      </c>
+      <c r="I31" s="22">
+        <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
+        <v>343050.08000000007</v>
+      </c>
+      <c r="J31" s="22">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>126.92</v>
+      </c>
+      <c r="K31" s="22">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>94.33</v>
+      </c>
+      <c r="L31" s="22">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>238.41</v>
+      </c>
+      <c r="M31" s="22">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N31" s="22">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O31" s="22">
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>475.42999999999995</v>
+      </c>
+      <c r="P31" s="22">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>253.85</v>
+      </c>
+      <c r="Q31" s="22">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>188.67</v>
+      </c>
+      <c r="R31" s="22">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>476.83</v>
+      </c>
+      <c r="S31" s="22">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T31" s="22">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U31" s="22">
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>935.11999999999989</v>
+      </c>
+      <c r="V31" s="22">
+        <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
+        <v>290393.60050000006</v>
+      </c>
+      <c r="W31" s="23">
+        <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
+        <v>215662.05000000008</v>
+      </c>
+      <c r="X31" s="24">
+        <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
+        <v>0.6286605442563955</v>
+      </c>
+      <c r="Y31" s="25">
+        <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z31" s="22">
+        <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
+        <v>232314.88</v>
+      </c>
+      <c r="AA31" s="22">
+        <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
+        <v>58078.719999999972</v>
+      </c>
+      <c r="AB31" s="22">
+        <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
+        <v>1506195.1600000001</v>
+      </c>
+      <c r="AC31" s="22">
+        <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
+        <v>1907323.9600000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29">
+      <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="16">
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="16">
         <f>SUBTOTAL(109,[APORTE])</f>
-        <v>23580</v>
-      </c>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="18"/>
-      <c r="X31" s="17"/>
-      <c r="Z31" s="17"/>
-      <c r="AA31" s="16">
+        <v>24580</v>
+      </c>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="18"/>
+      <c r="X32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="16">
         <f>SUBTOTAL(109,[REINVESTIR])</f>
-        <v>318470.08000000007</v>
-      </c>
-      <c r="AB31" s="17"/>
-      <c r="AC31" s="16"/>
+        <v>376548.80000000005</v>
+      </c>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -7298,14 +7423,14 @@
   <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
@@ -7333,7 +7458,7 @@
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="32" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -7422,8 +7547,8 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>41030</v>
+      <c r="B2" s="28">
+        <v>41000</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
@@ -7435,10 +7560,9 @@
         <v>0</v>
       </c>
       <c r="F2" s="3">
-        <v>346.12</v>
+        <v>0</v>
       </c>
       <c r="G2" s="3">
-        <f>100</f>
         <v>100</v>
       </c>
       <c r="H2" s="3">
@@ -7515,27 +7639,27 @@
       </c>
       <c r="Z2" s="3">
         <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
-        <v>276.89999999999998</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="3">
         <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
-        <v>69.220000000000027</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="3">
         <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
-        <v>276.89999999999998</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>446.12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
-        <v>41061</v>
+      <c r="B3" s="28">
+        <v>41030</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -7546,29 +7670,31 @@
       <c r="E3" s="3">
         <v>0</v>
       </c>
+      <c r="F3" s="3">
+        <v>491.56</v>
+      </c>
       <c r="G3" s="3">
-        <f>100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H3" s="3">
         <f>SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE RF])</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I3" s="3">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela13[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>269.22000000000003</v>
+        <v>100</v>
       </c>
       <c r="J3" s="3">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="K3" s="3">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.02</v>
       </c>
       <c r="L3" s="3">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="M3" s="3">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -7580,19 +7706,19 @@
       </c>
       <c r="O3" s="3">
         <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL CP]]:Tabela13[[#This Row],[OUTRAS CP]])</f>
-        <v>16.11</v>
+        <v>15.88</v>
       </c>
       <c r="P3" s="3">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>0.19</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q3" s="3">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>0.14000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="R3" s="3">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>0.37</v>
+        <v>0.13</v>
       </c>
       <c r="S3" s="3">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -7604,15 +7730,15 @@
       </c>
       <c r="U3" s="3">
         <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL VD]]:Tabela13[[#This Row],[OUTRAS VD]])</f>
-        <v>16.47</v>
+        <v>16.02</v>
       </c>
       <c r="V3" s="3">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>201.14399999999998</v>
+        <v>57.884999999999991</v>
       </c>
       <c r="W3" s="11">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>269.22000000000003</v>
+        <v>100</v>
       </c>
       <c r="X3" s="4">
         <f>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</f>
@@ -7624,19 +7750,19 @@
       </c>
       <c r="Z3" s="3">
         <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
-        <v>0</v>
+        <v>393.25</v>
       </c>
       <c r="AA3" s="3">
         <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
-        <v>0</v>
+        <v>98.31</v>
       </c>
       <c r="AB3" s="3">
         <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
-        <v>0</v>
+        <v>393.25</v>
       </c>
       <c r="AC3" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>269.22000000000003</v>
+        <v>591.55999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -7680,10 +7806,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC5"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -7808,7 +7934,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>41030</v>
+        <v>41000</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
@@ -7818,9 +7944,6 @@
       </c>
       <c r="E2" s="3">
         <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>64.099999999999994</v>
       </c>
       <c r="G2" s="3">
         <f>100</f>
@@ -7900,19 +8023,19 @@
       </c>
       <c r="Z2" s="3">
         <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
-        <v>51.28</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="3">
         <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
-        <v>12.819999999999993</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="3">
         <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
-        <v>51.28</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>164.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -7923,245 +8046,135 @@
         <v>41030</v>
       </c>
       <c r="C3" s="3">
-        <v>51.28</v>
-      </c>
-      <c r="D3" s="3">
         <v>0</v>
       </c>
-      <c r="E3" s="3">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3">
+        <v>-59.79</v>
+      </c>
+      <c r="G3" s="6">
         <v>0</v>
       </c>
-      <c r="F3" s="3">
-        <v>-123.89</v>
-      </c>
-      <c r="G3" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="H3" s="6">
         <f>SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [APORTE RF])</f>
         <v>100</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela134[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>112.82</v>
-      </c>
-      <c r="J3" s="3">
+        <v>100</v>
+      </c>
+      <c r="J3" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>0.04</v>
-      </c>
-      <c r="K3" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="K3" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>0.03</v>
-      </c>
-      <c r="L3" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="L3" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M3" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="M3" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="6">
         <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="6">
         <f>SETUP!$G$3 + SUM(Tabela134[[#This Row],[EMOL CP]]:Tabela134[[#This Row],[OUTRAS CP]])</f>
-        <v>15.91</v>
-      </c>
-      <c r="P3" s="3">
+        <v>15.88</v>
+      </c>
+      <c r="P3" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>0.08</v>
-      </c>
-      <c r="Q3" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q3" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>0.06</v>
-      </c>
-      <c r="R3" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="R3" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>0.15</v>
-      </c>
-      <c r="S3" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="S3" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="6">
         <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="6">
         <f>SETUP!$G$3 + SUM(Tabela134[[#This Row],[EMOL VD]]:Tabela134[[#This Row],[OUTRAS VD]])</f>
-        <v>16.060000000000002</v>
-      </c>
-      <c r="V3" s="3">
+        <v>16.02</v>
+      </c>
+      <c r="V3" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>68.722499999999997</v>
-      </c>
-      <c r="W3" s="11">
+        <v>57.884999999999991</v>
+      </c>
+      <c r="W3" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>107.69</v>
+        <v>100</v>
       </c>
       <c r="X3" s="4">
         <f>Tabela134[[#This Row],[PERDA MAX]]/Tabela134[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.95452933876972168</v>
-      </c>
-      <c r="Y3" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
         <v>0.8</v>
       </c>
-      <c r="Z3" s="3">
+      <c r="Z3" s="6">
         <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="3">
+      <c r="AA3" s="6">
         <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
-        <v>-123.89</v>
-      </c>
-      <c r="AB3" s="3">
+        <v>-59.79</v>
+      </c>
+      <c r="AB3" s="6">
         <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
-        <v>51.28</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>40.209999999999994</v>
+        <v>40.21</v>
       </c>
     </row>
     <row r="4" spans="1:29">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>41061</v>
-      </c>
-      <c r="C4" s="3">
-        <v>51.28</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="G4" s="6">
-        <f>100</f>
-        <v>100</v>
-      </c>
-      <c r="H4" s="6">
-        <f>SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [APORTE RF])</f>
-        <v>200</v>
-      </c>
-      <c r="I4" s="6">
-        <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela134[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>88.929999999999993</v>
-      </c>
-      <c r="J4" s="6">
-        <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>0.03</v>
-      </c>
-      <c r="K4" s="6">
-        <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>0.02</v>
-      </c>
-      <c r="L4" s="6">
-        <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>0.06</v>
-      </c>
-      <c r="M4" s="6">
-        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="N4" s="6">
-        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="O4" s="6">
-        <f>SETUP!$G$3 + SUM(Tabela134[[#This Row],[EMOL CP]]:Tabela134[[#This Row],[OUTRAS CP]])</f>
-        <v>15.88</v>
-      </c>
-      <c r="P4" s="6">
-        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>0.06</v>
-      </c>
-      <c r="Q4" s="6">
-        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>0.04</v>
-      </c>
-      <c r="R4" s="6">
-        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>0.12</v>
-      </c>
-      <c r="S4" s="6">
-        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="T4" s="6">
-        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="U4" s="6">
-        <f>SETUP!$G$3 + SUM(Tabela134[[#This Row],[EMOL VD]]:Tabela134[[#This Row],[OUTRAS VD]])</f>
-        <v>15.99</v>
-      </c>
-      <c r="V4" s="6">
-        <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>48.500999999999991</v>
-      </c>
-      <c r="W4" s="14">
-        <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>83.8</v>
-      </c>
-      <c r="X4" s="4">
-        <f>Tabela134[[#This Row],[PERDA MAX]]/Tabela134[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.94231417969189257</v>
-      </c>
-      <c r="Y4" s="15">
-        <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
-        <v>0.8</v>
-      </c>
-      <c r="Z4" s="6">
-        <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
-        <v>0</v>
-      </c>
-      <c r="AA4" s="6">
-        <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
-        <v>0</v>
-      </c>
-      <c r="AB4" s="6">
-        <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
-        <v>51.28</v>
-      </c>
-      <c r="AC4" s="6">
-        <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>140.20999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
-      <c r="A5" s="1" t="s">
+      <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -8275,4 +8288,53 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="28"/>
+    <col min="2" max="2" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="31" customFormat="1">
+      <c r="A1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="28">
+        <f>VOLATILIDADE!B2</f>
+        <v>41000</v>
+      </c>
+      <c r="B2" s="3">
+        <f>Tabela13[[#This Row],[PROTEÇÃO MÊS]]+Tabela134[[#This Row],[PROTEÇÃO MÊS]]+Tabela1[[#This Row],[PROTEÇÃO MÊS]]</f>
+        <v>293.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="28">
+        <f>VOLATILIDADE!B3</f>
+        <v>41030</v>
+      </c>
+      <c r="B3" s="3">
+        <f>Tabela13[[#This Row],[PROTEÇÃO MÊS]]+Tabela134[[#This Row],[PROTEÇÃO MÊS]]+Tabela1[[#This Row],[PROTEÇÃO MÊS]]</f>
+        <v>393.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/stocks/gama.xlsx
+++ b/stocks/gama.xlsx
@@ -146,9 +146,9 @@
     <numFmt numFmtId="165" formatCode="0.0000%"/>
     <numFmt numFmtId="166" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
     <numFmt numFmtId="167" formatCode="[$-416]mmm\-yy;@"/>
-    <numFmt numFmtId="170" formatCode="[$-416]mmmm\-yy;@"/>
+    <numFmt numFmtId="168" formatCode="[$-416]mmmm\-yy;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +209,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -241,7 +253,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -268,14 +280,8 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -284,7 +290,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -308,42 +331,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="170" formatCode="[$-416]mmmm\-yy;@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="[$-416]mmmm\-yy;@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -380,6 +367,490 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="[$-416]mmmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -398,6 +869,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -416,6 +905,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -447,6 +937,131 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
         <color rgb="FFFF0000"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -465,6 +1080,24 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -487,6 +1120,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -505,6 +1156,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -523,6 +1192,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -541,6 +1228,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -559,6 +1264,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -577,6 +1300,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -595,6 +1336,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -613,6 +1372,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -631,6 +1408,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -649,6 +1444,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -667,6 +1480,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -685,6 +1516,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -703,6 +1552,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -721,6 +1588,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -775,6 +1660,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -793,6 +1696,23 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -811,6 +1731,23 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -829,6 +1766,1645 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="169" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="[$-416]mmmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="167" formatCode="[$-416]mmm\-yy;@"/>
     </dxf>
     <dxf>
@@ -847,2577 +3423,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="167" formatCode="[$-416]mmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -3467,79 +3490,79 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AC32" totalsRowCount="1" headerRowDxfId="176">
   <autoFilter ref="A1:AC31"/>
   <tableColumns count="29">
-    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="175" totalsRowDxfId="30"/>
-    <tableColumn id="2" name="DATA" dataDxfId="174" totalsRowDxfId="29"/>
-    <tableColumn id="12" name="RENDA FIXA" dataDxfId="173" totalsRowDxfId="28" dataCellStyle="Moeda"/>
-    <tableColumn id="26" name="APORTE RF" dataDxfId="172" totalsRowDxfId="27" dataCellStyle="Moeda"/>
-    <tableColumn id="9" name="SAQUE" dataDxfId="171" totalsRowDxfId="26" dataCellStyle="Moeda"/>
-    <tableColumn id="5" name="LUCRO" dataDxfId="170" totalsRowDxfId="25" dataCellStyle="Moeda"/>
-    <tableColumn id="3" name="APORTE" totalsRowFunction="sum" dataDxfId="169" totalsRowDxfId="24" dataCellStyle="Moeda">
+    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="175" totalsRowDxfId="174"/>
+    <tableColumn id="2" name="DATA" dataDxfId="173" totalsRowDxfId="172"/>
+    <tableColumn id="12" name="RENDA FIXA" dataDxfId="171" totalsRowDxfId="170" dataCellStyle="Moeda"/>
+    <tableColumn id="26" name="APORTE RF" dataDxfId="169" totalsRowDxfId="168" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="SAQUE" dataDxfId="167" totalsRowDxfId="166" dataCellStyle="Moeda"/>
+    <tableColumn id="5" name="LUCRO" dataDxfId="165" totalsRowDxfId="164" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="APORTE" totalsRowFunction="sum" dataDxfId="163" totalsRowDxfId="162" dataCellStyle="Moeda">
       <calculatedColumnFormula>380</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="MONTANTE" dataDxfId="168" totalsRowDxfId="23" dataCellStyle="Moeda">
+    <tableColumn id="4" name="MONTANTE" dataDxfId="161" totalsRowDxfId="160" dataCellStyle="Moeda">
       <calculatedColumnFormula>SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE RF])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="167" totalsRowDxfId="22" dataCellStyle="Moeda">
+    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="159" totalsRowDxfId="158" dataCellStyle="Moeda">
       <calculatedColumnFormula>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EMOL CP" dataDxfId="166" totalsRowDxfId="21" dataCellStyle="Moeda">
+    <tableColumn id="11" name="EMOL CP" dataDxfId="157" totalsRowDxfId="156" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="LIQD CP" dataDxfId="165" totalsRowDxfId="20" dataCellStyle="Moeda">
+    <tableColumn id="13" name="LIQD CP" dataDxfId="155" totalsRowDxfId="154" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="REG CP" dataDxfId="164" totalsRowDxfId="19" dataCellStyle="Moeda">
+    <tableColumn id="14" name="REG CP" dataDxfId="153" totalsRowDxfId="152" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="ISS CP" dataDxfId="163" totalsRowDxfId="18" dataCellStyle="Moeda">
+    <tableColumn id="16" name="ISS CP" dataDxfId="151" totalsRowDxfId="150" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="OUTRAS CP" dataDxfId="162" totalsRowDxfId="17" dataCellStyle="Moeda">
+    <tableColumn id="19" name="OUTRAS CP" dataDxfId="149" totalsRowDxfId="148" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="TAXA CP" dataDxfId="161" totalsRowDxfId="16" dataCellStyle="Moeda">
+    <tableColumn id="18" name="TAXA CP" dataDxfId="147" totalsRowDxfId="146" dataCellStyle="Moeda">
       <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="EMOL VD" dataDxfId="160" totalsRowDxfId="15" dataCellStyle="Moeda">
+    <tableColumn id="25" name="EMOL VD" dataDxfId="145" totalsRowDxfId="144" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="LIQD VD" dataDxfId="159" totalsRowDxfId="14" dataCellStyle="Moeda">
+    <tableColumn id="24" name="LIQD VD" dataDxfId="143" totalsRowDxfId="142" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="REG VD" dataDxfId="158" totalsRowDxfId="13" dataCellStyle="Moeda">
+    <tableColumn id="23" name="REG VD" dataDxfId="141" totalsRowDxfId="140" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="ISS VD" dataDxfId="157" totalsRowDxfId="12" dataCellStyle="Moeda">
+    <tableColumn id="22" name="ISS VD" dataDxfId="139" totalsRowDxfId="138" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="OUTRAS VD" dataDxfId="156" totalsRowDxfId="11" dataCellStyle="Moeda">
+    <tableColumn id="21" name="OUTRAS VD" dataDxfId="137" totalsRowDxfId="136" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="TAXA VD" dataDxfId="155" totalsRowDxfId="10" dataCellStyle="Moeda">
+    <tableColumn id="20" name="TAXA VD" dataDxfId="135" totalsRowDxfId="134" dataCellStyle="Moeda">
       <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="PREV LUCRO" dataDxfId="154" totalsRowDxfId="9" dataCellStyle="Moeda">
+    <tableColumn id="17" name="PREV LUCRO" dataDxfId="133" totalsRowDxfId="132" dataCellStyle="Moeda">
       <calculatedColumnFormula>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="PERDA MAX" dataDxfId="153" totalsRowDxfId="8" dataCellStyle="Moeda">
+    <tableColumn id="28" name="PERDA MAX" dataDxfId="131" totalsRowDxfId="130" dataCellStyle="Moeda">
       <calculatedColumnFormula>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="% PERDA" dataDxfId="152" totalsRowDxfId="7" dataCellStyle="Porcentagem">
+    <tableColumn id="29" name="% PERDA" dataDxfId="129" totalsRowDxfId="128" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="NO BOLSO" dataDxfId="151" totalsRowDxfId="6">
+    <tableColumn id="6" name="NO BOLSO" dataDxfId="127" totalsRowDxfId="126">
       <calculatedColumnFormula>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="150" totalsRowDxfId="5" dataCellStyle="Moeda">
+    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="125" totalsRowDxfId="124" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="REINVESTIR" totalsRowFunction="sum" dataDxfId="149" totalsRowDxfId="4" dataCellStyle="Moeda">
+    <tableColumn id="8" name="REINVESTIR" totalsRowFunction="sum" dataDxfId="123" totalsRowDxfId="122" dataCellStyle="Moeda">
       <calculatedColumnFormula>[LUCRO]-[PROTEÇÃO MÊS]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="TOT RF" dataDxfId="148" totalsRowDxfId="3" dataCellStyle="Moeda">
+    <tableColumn id="15" name="TOT RF" dataDxfId="121" totalsRowDxfId="120" dataCellStyle="Moeda">
       <calculatedColumnFormula>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="147" totalsRowDxfId="2" dataCellStyle="Moeda">
+    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="119" totalsRowDxfId="118" dataCellStyle="Moeda">
       <calculatedColumnFormula>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3548,82 +3571,82 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:AC4" totalsRowCount="1" headerRowDxfId="146">
-  <autoFilter ref="A1:AC3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:AC5" totalsRowCount="1" headerRowDxfId="117">
+  <autoFilter ref="A1:AC4"/>
   <tableColumns count="29">
-    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="145" totalsRowDxfId="87"/>
-    <tableColumn id="2" name="DATA" dataDxfId="1" totalsRowDxfId="0"/>
-    <tableColumn id="12" name="RENDA FIXA" dataDxfId="144" totalsRowDxfId="86" dataCellStyle="Moeda"/>
-    <tableColumn id="26" name="APORTE RF" dataDxfId="143" totalsRowDxfId="85" dataCellStyle="Moeda"/>
-    <tableColumn id="9" name="SAQUE" dataDxfId="142" totalsRowDxfId="84" dataCellStyle="Moeda"/>
-    <tableColumn id="5" name="LUCRO" dataDxfId="141" totalsRowDxfId="83" dataCellStyle="Moeda"/>
-    <tableColumn id="3" name="APORTE" dataDxfId="140" totalsRowDxfId="82" dataCellStyle="Moeda">
+    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="116" totalsRowDxfId="28"/>
+    <tableColumn id="2" name="DATA" dataDxfId="115" totalsRowDxfId="27"/>
+    <tableColumn id="12" name="RENDA FIXA" dataDxfId="114" totalsRowDxfId="26" dataCellStyle="Moeda"/>
+    <tableColumn id="26" name="APORTE RF" dataDxfId="113" totalsRowDxfId="25" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="SAQUE" dataDxfId="112" totalsRowDxfId="24" dataCellStyle="Moeda"/>
+    <tableColumn id="5" name="LUCRO" dataDxfId="111" totalsRowDxfId="23" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="APORTE" dataDxfId="110" totalsRowDxfId="22" dataCellStyle="Moeda">
       <calculatedColumnFormula>100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="MONTANTE" dataDxfId="139" totalsRowDxfId="81" dataCellStyle="Moeda">
+    <tableColumn id="4" name="MONTANTE" dataDxfId="109" totalsRowDxfId="21" dataCellStyle="Moeda">
       <calculatedColumnFormula>SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE RF])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="138" totalsRowDxfId="80" dataCellStyle="Moeda">
+    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="108" totalsRowDxfId="20" dataCellStyle="Moeda">
       <calculatedColumnFormula>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela13[[#This Row],[TRADE]]), [REINVESTIR])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EMOL CP" dataDxfId="137" totalsRowDxfId="79" dataCellStyle="Moeda">
+    <tableColumn id="11" name="EMOL CP" dataDxfId="107" totalsRowDxfId="19" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="LIQD CP" dataDxfId="136" totalsRowDxfId="78" dataCellStyle="Moeda">
+    <tableColumn id="13" name="LIQD CP" dataDxfId="106" totalsRowDxfId="18" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="REG CP" dataDxfId="135" totalsRowDxfId="77" dataCellStyle="Moeda">
+    <tableColumn id="14" name="REG CP" dataDxfId="105" totalsRowDxfId="17" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="ISS CP" dataDxfId="134" totalsRowDxfId="76" dataCellStyle="Moeda">
+    <tableColumn id="16" name="ISS CP" dataDxfId="104" totalsRowDxfId="16" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="OUTRAS CP" dataDxfId="133" totalsRowDxfId="75" dataCellStyle="Moeda">
+    <tableColumn id="19" name="OUTRAS CP" dataDxfId="103" totalsRowDxfId="15" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="TAXA CP" dataDxfId="132" totalsRowDxfId="74" dataCellStyle="Moeda">
+    <tableColumn id="18" name="TAXA CP" dataDxfId="102" totalsRowDxfId="14" dataCellStyle="Moeda">
       <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL CP]]:Tabela13[[#This Row],[OUTRAS CP]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="EMOL VD" dataDxfId="131" totalsRowDxfId="73" dataCellStyle="Moeda">
+    <tableColumn id="25" name="EMOL VD" dataDxfId="101" totalsRowDxfId="13" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="LIQD VD" dataDxfId="130" totalsRowDxfId="72" dataCellStyle="Moeda">
+    <tableColumn id="24" name="LIQD VD" dataDxfId="100" totalsRowDxfId="12" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="REG VD" dataDxfId="129" totalsRowDxfId="71" dataCellStyle="Moeda">
+    <tableColumn id="23" name="REG VD" dataDxfId="99" totalsRowDxfId="11" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="ISS VD" dataDxfId="128" totalsRowDxfId="70" dataCellStyle="Moeda">
+    <tableColumn id="22" name="ISS VD" dataDxfId="98" totalsRowDxfId="10" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="OUTRAS VD" dataDxfId="127" totalsRowDxfId="69" dataCellStyle="Moeda">
+    <tableColumn id="21" name="OUTRAS VD" dataDxfId="97" totalsRowDxfId="9" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="TAXA VD" dataDxfId="126" totalsRowDxfId="68" dataCellStyle="Moeda">
+    <tableColumn id="20" name="TAXA VD" dataDxfId="96" totalsRowDxfId="8" dataCellStyle="Moeda">
       <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL VD]]:Tabela13[[#This Row],[OUTRAS VD]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="PREV LUCRO" dataDxfId="125" totalsRowDxfId="67" dataCellStyle="Moeda">
+    <tableColumn id="17" name="PREV LUCRO" dataDxfId="95" totalsRowDxfId="7" dataCellStyle="Moeda">
       <calculatedColumnFormula>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="PERDA MAX" dataDxfId="124" totalsRowDxfId="66" dataCellStyle="Moeda">
+    <tableColumn id="28" name="PERDA MAX" dataDxfId="94" totalsRowDxfId="6" dataCellStyle="Moeda">
       <calculatedColumnFormula>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="% PERDA" dataDxfId="123" totalsRowDxfId="65" dataCellStyle="Porcentagem">
+    <tableColumn id="29" name="% PERDA" dataDxfId="93" totalsRowDxfId="5" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="NO BOLSO" dataDxfId="122" totalsRowDxfId="64">
+    <tableColumn id="6" name="NO BOLSO" dataDxfId="92" totalsRowDxfId="4">
       <calculatedColumnFormula>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="121" totalsRowDxfId="63" dataCellStyle="Moeda">
+    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="91" totalsRowDxfId="3" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="REINVESTIR" dataDxfId="120" totalsRowDxfId="62" dataCellStyle="Moeda">
+    <tableColumn id="8" name="REINVESTIR" dataDxfId="90" totalsRowDxfId="2" dataCellStyle="Moeda">
       <calculatedColumnFormula>[LUCRO]-[PROTEÇÃO MÊS]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="TOT RF" dataDxfId="119" totalsRowDxfId="61" dataCellStyle="Moeda">
+    <tableColumn id="15" name="TOT RF" dataDxfId="89" totalsRowDxfId="1" dataCellStyle="Moeda">
       <calculatedColumnFormula>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="118" totalsRowDxfId="60" dataCellStyle="Moeda">
+    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="88" totalsRowDxfId="0" dataCellStyle="Moeda">
       <calculatedColumnFormula>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3632,82 +3655,82 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela134" displayName="Tabela134" ref="A1:AC4" totalsRowCount="1" headerRowDxfId="117">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela134" displayName="Tabela134" ref="A1:AC4" totalsRowCount="1" headerRowDxfId="87">
   <autoFilter ref="A1:AC3"/>
   <tableColumns count="29">
-    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="116" totalsRowDxfId="59"/>
-    <tableColumn id="2" name="DATA" dataDxfId="115" totalsRowDxfId="58"/>
-    <tableColumn id="12" name="RENDA FIXA" dataDxfId="114" totalsRowDxfId="57" dataCellStyle="Moeda"/>
-    <tableColumn id="26" name="APORTE RF" dataDxfId="113" totalsRowDxfId="56" dataCellStyle="Moeda"/>
-    <tableColumn id="9" name="SAQUE" dataDxfId="112" totalsRowDxfId="55" dataCellStyle="Moeda"/>
-    <tableColumn id="5" name="LUCRO" dataDxfId="111" totalsRowDxfId="54" dataCellStyle="Moeda"/>
-    <tableColumn id="3" name="APORTE" dataDxfId="110" totalsRowDxfId="53" dataCellStyle="Moeda">
+    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="86" totalsRowDxfId="85"/>
+    <tableColumn id="2" name="DATA" dataDxfId="84" totalsRowDxfId="83"/>
+    <tableColumn id="12" name="RENDA FIXA" dataDxfId="82" totalsRowDxfId="81" dataCellStyle="Moeda"/>
+    <tableColumn id="26" name="APORTE RF" dataDxfId="80" totalsRowDxfId="79" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="SAQUE" dataDxfId="78" totalsRowDxfId="77" dataCellStyle="Moeda"/>
+    <tableColumn id="5" name="LUCRO" dataDxfId="76" totalsRowDxfId="75" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="APORTE" dataDxfId="74" totalsRowDxfId="73" dataCellStyle="Moeda">
       <calculatedColumnFormula>100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="MONTANTE" dataDxfId="109" totalsRowDxfId="52" dataCellStyle="Moeda">
+    <tableColumn id="4" name="MONTANTE" dataDxfId="72" totalsRowDxfId="71" dataCellStyle="Moeda">
       <calculatedColumnFormula>SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [APORTE RF])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="108" totalsRowDxfId="51" dataCellStyle="Moeda">
+    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="70" totalsRowDxfId="69" dataCellStyle="Moeda">
       <calculatedColumnFormula>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela134[[#This Row],[TRADE]]), [REINVESTIR])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EMOL CP" dataDxfId="107" totalsRowDxfId="50" dataCellStyle="Moeda">
+    <tableColumn id="11" name="EMOL CP" dataDxfId="68" totalsRowDxfId="67" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="LIQD CP" dataDxfId="106" totalsRowDxfId="49" dataCellStyle="Moeda">
+    <tableColumn id="13" name="LIQD CP" dataDxfId="66" totalsRowDxfId="65" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="REG CP" dataDxfId="105" totalsRowDxfId="48" dataCellStyle="Moeda">
+    <tableColumn id="14" name="REG CP" dataDxfId="64" totalsRowDxfId="63" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="ISS CP" dataDxfId="104" totalsRowDxfId="47" dataCellStyle="Moeda">
+    <tableColumn id="16" name="ISS CP" dataDxfId="62" totalsRowDxfId="61" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="OUTRAS CP" dataDxfId="103" totalsRowDxfId="46" dataCellStyle="Moeda">
+    <tableColumn id="19" name="OUTRAS CP" dataDxfId="60" totalsRowDxfId="59" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="TAXA CP" dataDxfId="102" totalsRowDxfId="45" dataCellStyle="Moeda">
+    <tableColumn id="18" name="TAXA CP" dataDxfId="58" totalsRowDxfId="57" dataCellStyle="Moeda">
       <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela134[[#This Row],[EMOL CP]]:Tabela134[[#This Row],[OUTRAS CP]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="EMOL VD" dataDxfId="101" totalsRowDxfId="44" dataCellStyle="Moeda">
+    <tableColumn id="25" name="EMOL VD" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="LIQD VD" dataDxfId="100" totalsRowDxfId="43" dataCellStyle="Moeda">
+    <tableColumn id="24" name="LIQD VD" dataDxfId="54" totalsRowDxfId="53" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="REG VD" dataDxfId="99" totalsRowDxfId="42" dataCellStyle="Moeda">
+    <tableColumn id="23" name="REG VD" dataDxfId="52" totalsRowDxfId="51" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="ISS VD" dataDxfId="98" totalsRowDxfId="41" dataCellStyle="Moeda">
+    <tableColumn id="22" name="ISS VD" dataDxfId="50" totalsRowDxfId="49" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="OUTRAS VD" dataDxfId="97" totalsRowDxfId="40" dataCellStyle="Moeda">
+    <tableColumn id="21" name="OUTRAS VD" dataDxfId="48" totalsRowDxfId="47" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="TAXA VD" dataDxfId="96" totalsRowDxfId="39" dataCellStyle="Moeda">
+    <tableColumn id="20" name="TAXA VD" dataDxfId="46" totalsRowDxfId="45" dataCellStyle="Moeda">
       <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela134[[#This Row],[EMOL VD]]:Tabela134[[#This Row],[OUTRAS VD]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="PREV LUCRO" dataDxfId="95" totalsRowDxfId="38" dataCellStyle="Moeda">
+    <tableColumn id="17" name="PREV LUCRO" dataDxfId="44" totalsRowDxfId="43" dataCellStyle="Moeda">
       <calculatedColumnFormula>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="PERDA MAX" dataDxfId="94" totalsRowDxfId="37" dataCellStyle="Moeda">
+    <tableColumn id="28" name="PERDA MAX" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="Moeda">
       <calculatedColumnFormula>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="% PERDA" dataDxfId="93" totalsRowDxfId="36" dataCellStyle="Porcentagem">
+    <tableColumn id="29" name="% PERDA" dataDxfId="40" totalsRowDxfId="39" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela134[[#This Row],[PERDA MAX]]/Tabela134[[#This Row],[APLICAÇÃO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="NO BOLSO" dataDxfId="92" totalsRowDxfId="35">
+    <tableColumn id="6" name="NO BOLSO" dataDxfId="38" totalsRowDxfId="37">
       <calculatedColumnFormula>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="91" totalsRowDxfId="34" dataCellStyle="Moeda">
+    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="36" totalsRowDxfId="35" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="REINVESTIR" dataDxfId="90" totalsRowDxfId="33" dataCellStyle="Moeda">
+    <tableColumn id="8" name="REINVESTIR" dataDxfId="34" totalsRowDxfId="33" dataCellStyle="Moeda">
       <calculatedColumnFormula>[LUCRO]-[PROTEÇÃO MÊS]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="TOT RF" dataDxfId="89" totalsRowDxfId="32" dataCellStyle="Moeda">
+    <tableColumn id="15" name="TOT RF" dataDxfId="32" totalsRowDxfId="31" dataCellStyle="Moeda">
       <calculatedColumnFormula>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="88" totalsRowDxfId="31" dataCellStyle="Moeda">
+    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="30" totalsRowDxfId="29" dataCellStyle="Moeda">
       <calculatedColumnFormula>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7420,16 +7443,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Plan3"/>
-  <dimension ref="A1:AC4"/>
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -7458,7 +7481,7 @@
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="30" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -7547,7 +7570,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="26">
         <v>41000</v>
       </c>
       <c r="C2" s="3">
@@ -7658,7 +7681,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="26">
         <v>41030</v>
       </c>
       <c r="C3" s="3">
@@ -7766,35 +7789,149 @@
       </c>
     </row>
     <row r="4" spans="1:29">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="38">
+        <v>3</v>
+      </c>
+      <c r="B4" s="26">
+        <v>41061</v>
+      </c>
+      <c r="C4" s="39">
+        <v>0</v>
+      </c>
+      <c r="D4" s="39">
+        <v>0</v>
+      </c>
+      <c r="E4" s="39">
+        <v>0</v>
+      </c>
+      <c r="F4" s="39">
+        <v>0</v>
+      </c>
+      <c r="G4" s="40">
+        <f>100</f>
+        <v>100</v>
+      </c>
+      <c r="H4" s="40">
+        <f>SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE RF])</f>
+        <v>200</v>
+      </c>
+      <c r="I4" s="40">
+        <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela13[[#This Row],[TRADE]]), [REINVESTIR])</f>
+        <v>298.31</v>
+      </c>
+      <c r="J4" s="40">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>0.11</v>
+      </c>
+      <c r="K4" s="40">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>0.08</v>
+      </c>
+      <c r="L4" s="40">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>0.2</v>
+      </c>
+      <c r="M4" s="40">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N4" s="40">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O4" s="40">
+        <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL CP]]:Tabela13[[#This Row],[OUTRAS CP]])</f>
+        <v>16.16</v>
+      </c>
+      <c r="P4" s="40">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>0.22</v>
+      </c>
+      <c r="Q4" s="40">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>0.16</v>
+      </c>
+      <c r="R4" s="40">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>0.41</v>
+      </c>
+      <c r="S4" s="40">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T4" s="40">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U4" s="40">
+        <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL VD]]:Tabela13[[#This Row],[OUTRAS VD]])</f>
+        <v>16.560000000000002</v>
+      </c>
+      <c r="V4" s="40">
+        <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
+        <v>225.75149999999994</v>
+      </c>
+      <c r="W4" s="41">
+        <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
+        <v>298.31</v>
+      </c>
+      <c r="X4" s="42">
+        <f>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</f>
+        <v>1</v>
+      </c>
+      <c r="Y4" s="43">
+        <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z4" s="40">
+        <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="40">
+        <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="40">
+        <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="40">
+        <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
+        <v>298.31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="16"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -8206,23 +8343,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="32" t="s">
         <v>23</v>
       </c>
     </row>
@@ -8245,9 +8382,9 @@
       <c r="F2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="8">
@@ -8300,21 +8437,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="28"/>
+    <col min="1" max="1" width="9.140625" style="26"/>
     <col min="2" max="2" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="31" customFormat="1">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:2" s="29" customFormat="1">
+      <c r="A1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="28">
+      <c r="A2" s="26">
         <f>VOLATILIDADE!B2</f>
         <v>41000</v>
       </c>
@@ -8324,7 +8461,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="28">
+      <c r="A3" s="26">
         <f>VOLATILIDADE!B3</f>
         <v>41030</v>
       </c>

--- a/stocks/gama.xlsx
+++ b/stocks/gama.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="210" windowWidth="19320" windowHeight="7305" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="210" windowWidth="19320" windowHeight="7305"/>
   </bookViews>
   <sheets>
     <sheet name="VOLATILIDADE" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="40">
   <si>
     <t>APORTE</t>
   </si>
@@ -136,6 +136,9 @@
   <si>
     <t>TOTAL</t>
   </si>
+  <si>
+    <t>%</t>
+  </si>
 </sst>
 </file>
 
@@ -148,7 +151,7 @@
     <numFmt numFmtId="167" formatCode="[$-416]mmm\-yy;@"/>
     <numFmt numFmtId="168" formatCode="[$-416]mmmm\-yy;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +224,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -253,7 +263,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -291,12 +301,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -308,13 +312,58 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="177">
+  <dxfs count="179">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -367,6 +416,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -385,6 +452,23 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -399,24 +483,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -434,6 +501,634 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="[$-416]mmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
         <color rgb="FFFF0000"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -452,6 +1147,24 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -474,6 +1187,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -492,6 +1223,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -510,6 +1259,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -528,6 +1295,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -546,6 +1331,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -564,6 +1367,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -582,6 +1403,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -600,6 +1439,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -618,6 +1475,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -636,6 +1511,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -654,6 +1547,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -672,6 +1583,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -690,6 +1619,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -708,6 +1655,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -726,6 +1691,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -744,6 +1727,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -762,6 +1763,23 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -780,6 +1798,23 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -798,6 +1833,23 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -816,6 +1868,1076 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="169" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="168" formatCode="[$-416]mmmm\-yy;@"/>
     </dxf>
     <dxf>
@@ -834,6 +2956,58 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="168" formatCode="[$-416]mmmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -887,24 +3061,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -923,21 +3079,39 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -959,24 +3133,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -995,95 +3151,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1102,24 +3169,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1138,24 +3187,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1174,24 +3205,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1210,24 +3223,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1246,24 +3241,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1282,24 +3259,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1318,24 +3277,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1354,24 +3295,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1390,24 +3313,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1426,24 +3331,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1462,24 +3349,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1498,24 +3367,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1534,24 +3385,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1570,24 +3403,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1606,1771 +3421,40 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="169" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="[$-416]mmmm\-yy;@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -3406,41 +3490,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="167" formatCode="[$-416]mmm\-yy;@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="[$-416]mmm\-yy;@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -3487,83 +3536,88 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AC32" totalsRowCount="1" headerRowDxfId="176">
-  <autoFilter ref="A1:AC31"/>
-  <tableColumns count="29">
-    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="175" totalsRowDxfId="174"/>
-    <tableColumn id="2" name="DATA" dataDxfId="173" totalsRowDxfId="172"/>
-    <tableColumn id="12" name="RENDA FIXA" dataDxfId="171" totalsRowDxfId="170" dataCellStyle="Moeda"/>
-    <tableColumn id="26" name="APORTE RF" dataDxfId="169" totalsRowDxfId="168" dataCellStyle="Moeda"/>
-    <tableColumn id="9" name="SAQUE" dataDxfId="167" totalsRowDxfId="166" dataCellStyle="Moeda"/>
-    <tableColumn id="5" name="LUCRO" dataDxfId="165" totalsRowDxfId="164" dataCellStyle="Moeda"/>
-    <tableColumn id="3" name="APORTE" totalsRowFunction="sum" dataDxfId="163" totalsRowDxfId="162" dataCellStyle="Moeda">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AD32" totalsRowCount="1" headerRowDxfId="178">
+  <autoFilter ref="A1:AD31">
+    <filterColumn colId="29"/>
+  </autoFilter>
+  <tableColumns count="30">
+    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="177" totalsRowDxfId="30"/>
+    <tableColumn id="2" name="DATA" dataDxfId="176" totalsRowDxfId="29"/>
+    <tableColumn id="12" name="RENDA FIXA" dataDxfId="175" totalsRowDxfId="28" dataCellStyle="Moeda"/>
+    <tableColumn id="26" name="APORTE RF" dataDxfId="174" totalsRowDxfId="27" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="SAQUE" dataDxfId="173" totalsRowDxfId="26" dataCellStyle="Moeda"/>
+    <tableColumn id="5" name="LUCRO" dataDxfId="172" totalsRowDxfId="25" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="APORTE" totalsRowFunction="sum" dataDxfId="171" totalsRowDxfId="24" dataCellStyle="Moeda">
       <calculatedColumnFormula>380</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="MONTANTE" dataDxfId="161" totalsRowDxfId="160" dataCellStyle="Moeda">
+    <tableColumn id="4" name="MONTANTE" dataDxfId="170" totalsRowDxfId="23" dataCellStyle="Moeda">
       <calculatedColumnFormula>SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE RF])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="159" totalsRowDxfId="158" dataCellStyle="Moeda">
+    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="169" totalsRowDxfId="22" dataCellStyle="Moeda">
       <calculatedColumnFormula>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EMOL CP" dataDxfId="157" totalsRowDxfId="156" dataCellStyle="Moeda">
+    <tableColumn id="11" name="EMOL CP" dataDxfId="168" totalsRowDxfId="21" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="LIQD CP" dataDxfId="155" totalsRowDxfId="154" dataCellStyle="Moeda">
+    <tableColumn id="13" name="LIQD CP" dataDxfId="167" totalsRowDxfId="20" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="REG CP" dataDxfId="153" totalsRowDxfId="152" dataCellStyle="Moeda">
+    <tableColumn id="14" name="REG CP" dataDxfId="166" totalsRowDxfId="19" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="ISS CP" dataDxfId="151" totalsRowDxfId="150" dataCellStyle="Moeda">
+    <tableColumn id="16" name="ISS CP" dataDxfId="165" totalsRowDxfId="18" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="OUTRAS CP" dataDxfId="149" totalsRowDxfId="148" dataCellStyle="Moeda">
+    <tableColumn id="19" name="OUTRAS CP" dataDxfId="164" totalsRowDxfId="17" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="TAXA CP" dataDxfId="147" totalsRowDxfId="146" dataCellStyle="Moeda">
+    <tableColumn id="18" name="TAXA CP" dataDxfId="163" totalsRowDxfId="16" dataCellStyle="Moeda">
       <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="EMOL VD" dataDxfId="145" totalsRowDxfId="144" dataCellStyle="Moeda">
+    <tableColumn id="25" name="EMOL VD" dataDxfId="162" totalsRowDxfId="15" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="LIQD VD" dataDxfId="143" totalsRowDxfId="142" dataCellStyle="Moeda">
+    <tableColumn id="24" name="LIQD VD" dataDxfId="161" totalsRowDxfId="14" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="REG VD" dataDxfId="141" totalsRowDxfId="140" dataCellStyle="Moeda">
+    <tableColumn id="23" name="REG VD" dataDxfId="160" totalsRowDxfId="13" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="ISS VD" dataDxfId="139" totalsRowDxfId="138" dataCellStyle="Moeda">
+    <tableColumn id="22" name="ISS VD" dataDxfId="159" totalsRowDxfId="12" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="OUTRAS VD" dataDxfId="137" totalsRowDxfId="136" dataCellStyle="Moeda">
+    <tableColumn id="21" name="OUTRAS VD" dataDxfId="158" totalsRowDxfId="11" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="TAXA VD" dataDxfId="135" totalsRowDxfId="134" dataCellStyle="Moeda">
+    <tableColumn id="20" name="TAXA VD" dataDxfId="157" totalsRowDxfId="10" dataCellStyle="Moeda">
       <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="PREV LUCRO" dataDxfId="133" totalsRowDxfId="132" dataCellStyle="Moeda">
+    <tableColumn id="17" name="PREV LUCRO" dataDxfId="156" totalsRowDxfId="9" dataCellStyle="Moeda">
       <calculatedColumnFormula>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="PERDA MAX" dataDxfId="131" totalsRowDxfId="130" dataCellStyle="Moeda">
+    <tableColumn id="28" name="PERDA MAX" dataDxfId="155" totalsRowDxfId="8" dataCellStyle="Moeda">
       <calculatedColumnFormula>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="% PERDA" dataDxfId="129" totalsRowDxfId="128" dataCellStyle="Porcentagem">
+    <tableColumn id="29" name="% PERDA" dataDxfId="154" totalsRowDxfId="7" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="NO BOLSO" dataDxfId="127" totalsRowDxfId="126">
+    <tableColumn id="6" name="NO BOLSO" dataDxfId="153" totalsRowDxfId="6">
       <calculatedColumnFormula>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="125" totalsRowDxfId="124" dataCellStyle="Moeda">
+    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="152" totalsRowDxfId="5" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="REINVESTIR" totalsRowFunction="sum" dataDxfId="123" totalsRowDxfId="122" dataCellStyle="Moeda">
+    <tableColumn id="8" name="REINVESTIR" totalsRowFunction="sum" dataDxfId="151" totalsRowDxfId="4" dataCellStyle="Moeda">
       <calculatedColumnFormula>[LUCRO]-[PROTEÇÃO MÊS]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="TOT RF" dataDxfId="121" totalsRowDxfId="120" dataCellStyle="Moeda">
+    <tableColumn id="15" name="TOT RF" dataDxfId="150" totalsRowDxfId="3" dataCellStyle="Moeda">
       <calculatedColumnFormula>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="119" totalsRowDxfId="118" dataCellStyle="Moeda">
+    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="31" totalsRowDxfId="2" dataCellStyle="Moeda">
       <calculatedColumnFormula>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="30" name="%" dataDxfId="0" totalsRowDxfId="1" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3571,82 +3625,82 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:AC5" totalsRowCount="1" headerRowDxfId="117">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:AC5" totalsRowCount="1" headerRowDxfId="149">
   <autoFilter ref="A1:AC4"/>
   <tableColumns count="29">
-    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="116" totalsRowDxfId="28"/>
-    <tableColumn id="2" name="DATA" dataDxfId="115" totalsRowDxfId="27"/>
-    <tableColumn id="12" name="RENDA FIXA" dataDxfId="114" totalsRowDxfId="26" dataCellStyle="Moeda"/>
-    <tableColumn id="26" name="APORTE RF" dataDxfId="113" totalsRowDxfId="25" dataCellStyle="Moeda"/>
-    <tableColumn id="9" name="SAQUE" dataDxfId="112" totalsRowDxfId="24" dataCellStyle="Moeda"/>
-    <tableColumn id="5" name="LUCRO" dataDxfId="111" totalsRowDxfId="23" dataCellStyle="Moeda"/>
-    <tableColumn id="3" name="APORTE" dataDxfId="110" totalsRowDxfId="22" dataCellStyle="Moeda">
+    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="148" totalsRowDxfId="147"/>
+    <tableColumn id="2" name="DATA" dataDxfId="146" totalsRowDxfId="145"/>
+    <tableColumn id="12" name="RENDA FIXA" dataDxfId="144" totalsRowDxfId="143" dataCellStyle="Moeda"/>
+    <tableColumn id="26" name="APORTE RF" dataDxfId="142" totalsRowDxfId="141" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="SAQUE" dataDxfId="140" totalsRowDxfId="139" dataCellStyle="Moeda"/>
+    <tableColumn id="5" name="LUCRO" dataDxfId="138" totalsRowDxfId="137" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="APORTE" dataDxfId="136" totalsRowDxfId="135" dataCellStyle="Moeda">
       <calculatedColumnFormula>100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="MONTANTE" dataDxfId="109" totalsRowDxfId="21" dataCellStyle="Moeda">
+    <tableColumn id="4" name="MONTANTE" dataDxfId="134" totalsRowDxfId="133" dataCellStyle="Moeda">
       <calculatedColumnFormula>SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE RF])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="108" totalsRowDxfId="20" dataCellStyle="Moeda">
+    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="132" totalsRowDxfId="131" dataCellStyle="Moeda">
       <calculatedColumnFormula>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela13[[#This Row],[TRADE]]), [REINVESTIR])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EMOL CP" dataDxfId="107" totalsRowDxfId="19" dataCellStyle="Moeda">
+    <tableColumn id="11" name="EMOL CP" dataDxfId="130" totalsRowDxfId="129" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="LIQD CP" dataDxfId="106" totalsRowDxfId="18" dataCellStyle="Moeda">
+    <tableColumn id="13" name="LIQD CP" dataDxfId="128" totalsRowDxfId="127" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="REG CP" dataDxfId="105" totalsRowDxfId="17" dataCellStyle="Moeda">
+    <tableColumn id="14" name="REG CP" dataDxfId="126" totalsRowDxfId="125" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="ISS CP" dataDxfId="104" totalsRowDxfId="16" dataCellStyle="Moeda">
+    <tableColumn id="16" name="ISS CP" dataDxfId="124" totalsRowDxfId="123" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="OUTRAS CP" dataDxfId="103" totalsRowDxfId="15" dataCellStyle="Moeda">
+    <tableColumn id="19" name="OUTRAS CP" dataDxfId="122" totalsRowDxfId="121" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="TAXA CP" dataDxfId="102" totalsRowDxfId="14" dataCellStyle="Moeda">
+    <tableColumn id="18" name="TAXA CP" dataDxfId="120" totalsRowDxfId="119" dataCellStyle="Moeda">
       <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL CP]]:Tabela13[[#This Row],[OUTRAS CP]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="EMOL VD" dataDxfId="101" totalsRowDxfId="13" dataCellStyle="Moeda">
+    <tableColumn id="25" name="EMOL VD" dataDxfId="118" totalsRowDxfId="117" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="LIQD VD" dataDxfId="100" totalsRowDxfId="12" dataCellStyle="Moeda">
+    <tableColumn id="24" name="LIQD VD" dataDxfId="116" totalsRowDxfId="115" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="REG VD" dataDxfId="99" totalsRowDxfId="11" dataCellStyle="Moeda">
+    <tableColumn id="23" name="REG VD" dataDxfId="114" totalsRowDxfId="113" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="ISS VD" dataDxfId="98" totalsRowDxfId="10" dataCellStyle="Moeda">
+    <tableColumn id="22" name="ISS VD" dataDxfId="112" totalsRowDxfId="111" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="OUTRAS VD" dataDxfId="97" totalsRowDxfId="9" dataCellStyle="Moeda">
+    <tableColumn id="21" name="OUTRAS VD" dataDxfId="110" totalsRowDxfId="109" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="TAXA VD" dataDxfId="96" totalsRowDxfId="8" dataCellStyle="Moeda">
+    <tableColumn id="20" name="TAXA VD" dataDxfId="108" totalsRowDxfId="107" dataCellStyle="Moeda">
       <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL VD]]:Tabela13[[#This Row],[OUTRAS VD]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="PREV LUCRO" dataDxfId="95" totalsRowDxfId="7" dataCellStyle="Moeda">
+    <tableColumn id="17" name="PREV LUCRO" dataDxfId="106" totalsRowDxfId="105" dataCellStyle="Moeda">
       <calculatedColumnFormula>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="PERDA MAX" dataDxfId="94" totalsRowDxfId="6" dataCellStyle="Moeda">
+    <tableColumn id="28" name="PERDA MAX" dataDxfId="104" totalsRowDxfId="103" dataCellStyle="Moeda">
       <calculatedColumnFormula>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="% PERDA" dataDxfId="93" totalsRowDxfId="5" dataCellStyle="Porcentagem">
+    <tableColumn id="29" name="% PERDA" dataDxfId="102" totalsRowDxfId="101" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="NO BOLSO" dataDxfId="92" totalsRowDxfId="4">
+    <tableColumn id="6" name="NO BOLSO" dataDxfId="100" totalsRowDxfId="99">
       <calculatedColumnFormula>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="91" totalsRowDxfId="3" dataCellStyle="Moeda">
+    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="98" totalsRowDxfId="97" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="REINVESTIR" dataDxfId="90" totalsRowDxfId="2" dataCellStyle="Moeda">
+    <tableColumn id="8" name="REINVESTIR" dataDxfId="96" totalsRowDxfId="95" dataCellStyle="Moeda">
       <calculatedColumnFormula>[LUCRO]-[PROTEÇÃO MÊS]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="TOT RF" dataDxfId="89" totalsRowDxfId="1" dataCellStyle="Moeda">
+    <tableColumn id="15" name="TOT RF" dataDxfId="94" totalsRowDxfId="93" dataCellStyle="Moeda">
       <calculatedColumnFormula>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="88" totalsRowDxfId="0" dataCellStyle="Moeda">
+    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="92" totalsRowDxfId="91" dataCellStyle="Moeda">
       <calculatedColumnFormula>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3655,82 +3709,82 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela134" displayName="Tabela134" ref="A1:AC4" totalsRowCount="1" headerRowDxfId="87">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela134" displayName="Tabela134" ref="A1:AC4" totalsRowCount="1" headerRowDxfId="90">
   <autoFilter ref="A1:AC3"/>
   <tableColumns count="29">
-    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="86" totalsRowDxfId="85"/>
-    <tableColumn id="2" name="DATA" dataDxfId="84" totalsRowDxfId="83"/>
-    <tableColumn id="12" name="RENDA FIXA" dataDxfId="82" totalsRowDxfId="81" dataCellStyle="Moeda"/>
-    <tableColumn id="26" name="APORTE RF" dataDxfId="80" totalsRowDxfId="79" dataCellStyle="Moeda"/>
-    <tableColumn id="9" name="SAQUE" dataDxfId="78" totalsRowDxfId="77" dataCellStyle="Moeda"/>
-    <tableColumn id="5" name="LUCRO" dataDxfId="76" totalsRowDxfId="75" dataCellStyle="Moeda"/>
-    <tableColumn id="3" name="APORTE" dataDxfId="74" totalsRowDxfId="73" dataCellStyle="Moeda">
+    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="89" totalsRowDxfId="88"/>
+    <tableColumn id="2" name="DATA" dataDxfId="87" totalsRowDxfId="86"/>
+    <tableColumn id="12" name="RENDA FIXA" dataDxfId="85" totalsRowDxfId="84" dataCellStyle="Moeda"/>
+    <tableColumn id="26" name="APORTE RF" dataDxfId="83" totalsRowDxfId="82" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="SAQUE" dataDxfId="81" totalsRowDxfId="80" dataCellStyle="Moeda"/>
+    <tableColumn id="5" name="LUCRO" dataDxfId="79" totalsRowDxfId="78" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="APORTE" dataDxfId="77" totalsRowDxfId="76" dataCellStyle="Moeda">
       <calculatedColumnFormula>100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="MONTANTE" dataDxfId="72" totalsRowDxfId="71" dataCellStyle="Moeda">
+    <tableColumn id="4" name="MONTANTE" dataDxfId="75" totalsRowDxfId="74" dataCellStyle="Moeda">
       <calculatedColumnFormula>SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [APORTE RF])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="70" totalsRowDxfId="69" dataCellStyle="Moeda">
+    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="73" totalsRowDxfId="72" dataCellStyle="Moeda">
       <calculatedColumnFormula>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela134[[#This Row],[TRADE]]), [REINVESTIR])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EMOL CP" dataDxfId="68" totalsRowDxfId="67" dataCellStyle="Moeda">
+    <tableColumn id="11" name="EMOL CP" dataDxfId="71" totalsRowDxfId="70" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="LIQD CP" dataDxfId="66" totalsRowDxfId="65" dataCellStyle="Moeda">
+    <tableColumn id="13" name="LIQD CP" dataDxfId="69" totalsRowDxfId="68" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="REG CP" dataDxfId="64" totalsRowDxfId="63" dataCellStyle="Moeda">
+    <tableColumn id="14" name="REG CP" dataDxfId="67" totalsRowDxfId="66" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="ISS CP" dataDxfId="62" totalsRowDxfId="61" dataCellStyle="Moeda">
+    <tableColumn id="16" name="ISS CP" dataDxfId="65" totalsRowDxfId="64" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="OUTRAS CP" dataDxfId="60" totalsRowDxfId="59" dataCellStyle="Moeda">
+    <tableColumn id="19" name="OUTRAS CP" dataDxfId="63" totalsRowDxfId="62" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="TAXA CP" dataDxfId="58" totalsRowDxfId="57" dataCellStyle="Moeda">
+    <tableColumn id="18" name="TAXA CP" dataDxfId="61" totalsRowDxfId="60" dataCellStyle="Moeda">
       <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela134[[#This Row],[EMOL CP]]:Tabela134[[#This Row],[OUTRAS CP]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="EMOL VD" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Moeda">
+    <tableColumn id="25" name="EMOL VD" dataDxfId="59" totalsRowDxfId="58" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="LIQD VD" dataDxfId="54" totalsRowDxfId="53" dataCellStyle="Moeda">
+    <tableColumn id="24" name="LIQD VD" dataDxfId="57" totalsRowDxfId="56" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="REG VD" dataDxfId="52" totalsRowDxfId="51" dataCellStyle="Moeda">
+    <tableColumn id="23" name="REG VD" dataDxfId="55" totalsRowDxfId="54" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="ISS VD" dataDxfId="50" totalsRowDxfId="49" dataCellStyle="Moeda">
+    <tableColumn id="22" name="ISS VD" dataDxfId="53" totalsRowDxfId="52" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="OUTRAS VD" dataDxfId="48" totalsRowDxfId="47" dataCellStyle="Moeda">
+    <tableColumn id="21" name="OUTRAS VD" dataDxfId="51" totalsRowDxfId="50" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="TAXA VD" dataDxfId="46" totalsRowDxfId="45" dataCellStyle="Moeda">
+    <tableColumn id="20" name="TAXA VD" dataDxfId="49" totalsRowDxfId="48" dataCellStyle="Moeda">
       <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela134[[#This Row],[EMOL VD]]:Tabela134[[#This Row],[OUTRAS VD]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="PREV LUCRO" dataDxfId="44" totalsRowDxfId="43" dataCellStyle="Moeda">
+    <tableColumn id="17" name="PREV LUCRO" dataDxfId="47" totalsRowDxfId="46" dataCellStyle="Moeda">
       <calculatedColumnFormula>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="PERDA MAX" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="Moeda">
+    <tableColumn id="28" name="PERDA MAX" dataDxfId="45" totalsRowDxfId="44" dataCellStyle="Moeda">
       <calculatedColumnFormula>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="% PERDA" dataDxfId="40" totalsRowDxfId="39" dataCellStyle="Porcentagem">
+    <tableColumn id="29" name="% PERDA" dataDxfId="43" totalsRowDxfId="42" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela134[[#This Row],[PERDA MAX]]/Tabela134[[#This Row],[APLICAÇÃO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="NO BOLSO" dataDxfId="38" totalsRowDxfId="37">
+    <tableColumn id="6" name="NO BOLSO" dataDxfId="41" totalsRowDxfId="40">
       <calculatedColumnFormula>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="36" totalsRowDxfId="35" dataCellStyle="Moeda">
+    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="REINVESTIR" dataDxfId="34" totalsRowDxfId="33" dataCellStyle="Moeda">
+    <tableColumn id="8" name="REINVESTIR" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Moeda">
       <calculatedColumnFormula>[LUCRO]-[PROTEÇÃO MÊS]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="TOT RF" dataDxfId="32" totalsRowDxfId="31" dataCellStyle="Moeda">
+    <tableColumn id="15" name="TOT RF" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Moeda">
       <calculatedColumnFormula>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="30" totalsRowDxfId="29" dataCellStyle="Moeda">
+    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="33" totalsRowDxfId="32" dataCellStyle="Moeda">
       <calculatedColumnFormula>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4024,10 +4078,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Plan1"/>
-  <dimension ref="A1:AC32"/>
+  <dimension ref="A1:AD32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -4051,14 +4105,15 @@
     <col min="22" max="22" width="11.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.85546875" style="1" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="30" max="30" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -4146,8 +4201,11 @@
       <c r="AC1" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="AD1" s="44" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:30">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4258,8 +4316,12 @@
         <f>[TOT RF] + [REINVESTIR]</f>
         <v>366.88</v>
       </c>
+      <c r="AD2" s="45">
+        <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:30">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4370,8 +4432,12 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>1166.8800000000001</v>
       </c>
+      <c r="AD3" s="45">
+        <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:30">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4478,8 +4544,12 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>2618.11</v>
       </c>
+      <c r="AD4" s="45">
+        <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
+        <v>2.8653492333901194</v>
+      </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:30">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4586,8 +4656,12 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>4585.99</v>
       </c>
+      <c r="AD5" s="45">
+        <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
+        <v>1.105616670192511</v>
+      </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:30">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4694,8 +4768,12 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>7222.5999999999995</v>
       </c>
+      <c r="AD6" s="45">
+        <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
+        <v>0.73731779402037856</v>
+      </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:30">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4802,8 +4880,12 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>10600.24</v>
       </c>
+      <c r="AD7" s="45">
+        <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
+        <v>0.56724585368439573</v>
+      </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:30">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4910,8 +4992,12 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>14844.38</v>
       </c>
+      <c r="AD8" s="45">
+        <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
+        <v>0.46851563148621345</v>
+      </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:30">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -5018,8 +5104,12 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>20655.71</v>
       </c>
+      <c r="AD9" s="45">
+        <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
+        <v>0.42517554852698375</v>
+      </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:30">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -5126,8 +5216,12 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>27948.789999999997</v>
       </c>
+      <c r="AD10" s="45">
+        <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
+        <v>0.3854134603729647</v>
+      </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:30">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -5234,8 +5328,12 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>36974.49</v>
       </c>
+      <c r="AD11" s="45">
+        <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
+        <v>0.3516918438454617</v>
+      </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:30">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -5342,8 +5440,12 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>48026.19</v>
       </c>
+      <c r="AD12" s="45">
+        <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
+        <v>0.32376821043191928</v>
+      </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:30">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -5450,8 +5552,12 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>61446.920000000006</v>
       </c>
+      <c r="AD13" s="45">
+        <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
+        <v>0.30074384507539353</v>
+      </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:30">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -5558,8 +5664,12 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>78127.14</v>
       </c>
+      <c r="AD14" s="45">
+        <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
+        <v>0.28578666868974478</v>
+      </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:30">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -5666,8 +5776,12 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>98308.87000000001</v>
       </c>
+      <c r="AD15" s="45">
+        <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
+        <v>0.27189950545459957</v>
+      </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:30">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -5774,8 +5888,12 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>122584.96000000001</v>
       </c>
+      <c r="AD16" s="45">
+        <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
+        <v>0.25940475936735496</v>
+      </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:30">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -5882,8 +6000,12 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>151648.66</v>
       </c>
+      <c r="AD17" s="45">
+        <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
+        <v>0.2483405037435315</v>
+      </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:30">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -5990,8 +6112,12 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>186310.6</v>
       </c>
+      <c r="AD18" s="45">
+        <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
+        <v>0.23862100803775468</v>
+      </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:30">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -6098,8 +6224,12 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>227518.65000000002</v>
       </c>
+      <c r="AD19" s="45">
+        <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
+        <v>0.23011457998368198</v>
+      </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:30">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -6206,8 +6336,12 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>276381.16000000003</v>
       </c>
+      <c r="AD20" s="45">
+        <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
+        <v>0.22267991750435254</v>
+      </c>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:30">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -6314,8 +6448,12 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>334194.17</v>
       </c>
+      <c r="AD21" s="45">
+        <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
+        <v>0.21618253156260273</v>
+      </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:30">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -6422,8 +6560,12 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>402473.16000000003</v>
       </c>
+      <c r="AD22" s="45">
+        <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
+        <v>0.21050066191142749</v>
+      </c>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:30">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -6530,8 +6672,12 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>482990.18000000005</v>
       </c>
+      <c r="AD23" s="45">
+        <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
+        <v>0.20552710777685698</v>
+      </c>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:30">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -6638,8 +6784,12 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>577817.35</v>
       </c>
+      <c r="AD24" s="45">
+        <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
+        <v>0.20116881032713377</v>
+      </c>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:30">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -6746,8 +6896,12 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>689377.57000000007</v>
       </c>
+      <c r="AD25" s="45">
+        <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
+        <v>0.19734533931669046</v>
+      </c>
     </row>
-    <row r="26" spans="1:29">
+    <row r="26" spans="1:30">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -6854,8 +7008,12 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>820504.07000000007</v>
       </c>
+      <c r="AD26" s="45">
+        <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
+        <v>0.19398773892361412</v>
+      </c>
     </row>
-    <row r="27" spans="1:29">
+    <row r="27" spans="1:30">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -6962,8 +7120,12 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>974509.71</v>
       </c>
+      <c r="AD27" s="45">
+        <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
+        <v>0.19103638790719293</v>
+      </c>
     </row>
-    <row r="28" spans="1:29">
+    <row r="28" spans="1:30">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -7070,8 +7232,12 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>1155268.33</v>
       </c>
+      <c r="AD28" s="45">
+        <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
+        <v>0.18844012022636625</v>
+      </c>
     </row>
-    <row r="29" spans="1:29">
+    <row r="29" spans="1:30">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -7178,8 +7344,12 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>1367309.65</v>
       </c>
+      <c r="AD29" s="45">
+        <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
+        <v>0.18615462704613531</v>
+      </c>
     </row>
-    <row r="30" spans="1:29">
+    <row r="30" spans="1:30">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -7286,8 +7456,12 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>1615930.3599999999</v>
       </c>
+      <c r="AD30" s="40">
+        <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
+        <v>0.18414163382340118</v>
+      </c>
     </row>
-    <row r="31" spans="1:29">
+    <row r="31" spans="1:30">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -7394,8 +7568,12 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>1907323.9600000002</v>
       </c>
+      <c r="AD31" s="40">
+        <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
+        <v>0.1823679066607421</v>
+      </c>
     </row>
-    <row r="32" spans="1:29">
+    <row r="32" spans="1:30" ht="15">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -7431,6 +7609,7 @@
       </c>
       <c r="AB32" s="17"/>
       <c r="AC32" s="16"/>
+      <c r="AD32" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -7445,7 +7624,7 @@
   <sheetPr codeName="Plan3"/>
   <dimension ref="A1:AC5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -7789,149 +7968,149 @@
       </c>
     </row>
     <row r="4" spans="1:29">
-      <c r="A4" s="38">
+      <c r="A4" s="36">
         <v>3</v>
       </c>
       <c r="B4" s="26">
         <v>41061</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="37">
         <v>0</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="37">
         <v>0</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="37">
         <v>0</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="37">
         <v>0</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="38">
         <f>100</f>
         <v>100</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="38">
         <f>SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE RF])</f>
         <v>200</v>
       </c>
-      <c r="I4" s="40">
+      <c r="I4" s="38">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela13[[#This Row],[TRADE]]), [REINVESTIR])</f>
         <v>298.31</v>
       </c>
-      <c r="J4" s="40">
+      <c r="J4" s="38">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
         <v>0.11</v>
       </c>
-      <c r="K4" s="40">
+      <c r="K4" s="38">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
         <v>0.08</v>
       </c>
-      <c r="L4" s="40">
+      <c r="L4" s="38">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
         <v>0.2</v>
       </c>
-      <c r="M4" s="40">
+      <c r="M4" s="38">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="N4" s="40">
+      <c r="N4" s="38">
         <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="O4" s="40">
+      <c r="O4" s="38">
         <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL CP]]:Tabela13[[#This Row],[OUTRAS CP]])</f>
         <v>16.16</v>
       </c>
-      <c r="P4" s="40">
+      <c r="P4" s="38">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
         <v>0.22</v>
       </c>
-      <c r="Q4" s="40">
+      <c r="Q4" s="38">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
         <v>0.16</v>
       </c>
-      <c r="R4" s="40">
+      <c r="R4" s="38">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
         <v>0.41</v>
       </c>
-      <c r="S4" s="40">
+      <c r="S4" s="38">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="T4" s="40">
+      <c r="T4" s="38">
         <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="U4" s="40">
+      <c r="U4" s="38">
         <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL VD]]:Tabela13[[#This Row],[OUTRAS VD]])</f>
         <v>16.560000000000002</v>
       </c>
-      <c r="V4" s="40">
+      <c r="V4" s="38">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
         <v>225.75149999999994</v>
       </c>
-      <c r="W4" s="41">
+      <c r="W4" s="39">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
         <v>298.31</v>
       </c>
-      <c r="X4" s="42">
+      <c r="X4" s="40">
         <f>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</f>
         <v>1</v>
       </c>
-      <c r="Y4" s="43">
+      <c r="Y4" s="41">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
         <v>0.8</v>
       </c>
-      <c r="Z4" s="40">
+      <c r="Z4" s="38">
         <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
         <v>0</v>
       </c>
-      <c r="AA4" s="40">
+      <c r="AA4" s="38">
         <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="40">
+      <c r="AB4" s="38">
         <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
         <v>0</v>
       </c>
-      <c r="AC4" s="40">
+      <c r="AC4" s="38">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>298.31</v>
       </c>
     </row>
     <row r="5" spans="1:29">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="37"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -8343,23 +8522,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32" t="s">
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="43" t="s">
         <v>23</v>
       </c>
     </row>
@@ -8382,9 +8561,9 @@
       <c r="F2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="8">

--- a/stocks/gama.xlsx
+++ b/stocks/gama.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="210" windowWidth="19320" windowHeight="7305"/>
+    <workbookView xWindow="240" yWindow="210" windowWidth="19320" windowHeight="7305" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="VOLATILIDADE" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="43">
   <si>
     <t>APORTE</t>
   </si>
@@ -134,22 +134,33 @@
     <t>Total</t>
   </si>
   <si>
-    <t>TOTAL</t>
+    <t>%</t>
   </si>
   <si>
-    <t>%</t>
+    <t>LUCRO PROTEGIDO OPÇÕES</t>
+  </si>
+  <si>
+    <t>LUCRO LÍQUIDO AÇÕES</t>
+  </si>
+  <si>
+    <t>% LUCRO AÇÕES</t>
+  </si>
+  <si>
+    <t>TOTAL PROTEÇÃO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
     <numFmt numFmtId="166" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
     <numFmt numFmtId="167" formatCode="[$-416]mmm\-yy;@"/>
     <numFmt numFmtId="168" formatCode="[$-416]mmmm\-yy;@"/>
+    <numFmt numFmtId="169" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -232,15 +243,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -257,13 +274,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -291,12 +323,6 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -312,15 +338,28 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -344,6 +383,597 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -357,6 +987,1504 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="169" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="[$-416]mmmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="[$-416]mmmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
@@ -380,6 +2508,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -398,6 +2544,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -434,6 +2598,42 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -452,6 +2652,42 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <font>
@@ -483,6 +2719,24 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
         <color rgb="FFFF0000"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -501,6 +2755,24 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -523,6 +2795,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -541,6 +2831,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -559,6 +2867,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -577,6 +2903,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -595,6 +2939,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -613,6 +2975,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -631,6 +3011,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -649,6 +3047,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -667,6 +3083,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -685,6 +3119,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -703,6 +3155,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -721,6 +3191,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -739,6 +3227,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -757,6 +3263,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -793,6 +3317,42 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -811,6 +3371,23 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -829,6 +3406,23 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -847,6 +3441,23 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -865,6 +3476,23 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="167" formatCode="[$-416]mmm\-yy;@"/>
     </dxf>
     <dxf>
@@ -883,2613 +3511,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="169" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="[$-416]mmmm\-yy;@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="[$-416]mmmm\-yy;@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="167" formatCode="[$-416]mmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -3541,82 +3580,82 @@
     <filterColumn colId="29"/>
   </autoFilter>
   <tableColumns count="30">
-    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="177" totalsRowDxfId="30"/>
-    <tableColumn id="2" name="DATA" dataDxfId="176" totalsRowDxfId="29"/>
-    <tableColumn id="12" name="RENDA FIXA" dataDxfId="175" totalsRowDxfId="28" dataCellStyle="Moeda"/>
-    <tableColumn id="26" name="APORTE RF" dataDxfId="174" totalsRowDxfId="27" dataCellStyle="Moeda"/>
-    <tableColumn id="9" name="SAQUE" dataDxfId="173" totalsRowDxfId="26" dataCellStyle="Moeda"/>
-    <tableColumn id="5" name="LUCRO" dataDxfId="172" totalsRowDxfId="25" dataCellStyle="Moeda"/>
-    <tableColumn id="3" name="APORTE" totalsRowFunction="sum" dataDxfId="171" totalsRowDxfId="24" dataCellStyle="Moeda">
+    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="177" totalsRowDxfId="176"/>
+    <tableColumn id="2" name="DATA" dataDxfId="175" totalsRowDxfId="174"/>
+    <tableColumn id="12" name="RENDA FIXA" dataDxfId="173" totalsRowDxfId="172" dataCellStyle="Moeda"/>
+    <tableColumn id="26" name="APORTE RF" dataDxfId="171" totalsRowDxfId="170" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="SAQUE" dataDxfId="169" totalsRowDxfId="168" dataCellStyle="Moeda"/>
+    <tableColumn id="5" name="LUCRO" dataDxfId="167" totalsRowDxfId="166" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="APORTE" totalsRowFunction="sum" dataDxfId="165" totalsRowDxfId="164" dataCellStyle="Moeda">
       <calculatedColumnFormula>380</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="MONTANTE" dataDxfId="170" totalsRowDxfId="23" dataCellStyle="Moeda">
+    <tableColumn id="4" name="MONTANTE" dataDxfId="163" totalsRowDxfId="162" dataCellStyle="Moeda">
       <calculatedColumnFormula>SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE RF])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="169" totalsRowDxfId="22" dataCellStyle="Moeda">
+    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="161" totalsRowDxfId="160" dataCellStyle="Moeda">
       <calculatedColumnFormula>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EMOL CP" dataDxfId="168" totalsRowDxfId="21" dataCellStyle="Moeda">
+    <tableColumn id="11" name="EMOL CP" dataDxfId="159" totalsRowDxfId="158" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="LIQD CP" dataDxfId="167" totalsRowDxfId="20" dataCellStyle="Moeda">
+    <tableColumn id="13" name="LIQD CP" dataDxfId="157" totalsRowDxfId="156" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="REG CP" dataDxfId="166" totalsRowDxfId="19" dataCellStyle="Moeda">
+    <tableColumn id="14" name="REG CP" dataDxfId="155" totalsRowDxfId="154" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="ISS CP" dataDxfId="165" totalsRowDxfId="18" dataCellStyle="Moeda">
+    <tableColumn id="16" name="ISS CP" dataDxfId="153" totalsRowDxfId="152" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="OUTRAS CP" dataDxfId="164" totalsRowDxfId="17" dataCellStyle="Moeda">
+    <tableColumn id="19" name="OUTRAS CP" dataDxfId="151" totalsRowDxfId="150" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="TAXA CP" dataDxfId="163" totalsRowDxfId="16" dataCellStyle="Moeda">
+    <tableColumn id="18" name="TAXA CP" dataDxfId="149" totalsRowDxfId="148" dataCellStyle="Moeda">
       <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="EMOL VD" dataDxfId="162" totalsRowDxfId="15" dataCellStyle="Moeda">
+    <tableColumn id="25" name="EMOL VD" dataDxfId="147" totalsRowDxfId="146" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="LIQD VD" dataDxfId="161" totalsRowDxfId="14" dataCellStyle="Moeda">
+    <tableColumn id="24" name="LIQD VD" dataDxfId="145" totalsRowDxfId="144" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="REG VD" dataDxfId="160" totalsRowDxfId="13" dataCellStyle="Moeda">
+    <tableColumn id="23" name="REG VD" dataDxfId="143" totalsRowDxfId="142" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="ISS VD" dataDxfId="159" totalsRowDxfId="12" dataCellStyle="Moeda">
+    <tableColumn id="22" name="ISS VD" dataDxfId="141" totalsRowDxfId="140" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="OUTRAS VD" dataDxfId="158" totalsRowDxfId="11" dataCellStyle="Moeda">
+    <tableColumn id="21" name="OUTRAS VD" dataDxfId="139" totalsRowDxfId="138" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="TAXA VD" dataDxfId="157" totalsRowDxfId="10" dataCellStyle="Moeda">
+    <tableColumn id="20" name="TAXA VD" dataDxfId="137" totalsRowDxfId="136" dataCellStyle="Moeda">
       <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="PREV LUCRO" dataDxfId="156" totalsRowDxfId="9" dataCellStyle="Moeda">
+    <tableColumn id="17" name="PREV LUCRO" dataDxfId="135" totalsRowDxfId="134" dataCellStyle="Moeda">
       <calculatedColumnFormula>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="PERDA MAX" dataDxfId="155" totalsRowDxfId="8" dataCellStyle="Moeda">
+    <tableColumn id="28" name="PERDA MAX" dataDxfId="133" totalsRowDxfId="132" dataCellStyle="Moeda">
       <calculatedColumnFormula>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="% PERDA" dataDxfId="154" totalsRowDxfId="7" dataCellStyle="Porcentagem">
+    <tableColumn id="29" name="% PERDA" dataDxfId="131" totalsRowDxfId="130" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="NO BOLSO" dataDxfId="153" totalsRowDxfId="6">
+    <tableColumn id="6" name="NO BOLSO" dataDxfId="129" totalsRowDxfId="128">
       <calculatedColumnFormula>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="152" totalsRowDxfId="5" dataCellStyle="Moeda">
+    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="127" totalsRowDxfId="126" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="REINVESTIR" totalsRowFunction="sum" dataDxfId="151" totalsRowDxfId="4" dataCellStyle="Moeda">
+    <tableColumn id="8" name="REINVESTIR" totalsRowFunction="sum" dataDxfId="125" totalsRowDxfId="124" dataCellStyle="Moeda">
       <calculatedColumnFormula>[LUCRO]-[PROTEÇÃO MÊS]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="TOT RF" dataDxfId="150" totalsRowDxfId="3" dataCellStyle="Moeda">
+    <tableColumn id="15" name="TOT RF" dataDxfId="123" totalsRowDxfId="122" dataCellStyle="Moeda">
       <calculatedColumnFormula>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="31" totalsRowDxfId="2" dataCellStyle="Moeda">
+    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="121" totalsRowDxfId="120" dataCellStyle="Moeda">
       <calculatedColumnFormula>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="%" dataDxfId="0" totalsRowDxfId="1" dataCellStyle="Porcentagem">
+    <tableColumn id="30" name="%" dataDxfId="119" totalsRowDxfId="118" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3625,82 +3664,82 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:AC5" totalsRowCount="1" headerRowDxfId="149">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:AC5" totalsRowCount="1" headerRowDxfId="117">
   <autoFilter ref="A1:AC4"/>
   <tableColumns count="29">
-    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="148" totalsRowDxfId="147"/>
-    <tableColumn id="2" name="DATA" dataDxfId="146" totalsRowDxfId="145"/>
-    <tableColumn id="12" name="RENDA FIXA" dataDxfId="144" totalsRowDxfId="143" dataCellStyle="Moeda"/>
-    <tableColumn id="26" name="APORTE RF" dataDxfId="142" totalsRowDxfId="141" dataCellStyle="Moeda"/>
-    <tableColumn id="9" name="SAQUE" dataDxfId="140" totalsRowDxfId="139" dataCellStyle="Moeda"/>
-    <tableColumn id="5" name="LUCRO" dataDxfId="138" totalsRowDxfId="137" dataCellStyle="Moeda"/>
-    <tableColumn id="3" name="APORTE" dataDxfId="136" totalsRowDxfId="135" dataCellStyle="Moeda">
+    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="116" totalsRowDxfId="115"/>
+    <tableColumn id="2" name="DATA" dataDxfId="114" totalsRowDxfId="113"/>
+    <tableColumn id="12" name="RENDA FIXA" dataDxfId="112" totalsRowDxfId="111" dataCellStyle="Moeda"/>
+    <tableColumn id="26" name="APORTE RF" dataDxfId="110" totalsRowDxfId="109" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="SAQUE" dataDxfId="108" totalsRowDxfId="107" dataCellStyle="Moeda"/>
+    <tableColumn id="5" name="LUCRO" dataDxfId="106" totalsRowDxfId="105" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="APORTE" dataDxfId="104" totalsRowDxfId="103" dataCellStyle="Moeda">
       <calculatedColumnFormula>100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="MONTANTE" dataDxfId="134" totalsRowDxfId="133" dataCellStyle="Moeda">
+    <tableColumn id="4" name="MONTANTE" dataDxfId="102" totalsRowDxfId="101" dataCellStyle="Moeda">
       <calculatedColumnFormula>SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE RF])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="132" totalsRowDxfId="131" dataCellStyle="Moeda">
+    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="100" totalsRowDxfId="99" dataCellStyle="Moeda">
       <calculatedColumnFormula>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela13[[#This Row],[TRADE]]), [REINVESTIR])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EMOL CP" dataDxfId="130" totalsRowDxfId="129" dataCellStyle="Moeda">
+    <tableColumn id="11" name="EMOL CP" dataDxfId="98" totalsRowDxfId="97" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="LIQD CP" dataDxfId="128" totalsRowDxfId="127" dataCellStyle="Moeda">
+    <tableColumn id="13" name="LIQD CP" dataDxfId="96" totalsRowDxfId="95" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="REG CP" dataDxfId="126" totalsRowDxfId="125" dataCellStyle="Moeda">
+    <tableColumn id="14" name="REG CP" dataDxfId="94" totalsRowDxfId="93" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="ISS CP" dataDxfId="124" totalsRowDxfId="123" dataCellStyle="Moeda">
+    <tableColumn id="16" name="ISS CP" dataDxfId="92" totalsRowDxfId="91" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="OUTRAS CP" dataDxfId="122" totalsRowDxfId="121" dataCellStyle="Moeda">
+    <tableColumn id="19" name="OUTRAS CP" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="TAXA CP" dataDxfId="120" totalsRowDxfId="119" dataCellStyle="Moeda">
+    <tableColumn id="18" name="TAXA CP" dataDxfId="88" totalsRowDxfId="87" dataCellStyle="Moeda">
       <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL CP]]:Tabela13[[#This Row],[OUTRAS CP]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="EMOL VD" dataDxfId="118" totalsRowDxfId="117" dataCellStyle="Moeda">
+    <tableColumn id="25" name="EMOL VD" dataDxfId="86" totalsRowDxfId="85" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="LIQD VD" dataDxfId="116" totalsRowDxfId="115" dataCellStyle="Moeda">
+    <tableColumn id="24" name="LIQD VD" dataDxfId="84" totalsRowDxfId="83" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="REG VD" dataDxfId="114" totalsRowDxfId="113" dataCellStyle="Moeda">
+    <tableColumn id="23" name="REG VD" dataDxfId="82" totalsRowDxfId="81" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="ISS VD" dataDxfId="112" totalsRowDxfId="111" dataCellStyle="Moeda">
+    <tableColumn id="22" name="ISS VD" dataDxfId="80" totalsRowDxfId="79" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="OUTRAS VD" dataDxfId="110" totalsRowDxfId="109" dataCellStyle="Moeda">
+    <tableColumn id="21" name="OUTRAS VD" dataDxfId="78" totalsRowDxfId="77" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="TAXA VD" dataDxfId="108" totalsRowDxfId="107" dataCellStyle="Moeda">
+    <tableColumn id="20" name="TAXA VD" dataDxfId="76" totalsRowDxfId="75" dataCellStyle="Moeda">
       <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL VD]]:Tabela13[[#This Row],[OUTRAS VD]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="PREV LUCRO" dataDxfId="106" totalsRowDxfId="105" dataCellStyle="Moeda">
+    <tableColumn id="17" name="PREV LUCRO" dataDxfId="74" totalsRowDxfId="73" dataCellStyle="Moeda">
       <calculatedColumnFormula>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="PERDA MAX" dataDxfId="104" totalsRowDxfId="103" dataCellStyle="Moeda">
+    <tableColumn id="28" name="PERDA MAX" dataDxfId="72" totalsRowDxfId="71" dataCellStyle="Moeda">
       <calculatedColumnFormula>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="% PERDA" dataDxfId="102" totalsRowDxfId="101" dataCellStyle="Porcentagem">
+    <tableColumn id="29" name="% PERDA" dataDxfId="70" totalsRowDxfId="69" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="NO BOLSO" dataDxfId="100" totalsRowDxfId="99">
+    <tableColumn id="6" name="NO BOLSO" dataDxfId="68" totalsRowDxfId="67">
       <calculatedColumnFormula>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="98" totalsRowDxfId="97" dataCellStyle="Moeda">
+    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="66" totalsRowDxfId="65" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="REINVESTIR" dataDxfId="96" totalsRowDxfId="95" dataCellStyle="Moeda">
+    <tableColumn id="8" name="REINVESTIR" dataDxfId="64" totalsRowDxfId="63" dataCellStyle="Moeda">
       <calculatedColumnFormula>[LUCRO]-[PROTEÇÃO MÊS]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="TOT RF" dataDxfId="94" totalsRowDxfId="93" dataCellStyle="Moeda">
+    <tableColumn id="15" name="TOT RF" dataDxfId="62" totalsRowDxfId="61" dataCellStyle="Moeda">
       <calculatedColumnFormula>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="92" totalsRowDxfId="91" dataCellStyle="Moeda">
+    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="60" totalsRowDxfId="59" dataCellStyle="Moeda">
       <calculatedColumnFormula>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3709,82 +3748,82 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela134" displayName="Tabela134" ref="A1:AC4" totalsRowCount="1" headerRowDxfId="90">
-  <autoFilter ref="A1:AC3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela134" displayName="Tabela134" ref="A1:AC5" totalsRowCount="1" headerRowDxfId="58">
+  <autoFilter ref="A1:AC4"/>
   <tableColumns count="29">
-    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="89" totalsRowDxfId="88"/>
-    <tableColumn id="2" name="DATA" dataDxfId="87" totalsRowDxfId="86"/>
-    <tableColumn id="12" name="RENDA FIXA" dataDxfId="85" totalsRowDxfId="84" dataCellStyle="Moeda"/>
-    <tableColumn id="26" name="APORTE RF" dataDxfId="83" totalsRowDxfId="82" dataCellStyle="Moeda"/>
-    <tableColumn id="9" name="SAQUE" dataDxfId="81" totalsRowDxfId="80" dataCellStyle="Moeda"/>
-    <tableColumn id="5" name="LUCRO" dataDxfId="79" totalsRowDxfId="78" dataCellStyle="Moeda"/>
-    <tableColumn id="3" name="APORTE" dataDxfId="77" totalsRowDxfId="76" dataCellStyle="Moeda">
+    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="57" totalsRowDxfId="28"/>
+    <tableColumn id="2" name="DATA" dataDxfId="56" totalsRowDxfId="27"/>
+    <tableColumn id="12" name="RENDA FIXA" dataDxfId="55" totalsRowDxfId="26" dataCellStyle="Moeda"/>
+    <tableColumn id="26" name="APORTE RF" dataDxfId="54" totalsRowDxfId="25" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="SAQUE" dataDxfId="53" totalsRowDxfId="24" dataCellStyle="Moeda"/>
+    <tableColumn id="5" name="LUCRO" dataDxfId="52" totalsRowDxfId="23" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="APORTE" dataDxfId="51" totalsRowDxfId="22" dataCellStyle="Moeda">
       <calculatedColumnFormula>100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="MONTANTE" dataDxfId="75" totalsRowDxfId="74" dataCellStyle="Moeda">
+    <tableColumn id="4" name="MONTANTE" dataDxfId="50" totalsRowDxfId="21" dataCellStyle="Moeda">
       <calculatedColumnFormula>SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [APORTE RF])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="73" totalsRowDxfId="72" dataCellStyle="Moeda">
+    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="49" totalsRowDxfId="20" dataCellStyle="Moeda">
       <calculatedColumnFormula>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela134[[#This Row],[TRADE]]), [REINVESTIR])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EMOL CP" dataDxfId="71" totalsRowDxfId="70" dataCellStyle="Moeda">
+    <tableColumn id="11" name="EMOL CP" dataDxfId="48" totalsRowDxfId="19" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="LIQD CP" dataDxfId="69" totalsRowDxfId="68" dataCellStyle="Moeda">
+    <tableColumn id="13" name="LIQD CP" dataDxfId="47" totalsRowDxfId="18" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="REG CP" dataDxfId="67" totalsRowDxfId="66" dataCellStyle="Moeda">
+    <tableColumn id="14" name="REG CP" dataDxfId="46" totalsRowDxfId="17" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="ISS CP" dataDxfId="65" totalsRowDxfId="64" dataCellStyle="Moeda">
+    <tableColumn id="16" name="ISS CP" dataDxfId="45" totalsRowDxfId="16" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="OUTRAS CP" dataDxfId="63" totalsRowDxfId="62" dataCellStyle="Moeda">
+    <tableColumn id="19" name="OUTRAS CP" dataDxfId="44" totalsRowDxfId="15" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="TAXA CP" dataDxfId="61" totalsRowDxfId="60" dataCellStyle="Moeda">
+    <tableColumn id="18" name="TAXA CP" dataDxfId="43" totalsRowDxfId="14" dataCellStyle="Moeda">
       <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela134[[#This Row],[EMOL CP]]:Tabela134[[#This Row],[OUTRAS CP]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="EMOL VD" dataDxfId="59" totalsRowDxfId="58" dataCellStyle="Moeda">
+    <tableColumn id="25" name="EMOL VD" dataDxfId="42" totalsRowDxfId="13" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="LIQD VD" dataDxfId="57" totalsRowDxfId="56" dataCellStyle="Moeda">
+    <tableColumn id="24" name="LIQD VD" dataDxfId="41" totalsRowDxfId="12" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="REG VD" dataDxfId="55" totalsRowDxfId="54" dataCellStyle="Moeda">
+    <tableColumn id="23" name="REG VD" dataDxfId="40" totalsRowDxfId="11" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="ISS VD" dataDxfId="53" totalsRowDxfId="52" dataCellStyle="Moeda">
+    <tableColumn id="22" name="ISS VD" dataDxfId="39" totalsRowDxfId="10" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="OUTRAS VD" dataDxfId="51" totalsRowDxfId="50" dataCellStyle="Moeda">
+    <tableColumn id="21" name="OUTRAS VD" dataDxfId="38" totalsRowDxfId="9" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="TAXA VD" dataDxfId="49" totalsRowDxfId="48" dataCellStyle="Moeda">
+    <tableColumn id="20" name="TAXA VD" dataDxfId="37" totalsRowDxfId="8" dataCellStyle="Moeda">
       <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela134[[#This Row],[EMOL VD]]:Tabela134[[#This Row],[OUTRAS VD]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="PREV LUCRO" dataDxfId="47" totalsRowDxfId="46" dataCellStyle="Moeda">
+    <tableColumn id="17" name="PREV LUCRO" dataDxfId="36" totalsRowDxfId="7" dataCellStyle="Moeda">
       <calculatedColumnFormula>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="PERDA MAX" dataDxfId="45" totalsRowDxfId="44" dataCellStyle="Moeda">
+    <tableColumn id="28" name="PERDA MAX" dataDxfId="35" totalsRowDxfId="6" dataCellStyle="Moeda">
       <calculatedColumnFormula>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="% PERDA" dataDxfId="43" totalsRowDxfId="42" dataCellStyle="Porcentagem">
+    <tableColumn id="29" name="% PERDA" dataDxfId="34" totalsRowDxfId="5" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela134[[#This Row],[PERDA MAX]]/Tabela134[[#This Row],[APLICAÇÃO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="NO BOLSO" dataDxfId="41" totalsRowDxfId="40">
+    <tableColumn id="6" name="NO BOLSO" dataDxfId="33" totalsRowDxfId="4">
       <calculatedColumnFormula>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Moeda">
+    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="32" totalsRowDxfId="3" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="REINVESTIR" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Moeda">
+    <tableColumn id="8" name="REINVESTIR" dataDxfId="31" totalsRowDxfId="2" dataCellStyle="Moeda">
       <calculatedColumnFormula>[LUCRO]-[PROTEÇÃO MÊS]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="TOT RF" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Moeda">
+    <tableColumn id="15" name="TOT RF" dataDxfId="30" totalsRowDxfId="1" dataCellStyle="Moeda">
       <calculatedColumnFormula>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="33" totalsRowDxfId="32" dataCellStyle="Moeda">
+    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="29" totalsRowDxfId="0" dataCellStyle="Moeda">
       <calculatedColumnFormula>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4080,8 +4119,8 @@
   <sheetPr codeName="Plan1"/>
   <dimension ref="A1:AD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -4201,8 +4240,8 @@
       <c r="AC1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="44" t="s">
-        <v>39</v>
+      <c r="AD1" s="40" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:30">
@@ -4316,7 +4355,7 @@
         <f>[TOT RF] + [REINVESTIR]</f>
         <v>366.88</v>
       </c>
-      <c r="AD2" s="45">
+      <c r="AD2" s="41">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0</v>
       </c>
@@ -4432,7 +4471,7 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>1166.8800000000001</v>
       </c>
-      <c r="AD3" s="45">
+      <c r="AD3" s="41">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0</v>
       </c>
@@ -4544,7 +4583,7 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>2618.11</v>
       </c>
-      <c r="AD4" s="45">
+      <c r="AD4" s="41">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>2.8653492333901194</v>
       </c>
@@ -4656,7 +4695,7 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>4585.99</v>
       </c>
-      <c r="AD5" s="45">
+      <c r="AD5" s="41">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>1.105616670192511</v>
       </c>
@@ -4768,7 +4807,7 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>7222.5999999999995</v>
       </c>
-      <c r="AD6" s="45">
+      <c r="AD6" s="41">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.73731779402037856</v>
       </c>
@@ -4880,7 +4919,7 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>10600.24</v>
       </c>
-      <c r="AD7" s="45">
+      <c r="AD7" s="41">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.56724585368439573</v>
       </c>
@@ -4992,7 +5031,7 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>14844.38</v>
       </c>
-      <c r="AD8" s="45">
+      <c r="AD8" s="41">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.46851563148621345</v>
       </c>
@@ -5104,7 +5143,7 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>20655.71</v>
       </c>
-      <c r="AD9" s="45">
+      <c r="AD9" s="41">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.42517554852698375</v>
       </c>
@@ -5216,7 +5255,7 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>27948.789999999997</v>
       </c>
-      <c r="AD10" s="45">
+      <c r="AD10" s="41">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.3854134603729647</v>
       </c>
@@ -5328,7 +5367,7 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>36974.49</v>
       </c>
-      <c r="AD11" s="45">
+      <c r="AD11" s="41">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.3516918438454617</v>
       </c>
@@ -5440,7 +5479,7 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>48026.19</v>
       </c>
-      <c r="AD12" s="45">
+      <c r="AD12" s="41">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.32376821043191928</v>
       </c>
@@ -5552,7 +5591,7 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>61446.920000000006</v>
       </c>
-      <c r="AD13" s="45">
+      <c r="AD13" s="41">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.30074384507539353</v>
       </c>
@@ -5664,7 +5703,7 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>78127.14</v>
       </c>
-      <c r="AD14" s="45">
+      <c r="AD14" s="41">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.28578666868974478</v>
       </c>
@@ -5776,7 +5815,7 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>98308.87000000001</v>
       </c>
-      <c r="AD15" s="45">
+      <c r="AD15" s="41">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.27189950545459957</v>
       </c>
@@ -5888,7 +5927,7 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>122584.96000000001</v>
       </c>
-      <c r="AD16" s="45">
+      <c r="AD16" s="41">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.25940475936735496</v>
       </c>
@@ -6000,7 +6039,7 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>151648.66</v>
       </c>
-      <c r="AD17" s="45">
+      <c r="AD17" s="41">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.2483405037435315</v>
       </c>
@@ -6112,7 +6151,7 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>186310.6</v>
       </c>
-      <c r="AD18" s="45">
+      <c r="AD18" s="41">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.23862100803775468</v>
       </c>
@@ -6224,7 +6263,7 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>227518.65000000002</v>
       </c>
-      <c r="AD19" s="45">
+      <c r="AD19" s="41">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.23011457998368198</v>
       </c>
@@ -6336,7 +6375,7 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>276381.16000000003</v>
       </c>
-      <c r="AD20" s="45">
+      <c r="AD20" s="41">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.22267991750435254</v>
       </c>
@@ -6448,7 +6487,7 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>334194.17</v>
       </c>
-      <c r="AD21" s="45">
+      <c r="AD21" s="41">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.21618253156260273</v>
       </c>
@@ -6560,7 +6599,7 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>402473.16000000003</v>
       </c>
-      <c r="AD22" s="45">
+      <c r="AD22" s="41">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.21050066191142749</v>
       </c>
@@ -6672,7 +6711,7 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>482990.18000000005</v>
       </c>
-      <c r="AD23" s="45">
+      <c r="AD23" s="41">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.20552710777685698</v>
       </c>
@@ -6784,7 +6823,7 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>577817.35</v>
       </c>
-      <c r="AD24" s="45">
+      <c r="AD24" s="41">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.20116881032713377</v>
       </c>
@@ -6896,7 +6935,7 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>689377.57000000007</v>
       </c>
-      <c r="AD25" s="45">
+      <c r="AD25" s="41">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.19734533931669046</v>
       </c>
@@ -7008,7 +7047,7 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>820504.07000000007</v>
       </c>
-      <c r="AD26" s="45">
+      <c r="AD26" s="41">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.19398773892361412</v>
       </c>
@@ -7120,7 +7159,7 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>974509.71</v>
       </c>
-      <c r="AD27" s="45">
+      <c r="AD27" s="41">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.19103638790719293</v>
       </c>
@@ -7232,7 +7271,7 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>1155268.33</v>
       </c>
-      <c r="AD28" s="45">
+      <c r="AD28" s="41">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.18844012022636625</v>
       </c>
@@ -7344,7 +7383,7 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>1367309.65</v>
       </c>
-      <c r="AD29" s="45">
+      <c r="AD29" s="41">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.18615462704613531</v>
       </c>
@@ -7456,7 +7495,7 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>1615930.3599999999</v>
       </c>
-      <c r="AD30" s="40">
+      <c r="AD30" s="38">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.18414163382340118</v>
       </c>
@@ -7568,7 +7607,7 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>1907323.9600000002</v>
       </c>
-      <c r="AD31" s="40">
+      <c r="AD31" s="38">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.1823679066607421</v>
       </c>
@@ -7609,7 +7648,7 @@
       </c>
       <c r="AB32" s="17"/>
       <c r="AC32" s="16"/>
-      <c r="AD32" s="46"/>
+      <c r="AD32" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -7625,7 +7664,7 @@
   <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -7660,7 +7699,7 @@
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -7968,149 +8007,149 @@
       </c>
     </row>
     <row r="4" spans="1:29">
-      <c r="A4" s="36">
+      <c r="A4" s="34">
         <v>3</v>
       </c>
       <c r="B4" s="26">
         <v>41061</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="35">
         <v>0</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="35">
         <v>0</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="35">
         <v>0</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="35">
         <v>0</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="36">
         <f>100</f>
         <v>100</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="36">
         <f>SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE RF])</f>
         <v>200</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="36">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela13[[#This Row],[TRADE]]), [REINVESTIR])</f>
         <v>298.31</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="36">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
         <v>0.11</v>
       </c>
-      <c r="K4" s="38">
+      <c r="K4" s="36">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
         <v>0.08</v>
       </c>
-      <c r="L4" s="38">
+      <c r="L4" s="36">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
         <v>0.2</v>
       </c>
-      <c r="M4" s="38">
+      <c r="M4" s="36">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="N4" s="38">
+      <c r="N4" s="36">
         <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="O4" s="38">
+      <c r="O4" s="36">
         <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL CP]]:Tabela13[[#This Row],[OUTRAS CP]])</f>
         <v>16.16</v>
       </c>
-      <c r="P4" s="38">
+      <c r="P4" s="36">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
         <v>0.22</v>
       </c>
-      <c r="Q4" s="38">
+      <c r="Q4" s="36">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
         <v>0.16</v>
       </c>
-      <c r="R4" s="38">
+      <c r="R4" s="36">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
         <v>0.41</v>
       </c>
-      <c r="S4" s="38">
+      <c r="S4" s="36">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="T4" s="38">
+      <c r="T4" s="36">
         <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="U4" s="38">
+      <c r="U4" s="36">
         <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL VD]]:Tabela13[[#This Row],[OUTRAS VD]])</f>
         <v>16.560000000000002</v>
       </c>
-      <c r="V4" s="38">
+      <c r="V4" s="36">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
         <v>225.75149999999994</v>
       </c>
-      <c r="W4" s="39">
+      <c r="W4" s="37">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
         <v>298.31</v>
       </c>
-      <c r="X4" s="40">
+      <c r="X4" s="38">
         <f>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</f>
         <v>1</v>
       </c>
-      <c r="Y4" s="41">
+      <c r="Y4" s="39">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
         <v>0.8</v>
       </c>
-      <c r="Z4" s="38">
+      <c r="Z4" s="36">
         <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
         <v>0</v>
       </c>
-      <c r="AA4" s="38">
+      <c r="AA4" s="36">
         <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="38">
+      <c r="AB4" s="36">
         <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
         <v>0</v>
       </c>
-      <c r="AC4" s="38">
+      <c r="AC4" s="36">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>298.31</v>
       </c>
     </row>
     <row r="5" spans="1:29">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="35"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -8122,10 +8161,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC4"/>
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -8267,23 +8306,23 @@
       </c>
       <c r="H2" s="3">
         <f>SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [APORTE RF])</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I2" s="3">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela134[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J2" s="3">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K2" s="3">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="L2" s="3">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="M2" s="3">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -8295,19 +8334,19 @@
       </c>
       <c r="O2" s="3">
         <f>SETUP!$G$3 + SUM(Tabela134[[#This Row],[EMOL CP]]:Tabela134[[#This Row],[OUTRAS CP]])</f>
-        <v>15.88</v>
+        <v>16.02</v>
       </c>
       <c r="P2" s="3">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Q2" s="3">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="R2" s="3">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>0.13</v>
+        <v>0.27</v>
       </c>
       <c r="S2" s="3">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -8319,15 +8358,15 @@
       </c>
       <c r="U2" s="3">
         <f>SETUP!$G$3 + SUM(Tabela134[[#This Row],[EMOL VD]]:Tabela134[[#This Row],[OUTRAS VD]])</f>
-        <v>16.02</v>
+        <v>16.29</v>
       </c>
       <c r="V2" s="3">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>57.884999999999991</v>
+        <v>142.53649999999996</v>
       </c>
       <c r="W2" s="11">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X2" s="4">
         <f>Tabela134[[#This Row],[PERDA MAX]]/Tabela134[[#This Row],[APLICAÇÃO]]</f>
@@ -8351,7 +8390,7 @@
       </c>
       <c r="AC2" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -8374,23 +8413,23 @@
       </c>
       <c r="H3" s="6">
         <f>SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [APORTE RF])</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I3" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela134[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J3" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K3" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="L3" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="M3" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -8402,19 +8441,19 @@
       </c>
       <c r="O3" s="6">
         <f>SETUP!$G$3 + SUM(Tabela134[[#This Row],[EMOL CP]]:Tabela134[[#This Row],[OUTRAS CP]])</f>
-        <v>15.88</v>
+        <v>16.02</v>
       </c>
       <c r="P3" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Q3" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="R3" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>0.13</v>
+        <v>0.27</v>
       </c>
       <c r="S3" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -8426,15 +8465,15 @@
       </c>
       <c r="U3" s="6">
         <f>SETUP!$G$3 + SUM(Tabela134[[#This Row],[EMOL VD]]:Tabela134[[#This Row],[OUTRAS VD]])</f>
-        <v>16.02</v>
+        <v>16.29</v>
       </c>
       <c r="V3" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>57.884999999999991</v>
+        <v>142.53649999999996</v>
       </c>
       <c r="W3" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X3" s="4">
         <f>Tabela134[[#This Row],[PERDA MAX]]/Tabela134[[#This Row],[APLICAÇÃO]]</f>
@@ -8458,39 +8497,141 @@
       </c>
       <c r="AC3" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>40.21</v>
+        <v>140.21</v>
       </c>
     </row>
     <row r="4" spans="1:29">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36">
+        <f>100</f>
+        <v>100</v>
+      </c>
+      <c r="H4" s="36">
+        <f>SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [APORTE RF])</f>
+        <v>100</v>
+      </c>
+      <c r="I4" s="36">
+        <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela134[[#This Row],[TRADE]]), [REINVESTIR])</f>
+        <v>100</v>
+      </c>
+      <c r="J4" s="36">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="K4" s="36">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="L4" s="36">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>0.06</v>
+      </c>
+      <c r="M4" s="36">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N4" s="36">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O4" s="36">
+        <f>SETUP!$G$3 + SUM(Tabela134[[#This Row],[EMOL CP]]:Tabela134[[#This Row],[OUTRAS CP]])</f>
+        <v>15.88</v>
+      </c>
+      <c r="P4" s="36">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q4" s="36">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="R4" s="36">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>0.13</v>
+      </c>
+      <c r="S4" s="36">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T4" s="36">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U4" s="36">
+        <f>SETUP!$G$3 + SUM(Tabela134[[#This Row],[EMOL VD]]:Tabela134[[#This Row],[OUTRAS VD]])</f>
+        <v>16.02</v>
+      </c>
+      <c r="V4" s="36">
+        <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
+        <v>57.884999999999991</v>
+      </c>
+      <c r="W4" s="37">
+        <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
+        <v>100</v>
+      </c>
+      <c r="X4" s="38">
+        <f>Tabela134[[#This Row],[PERDA MAX]]/Tabela134[[#This Row],[APLICAÇÃO]]</f>
+        <v>1</v>
+      </c>
+      <c r="Y4" s="39">
+        <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z4" s="36">
+        <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="36">
+        <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="36">
+        <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="36">
+        <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="16"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -8522,23 +8663,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43" t="s">
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="44" t="s">
         <v>23</v>
       </c>
     </row>
@@ -8561,9 +8702,9 @@
       <c r="F2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="8">
@@ -8608,45 +8749,100 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="26"/>
-    <col min="2" max="2" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="29" customFormat="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:5" s="27" customFormat="1" ht="12" thickBot="1">
+      <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>38</v>
+      <c r="B1" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="26">
+    <row r="2" spans="1:5" ht="12" thickTop="1">
+      <c r="A2" s="49">
         <f>VOLATILIDADE!B2</f>
         <v>41000</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="50">
         <f>Tabela13[[#This Row],[PROTEÇÃO MÊS]]+Tabela134[[#This Row],[PROTEÇÃO MÊS]]+Tabela1[[#This Row],[PROTEÇÃO MÊS]]</f>
         <v>293.5</v>
       </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="51">
+        <f>C2*25%</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="50">
+        <f>B2+D2</f>
+        <v>293.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="26">
+    <row r="3" spans="1:5">
+      <c r="A3" s="49">
         <f>VOLATILIDADE!B3</f>
         <v>41030</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="50">
         <f>Tabela13[[#This Row],[PROTEÇÃO MÊS]]+Tabela134[[#This Row],[PROTEÇÃO MÊS]]+Tabela1[[#This Row],[PROTEÇÃO MÊS]]</f>
         <v>393.25</v>
+      </c>
+      <c r="C3" s="3">
+        <v>64.180000000000007</v>
+      </c>
+      <c r="D3" s="51">
+        <f>C3*25%</f>
+        <v>16.045000000000002</v>
+      </c>
+      <c r="E3" s="50">
+        <f>B3+D3</f>
+        <v>409.29500000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="49">
+        <f>VOLATILIDADE!B4</f>
+        <v>41061</v>
+      </c>
+      <c r="B4" s="50">
+        <f>Tabela13[[#This Row],[PROTEÇÃO MÊS]]+Tabela134[[#This Row],[PROTEÇÃO MÊS]]+Tabela1[[#This Row],[PROTEÇÃO MÊS]]</f>
+        <v>840.98</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="51">
+        <f>C4*25%</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="50">
+        <f>B4+D4</f>
+        <v>840.98</v>
       </c>
     </row>
   </sheetData>

--- a/stocks/gama.xlsx
+++ b/stocks/gama.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="210" windowWidth="19320" windowHeight="7305" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="210" windowWidth="19320" windowHeight="7305"/>
   </bookViews>
   <sheets>
     <sheet name="VOLATILIDADE" sheetId="1" r:id="rId1"/>
@@ -341,12 +341,6 @@
     <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -360,6 +354,12 @@
     <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -401,6 +401,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -419,6 +437,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -437,6 +473,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -455,6 +509,42 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <font>
@@ -486,6 +576,24 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
         <color rgb="FFFF0000"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -504,6 +612,24 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -526,6 +652,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -544,6 +688,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -562,6 +724,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -580,6 +760,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -598,6 +796,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -616,6 +832,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -634,6 +868,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -652,6 +904,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -670,6 +940,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -688,6 +976,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -706,6 +1012,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -724,6 +1048,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -742,6 +1084,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -760,6 +1120,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -778,6 +1156,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -796,6 +1192,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -814,6 +1228,23 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -832,6 +1263,23 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -850,6 +1298,23 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -902,489 +1367,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="169" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -3751,79 +3751,79 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela134" displayName="Tabela134" ref="A1:AC5" totalsRowCount="1" headerRowDxfId="58">
   <autoFilter ref="A1:AC4"/>
   <tableColumns count="29">
-    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="57" totalsRowDxfId="28"/>
-    <tableColumn id="2" name="DATA" dataDxfId="56" totalsRowDxfId="27"/>
-    <tableColumn id="12" name="RENDA FIXA" dataDxfId="55" totalsRowDxfId="26" dataCellStyle="Moeda"/>
-    <tableColumn id="26" name="APORTE RF" dataDxfId="54" totalsRowDxfId="25" dataCellStyle="Moeda"/>
-    <tableColumn id="9" name="SAQUE" dataDxfId="53" totalsRowDxfId="24" dataCellStyle="Moeda"/>
-    <tableColumn id="5" name="LUCRO" dataDxfId="52" totalsRowDxfId="23" dataCellStyle="Moeda"/>
-    <tableColumn id="3" name="APORTE" dataDxfId="51" totalsRowDxfId="22" dataCellStyle="Moeda">
+    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="2" name="DATA" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="12" name="RENDA FIXA" dataDxfId="53" totalsRowDxfId="52" dataCellStyle="Moeda"/>
+    <tableColumn id="26" name="APORTE RF" dataDxfId="51" totalsRowDxfId="50" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="SAQUE" dataDxfId="49" totalsRowDxfId="48" dataCellStyle="Moeda"/>
+    <tableColumn id="5" name="LUCRO" dataDxfId="47" totalsRowDxfId="46" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="APORTE" dataDxfId="45" totalsRowDxfId="44" dataCellStyle="Moeda">
       <calculatedColumnFormula>100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="MONTANTE" dataDxfId="50" totalsRowDxfId="21" dataCellStyle="Moeda">
+    <tableColumn id="4" name="MONTANTE" dataDxfId="43" totalsRowDxfId="42" dataCellStyle="Moeda">
       <calculatedColumnFormula>SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [APORTE RF])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="49" totalsRowDxfId="20" dataCellStyle="Moeda">
+    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="41" totalsRowDxfId="40" dataCellStyle="Moeda">
       <calculatedColumnFormula>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela134[[#This Row],[TRADE]]), [REINVESTIR])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EMOL CP" dataDxfId="48" totalsRowDxfId="19" dataCellStyle="Moeda">
+    <tableColumn id="11" name="EMOL CP" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="LIQD CP" dataDxfId="47" totalsRowDxfId="18" dataCellStyle="Moeda">
+    <tableColumn id="13" name="LIQD CP" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="REG CP" dataDxfId="46" totalsRowDxfId="17" dataCellStyle="Moeda">
+    <tableColumn id="14" name="REG CP" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="ISS CP" dataDxfId="45" totalsRowDxfId="16" dataCellStyle="Moeda">
+    <tableColumn id="16" name="ISS CP" dataDxfId="33" totalsRowDxfId="32" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="OUTRAS CP" dataDxfId="44" totalsRowDxfId="15" dataCellStyle="Moeda">
+    <tableColumn id="19" name="OUTRAS CP" dataDxfId="31" totalsRowDxfId="30" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="TAXA CP" dataDxfId="43" totalsRowDxfId="14" dataCellStyle="Moeda">
+    <tableColumn id="18" name="TAXA CP" dataDxfId="29" totalsRowDxfId="28" dataCellStyle="Moeda">
       <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela134[[#This Row],[EMOL CP]]:Tabela134[[#This Row],[OUTRAS CP]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="EMOL VD" dataDxfId="42" totalsRowDxfId="13" dataCellStyle="Moeda">
+    <tableColumn id="25" name="EMOL VD" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="LIQD VD" dataDxfId="41" totalsRowDxfId="12" dataCellStyle="Moeda">
+    <tableColumn id="24" name="LIQD VD" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="REG VD" dataDxfId="40" totalsRowDxfId="11" dataCellStyle="Moeda">
+    <tableColumn id="23" name="REG VD" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="ISS VD" dataDxfId="39" totalsRowDxfId="10" dataCellStyle="Moeda">
+    <tableColumn id="22" name="ISS VD" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="OUTRAS VD" dataDxfId="38" totalsRowDxfId="9" dataCellStyle="Moeda">
+    <tableColumn id="21" name="OUTRAS VD" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="TAXA VD" dataDxfId="37" totalsRowDxfId="8" dataCellStyle="Moeda">
+    <tableColumn id="20" name="TAXA VD" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Moeda">
       <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela134[[#This Row],[EMOL VD]]:Tabela134[[#This Row],[OUTRAS VD]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="PREV LUCRO" dataDxfId="36" totalsRowDxfId="7" dataCellStyle="Moeda">
+    <tableColumn id="17" name="PREV LUCRO" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Moeda">
       <calculatedColumnFormula>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="PERDA MAX" dataDxfId="35" totalsRowDxfId="6" dataCellStyle="Moeda">
+    <tableColumn id="28" name="PERDA MAX" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Moeda">
       <calculatedColumnFormula>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="% PERDA" dataDxfId="34" totalsRowDxfId="5" dataCellStyle="Porcentagem">
+    <tableColumn id="29" name="% PERDA" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela134[[#This Row],[PERDA MAX]]/Tabela134[[#This Row],[APLICAÇÃO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="NO BOLSO" dataDxfId="33" totalsRowDxfId="4">
+    <tableColumn id="6" name="NO BOLSO" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="32" totalsRowDxfId="3" dataCellStyle="Moeda">
+    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="REINVESTIR" dataDxfId="31" totalsRowDxfId="2" dataCellStyle="Moeda">
+    <tableColumn id="8" name="REINVESTIR" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Moeda">
       <calculatedColumnFormula>[LUCRO]-[PROTEÇÃO MÊS]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="TOT RF" dataDxfId="30" totalsRowDxfId="1" dataCellStyle="Moeda">
+    <tableColumn id="15" name="TOT RF" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Moeda">
       <calculatedColumnFormula>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="29" totalsRowDxfId="0" dataCellStyle="Moeda">
+    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Moeda">
       <calculatedColumnFormula>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4119,8 +4119,8 @@
   <sheetPr codeName="Plan1"/>
   <dimension ref="A1:AD32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -8502,7 +8502,7 @@
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="34"/>
-      <c r="B4" s="45"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
@@ -8663,23 +8663,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="51" t="s">
         <v>23</v>
       </c>
     </row>
@@ -8702,9 +8702,9 @@
       <c r="F2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="8">
@@ -8751,7 +8751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -8766,81 +8766,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="27" customFormat="1" ht="12" thickBot="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="46" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="12" thickTop="1">
-      <c r="A2" s="49">
+      <c r="A2" s="47">
         <f>VOLATILIDADE!B2</f>
         <v>41000</v>
       </c>
-      <c r="B2" s="50">
+      <c r="B2" s="48">
         <f>Tabela13[[#This Row],[PROTEÇÃO MÊS]]+Tabela134[[#This Row],[PROTEÇÃO MÊS]]+Tabela1[[#This Row],[PROTEÇÃO MÊS]]</f>
         <v>293.5</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
       </c>
-      <c r="D2" s="51">
+      <c r="D2" s="49">
         <f>C2*25%</f>
         <v>0</v>
       </c>
-      <c r="E2" s="50">
+      <c r="E2" s="48">
         <f>B2+D2</f>
         <v>293.5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="49">
+      <c r="A3" s="47">
         <f>VOLATILIDADE!B3</f>
         <v>41030</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="48">
         <f>Tabela13[[#This Row],[PROTEÇÃO MÊS]]+Tabela134[[#This Row],[PROTEÇÃO MÊS]]+Tabela1[[#This Row],[PROTEÇÃO MÊS]]</f>
         <v>393.25</v>
       </c>
       <c r="C3" s="3">
         <v>64.180000000000007</v>
       </c>
-      <c r="D3" s="51">
+      <c r="D3" s="49">
         <f>C3*25%</f>
         <v>16.045000000000002</v>
       </c>
-      <c r="E3" s="50">
+      <c r="E3" s="48">
         <f>B3+D3</f>
         <v>409.29500000000002</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="49">
+      <c r="A4" s="47">
         <f>VOLATILIDADE!B4</f>
         <v>41061</v>
       </c>
-      <c r="B4" s="50">
+      <c r="B4" s="48">
         <f>Tabela13[[#This Row],[PROTEÇÃO MÊS]]+Tabela134[[#This Row],[PROTEÇÃO MÊS]]+Tabela1[[#This Row],[PROTEÇÃO MÊS]]</f>
         <v>840.98</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="49">
         <f>C4*25%</f>
         <v>0</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="48">
         <f>B4+D4</f>
         <v>840.98</v>
       </c>

--- a/stocks/gama.xlsx
+++ b/stocks/gama.xlsx
@@ -227,12 +227,14 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,6 +242,7 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -295,7 +298,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -328,7 +331,6 @@
     </xf>
     <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -378,6 +380,24 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="8"/>
         <color theme="1"/>
         <name val="Calibri"/>
@@ -401,6 +421,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -437,6 +475,329 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -473,6 +834,95 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="[$-416]mmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -509,6 +959,490 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="[$-416]mmmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -527,6 +1461,132 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1472,24 +2532,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1508,24 +2550,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1544,21 +2568,39 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -1580,6 +2622,397 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="[$-416]mmmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1615,7 +3048,61 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -1647,28 +3134,28 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
         <color rgb="FFFF0000"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1687,24 +3174,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1723,24 +3192,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1759,24 +3210,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1795,24 +3228,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1831,24 +3246,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1867,24 +3264,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1903,24 +3282,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1939,24 +3300,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1975,24 +3318,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -2011,24 +3336,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -2047,24 +3354,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -2083,24 +3372,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -2119,24 +3390,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -2155,24 +3408,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -2191,24 +3426,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -2227,24 +3444,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -2263,1202 +3462,40 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="[$-416]mmmm\-yy;@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="[$-416]mmmm\-yy;@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -3494,41 +3531,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="167" formatCode="[$-416]mmm\-yy;@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="[$-416]mmm\-yy;@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -3580,82 +3582,82 @@
     <filterColumn colId="29"/>
   </autoFilter>
   <tableColumns count="30">
-    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="177" totalsRowDxfId="176"/>
-    <tableColumn id="2" name="DATA" dataDxfId="175" totalsRowDxfId="174"/>
-    <tableColumn id="12" name="RENDA FIXA" dataDxfId="173" totalsRowDxfId="172" dataCellStyle="Moeda"/>
-    <tableColumn id="26" name="APORTE RF" dataDxfId="171" totalsRowDxfId="170" dataCellStyle="Moeda"/>
-    <tableColumn id="9" name="SAQUE" dataDxfId="169" totalsRowDxfId="168" dataCellStyle="Moeda"/>
-    <tableColumn id="5" name="LUCRO" dataDxfId="167" totalsRowDxfId="166" dataCellStyle="Moeda"/>
-    <tableColumn id="3" name="APORTE" totalsRowFunction="sum" dataDxfId="165" totalsRowDxfId="164" dataCellStyle="Moeda">
+    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="177" totalsRowDxfId="29"/>
+    <tableColumn id="2" name="DATA" dataDxfId="176" totalsRowDxfId="28"/>
+    <tableColumn id="12" name="RENDA FIXA" dataDxfId="175" totalsRowDxfId="27" dataCellStyle="Moeda"/>
+    <tableColumn id="26" name="APORTE RF" dataDxfId="174" totalsRowDxfId="26" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="SAQUE" dataDxfId="173" totalsRowDxfId="25" dataCellStyle="Moeda"/>
+    <tableColumn id="5" name="LUCRO" dataDxfId="172" totalsRowDxfId="24" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="APORTE" totalsRowFunction="sum" dataDxfId="171" totalsRowDxfId="23" dataCellStyle="Moeda">
       <calculatedColumnFormula>380</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="MONTANTE" dataDxfId="163" totalsRowDxfId="162" dataCellStyle="Moeda">
+    <tableColumn id="4" name="MONTANTE" dataDxfId="170" totalsRowDxfId="22" dataCellStyle="Moeda">
       <calculatedColumnFormula>SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE RF])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="161" totalsRowDxfId="160" dataCellStyle="Moeda">
+    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="169" totalsRowDxfId="21" dataCellStyle="Moeda">
       <calculatedColumnFormula>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EMOL CP" dataDxfId="159" totalsRowDxfId="158" dataCellStyle="Moeda">
+    <tableColumn id="11" name="EMOL CP" dataDxfId="168" totalsRowDxfId="20" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="LIQD CP" dataDxfId="157" totalsRowDxfId="156" dataCellStyle="Moeda">
+    <tableColumn id="13" name="LIQD CP" dataDxfId="167" totalsRowDxfId="19" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="REG CP" dataDxfId="155" totalsRowDxfId="154" dataCellStyle="Moeda">
+    <tableColumn id="14" name="REG CP" dataDxfId="166" totalsRowDxfId="18" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="ISS CP" dataDxfId="153" totalsRowDxfId="152" dataCellStyle="Moeda">
+    <tableColumn id="16" name="ISS CP" dataDxfId="165" totalsRowDxfId="17" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="OUTRAS CP" dataDxfId="151" totalsRowDxfId="150" dataCellStyle="Moeda">
+    <tableColumn id="19" name="OUTRAS CP" dataDxfId="164" totalsRowDxfId="16" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="TAXA CP" dataDxfId="149" totalsRowDxfId="148" dataCellStyle="Moeda">
+    <tableColumn id="18" name="TAXA CP" dataDxfId="163" totalsRowDxfId="15" dataCellStyle="Moeda">
       <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="EMOL VD" dataDxfId="147" totalsRowDxfId="146" dataCellStyle="Moeda">
+    <tableColumn id="25" name="EMOL VD" dataDxfId="162" totalsRowDxfId="14" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="LIQD VD" dataDxfId="145" totalsRowDxfId="144" dataCellStyle="Moeda">
+    <tableColumn id="24" name="LIQD VD" dataDxfId="161" totalsRowDxfId="13" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="REG VD" dataDxfId="143" totalsRowDxfId="142" dataCellStyle="Moeda">
+    <tableColumn id="23" name="REG VD" dataDxfId="160" totalsRowDxfId="12" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="ISS VD" dataDxfId="141" totalsRowDxfId="140" dataCellStyle="Moeda">
+    <tableColumn id="22" name="ISS VD" dataDxfId="159" totalsRowDxfId="11" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="OUTRAS VD" dataDxfId="139" totalsRowDxfId="138" dataCellStyle="Moeda">
+    <tableColumn id="21" name="OUTRAS VD" dataDxfId="158" totalsRowDxfId="10" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="TAXA VD" dataDxfId="137" totalsRowDxfId="136" dataCellStyle="Moeda">
+    <tableColumn id="20" name="TAXA VD" dataDxfId="157" totalsRowDxfId="9" dataCellStyle="Moeda">
       <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="PREV LUCRO" dataDxfId="135" totalsRowDxfId="134" dataCellStyle="Moeda">
+    <tableColumn id="17" name="PREV LUCRO" dataDxfId="156" totalsRowDxfId="8" dataCellStyle="Moeda">
       <calculatedColumnFormula>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="PERDA MAX" dataDxfId="133" totalsRowDxfId="132" dataCellStyle="Moeda">
+    <tableColumn id="28" name="PERDA MAX" dataDxfId="155" totalsRowDxfId="7" dataCellStyle="Moeda">
       <calculatedColumnFormula>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="% PERDA" dataDxfId="131" totalsRowDxfId="130" dataCellStyle="Porcentagem">
+    <tableColumn id="29" name="% PERDA" dataDxfId="154" totalsRowDxfId="6" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="NO BOLSO" dataDxfId="129" totalsRowDxfId="128">
+    <tableColumn id="6" name="NO BOLSO" dataDxfId="153" totalsRowDxfId="5">
       <calculatedColumnFormula>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="127" totalsRowDxfId="126" dataCellStyle="Moeda">
+    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="152" totalsRowDxfId="4" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="REINVESTIR" totalsRowFunction="sum" dataDxfId="125" totalsRowDxfId="124" dataCellStyle="Moeda">
+    <tableColumn id="8" name="REINVESTIR" totalsRowFunction="sum" dataDxfId="151" totalsRowDxfId="3" dataCellStyle="Moeda">
       <calculatedColumnFormula>[LUCRO]-[PROTEÇÃO MÊS]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="TOT RF" dataDxfId="123" totalsRowDxfId="122" dataCellStyle="Moeda">
+    <tableColumn id="15" name="TOT RF" dataDxfId="150" totalsRowDxfId="2" dataCellStyle="Moeda">
       <calculatedColumnFormula>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="121" totalsRowDxfId="120" dataCellStyle="Moeda">
+    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="149" totalsRowDxfId="1" dataCellStyle="Moeda">
       <calculatedColumnFormula>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="%" dataDxfId="119" totalsRowDxfId="118" dataCellStyle="Porcentagem">
+    <tableColumn id="30" name="%" dataDxfId="148" totalsRowDxfId="0" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3664,7 +3666,91 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:AC5" totalsRowCount="1" headerRowDxfId="117">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:AC6" totalsRowCount="1" headerRowDxfId="147">
+  <autoFilter ref="A1:AC5"/>
+  <tableColumns count="29">
+    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="146" totalsRowDxfId="58"/>
+    <tableColumn id="2" name="DATA" dataDxfId="145" totalsRowDxfId="57"/>
+    <tableColumn id="12" name="RENDA FIXA" dataDxfId="144" totalsRowDxfId="56" dataCellStyle="Moeda"/>
+    <tableColumn id="26" name="APORTE RF" dataDxfId="143" totalsRowDxfId="55" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="SAQUE" dataDxfId="142" totalsRowDxfId="54" dataCellStyle="Moeda"/>
+    <tableColumn id="5" name="LUCRO" dataDxfId="141" totalsRowDxfId="53" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="APORTE" dataDxfId="140" totalsRowDxfId="52" dataCellStyle="Moeda">
+      <calculatedColumnFormula>100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="MONTANTE" dataDxfId="139" totalsRowDxfId="51" dataCellStyle="Moeda">
+      <calculatedColumnFormula>SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE RF])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="138" totalsRowDxfId="50" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela13[[#This Row],[TRADE]]), [REINVESTIR])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" name="EMOL CP" dataDxfId="137" totalsRowDxfId="49" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" name="LIQD CP" dataDxfId="136" totalsRowDxfId="48" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name="REG CP" dataDxfId="135" totalsRowDxfId="47" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" name="ISS CP" dataDxfId="134" totalsRowDxfId="46" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" name="OUTRAS CP" dataDxfId="133" totalsRowDxfId="45" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="TAXA CP" dataDxfId="132" totalsRowDxfId="44" dataCellStyle="Moeda">
+      <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL CP]]:Tabela13[[#This Row],[OUTRAS CP]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="25" name="EMOL VD" dataDxfId="131" totalsRowDxfId="43" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="24" name="LIQD VD" dataDxfId="130" totalsRowDxfId="42" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="23" name="REG VD" dataDxfId="129" totalsRowDxfId="41" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" name="ISS VD" dataDxfId="128" totalsRowDxfId="40" dataCellStyle="Moeda">
+      <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" name="OUTRAS VD" dataDxfId="127" totalsRowDxfId="39" dataCellStyle="Moeda">
+      <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" name="TAXA VD" dataDxfId="126" totalsRowDxfId="38" dataCellStyle="Moeda">
+      <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL VD]]:Tabela13[[#This Row],[OUTRAS VD]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" name="PREV LUCRO" dataDxfId="125" totalsRowDxfId="37" dataCellStyle="Moeda">
+      <calculatedColumnFormula>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="28" name="PERDA MAX" dataDxfId="124" totalsRowDxfId="36" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="29" name="% PERDA" dataDxfId="123" totalsRowDxfId="35" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="NO BOLSO" dataDxfId="122" totalsRowDxfId="34">
+      <calculatedColumnFormula>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="121" totalsRowDxfId="33" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="REINVESTIR" dataDxfId="120" totalsRowDxfId="32" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[LUCRO]-[PROTEÇÃO MÊS]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" name="TOT RF" dataDxfId="119" totalsRowDxfId="31" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="118" totalsRowDxfId="30" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela134" displayName="Tabela134" ref="A1:AC5" totalsRowCount="1" headerRowDxfId="117">
   <autoFilter ref="A1:AC4"/>
   <tableColumns count="29">
     <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="116" totalsRowDxfId="115"/>
@@ -3677,10 +3763,10 @@
       <calculatedColumnFormula>100</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="MONTANTE" dataDxfId="102" totalsRowDxfId="101" dataCellStyle="Moeda">
-      <calculatedColumnFormula>SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE RF])</calculatedColumnFormula>
+      <calculatedColumnFormula>SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [APORTE RF])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="APLICAÇÃO" dataDxfId="100" totalsRowDxfId="99" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela13[[#This Row],[TRADE]]), [REINVESTIR])</calculatedColumnFormula>
+      <calculatedColumnFormula>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela134[[#This Row],[TRADE]]), [REINVESTIR])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" name="EMOL CP" dataDxfId="98" totalsRowDxfId="97" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</calculatedColumnFormula>
@@ -3698,7 +3784,7 @@
       <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="18" name="TAXA CP" dataDxfId="88" totalsRowDxfId="87" dataCellStyle="Moeda">
-      <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL CP]]:Tabela13[[#This Row],[OUTRAS CP]])</calculatedColumnFormula>
+      <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela134[[#This Row],[EMOL CP]]:Tabela134[[#This Row],[OUTRAS CP]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="25" name="EMOL VD" dataDxfId="86" totalsRowDxfId="85" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</calculatedColumnFormula>
@@ -3716,7 +3802,7 @@
       <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="20" name="TAXA VD" dataDxfId="76" totalsRowDxfId="75" dataCellStyle="Moeda">
-      <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL VD]]:Tabela13[[#This Row],[OUTRAS VD]])</calculatedColumnFormula>
+      <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela134[[#This Row],[EMOL VD]]:Tabela134[[#This Row],[OUTRAS VD]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="17" name="PREV LUCRO" dataDxfId="74" totalsRowDxfId="73" dataCellStyle="Moeda">
       <calculatedColumnFormula>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</calculatedColumnFormula>
@@ -3725,7 +3811,7 @@
       <calculatedColumnFormula>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="29" name="% PERDA" dataDxfId="70" totalsRowDxfId="69" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabela134[[#This Row],[PERDA MAX]]/Tabela134[[#This Row],[APLICAÇÃO]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="NO BOLSO" dataDxfId="68" totalsRowDxfId="67">
       <calculatedColumnFormula>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</calculatedColumnFormula>
@@ -3740,90 +3826,6 @@
       <calculatedColumnFormula>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="60" totalsRowDxfId="59" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela134" displayName="Tabela134" ref="A1:AC5" totalsRowCount="1" headerRowDxfId="58">
-  <autoFilter ref="A1:AC4"/>
-  <tableColumns count="29">
-    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="57" totalsRowDxfId="56"/>
-    <tableColumn id="2" name="DATA" dataDxfId="55" totalsRowDxfId="54"/>
-    <tableColumn id="12" name="RENDA FIXA" dataDxfId="53" totalsRowDxfId="52" dataCellStyle="Moeda"/>
-    <tableColumn id="26" name="APORTE RF" dataDxfId="51" totalsRowDxfId="50" dataCellStyle="Moeda"/>
-    <tableColumn id="9" name="SAQUE" dataDxfId="49" totalsRowDxfId="48" dataCellStyle="Moeda"/>
-    <tableColumn id="5" name="LUCRO" dataDxfId="47" totalsRowDxfId="46" dataCellStyle="Moeda"/>
-    <tableColumn id="3" name="APORTE" dataDxfId="45" totalsRowDxfId="44" dataCellStyle="Moeda">
-      <calculatedColumnFormula>100</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="MONTANTE" dataDxfId="43" totalsRowDxfId="42" dataCellStyle="Moeda">
-      <calculatedColumnFormula>SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [APORTE RF])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="41" totalsRowDxfId="40" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela134[[#This Row],[TRADE]]), [REINVESTIR])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="11" name="EMOL CP" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Moeda">
-      <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="13" name="LIQD CP" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Moeda">
-      <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="14" name="REG CP" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Moeda">
-      <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="16" name="ISS CP" dataDxfId="33" totalsRowDxfId="32" dataCellStyle="Moeda">
-      <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="19" name="OUTRAS CP" dataDxfId="31" totalsRowDxfId="30" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="18" name="TAXA CP" dataDxfId="29" totalsRowDxfId="28" dataCellStyle="Moeda">
-      <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela134[[#This Row],[EMOL CP]]:Tabela134[[#This Row],[OUTRAS CP]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="25" name="EMOL VD" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Moeda">
-      <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="24" name="LIQD VD" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Moeda">
-      <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="23" name="REG VD" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Moeda">
-      <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="22" name="ISS VD" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Moeda">
-      <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="21" name="OUTRAS VD" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Moeda">
-      <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="20" name="TAXA VD" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Moeda">
-      <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela134[[#This Row],[EMOL VD]]:Tabela134[[#This Row],[OUTRAS VD]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="17" name="PREV LUCRO" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Moeda">
-      <calculatedColumnFormula>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="28" name="PERDA MAX" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="29" name="% PERDA" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>Tabela134[[#This Row],[PERDA MAX]]/Tabela134[[#This Row],[APLICAÇÃO]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" name="NO BOLSO" dataDxfId="9" totalsRowDxfId="8">
-      <calculatedColumnFormula>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" name="REINVESTIR" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[LUCRO]-[PROTEÇÃO MÊS]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="15" name="TOT RF" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Moeda">
       <calculatedColumnFormula>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4120,7 +4122,7 @@
   <dimension ref="A1:AD32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -4240,7 +4242,7 @@
       <c r="AC1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="40" t="s">
+      <c r="AD1" s="39" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4355,7 +4357,7 @@
         <f>[TOT RF] + [REINVESTIR]</f>
         <v>366.88</v>
       </c>
-      <c r="AD2" s="41">
+      <c r="AD2" s="40">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0</v>
       </c>
@@ -4471,7 +4473,7 @@
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>1166.8800000000001</v>
       </c>
-      <c r="AD3" s="41">
+      <c r="AD3" s="40">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0</v>
       </c>
@@ -4489,7 +4491,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3">
-        <v>1051.23</v>
+        <v>0</v>
       </c>
       <c r="G4" s="6">
         <f>400</f>
@@ -4569,23 +4571,23 @@
       </c>
       <c r="Z4" s="6">
         <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
-        <v>840.98</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="6">
         <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
-        <v>210.25</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="6">
         <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
-        <v>1134.48</v>
+        <v>293.5</v>
       </c>
       <c r="AC4" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>2618.11</v>
-      </c>
-      <c r="AD4" s="41">
+        <v>1566.88</v>
+      </c>
+      <c r="AD4" s="40">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
-        <v>2.8653492333901194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -4613,19 +4615,19 @@
       </c>
       <c r="I5" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>1883.63</v>
+        <v>1673.38</v>
       </c>
       <c r="J5" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>0.69</v>
+        <v>0.61</v>
       </c>
       <c r="K5" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>0.51</v>
+        <v>0.46</v>
       </c>
       <c r="L5" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>1.3</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="M5" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -4637,19 +4639,19 @@
       </c>
       <c r="O5" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>18.27</v>
+        <v>18</v>
       </c>
       <c r="P5" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>1.39</v>
+        <v>1.23</v>
       </c>
       <c r="Q5" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>1.03</v>
+        <v>0.92</v>
       </c>
       <c r="R5" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>2.61</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="S5" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -4661,19 +4663,19 @@
       </c>
       <c r="U5" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>20.8</v>
+        <v>20.240000000000002</v>
       </c>
       <c r="V5" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>1567.876</v>
+        <v>1389.8690000000001</v>
       </c>
       <c r="W5" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>1770.18</v>
+        <v>1559.93</v>
       </c>
       <c r="X5" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.9397705494178793</v>
+        <v>0.93220308596971402</v>
       </c>
       <c r="Y5" s="4">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -4693,9 +4695,9 @@
       </c>
       <c r="AC5" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>4585.99</v>
-      </c>
-      <c r="AD5" s="41">
+        <v>4375.74</v>
+      </c>
+      <c r="AD5" s="40">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>1.105616670192511</v>
       </c>
@@ -4725,19 +4727,19 @@
       </c>
       <c r="I6" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>2632.21</v>
+        <v>2421.96</v>
       </c>
       <c r="J6" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="K6" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>0.72</v>
+        <v>0.66</v>
       </c>
       <c r="L6" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="M6" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -4749,19 +4751,19 @@
       </c>
       <c r="O6" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>19.28</v>
+        <v>19</v>
       </c>
       <c r="P6" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>1.94</v>
+        <v>1.79</v>
       </c>
       <c r="Q6" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="R6" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>3.65</v>
+        <v>3.36</v>
       </c>
       <c r="S6" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -4773,19 +4775,19 @@
       </c>
       <c r="U6" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>22.8</v>
+        <v>22.25</v>
       </c>
       <c r="V6" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>2201.6104999999998</v>
+        <v>2023.6034999999999</v>
       </c>
       <c r="W6" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>2393.33</v>
+        <v>2183.08</v>
       </c>
       <c r="X6" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.90924736248247662</v>
+        <v>0.90136913904441029</v>
       </c>
       <c r="Y6" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -4805,9 +4807,9 @@
       </c>
       <c r="AC6" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>7222.5999999999995</v>
-      </c>
-      <c r="AD6" s="41">
+        <v>7012.3499999999995</v>
+      </c>
+      <c r="AD6" s="40">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.73731779402037856</v>
       </c>
@@ -4837,19 +4839,19 @@
       </c>
       <c r="I7" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>3507.53</v>
+        <v>3297.28</v>
       </c>
       <c r="J7" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="K7" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="L7" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>2.4300000000000002</v>
+        <v>2.29</v>
       </c>
       <c r="M7" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -4861,19 +4863,19 @@
       </c>
       <c r="O7" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>20.45</v>
+        <v>20.170000000000002</v>
       </c>
       <c r="P7" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>2.59</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="Q7" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="R7" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>4.87</v>
+        <v>4.58</v>
       </c>
       <c r="S7" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -4885,19 +4887,19 @@
       </c>
       <c r="U7" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>25.15</v>
+        <v>24.59</v>
       </c>
       <c r="V7" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>2942.6405000000004</v>
+        <v>2764.6419999999998</v>
       </c>
       <c r="W7" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>3092.5200000000004</v>
+        <v>2882.2700000000004</v>
       </c>
       <c r="X7" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.88168027073182564</v>
+        <v>0.87413565120341619</v>
       </c>
       <c r="Y7" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -4917,9 +4919,9 @@
       </c>
       <c r="AC7" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>10600.24</v>
-      </c>
-      <c r="AD7" s="41">
+        <v>10389.99</v>
+      </c>
+      <c r="AD7" s="40">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.56724585368439573</v>
       </c>
@@ -4949,19 +4951,19 @@
       </c>
       <c r="I8" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>4531.0599999999995</v>
+        <v>4320.8099999999995</v>
       </c>
       <c r="J8" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="K8" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="L8" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>3.14</v>
+        <v>3</v>
       </c>
       <c r="M8" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -4973,19 +4975,19 @@
       </c>
       <c r="O8" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>21.82</v>
+        <v>21.54</v>
       </c>
       <c r="P8" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>3.35</v>
+        <v>3.19</v>
       </c>
       <c r="Q8" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>2.4900000000000002</v>
+        <v>2.37</v>
       </c>
       <c r="R8" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>6.29</v>
+        <v>6</v>
       </c>
       <c r="S8" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -4997,19 +4999,19 @@
       </c>
       <c r="U8" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>27.9</v>
+        <v>27.33</v>
       </c>
       <c r="V8" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>3809.1390000000001</v>
+        <v>3631.1489999999994</v>
       </c>
       <c r="W8" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>3880.6399999999994</v>
+        <v>3670.3899999999994</v>
       </c>
       <c r="X8" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.85645301540919783</v>
+        <v>0.8494680395573978</v>
       </c>
       <c r="Y8" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -5029,9 +5031,9 @@
       </c>
       <c r="AC8" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>14844.38</v>
-      </c>
-      <c r="AD8" s="41">
+        <v>14634.13</v>
+      </c>
+      <c r="AD8" s="40">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.46851563148621345</v>
       </c>
@@ -5061,19 +5063,19 @@
       </c>
       <c r="I9" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>6027.8899999999994</v>
+        <v>5817.6399999999994</v>
       </c>
       <c r="J9" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>2.23</v>
+        <v>2.15</v>
       </c>
       <c r="K9" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="L9" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>4.18</v>
+        <v>4.04</v>
       </c>
       <c r="M9" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -5085,19 +5087,19 @@
       </c>
       <c r="O9" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>23.83</v>
+        <v>23.55</v>
       </c>
       <c r="P9" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>4.46</v>
+        <v>4.3</v>
       </c>
       <c r="Q9" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>3.31</v>
+        <v>3.19</v>
       </c>
       <c r="R9" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>8.3699999999999992</v>
+        <v>8.08</v>
       </c>
       <c r="S9" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -5109,19 +5111,19 @@
       </c>
       <c r="U9" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>31.909999999999997</v>
+        <v>31.339999999999996</v>
       </c>
       <c r="V9" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>5076.3274999999994</v>
+        <v>4898.3374999999987</v>
       </c>
       <c r="W9" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>5072.74</v>
+        <v>4862.49</v>
       </c>
       <c r="X9" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.84154488552379025</v>
+        <v>0.8358183043295907</v>
       </c>
       <c r="Y9" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -5141,9 +5143,9 @@
       </c>
       <c r="AC9" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>20655.71</v>
-      </c>
-      <c r="AD9" s="41">
+        <v>20445.46</v>
+      </c>
+      <c r="AD9" s="40">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.42517554852698375</v>
       </c>
@@ -5173,19 +5175,19 @@
       </c>
       <c r="I10" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>7778.16</v>
+        <v>7567.91</v>
       </c>
       <c r="J10" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="K10" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="L10" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>5.4</v>
+        <v>5.25</v>
       </c>
       <c r="M10" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -5197,19 +5199,19 @@
       </c>
       <c r="O10" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>26.17</v>
+        <v>25.9</v>
       </c>
       <c r="P10" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>5.75</v>
+        <v>5.6</v>
       </c>
       <c r="Q10" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>4.2699999999999996</v>
+        <v>4.16</v>
       </c>
       <c r="R10" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>10.81</v>
+        <v>10.51</v>
       </c>
       <c r="S10" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -5221,19 +5223,19 @@
       </c>
       <c r="U10" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>36.599999999999994</v>
+        <v>36.04</v>
       </c>
       <c r="V10" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>6558.0814999999993</v>
+        <v>6380.0744999999997</v>
       </c>
       <c r="W10" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>6416.9</v>
+        <v>6206.65</v>
       </c>
       <c r="X10" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.82498945766093779</v>
+        <v>0.82012735352296728</v>
       </c>
       <c r="Y10" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -5253,9 +5255,9 @@
       </c>
       <c r="AC10" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>27948.789999999997</v>
-      </c>
-      <c r="AD10" s="41">
+        <v>27738.539999999997</v>
+      </c>
+      <c r="AD10" s="40">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.3854134603729647</v>
       </c>
@@ -5285,19 +5287,19 @@
       </c>
       <c r="I11" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>9824.7799999999988</v>
+        <v>9614.5299999999988</v>
       </c>
       <c r="J11" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>3.63</v>
+        <v>3.55</v>
       </c>
       <c r="K11" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="L11" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>6.82</v>
+        <v>6.68</v>
       </c>
       <c r="M11" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -5309,19 +5311,19 @@
       </c>
       <c r="O11" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>28.92</v>
+        <v>28.64</v>
       </c>
       <c r="P11" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>7.27</v>
+        <v>7.11</v>
       </c>
       <c r="Q11" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>5.4</v>
+        <v>5.28</v>
       </c>
       <c r="R11" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>13.65</v>
+        <v>13.36</v>
       </c>
       <c r="S11" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -5333,19 +5335,19 @@
       </c>
       <c r="U11" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>42.089999999999996</v>
+        <v>41.519999999999996</v>
       </c>
       <c r="V11" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>8290.704499999998</v>
+        <v>8112.7144999999991</v>
       </c>
       <c r="W11" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>7938.8799999999992</v>
+        <v>7728.6299999999992</v>
       </c>
       <c r="X11" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.80804659239189069</v>
+        <v>0.80384896609610668</v>
       </c>
       <c r="Y11" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -5365,9 +5367,9 @@
       </c>
       <c r="AC11" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>36974.49</v>
-      </c>
-      <c r="AD11" s="41">
+        <v>36764.239999999998</v>
+      </c>
+      <c r="AD11" s="40">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.3516918438454617</v>
       </c>
@@ -5397,19 +5399,19 @@
       </c>
       <c r="I12" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>12217.92</v>
+        <v>12007.67</v>
       </c>
       <c r="J12" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>4.5199999999999996</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="K12" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L12" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>8.49</v>
+        <v>8.34</v>
       </c>
       <c r="M12" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -5421,19 +5423,19 @@
       </c>
       <c r="O12" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>32.129999999999995</v>
+        <v>31.849999999999994</v>
       </c>
       <c r="P12" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>9.0399999999999991</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="Q12" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>6.71</v>
+        <v>6.6</v>
       </c>
       <c r="R12" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>16.98</v>
+        <v>16.690000000000001</v>
       </c>
       <c r="S12" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -5445,19 +5447,19 @@
       </c>
       <c r="U12" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>48.5</v>
+        <v>47.94</v>
       </c>
       <c r="V12" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>10316.6965</v>
+        <v>10138.698</v>
       </c>
       <c r="W12" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>9668.76</v>
+        <v>9458.51</v>
       </c>
       <c r="X12" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.7913589219768995</v>
+        <v>0.78770569144555103</v>
       </c>
       <c r="Y12" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -5477,9 +5479,9 @@
       </c>
       <c r="AC12" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>48026.19</v>
-      </c>
-      <c r="AD12" s="41">
+        <v>47815.94</v>
+      </c>
+      <c r="AD12" s="40">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.32376821043191928</v>
       </c>
@@ -5509,19 +5511,19 @@
       </c>
       <c r="I13" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>15016.26</v>
+        <v>14806.01</v>
       </c>
       <c r="J13" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>5.55</v>
+        <v>5.47</v>
       </c>
       <c r="K13" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>4.12</v>
+        <v>4.07</v>
       </c>
       <c r="L13" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>10.43</v>
+        <v>10.29</v>
       </c>
       <c r="M13" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -5533,19 +5535,19 @@
       </c>
       <c r="O13" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>35.869999999999997</v>
+        <v>35.599999999999994</v>
       </c>
       <c r="P13" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>11.11</v>
+        <v>10.95</v>
       </c>
       <c r="Q13" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>8.25</v>
+        <v>8.14</v>
       </c>
       <c r="R13" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>20.87</v>
+        <v>20.58</v>
       </c>
       <c r="S13" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -5557,19 +5559,19 @@
       </c>
       <c r="U13" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>56</v>
+        <v>55.44</v>
       </c>
       <c r="V13" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>12685.7315</v>
+        <v>12507.7245</v>
       </c>
       <c r="W13" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>11641.77</v>
+        <v>11431.52</v>
       </c>
       <c r="X13" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.77527759908259453</v>
+        <v>0.77208647029145594</v>
       </c>
       <c r="Y13" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -5589,9 +5591,9 @@
       </c>
       <c r="AC13" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>61446.920000000006</v>
-      </c>
-      <c r="AD13" s="41">
+        <v>61236.670000000006</v>
+      </c>
+      <c r="AD13" s="40">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.30074384507539353</v>
       </c>
@@ -5621,19 +5623,19 @@
       </c>
       <c r="I14" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>18553.41</v>
+        <v>18343.16</v>
       </c>
       <c r="J14" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>6.86</v>
+        <v>6.78</v>
       </c>
       <c r="K14" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>5.0999999999999996</v>
+        <v>5.04</v>
       </c>
       <c r="L14" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>12.89</v>
+        <v>12.74</v>
       </c>
       <c r="M14" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -5645,19 +5647,19 @@
       </c>
       <c r="O14" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>40.619999999999997</v>
+        <v>40.33</v>
       </c>
       <c r="P14" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>13.72</v>
+        <v>13.57</v>
       </c>
       <c r="Q14" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>10.199999999999999</v>
+        <v>10.08</v>
       </c>
       <c r="R14" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>25.78</v>
+        <v>25.49</v>
       </c>
       <c r="S14" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -5669,19 +5671,19 @@
       </c>
       <c r="U14" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>65.47</v>
+        <v>64.91</v>
       </c>
       <c r="V14" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>15680.222</v>
+        <v>15502.231999999995</v>
       </c>
       <c r="W14" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>14164.06</v>
+        <v>13953.81</v>
       </c>
       <c r="X14" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.76342084824299139</v>
+        <v>0.76070916897633778</v>
       </c>
       <c r="Y14" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -5701,9 +5703,9 @@
       </c>
       <c r="AC14" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>78127.14</v>
-      </c>
-      <c r="AD14" s="41">
+        <v>77916.89</v>
+      </c>
+      <c r="AD14" s="40">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.28578666868974478</v>
       </c>
@@ -5733,19 +5735,19 @@
       </c>
       <c r="I15" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>22689.449999999997</v>
+        <v>22479.199999999997</v>
       </c>
       <c r="J15" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>8.39</v>
+        <v>8.31</v>
       </c>
       <c r="K15" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>6.23</v>
+        <v>6.18</v>
       </c>
       <c r="L15" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>15.76</v>
+        <v>15.62</v>
       </c>
       <c r="M15" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -5757,19 +5759,19 @@
       </c>
       <c r="O15" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>46.15</v>
+        <v>45.879999999999995</v>
       </c>
       <c r="P15" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>16.79</v>
+        <v>16.63</v>
       </c>
       <c r="Q15" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>12.47</v>
+        <v>12.36</v>
       </c>
       <c r="R15" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>31.53</v>
+        <v>31.24</v>
       </c>
       <c r="S15" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -5781,19 +5783,19 @@
       </c>
       <c r="U15" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>76.56</v>
+        <v>76</v>
       </c>
       <c r="V15" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>19181.728999999999</v>
+        <v>19003.721999999998</v>
       </c>
       <c r="W15" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>17045.679999999997</v>
+        <v>16835.429999999997</v>
       </c>
       <c r="X15" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.75126016717020461</v>
+        <v>0.74893368091391144</v>
       </c>
       <c r="Y15" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -5813,9 +5815,9 @@
       </c>
       <c r="AC15" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>98308.87000000001</v>
-      </c>
-      <c r="AD15" s="41">
+        <v>98098.62000000001</v>
+      </c>
+      <c r="AD15" s="40">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.27189950545459957</v>
       </c>
@@ -5845,19 +5847,19 @@
       </c>
       <c r="I16" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>27525.8</v>
+        <v>27315.55</v>
       </c>
       <c r="J16" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>10.18</v>
+        <v>10.1</v>
       </c>
       <c r="K16" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>7.56</v>
+        <v>7.51</v>
       </c>
       <c r="L16" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>19.13</v>
+        <v>18.98</v>
       </c>
       <c r="M16" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -5869,19 +5871,19 @@
       </c>
       <c r="O16" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>52.639999999999993</v>
+        <v>52.36</v>
       </c>
       <c r="P16" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>20.36</v>
+        <v>20.21</v>
       </c>
       <c r="Q16" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>15.13</v>
+        <v>15.02</v>
       </c>
       <c r="R16" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>38.26</v>
+        <v>37.96</v>
       </c>
       <c r="S16" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -5893,19 +5895,19 @@
       </c>
       <c r="U16" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>89.52000000000001</v>
+        <v>88.960000000000008</v>
       </c>
       <c r="V16" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>23276.094000000001</v>
+        <v>23098.095499999999</v>
       </c>
       <c r="W16" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>20347.489999999998</v>
+        <v>20137.239999999998</v>
       </c>
       <c r="X16" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.73921520900391624</v>
+        <v>0.73720792735273488</v>
       </c>
       <c r="Y16" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -5925,9 +5927,9 @@
       </c>
       <c r="AC16" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>122584.96000000001</v>
-      </c>
-      <c r="AD16" s="41">
+        <v>122374.71</v>
+      </c>
+      <c r="AD16" s="40">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.25940475936735496</v>
       </c>
@@ -5957,19 +5959,19 @@
       </c>
       <c r="I17" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>33181.020000000004</v>
+        <v>32970.770000000004</v>
       </c>
       <c r="J17" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>12.27</v>
+        <v>12.19</v>
       </c>
       <c r="K17" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>9.1199999999999992</v>
+        <v>9.06</v>
       </c>
       <c r="L17" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>23.06</v>
+        <v>22.91</v>
       </c>
       <c r="M17" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -5981,19 +5983,19 @@
       </c>
       <c r="O17" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>60.22</v>
+        <v>59.929999999999993</v>
       </c>
       <c r="P17" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>24.55</v>
+        <v>24.39</v>
       </c>
       <c r="Q17" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>18.239999999999998</v>
+        <v>18.13</v>
       </c>
       <c r="R17" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>46.12</v>
+        <v>45.82</v>
       </c>
       <c r="S17" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -6005,19 +6007,19 @@
       </c>
       <c r="U17" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>104.68</v>
+        <v>104.11000000000001</v>
       </c>
       <c r="V17" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>28063.702000000008</v>
+        <v>27885.720500000003</v>
       </c>
       <c r="W17" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>24140.630000000005</v>
+        <v>23930.380000000005</v>
       </c>
       <c r="X17" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.72754333652190328</v>
+        <v>0.72580591839377728</v>
       </c>
       <c r="Y17" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -6037,9 +6039,9 @@
       </c>
       <c r="AC17" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>151648.66</v>
-      </c>
-      <c r="AD17" s="41">
+        <v>151438.41</v>
+      </c>
+      <c r="AD17" s="40">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.2483405037435315</v>
       </c>
@@ -6069,19 +6071,19 @@
       </c>
       <c r="I18" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>39793.760000000002</v>
+        <v>39583.51</v>
       </c>
       <c r="J18" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>14.72</v>
+        <v>14.64</v>
       </c>
       <c r="K18" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>10.94</v>
+        <v>10.88</v>
       </c>
       <c r="L18" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>27.65</v>
+        <v>27.51</v>
       </c>
       <c r="M18" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -6093,19 +6095,19 @@
       </c>
       <c r="O18" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>69.08</v>
+        <v>68.8</v>
       </c>
       <c r="P18" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>29.44</v>
+        <v>29.29</v>
       </c>
       <c r="Q18" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>21.88</v>
+        <v>21.77</v>
       </c>
       <c r="R18" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>55.31</v>
+        <v>55.02</v>
       </c>
       <c r="S18" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -6117,19 +6119,19 @@
       </c>
       <c r="U18" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>122.4</v>
+        <v>121.85000000000002</v>
       </c>
       <c r="V18" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>33661.938000000002</v>
+        <v>33483.930999999997</v>
       </c>
       <c r="W18" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>28508.270000000004</v>
+        <v>28298.020000000004</v>
       </c>
       <c r="X18" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.71640051103489599</v>
+        <v>0.71489415668292178</v>
       </c>
       <c r="Y18" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -6149,9 +6151,9 @@
       </c>
       <c r="AC18" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>186310.6</v>
-      </c>
-      <c r="AD18" s="41">
+        <v>186100.35</v>
+      </c>
+      <c r="AD18" s="40">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.23862100803775468</v>
       </c>
@@ -6181,19 +6183,19 @@
       </c>
       <c r="I19" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>47526.150000000009</v>
+        <v>47315.900000000009</v>
       </c>
       <c r="J19" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>17.579999999999998</v>
+        <v>17.5</v>
       </c>
       <c r="K19" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>13.06</v>
+        <v>13.01</v>
       </c>
       <c r="L19" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>33.03</v>
+        <v>32.880000000000003</v>
       </c>
       <c r="M19" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -6205,19 +6207,19 @@
       </c>
       <c r="O19" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>79.440000000000012</v>
+        <v>79.160000000000011</v>
       </c>
       <c r="P19" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>35.159999999999997</v>
+        <v>35.01</v>
       </c>
       <c r="Q19" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>26.13</v>
+        <v>26.02</v>
       </c>
       <c r="R19" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>66.06</v>
+        <v>65.760000000000005</v>
       </c>
       <c r="S19" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -6229,19 +6231,19 @@
       </c>
       <c r="U19" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>143.12</v>
+        <v>142.56</v>
       </c>
       <c r="V19" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>40208.051500000009</v>
+        <v>40030.053000000007</v>
       </c>
       <c r="W19" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>33547.700000000012</v>
+        <v>33337.450000000012</v>
       </c>
       <c r="X19" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.7058787635859417</v>
+        <v>0.70457182469317936</v>
       </c>
       <c r="Y19" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -6261,9 +6263,9 @@
       </c>
       <c r="AC19" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>227518.65000000002</v>
-      </c>
-      <c r="AD19" s="41">
+        <v>227308.40000000002</v>
+      </c>
+      <c r="AD19" s="40">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.23011457998368198</v>
       </c>
@@ -6293,19 +6295,19 @@
       </c>
       <c r="I20" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>56567.760000000009</v>
+        <v>56357.510000000009</v>
       </c>
       <c r="J20" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>20.93</v>
+        <v>20.85</v>
       </c>
       <c r="K20" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>15.55</v>
+        <v>15.49</v>
       </c>
       <c r="L20" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>39.31</v>
+        <v>39.159999999999997</v>
       </c>
       <c r="M20" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -6317,19 +6319,19 @@
       </c>
       <c r="O20" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>91.560000000000016</v>
+        <v>91.27000000000001</v>
       </c>
       <c r="P20" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>41.86</v>
+        <v>41.7</v>
       </c>
       <c r="Q20" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>31.11</v>
+        <v>30.99</v>
       </c>
       <c r="R20" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>78.62</v>
+        <v>78.33</v>
       </c>
       <c r="S20" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -6341,19 +6343,19 @@
       </c>
       <c r="U20" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>167.36</v>
+        <v>166.79</v>
       </c>
       <c r="V20" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>47862.51400000001</v>
+        <v>47684.532500000016</v>
       </c>
       <c r="W20" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>39372.670000000013</v>
+        <v>39162.420000000013</v>
       </c>
       <c r="X20" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.6960266766794373</v>
+        <v>0.69489265938115441</v>
       </c>
       <c r="Y20" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -6373,9 +6375,9 @@
       </c>
       <c r="AC20" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>276381.16000000003</v>
-      </c>
-      <c r="AD20" s="41">
+        <v>276170.91000000003</v>
+      </c>
+      <c r="AD20" s="40">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.22267991750435254</v>
       </c>
@@ -6405,19 +6407,19 @@
       </c>
       <c r="I21" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>67140.260000000009</v>
+        <v>66930.010000000009</v>
       </c>
       <c r="J21" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>24.84</v>
+        <v>24.76</v>
       </c>
       <c r="K21" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>18.46</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="L21" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>46.66</v>
+        <v>46.51</v>
       </c>
       <c r="M21" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -6429,19 +6431,19 @@
       </c>
       <c r="O21" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>105.73</v>
+        <v>105.44</v>
       </c>
       <c r="P21" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>49.68</v>
+        <v>49.52</v>
       </c>
       <c r="Q21" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>36.92</v>
+        <v>36.81</v>
       </c>
       <c r="R21" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>93.32</v>
+        <v>93.03</v>
       </c>
       <c r="S21" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -6453,19 +6455,19 @@
       </c>
       <c r="U21" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>195.69</v>
+        <v>195.13000000000002</v>
       </c>
       <c r="V21" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>56813.01400000001</v>
+        <v>56635.023999999998</v>
       </c>
       <c r="W21" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>46116.170000000013</v>
+        <v>45905.920000000013</v>
       </c>
       <c r="X21" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.68686314291901773</v>
+        <v>0.68587947319894327</v>
       </c>
       <c r="Y21" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -6485,9 +6487,9 @@
       </c>
       <c r="AC21" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>334194.17</v>
-      </c>
-      <c r="AD21" s="41">
+        <v>333983.92</v>
+      </c>
+      <c r="AD21" s="40">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.21618253156260273</v>
       </c>
@@ -6517,19 +6519,19 @@
       </c>
       <c r="I22" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>79502.860000000015</v>
+        <v>79292.610000000015</v>
       </c>
       <c r="J22" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>29.41</v>
+        <v>29.33</v>
       </c>
       <c r="K22" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>21.86</v>
+        <v>21.8</v>
       </c>
       <c r="L22" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>55.25</v>
+        <v>55.1</v>
       </c>
       <c r="M22" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -6541,19 +6543,19 @@
       </c>
       <c r="O22" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>122.29</v>
+        <v>122</v>
       </c>
       <c r="P22" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>58.83</v>
+        <v>58.67</v>
       </c>
       <c r="Q22" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>43.72</v>
+        <v>43.61</v>
       </c>
       <c r="R22" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>110.5</v>
+        <v>110.21</v>
       </c>
       <c r="S22" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -6565,19 +6567,19 @@
       </c>
       <c r="U22" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>228.82000000000002</v>
+        <v>228.26000000000002</v>
       </c>
       <c r="V22" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>67278.987500000017</v>
+        <v>67100.997499999998</v>
       </c>
       <c r="W22" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>53933.73000000001</v>
+        <v>53723.48000000001</v>
       </c>
       <c r="X22" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.67838729323699798</v>
+        <v>0.67753451425044531</v>
       </c>
       <c r="Y22" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -6597,9 +6599,9 @@
       </c>
       <c r="AC22" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>402473.16000000003</v>
-      </c>
-      <c r="AD22" s="41">
+        <v>402262.91000000003</v>
+      </c>
+      <c r="AD22" s="40">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.21050066191142749</v>
       </c>
@@ -6629,19 +6631,19 @@
       </c>
       <c r="I23" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>93958.66</v>
+        <v>93748.41</v>
       </c>
       <c r="J23" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>34.76</v>
+        <v>34.68</v>
       </c>
       <c r="K23" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>25.83</v>
+        <v>25.78</v>
       </c>
       <c r="L23" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>65.3</v>
+        <v>65.150000000000006</v>
       </c>
       <c r="M23" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -6653,19 +6655,19 @@
       </c>
       <c r="O23" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>141.66</v>
+        <v>141.38000000000002</v>
       </c>
       <c r="P23" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>69.52</v>
+        <v>69.37</v>
       </c>
       <c r="Q23" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>51.67</v>
+        <v>51.56</v>
       </c>
       <c r="R23" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>130.6</v>
+        <v>130.31</v>
       </c>
       <c r="S23" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -6677,19 +6679,19 @@
       </c>
       <c r="U23" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>267.56</v>
+        <v>267.01</v>
       </c>
       <c r="V23" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>79517.024000000005</v>
+        <v>79339.016999999993</v>
       </c>
       <c r="W23" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>63007.210000000006</v>
+        <v>62796.960000000006</v>
       </c>
       <c r="X23" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.67058438253589403</v>
+        <v>0.66984560058138587</v>
       </c>
       <c r="Y23" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -6709,9 +6711,9 @@
       </c>
       <c r="AC23" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>482990.18000000005</v>
-      </c>
-      <c r="AD23" s="41">
+        <v>482779.93000000005</v>
+      </c>
+      <c r="AD23" s="40">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.20552710777685698</v>
       </c>
@@ -6741,19 +6743,19 @@
       </c>
       <c r="I24" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>110862.06</v>
+        <v>110651.81</v>
       </c>
       <c r="J24" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>41.01</v>
+        <v>40.94</v>
       </c>
       <c r="K24" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>30.48</v>
+        <v>30.42</v>
       </c>
       <c r="L24" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>77.040000000000006</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="M24" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -6765,19 +6767,19 @@
       </c>
       <c r="O24" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>164.3</v>
+        <v>164.03</v>
       </c>
       <c r="P24" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>82.03</v>
+        <v>81.88</v>
       </c>
       <c r="Q24" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>60.97</v>
+        <v>60.85</v>
       </c>
       <c r="R24" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>154.09</v>
+        <v>153.80000000000001</v>
       </c>
       <c r="S24" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -6789,19 +6791,19 @@
       </c>
       <c r="U24" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>312.86</v>
+        <v>312.29999999999995</v>
       </c>
       <c r="V24" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>93827.165000000008</v>
+        <v>93649.15800000001</v>
       </c>
       <c r="W24" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>73549.25</v>
+        <v>73339</v>
       </c>
       <c r="X24" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.66343030248580981</v>
+        <v>0.66279078489543009</v>
       </c>
       <c r="Y24" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -6821,9 +6823,9 @@
       </c>
       <c r="AC24" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>577817.35</v>
-      </c>
-      <c r="AD24" s="41">
+        <v>577607.1</v>
+      </c>
+      <c r="AD24" s="40">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.20116881032713377</v>
       </c>
@@ -6853,19 +6855,19 @@
       </c>
       <c r="I25" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>130627.48999999999</v>
+        <v>130417.23999999999</v>
       </c>
       <c r="J25" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>48.33</v>
+        <v>48.25</v>
       </c>
       <c r="K25" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>35.92</v>
+        <v>35.86</v>
       </c>
       <c r="L25" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>90.78</v>
+        <v>90.63</v>
       </c>
       <c r="M25" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -6877,19 +6879,19 @@
       </c>
       <c r="O25" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>190.8</v>
+        <v>190.51000000000002</v>
       </c>
       <c r="P25" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>96.66</v>
+        <v>96.5</v>
       </c>
       <c r="Q25" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>71.84</v>
+        <v>71.72</v>
       </c>
       <c r="R25" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>181.57</v>
+        <v>181.27</v>
       </c>
       <c r="S25" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -6901,19 +6903,19 @@
       </c>
       <c r="U25" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>365.84</v>
+        <v>365.26</v>
       </c>
       <c r="V25" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>110560.22249999999</v>
+        <v>110382.24949999999</v>
       </c>
       <c r="W25" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>85808.5</v>
+        <v>85598.25</v>
       </c>
       <c r="X25" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.65689465517556833</v>
+        <v>0.65634152355930864</v>
       </c>
       <c r="Y25" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -6933,9 +6935,9 @@
       </c>
       <c r="AC25" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>689377.57000000007</v>
-      </c>
-      <c r="AD25" s="41">
+        <v>689167.32000000007</v>
+      </c>
+      <c r="AD25" s="40">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.19734533931669046</v>
       </c>
@@ -6965,19 +6967,19 @@
       </c>
       <c r="I26" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>153739.53</v>
+        <v>153529.28</v>
       </c>
       <c r="J26" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>56.88</v>
+        <v>56.8</v>
       </c>
       <c r="K26" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>42.27</v>
+        <v>42.22</v>
       </c>
       <c r="L26" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>106.84</v>
+        <v>106.7</v>
       </c>
       <c r="M26" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -6989,19 +6991,19 @@
       </c>
       <c r="O26" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>221.76000000000002</v>
+        <v>221.49</v>
       </c>
       <c r="P26" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>113.76</v>
+        <v>113.61</v>
       </c>
       <c r="Q26" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>84.55</v>
+        <v>84.44</v>
       </c>
       <c r="R26" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>213.69</v>
+        <v>213.4</v>
       </c>
       <c r="S26" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -7013,19 +7015,19 @@
       </c>
       <c r="U26" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>427.77</v>
+        <v>427.22</v>
       </c>
       <c r="V26" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>130126.49999999997</v>
+        <v>129948.48450000002</v>
       </c>
       <c r="W26" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>100075.73</v>
+        <v>99865.48</v>
       </c>
       <c r="X26" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.65094338456739131</v>
+        <v>0.65046537051434095</v>
       </c>
       <c r="Y26" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -7045,9 +7047,9 @@
       </c>
       <c r="AC26" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>820504.07000000007</v>
-      </c>
-      <c r="AD26" s="41">
+        <v>820293.82000000007</v>
+      </c>
+      <c r="AD26" s="40">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.19398773892361412</v>
       </c>
@@ -7077,19 +7079,19 @@
       </c>
       <c r="I27" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>180764.83000000002</v>
+        <v>180554.58000000002</v>
       </c>
       <c r="J27" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>66.88</v>
+        <v>66.8</v>
       </c>
       <c r="K27" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>49.71</v>
+        <v>49.65</v>
       </c>
       <c r="L27" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>125.63</v>
+        <v>125.48</v>
       </c>
       <c r="M27" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -7101,19 +7103,19 @@
       </c>
       <c r="O27" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>257.99</v>
+        <v>257.7</v>
       </c>
       <c r="P27" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>133.76</v>
+        <v>133.61000000000001</v>
       </c>
       <c r="Q27" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>99.42</v>
+        <v>99.3</v>
       </c>
       <c r="R27" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>251.26</v>
+        <v>250.97</v>
       </c>
       <c r="S27" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -7125,19 +7127,19 @@
       </c>
       <c r="U27" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>500.21</v>
+        <v>499.65</v>
       </c>
       <c r="V27" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>153005.6355</v>
+        <v>152827.64549999998</v>
       </c>
       <c r="W27" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>116690.91000000002</v>
+        <v>116480.66000000002</v>
       </c>
       <c r="X27" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.64553989844152759</v>
+        <v>0.64512714105618374</v>
       </c>
       <c r="Y27" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -7157,9 +7159,9 @@
       </c>
       <c r="AC27" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>974509.71</v>
-      </c>
-      <c r="AD27" s="41">
+        <v>974299.46</v>
+      </c>
+      <c r="AD27" s="40">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.19103638790719293</v>
       </c>
@@ -7189,19 +7191,19 @@
       </c>
       <c r="I28" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>212365.96000000002</v>
+        <v>212155.71000000002</v>
       </c>
       <c r="J28" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>78.569999999999993</v>
+        <v>78.489999999999995</v>
       </c>
       <c r="K28" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>58.4</v>
+        <v>58.34</v>
       </c>
       <c r="L28" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>147.59</v>
+        <v>147.44</v>
       </c>
       <c r="M28" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -7213,19 +7215,19 @@
       </c>
       <c r="O28" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>300.33</v>
+        <v>300.03999999999996</v>
       </c>
       <c r="P28" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>157.15</v>
+        <v>156.99</v>
       </c>
       <c r="Q28" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>116.8</v>
+        <v>116.68</v>
       </c>
       <c r="R28" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>295.18</v>
+        <v>294.89</v>
       </c>
       <c r="S28" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -7237,19 +7239,19 @@
       </c>
       <c r="U28" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>584.9</v>
+        <v>584.32999999999993</v>
       </c>
       <c r="V28" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>179758.62049999999</v>
+        <v>179580.639</v>
       </c>
       <c r="W28" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>136051.58000000002</v>
+        <v>135841.33000000002</v>
       </c>
       <c r="X28" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.64064683436083636</v>
+        <v>0.64029070912114505</v>
       </c>
       <c r="Y28" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -7269,9 +7271,9 @@
       </c>
       <c r="AC28" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>1155268.33</v>
-      </c>
-      <c r="AD28" s="41">
+        <v>1155058.08</v>
+      </c>
+      <c r="AD28" s="40">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.18844012022636625</v>
       </c>
@@ -7301,19 +7303,19 @@
       </c>
       <c r="I29" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>249317.68000000002</v>
+        <v>249107.43000000002</v>
       </c>
       <c r="J29" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>92.24</v>
+        <v>92.16</v>
       </c>
       <c r="K29" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>68.56</v>
+        <v>68.5</v>
       </c>
       <c r="L29" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>173.27</v>
+        <v>173.12</v>
       </c>
       <c r="M29" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -7325,19 +7327,19 @@
       </c>
       <c r="O29" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>349.84000000000003</v>
+        <v>349.54999999999995</v>
       </c>
       <c r="P29" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>184.49</v>
+        <v>184.33</v>
       </c>
       <c r="Q29" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>137.12</v>
+        <v>137</v>
       </c>
       <c r="R29" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>346.55</v>
+        <v>346.25</v>
       </c>
       <c r="S29" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -7349,19 +7351,19 @@
       </c>
       <c r="U29" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>683.93000000000006</v>
+        <v>683.35</v>
       </c>
       <c r="V29" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>211041.32350000003</v>
+        <v>210863.35050000003</v>
       </c>
       <c r="W29" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>158622.61000000002</v>
+        <v>158412.36000000002</v>
       </c>
       <c r="X29" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.63622688130260152</v>
+        <v>0.63591985192894485</v>
       </c>
       <c r="Y29" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -7381,9 +7383,9 @@
       </c>
       <c r="AC29" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>1367309.65</v>
-      </c>
-      <c r="AD29" s="41">
+        <v>1367099.4</v>
+      </c>
+      <c r="AD29" s="40">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.18615462704613531</v>
       </c>
@@ -7413,19 +7415,19 @@
       </c>
       <c r="I30" s="22">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>292525.94000000006</v>
+        <v>292315.69000000006</v>
       </c>
       <c r="J30" s="22">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>108.23</v>
+        <v>108.15</v>
       </c>
       <c r="K30" s="22">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>80.44</v>
+        <v>80.38</v>
       </c>
       <c r="L30" s="22">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>203.3</v>
+        <v>203.15</v>
       </c>
       <c r="M30" s="22">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -7437,19 +7439,19 @@
       </c>
       <c r="O30" s="22">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>407.74</v>
+        <v>407.45</v>
       </c>
       <c r="P30" s="22">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>216.46</v>
+        <v>216.31</v>
       </c>
       <c r="Q30" s="22">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>160.88</v>
+        <v>160.77000000000001</v>
       </c>
       <c r="R30" s="22">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>406.61</v>
+        <v>406.31</v>
       </c>
       <c r="S30" s="22">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -7461,19 +7463,19 @@
       </c>
       <c r="U30" s="22">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>799.72</v>
+        <v>799.16000000000008</v>
       </c>
       <c r="V30" s="22">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>247620.70800000007</v>
+        <v>247442.71799999999</v>
       </c>
       <c r="W30" s="23">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>184947.57000000007</v>
+        <v>184737.32000000007</v>
       </c>
       <c r="X30" s="24">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.63224331490055219</v>
+        <v>0.63197880346415902</v>
       </c>
       <c r="Y30" s="25">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -7493,9 +7495,9 @@
       </c>
       <c r="AC30" s="22">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>1615930.3599999999</v>
-      </c>
-      <c r="AD30" s="38">
+        <v>1615720.1099999999</v>
+      </c>
+      <c r="AD30" s="37">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.18414163382340118</v>
       </c>
@@ -7525,19 +7527,19 @@
       </c>
       <c r="I31" s="22">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>343050.08000000007</v>
+        <v>342839.83000000007</v>
       </c>
       <c r="J31" s="22">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>126.92</v>
+        <v>126.85</v>
       </c>
       <c r="K31" s="22">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>94.33</v>
+        <v>94.28</v>
       </c>
       <c r="L31" s="22">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>238.41</v>
+        <v>238.27</v>
       </c>
       <c r="M31" s="22">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -7549,19 +7551,19 @@
       </c>
       <c r="O31" s="22">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>475.42999999999995</v>
+        <v>475.16999999999996</v>
       </c>
       <c r="P31" s="22">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>253.85</v>
+        <v>253.7</v>
       </c>
       <c r="Q31" s="22">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>188.67</v>
+        <v>188.56</v>
       </c>
       <c r="R31" s="22">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>476.83</v>
+        <v>476.54</v>
       </c>
       <c r="S31" s="22">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -7573,19 +7575,19 @@
       </c>
       <c r="U31" s="22">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>935.11999999999989</v>
+        <v>934.56999999999994</v>
       </c>
       <c r="V31" s="22">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>290393.60050000006</v>
+        <v>290215.57650000014</v>
       </c>
       <c r="W31" s="23">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>215662.05000000008</v>
+        <v>215451.80000000008</v>
       </c>
       <c r="X31" s="24">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.6286605442563955</v>
+        <v>0.62843281657210026</v>
       </c>
       <c r="Y31" s="25">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -7605,9 +7607,9 @@
       </c>
       <c r="AC31" s="22">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>1907323.9600000002</v>
-      </c>
-      <c r="AD31" s="38">
+        <v>1907113.7100000002</v>
+      </c>
+      <c r="AD31" s="37">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
         <v>0.1823679066607421</v>
       </c>
@@ -7644,11 +7646,11 @@
       <c r="Z32" s="17"/>
       <c r="AA32" s="16">
         <f>SUBTOTAL(109,[REINVESTIR])</f>
-        <v>376548.80000000005</v>
+        <v>376338.55000000005</v>
       </c>
       <c r="AB32" s="17"/>
       <c r="AC32" s="16"/>
-      <c r="AD32" s="42"/>
+      <c r="AD32" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -7661,10 +7663,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Plan3"/>
-  <dimension ref="A1:AC5"/>
+  <dimension ref="A1:AC6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -8007,149 +8009,259 @@
       </c>
     </row>
     <row r="4" spans="1:29">
-      <c r="A4" s="34">
+      <c r="A4" s="33">
         <v>3</v>
       </c>
       <c r="B4" s="26">
         <v>41061</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="34">
         <v>0</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="34">
         <v>0</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="34">
         <v>0</v>
       </c>
-      <c r="F4" s="35">
-        <v>0</v>
-      </c>
-      <c r="G4" s="36">
+      <c r="F4" s="34">
+        <v>516.97</v>
+      </c>
+      <c r="G4" s="35">
         <f>100</f>
         <v>100</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="35">
         <f>SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE RF])</f>
         <v>200</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="35">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela13[[#This Row],[TRADE]]), [REINVESTIR])</f>
         <v>298.31</v>
       </c>
-      <c r="J4" s="36">
+      <c r="J4" s="35">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
         <v>0.11</v>
       </c>
-      <c r="K4" s="36">
+      <c r="K4" s="35">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
         <v>0.08</v>
       </c>
-      <c r="L4" s="36">
+      <c r="L4" s="35">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
         <v>0.2</v>
       </c>
-      <c r="M4" s="36">
+      <c r="M4" s="35">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="N4" s="36">
+      <c r="N4" s="35">
         <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="O4" s="36">
+      <c r="O4" s="35">
         <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL CP]]:Tabela13[[#This Row],[OUTRAS CP]])</f>
         <v>16.16</v>
       </c>
-      <c r="P4" s="36">
+      <c r="P4" s="35">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
         <v>0.22</v>
       </c>
-      <c r="Q4" s="36">
+      <c r="Q4" s="35">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
         <v>0.16</v>
       </c>
-      <c r="R4" s="36">
+      <c r="R4" s="35">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
         <v>0.41</v>
       </c>
-      <c r="S4" s="36">
+      <c r="S4" s="35">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="T4" s="36">
+      <c r="T4" s="35">
         <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="U4" s="36">
+      <c r="U4" s="35">
         <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL VD]]:Tabela13[[#This Row],[OUTRAS VD]])</f>
         <v>16.560000000000002</v>
       </c>
-      <c r="V4" s="36">
+      <c r="V4" s="35">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
         <v>225.75149999999994</v>
       </c>
-      <c r="W4" s="37">
+      <c r="W4" s="36">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
         <v>298.31</v>
       </c>
-      <c r="X4" s="38">
+      <c r="X4" s="37">
         <f>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</f>
         <v>1</v>
       </c>
-      <c r="Y4" s="39">
+      <c r="Y4" s="38">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
         <v>0.8</v>
       </c>
-      <c r="Z4" s="36">
+      <c r="Z4" s="35">
+        <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
+        <v>413.58</v>
+      </c>
+      <c r="AA4" s="35">
+        <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
+        <v>103.39000000000004</v>
+      </c>
+      <c r="AB4" s="35">
+        <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
+        <v>413.58</v>
+      </c>
+      <c r="AC4" s="35">
+        <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
+        <v>815.28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="26">
+        <v>41091</v>
+      </c>
+      <c r="C5" s="34">
+        <v>0</v>
+      </c>
+      <c r="D5" s="34">
+        <v>0</v>
+      </c>
+      <c r="E5" s="34">
+        <v>0</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0</v>
+      </c>
+      <c r="G5" s="22">
+        <f>100</f>
+        <v>100</v>
+      </c>
+      <c r="H5" s="22">
+        <f>SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE RF])</f>
+        <v>300</v>
+      </c>
+      <c r="I5" s="22">
+        <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela13[[#This Row],[TRADE]]), [REINVESTIR])</f>
+        <v>501.70000000000005</v>
+      </c>
+      <c r="J5" s="22">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>0.18</v>
+      </c>
+      <c r="K5" s="22">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>0.13</v>
+      </c>
+      <c r="L5" s="22">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>0.34</v>
+      </c>
+      <c r="M5" s="22">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N5" s="22">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O5" s="22">
+        <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL CP]]:Tabela13[[#This Row],[OUTRAS CP]])</f>
+        <v>16.420000000000002</v>
+      </c>
+      <c r="P5" s="22">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>0.37</v>
+      </c>
+      <c r="Q5" s="22">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>0.27</v>
+      </c>
+      <c r="R5" s="22">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>0.69</v>
+      </c>
+      <c r="S5" s="22">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T5" s="22">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U5" s="22">
+        <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL VD]]:Tabela13[[#This Row],[OUTRAS VD]])</f>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="V5" s="22">
+        <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
+        <v>397.95300000000003</v>
+      </c>
+      <c r="W5" s="23">
+        <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
+        <v>501.70000000000005</v>
+      </c>
+      <c r="X5" s="24">
+        <f>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</f>
+        <v>1</v>
+      </c>
+      <c r="Y5" s="25">
+        <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z5" s="22">
         <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
         <v>0</v>
       </c>
-      <c r="AA4" s="36">
+      <c r="AA5" s="22">
         <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="36">
+      <c r="AB5" s="22">
         <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
         <v>0</v>
       </c>
-      <c r="AC4" s="36">
+      <c r="AC5" s="22">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>298.31</v>
+        <v>501.70000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
-      <c r="A5" s="29" t="s">
+    <row r="6" spans="1:29">
+      <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="33"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -8501,101 +8613,101 @@
       </c>
     </row>
     <row r="4" spans="1:29">
-      <c r="A4" s="34"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36">
+      <c r="A4" s="33"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35">
         <f>100</f>
         <v>100</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="35">
         <f>SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [APORTE RF])</f>
         <v>100</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="35">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela134[[#This Row],[TRADE]]), [REINVESTIR])</f>
         <v>100</v>
       </c>
-      <c r="J4" s="36">
+      <c r="J4" s="35">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
         <v>0.03</v>
       </c>
-      <c r="K4" s="36">
+      <c r="K4" s="35">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
         <v>0.02</v>
       </c>
-      <c r="L4" s="36">
+      <c r="L4" s="35">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
         <v>0.06</v>
       </c>
-      <c r="M4" s="36">
+      <c r="M4" s="35">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="N4" s="36">
+      <c r="N4" s="35">
         <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="O4" s="36">
+      <c r="O4" s="35">
         <f>SETUP!$G$3 + SUM(Tabela134[[#This Row],[EMOL CP]]:Tabela134[[#This Row],[OUTRAS CP]])</f>
         <v>15.88</v>
       </c>
-      <c r="P4" s="36">
+      <c r="P4" s="35">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q4" s="36">
+      <c r="Q4" s="35">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
         <v>0.05</v>
       </c>
-      <c r="R4" s="36">
+      <c r="R4" s="35">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
         <v>0.13</v>
       </c>
-      <c r="S4" s="36">
+      <c r="S4" s="35">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="T4" s="36">
+      <c r="T4" s="35">
         <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="U4" s="36">
+      <c r="U4" s="35">
         <f>SETUP!$G$3 + SUM(Tabela134[[#This Row],[EMOL VD]]:Tabela134[[#This Row],[OUTRAS VD]])</f>
         <v>16.02</v>
       </c>
-      <c r="V4" s="36">
+      <c r="V4" s="35">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
         <v>57.884999999999991</v>
       </c>
-      <c r="W4" s="37">
+      <c r="W4" s="36">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
         <v>100</v>
       </c>
-      <c r="X4" s="38">
+      <c r="X4" s="37">
         <f>Tabela134[[#This Row],[PERDA MAX]]/Tabela134[[#This Row],[APLICAÇÃO]]</f>
         <v>1</v>
       </c>
-      <c r="Y4" s="39">
+      <c r="Y4" s="38">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
         <v>0.8</v>
       </c>
-      <c r="Z4" s="36">
+      <c r="Z4" s="35">
         <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
         <v>0</v>
       </c>
-      <c r="AA4" s="36">
+      <c r="AA4" s="35">
         <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="36">
+      <c r="AB4" s="35">
         <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
         <v>0</v>
       </c>
-      <c r="AC4" s="36">
+      <c r="AC4" s="35">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
         <v>100</v>
       </c>
@@ -8605,33 +8717,33 @@
         <v>37</v>
       </c>
       <c r="B5" s="29"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="30"/>
       <c r="Y5" s="29"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="33"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -8663,23 +8775,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="51" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="50" t="s">
         <v>23</v>
       </c>
     </row>
@@ -8702,9 +8814,9 @@
       <c r="F2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="8">
@@ -8766,83 +8878,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="27" customFormat="1" ht="12" thickBot="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="45" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="12" thickTop="1">
-      <c r="A2" s="47">
+      <c r="A2" s="46">
         <f>VOLATILIDADE!B2</f>
         <v>41000</v>
       </c>
-      <c r="B2" s="48">
+      <c r="B2" s="47">
         <f>Tabela13[[#This Row],[PROTEÇÃO MÊS]]+Tabela134[[#This Row],[PROTEÇÃO MÊS]]+Tabela1[[#This Row],[PROTEÇÃO MÊS]]</f>
         <v>293.5</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
       </c>
-      <c r="D2" s="49">
+      <c r="D2" s="48">
         <f>C2*25%</f>
         <v>0</v>
       </c>
-      <c r="E2" s="48">
+      <c r="E2" s="47">
         <f>B2+D2</f>
         <v>293.5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="47">
+      <c r="A3" s="46">
         <f>VOLATILIDADE!B3</f>
         <v>41030</v>
       </c>
-      <c r="B3" s="48">
+      <c r="B3" s="47">
         <f>Tabela13[[#This Row],[PROTEÇÃO MÊS]]+Tabela134[[#This Row],[PROTEÇÃO MÊS]]+Tabela1[[#This Row],[PROTEÇÃO MÊS]]</f>
         <v>393.25</v>
       </c>
       <c r="C3" s="3">
         <v>64.180000000000007</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="48">
         <f>C3*25%</f>
         <v>16.045000000000002</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="47">
         <f>B3+D3</f>
         <v>409.29500000000002</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="47">
+      <c r="A4" s="46">
         <f>VOLATILIDADE!B4</f>
         <v>41061</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="47">
         <f>Tabela13[[#This Row],[PROTEÇÃO MÊS]]+Tabela134[[#This Row],[PROTEÇÃO MÊS]]+Tabela1[[#This Row],[PROTEÇÃO MÊS]]</f>
-        <v>840.98</v>
+        <v>413.58</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="48">
         <f>C4*25%</f>
         <v>0</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="47">
         <f>B4+D4</f>
-        <v>840.98</v>
+        <v>413.58</v>
       </c>
     </row>
   </sheetData>

--- a/stocks/gama.xlsx
+++ b/stocks/gama.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="210" windowWidth="11790" windowHeight="5505" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="210" windowWidth="11790" windowHeight="5505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VOLATILIDADE" sheetId="1" r:id="rId1"/>
@@ -168,7 +168,7 @@
     <numFmt numFmtId="168" formatCode="[$-416]mmmm\-yy;@"/>
     <numFmt numFmtId="169" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +251,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -304,7 +322,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -357,16 +375,26 @@
     <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -905,6 +933,24 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="8"/>
         <color theme="1"/>
         <name val="Calibri"/>
@@ -946,6 +992,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -964,6 +1028,23 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -978,24 +1059,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -1013,6 +1077,616 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="[$-416]mmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
         <color rgb="FFFF0000"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -1031,6 +1705,24 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -1053,6 +1745,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1071,6 +1781,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1089,6 +1817,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1107,6 +1853,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1125,6 +1889,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1143,6 +1925,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1161,6 +1961,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1179,6 +1997,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1197,6 +2033,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1215,6 +2069,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1233,6 +2105,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1251,6 +2141,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1269,6 +2177,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1287,6 +2213,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1305,6 +2249,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1323,6 +2285,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1341,6 +2321,23 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1359,6 +2356,23 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1377,6 +2391,23 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1424,1032 +2455,29 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="[$-416]mmm\-yy;@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="8"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="169" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -3582,87 +3610,87 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AD23" totalsRowCount="1" headerRowDxfId="178">
-  <autoFilter ref="A1:AD22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AD31" totalsRowCount="1" headerRowDxfId="178">
+  <autoFilter ref="A1:AD30">
     <filterColumn colId="29"/>
   </autoFilter>
   <tableColumns count="30">
-    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="177" totalsRowDxfId="87"/>
-    <tableColumn id="2" name="DATA" dataDxfId="176" totalsRowDxfId="86"/>
-    <tableColumn id="12" name="RENDA FIXA" dataDxfId="175" totalsRowDxfId="85" dataCellStyle="Moeda"/>
-    <tableColumn id="26" name="APORTE RF" dataDxfId="174" totalsRowDxfId="84" dataCellStyle="Moeda"/>
-    <tableColumn id="9" name="SAQUE" dataDxfId="173" totalsRowDxfId="83" dataCellStyle="Moeda"/>
-    <tableColumn id="5" name="LUCRO" dataDxfId="172" totalsRowDxfId="82" dataCellStyle="Moeda"/>
-    <tableColumn id="3" name="APORTE" totalsRowFunction="sum" dataDxfId="171" totalsRowDxfId="81" dataCellStyle="Moeda">
+    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="177" totalsRowDxfId="58"/>
+    <tableColumn id="2" name="DATA" dataDxfId="176" totalsRowDxfId="57"/>
+    <tableColumn id="12" name="RENDA FIXA" dataDxfId="175" totalsRowDxfId="56" dataCellStyle="Moeda"/>
+    <tableColumn id="26" name="APORTE RF" dataDxfId="174" totalsRowDxfId="55" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="SAQUE" dataDxfId="173" totalsRowDxfId="54" dataCellStyle="Moeda"/>
+    <tableColumn id="5" name="LUCRO" dataDxfId="172" totalsRowDxfId="53" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="APORTE" totalsRowFunction="sum" dataDxfId="171" totalsRowDxfId="52" dataCellStyle="Moeda">
       <calculatedColumnFormula>380</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="MONTANTE" dataDxfId="170" totalsRowDxfId="80" dataCellStyle="Moeda">
+    <tableColumn id="4" name="MONTANTE" dataDxfId="170" totalsRowDxfId="51" dataCellStyle="Moeda">
       <calculatedColumnFormula>SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE RF])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="169" totalsRowDxfId="79" dataCellStyle="Moeda">
+    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="169" totalsRowDxfId="50" dataCellStyle="Moeda">
       <calculatedColumnFormula>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EMOL CP" dataDxfId="168" totalsRowDxfId="78" dataCellStyle="Moeda">
+    <tableColumn id="11" name="EMOL CP" dataDxfId="168" totalsRowDxfId="49" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="LIQD CP" dataDxfId="167" totalsRowDxfId="77" dataCellStyle="Moeda">
+    <tableColumn id="13" name="LIQD CP" dataDxfId="167" totalsRowDxfId="48" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="REG CP" dataDxfId="166" totalsRowDxfId="76" dataCellStyle="Moeda">
+    <tableColumn id="14" name="REG CP" dataDxfId="166" totalsRowDxfId="47" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="ISS CP" dataDxfId="165" totalsRowDxfId="75" dataCellStyle="Moeda">
+    <tableColumn id="16" name="ISS CP" dataDxfId="165" totalsRowDxfId="46" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="OUTRAS CP" dataDxfId="164" totalsRowDxfId="74" dataCellStyle="Moeda">
+    <tableColumn id="19" name="OUTRAS CP" dataDxfId="164" totalsRowDxfId="45" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="TAXA CP" dataDxfId="163" totalsRowDxfId="73" dataCellStyle="Moeda">
+    <tableColumn id="18" name="TAXA CP" dataDxfId="163" totalsRowDxfId="44" dataCellStyle="Moeda">
       <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="EMOL VD" dataDxfId="162" totalsRowDxfId="72" dataCellStyle="Moeda">
+    <tableColumn id="25" name="EMOL VD" dataDxfId="162" totalsRowDxfId="43" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="LIQD VD" dataDxfId="161" totalsRowDxfId="71" dataCellStyle="Moeda">
+    <tableColumn id="24" name="LIQD VD" dataDxfId="161" totalsRowDxfId="42" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="REG VD" dataDxfId="160" totalsRowDxfId="70" dataCellStyle="Moeda">
+    <tableColumn id="23" name="REG VD" dataDxfId="160" totalsRowDxfId="41" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="ISS VD" dataDxfId="159" totalsRowDxfId="69" dataCellStyle="Moeda">
+    <tableColumn id="22" name="ISS VD" dataDxfId="159" totalsRowDxfId="40" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="OUTRAS VD" dataDxfId="158" totalsRowDxfId="68" dataCellStyle="Moeda">
+    <tableColumn id="21" name="OUTRAS VD" dataDxfId="158" totalsRowDxfId="39" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="TAXA VD" dataDxfId="157" totalsRowDxfId="67" dataCellStyle="Moeda">
+    <tableColumn id="20" name="TAXA VD" dataDxfId="157" totalsRowDxfId="38" dataCellStyle="Moeda">
       <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="PREV LUCRO" dataDxfId="156" totalsRowDxfId="66" dataCellStyle="Moeda">
+    <tableColumn id="17" name="PREV LUCRO" dataDxfId="156" totalsRowDxfId="37" dataCellStyle="Moeda">
       <calculatedColumnFormula>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="PERDA MAX" dataDxfId="155" totalsRowDxfId="65" dataCellStyle="Moeda">
+    <tableColumn id="28" name="PERDA MAX" dataDxfId="155" totalsRowDxfId="36" dataCellStyle="Moeda">
       <calculatedColumnFormula>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="% PERDA" dataDxfId="154" totalsRowDxfId="64" dataCellStyle="Porcentagem">
+    <tableColumn id="29" name="% PERDA" dataDxfId="154" totalsRowDxfId="35" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="NO BOLSO" dataDxfId="153" totalsRowDxfId="63">
+    <tableColumn id="6" name="NO BOLSO" dataDxfId="153" totalsRowDxfId="34">
       <calculatedColumnFormula>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="152" totalsRowDxfId="62" dataCellStyle="Moeda">
+    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="152" totalsRowDxfId="33" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="REINVESTIR" dataDxfId="151" totalsRowDxfId="61" dataCellStyle="Moeda">
+    <tableColumn id="8" name="REINVESTIR" dataDxfId="151" totalsRowDxfId="32" dataCellStyle="Moeda">
       <calculatedColumnFormula>[LUCRO]-[PROTEÇÃO MÊS]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="TOT RF" dataDxfId="150" totalsRowDxfId="60" dataCellStyle="Moeda">
+    <tableColumn id="15" name="TOT RF" dataDxfId="150" totalsRowDxfId="31" dataCellStyle="Moeda">
       <calculatedColumnFormula>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="149" totalsRowDxfId="59" dataCellStyle="Moeda">
+    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="149" totalsRowDxfId="30" dataCellStyle="Moeda">
       <calculatedColumnFormula>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="%" dataDxfId="148" totalsRowDxfId="58" dataCellStyle="Porcentagem">
+    <tableColumn id="30" name="%" dataDxfId="148" totalsRowDxfId="29" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3671,8 +3699,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:AC23" totalsRowCount="1" headerRowDxfId="147">
-  <autoFilter ref="A1:AC22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:AC31" totalsRowCount="1" headerRowDxfId="147">
+  <autoFilter ref="A1:AC30"/>
   <tableColumns count="29">
     <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="146" totalsRowDxfId="28"/>
     <tableColumn id="2" name="DATA" dataDxfId="145" totalsRowDxfId="27"/>
@@ -3758,79 +3786,79 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela134" displayName="Tabela134" ref="A1:AC23" totalsRowCount="1" headerRowDxfId="117">
   <autoFilter ref="A1:AC22"/>
   <tableColumns count="29">
-    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="116" totalsRowDxfId="57"/>
-    <tableColumn id="2" name="DATA" dataDxfId="115" totalsRowDxfId="56"/>
-    <tableColumn id="12" name="RENDA FIXA" dataDxfId="114" totalsRowDxfId="55" dataCellStyle="Moeda"/>
-    <tableColumn id="26" name="APORTE RF" dataDxfId="113" totalsRowDxfId="54" dataCellStyle="Moeda"/>
-    <tableColumn id="9" name="SAQUE" dataDxfId="112" totalsRowDxfId="53" dataCellStyle="Moeda"/>
-    <tableColumn id="5" name="LUCRO" dataDxfId="111" totalsRowDxfId="52" dataCellStyle="Moeda"/>
-    <tableColumn id="3" name="APORTE" dataDxfId="110" totalsRowDxfId="51" dataCellStyle="Moeda">
+    <tableColumn id="1" name="TRADE" totalsRowLabel="Total" dataDxfId="116" totalsRowDxfId="115"/>
+    <tableColumn id="2" name="DATA" dataDxfId="114" totalsRowDxfId="113"/>
+    <tableColumn id="12" name="RENDA FIXA" dataDxfId="112" totalsRowDxfId="111" dataCellStyle="Moeda"/>
+    <tableColumn id="26" name="APORTE RF" dataDxfId="110" totalsRowDxfId="109" dataCellStyle="Moeda"/>
+    <tableColumn id="9" name="SAQUE" dataDxfId="108" totalsRowDxfId="107" dataCellStyle="Moeda"/>
+    <tableColumn id="5" name="LUCRO" dataDxfId="106" totalsRowDxfId="105" dataCellStyle="Moeda"/>
+    <tableColumn id="3" name="APORTE" dataDxfId="104" totalsRowDxfId="103" dataCellStyle="Moeda">
       <calculatedColumnFormula>100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="MONTANTE" dataDxfId="109" totalsRowDxfId="50" dataCellStyle="Moeda">
+    <tableColumn id="4" name="MONTANTE" dataDxfId="102" totalsRowDxfId="101" dataCellStyle="Moeda">
       <calculatedColumnFormula>SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [APORTE RF])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="108" totalsRowDxfId="49" dataCellStyle="Moeda">
+    <tableColumn id="10" name="APLICAÇÃO" dataDxfId="100" totalsRowDxfId="99" dataCellStyle="Moeda">
       <calculatedColumnFormula>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela134[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela134[[#This Row],[TRADE]]), [REINVESTIR])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="EMOL CP" dataDxfId="107" totalsRowDxfId="48" dataCellStyle="Moeda">
+    <tableColumn id="11" name="EMOL CP" dataDxfId="98" totalsRowDxfId="97" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="LIQD CP" dataDxfId="106" totalsRowDxfId="47" dataCellStyle="Moeda">
+    <tableColumn id="13" name="LIQD CP" dataDxfId="96" totalsRowDxfId="95" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="REG CP" dataDxfId="105" totalsRowDxfId="46" dataCellStyle="Moeda">
+    <tableColumn id="14" name="REG CP" dataDxfId="94" totalsRowDxfId="93" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="ISS CP" dataDxfId="104" totalsRowDxfId="45" dataCellStyle="Moeda">
+    <tableColumn id="16" name="ISS CP" dataDxfId="92" totalsRowDxfId="91" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="OUTRAS CP" dataDxfId="103" totalsRowDxfId="44" dataCellStyle="Moeda">
+    <tableColumn id="19" name="OUTRAS CP" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="TAXA CP" dataDxfId="102" totalsRowDxfId="43" dataCellStyle="Moeda">
+    <tableColumn id="18" name="TAXA CP" dataDxfId="88" totalsRowDxfId="87" dataCellStyle="Moeda">
       <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela134[[#This Row],[EMOL CP]]:Tabela134[[#This Row],[OUTRAS CP]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="EMOL VD" dataDxfId="101" totalsRowDxfId="42" dataCellStyle="Moeda">
+    <tableColumn id="25" name="EMOL VD" dataDxfId="86" totalsRowDxfId="85" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="LIQD VD" dataDxfId="100" totalsRowDxfId="41" dataCellStyle="Moeda">
+    <tableColumn id="24" name="LIQD VD" dataDxfId="84" totalsRowDxfId="83" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="REG VD" dataDxfId="99" totalsRowDxfId="40" dataCellStyle="Moeda">
+    <tableColumn id="23" name="REG VD" dataDxfId="82" totalsRowDxfId="81" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="ISS VD" dataDxfId="98" totalsRowDxfId="39" dataCellStyle="Moeda">
+    <tableColumn id="22" name="ISS VD" dataDxfId="80" totalsRowDxfId="79" dataCellStyle="Moeda">
       <calculatedColumnFormula>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="OUTRAS VD" dataDxfId="97" totalsRowDxfId="38" dataCellStyle="Moeda">
+    <tableColumn id="21" name="OUTRAS VD" dataDxfId="78" totalsRowDxfId="77" dataCellStyle="Moeda">
       <calculatedColumnFormula>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="TAXA VD" dataDxfId="96" totalsRowDxfId="37" dataCellStyle="Moeda">
+    <tableColumn id="20" name="TAXA VD" dataDxfId="76" totalsRowDxfId="75" dataCellStyle="Moeda">
       <calculatedColumnFormula>SETUP!$G$3 + SUM(Tabela134[[#This Row],[EMOL VD]]:Tabela134[[#This Row],[OUTRAS VD]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="PREV LUCRO" dataDxfId="95" totalsRowDxfId="36" dataCellStyle="Moeda">
+    <tableColumn id="17" name="PREV LUCRO" dataDxfId="74" totalsRowDxfId="73" dataCellStyle="Moeda">
       <calculatedColumnFormula>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="PERDA MAX" dataDxfId="94" totalsRowDxfId="35" dataCellStyle="Moeda">
+    <tableColumn id="28" name="PERDA MAX" dataDxfId="72" totalsRowDxfId="71" dataCellStyle="Moeda">
       <calculatedColumnFormula>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="% PERDA" dataDxfId="93" totalsRowDxfId="34" dataCellStyle="Porcentagem">
+    <tableColumn id="29" name="% PERDA" dataDxfId="70" totalsRowDxfId="69" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela134[[#This Row],[PERDA MAX]]/Tabela134[[#This Row],[APLICAÇÃO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="NO BOLSO" dataDxfId="92" totalsRowDxfId="33">
+    <tableColumn id="6" name="NO BOLSO" dataDxfId="68" totalsRowDxfId="67">
       <calculatedColumnFormula>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="91" totalsRowDxfId="32" dataCellStyle="Moeda">
+    <tableColumn id="7" name="PROTEÇÃO MÊS" dataDxfId="66" totalsRowDxfId="65" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="REINVESTIR" dataDxfId="90" totalsRowDxfId="31" dataCellStyle="Moeda">
+    <tableColumn id="8" name="REINVESTIR" dataDxfId="64" totalsRowDxfId="63" dataCellStyle="Moeda">
       <calculatedColumnFormula>[LUCRO]-[PROTEÇÃO MÊS]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="TOT RF" dataDxfId="89" totalsRowDxfId="30" dataCellStyle="Moeda">
+    <tableColumn id="15" name="TOT RF" dataDxfId="62" totalsRowDxfId="61" dataCellStyle="Moeda">
       <calculatedColumnFormula>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="88" totalsRowDxfId="29" dataCellStyle="Moeda">
+    <tableColumn id="27" name="PATRIMÔNIO" dataDxfId="60" totalsRowDxfId="59" dataCellStyle="Moeda">
       <calculatedColumnFormula>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4124,10 +4152,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Plan1"/>
-  <dimension ref="A1:AD23"/>
+  <dimension ref="A1:AD31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -5056,31 +5084,31 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3">
-        <v>4990.4799999999996</v>
+        <v>4736.4799999999996</v>
       </c>
       <c r="G9" s="6">
-        <f>735</f>
-        <v>735</v>
+        <f>435</f>
+        <v>435</v>
       </c>
       <c r="H9" s="6">
         <f>SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE RF])</f>
-        <v>3640</v>
+        <v>3340</v>
       </c>
       <c r="I9" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>5926.4699999999993</v>
+        <v>5626.4699999999993</v>
       </c>
       <c r="J9" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>2.19</v>
+        <v>2.08</v>
       </c>
       <c r="K9" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="L9" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>4.1100000000000003</v>
+        <v>3.91</v>
       </c>
       <c r="M9" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -5092,19 +5120,19 @@
       </c>
       <c r="O9" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>23.689999999999998</v>
+        <v>23.3</v>
       </c>
       <c r="P9" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>4.38</v>
+        <v>4.16</v>
       </c>
       <c r="Q9" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>3.25</v>
+        <v>3.09</v>
       </c>
       <c r="R9" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>8.23</v>
+        <v>7.82</v>
       </c>
       <c r="S9" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -5116,19 +5144,19 @@
       </c>
       <c r="U9" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>31.629999999999995</v>
+        <v>30.84</v>
       </c>
       <c r="V9" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>4990.4775</v>
+        <v>4736.4804999999988</v>
       </c>
       <c r="W9" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>5011.8899999999994</v>
+        <v>4711.8899999999994</v>
       </c>
       <c r="X9" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.84567879361576115</v>
+        <v>0.83745047960799579</v>
       </c>
       <c r="Y9" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -5136,23 +5164,23 @@
       </c>
       <c r="Z9" s="6">
         <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
-        <v>3992.38</v>
+        <v>3789.18</v>
       </c>
       <c r="AA9" s="6">
         <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
-        <v>998.09999999999945</v>
+        <v>947.29999999999973</v>
       </c>
       <c r="AB9" s="6">
         <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
-        <v>13138.220000000001</v>
+        <v>12935.02</v>
       </c>
       <c r="AC9" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>20062.79</v>
+        <v>19508.79</v>
       </c>
       <c r="AD9" s="36">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
-        <v>0.43652414649720528</v>
+        <v>0.4143063950386186</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -5163,36 +5191,36 @@
         <v>41244</v>
       </c>
       <c r="C10" s="3">
-        <v>13138.22</v>
+        <v>12935.02</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3">
-        <v>6547.68</v>
+        <v>5906.72</v>
       </c>
       <c r="G10" s="6">
-        <f>735</f>
-        <v>735</v>
+        <f>435</f>
+        <v>435</v>
       </c>
       <c r="H10" s="6">
         <f>SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE RF])</f>
-        <v>4375</v>
+        <v>3775</v>
       </c>
       <c r="I10" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>7659.57</v>
+        <v>7008.7699999999995</v>
       </c>
       <c r="J10" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>2.83</v>
+        <v>2.59</v>
       </c>
       <c r="K10" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>2.1</v>
+        <v>1.92</v>
       </c>
       <c r="L10" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>5.32</v>
+        <v>4.87</v>
       </c>
       <c r="M10" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -5204,19 +5232,19 @@
       </c>
       <c r="O10" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>26.02</v>
+        <v>25.15</v>
       </c>
       <c r="P10" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>5.66</v>
+        <v>5.18</v>
       </c>
       <c r="Q10" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>4.21</v>
+        <v>3.85</v>
       </c>
       <c r="R10" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>10.64</v>
+        <v>9.74</v>
       </c>
       <c r="S10" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -5228,19 +5256,19 @@
       </c>
       <c r="U10" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>36.28</v>
+        <v>34.54</v>
       </c>
       <c r="V10" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>6457.6794999999984</v>
+        <v>5906.7179999999989</v>
       </c>
       <c r="W10" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>6345.75</v>
+        <v>5715.2699999999995</v>
       </c>
       <c r="X10" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.82847339994281666</v>
+        <v>0.81544550613017686</v>
       </c>
       <c r="Y10" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -5248,23 +5276,23 @@
       </c>
       <c r="Z10" s="6">
         <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
-        <v>5238.1400000000003</v>
+        <v>4725.38</v>
       </c>
       <c r="AA10" s="6">
         <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
-        <v>1309.54</v>
+        <v>1181.3400000000001</v>
       </c>
       <c r="AB10" s="6">
         <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
-        <v>18376.36</v>
+        <v>17660.400000000001</v>
       </c>
       <c r="AC10" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>27345.47</v>
+        <v>25850.510000000002</v>
       </c>
       <c r="AD10" s="36">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
-        <v>0.39869480036108396</v>
+        <v>0.3653167911607404</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -5275,35 +5303,36 @@
         <v>41275</v>
       </c>
       <c r="C11" s="3">
-        <v>18376.36</v>
+        <v>17660.400000000001</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
-        <v>8188.55</v>
+        <v>7275.08</v>
       </c>
       <c r="G11" s="6">
-        <v>735</v>
+        <f>435</f>
+        <v>435</v>
       </c>
       <c r="H11" s="6">
         <f>SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE RF])</f>
-        <v>5110</v>
+        <v>4210</v>
       </c>
       <c r="I11" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>9704.1099999999988</v>
+        <v>8625.11</v>
       </c>
       <c r="J11" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>3.59</v>
+        <v>3.19</v>
       </c>
       <c r="K11" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>2.66</v>
+        <v>2.37</v>
       </c>
       <c r="L11" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>6.74</v>
+        <v>5.99</v>
       </c>
       <c r="M11" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -5315,19 +5344,19 @@
       </c>
       <c r="O11" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>28.759999999999998</v>
+        <v>27.32</v>
       </c>
       <c r="P11" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>7.18</v>
+        <v>6.38</v>
       </c>
       <c r="Q11" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>5.33</v>
+        <v>4.74</v>
       </c>
       <c r="R11" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>13.48</v>
+        <v>11.98</v>
       </c>
       <c r="S11" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -5339,19 +5368,19 @@
       </c>
       <c r="U11" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>41.76</v>
+        <v>38.869999999999997</v>
       </c>
       <c r="V11" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>8188.5514999999996</v>
+        <v>7275.0820000000012</v>
       </c>
       <c r="W11" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>7866.4699999999984</v>
+        <v>6859.0700000000006</v>
       </c>
       <c r="X11" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.81063281434361312</v>
+        <v>0.79524435050683417</v>
       </c>
       <c r="Y11" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -5359,23 +5388,23 @@
       </c>
       <c r="Z11" s="6">
         <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
-        <v>6550.84</v>
+        <v>5820.06</v>
       </c>
       <c r="AA11" s="6">
         <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
-        <v>1637.71</v>
+        <v>1455.0199999999995</v>
       </c>
       <c r="AB11" s="6">
         <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
-        <v>24927.200000000001</v>
+        <v>23480.460000000003</v>
       </c>
       <c r="AC11" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>36269.019999999997</v>
+        <v>33560.590000000004</v>
       </c>
       <c r="AD11" s="4">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
-        <v>0.35648191480793801</v>
+        <v>0.3295542569817218</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -5386,35 +5415,36 @@
         <v>41306</v>
       </c>
       <c r="C12" s="3">
-        <v>24927.200000000001</v>
+        <v>23480.46</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3">
-        <v>10197.25</v>
+        <v>8875.14</v>
       </c>
       <c r="G12" s="6">
-        <v>735</v>
+        <f>435</f>
+        <v>435</v>
       </c>
       <c r="H12" s="6">
         <f>SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE RF])</f>
-        <v>5845</v>
+        <v>4645</v>
       </c>
       <c r="I12" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>12076.82</v>
+        <v>10515.13</v>
       </c>
       <c r="J12" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>4.46</v>
+        <v>3.89</v>
       </c>
       <c r="K12" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>3.32</v>
+        <v>2.89</v>
       </c>
       <c r="L12" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>8.39</v>
+        <v>7.3</v>
       </c>
       <c r="M12" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -5426,19 +5456,19 @@
       </c>
       <c r="O12" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>31.939999999999998</v>
+        <v>29.85</v>
       </c>
       <c r="P12" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>8.93</v>
+        <v>7.78</v>
       </c>
       <c r="Q12" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>6.64</v>
+        <v>5.78</v>
       </c>
       <c r="R12" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>16.78</v>
+        <v>14.61</v>
       </c>
       <c r="S12" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -5450,19 +5480,19 @@
       </c>
       <c r="U12" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>48.12</v>
+        <v>43.94</v>
       </c>
       <c r="V12" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>10197.245999999999</v>
+        <v>8875.1389999999992</v>
       </c>
       <c r="W12" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>9584.1</v>
+        <v>8167.079999999999</v>
       </c>
       <c r="X12" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.79359467144496654</v>
+        <v>0.77669795808515918</v>
       </c>
       <c r="Y12" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -5470,23 +5500,23 @@
       </c>
       <c r="Z12" s="6">
         <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
-        <v>8157.8</v>
+        <v>7100.11</v>
       </c>
       <c r="AA12" s="6">
         <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
-        <v>2039.4499999999998</v>
+        <v>1775.0299999999997</v>
       </c>
       <c r="AB12" s="6">
         <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
-        <v>33085</v>
+        <v>30580.57</v>
       </c>
       <c r="AC12" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>47201.27</v>
+        <v>42870.729999999996</v>
       </c>
       <c r="AD12" s="4">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
-        <v>0.32726499566738343</v>
+        <v>0.30238376931286698</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -5497,35 +5527,35 @@
         <v>41334</v>
       </c>
       <c r="C13" s="3">
-        <v>33085</v>
+        <v>30580.57</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3">
-        <v>12770.39</v>
+        <v>10970.47</v>
       </c>
       <c r="G13" s="6">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="H13" s="6">
         <f>SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE RF])</f>
-        <v>6845</v>
+        <v>5345</v>
       </c>
       <c r="I13" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>15116.269999999999</v>
+        <v>12990.16</v>
       </c>
       <c r="J13" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>5.59</v>
+        <v>4.8</v>
       </c>
       <c r="K13" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>4.1500000000000004</v>
+        <v>3.57</v>
       </c>
       <c r="L13" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>10.5</v>
+        <v>9.02</v>
       </c>
       <c r="M13" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -5537,19 +5567,19 @@
       </c>
       <c r="O13" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>36.01</v>
+        <v>33.159999999999997</v>
       </c>
       <c r="P13" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>11.18</v>
+        <v>9.61</v>
       </c>
       <c r="Q13" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>8.31</v>
+        <v>7.14</v>
       </c>
       <c r="R13" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>21.01</v>
+        <v>18.05</v>
       </c>
       <c r="S13" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -5561,19 +5591,19 @@
       </c>
       <c r="U13" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>56.269999999999996</v>
+        <v>50.569999999999993</v>
       </c>
       <c r="V13" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>12770.391499999998</v>
+        <v>10970.4655</v>
       </c>
       <c r="W13" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>11807.769999999999</v>
+        <v>9932.1</v>
       </c>
       <c r="X13" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.78112986867792122</v>
+        <v>0.76458642541739286</v>
       </c>
       <c r="Y13" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -5581,23 +5611,23 @@
       </c>
       <c r="Z13" s="6">
         <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
-        <v>10216.31</v>
+        <v>8776.3799999999992</v>
       </c>
       <c r="AA13" s="6">
         <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
-        <v>2554.08</v>
+        <v>2194.09</v>
       </c>
       <c r="AB13" s="6">
         <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
-        <v>43301.31</v>
+        <v>39356.949999999997</v>
       </c>
       <c r="AC13" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>60971.659999999996</v>
+        <v>54541.2</v>
       </c>
       <c r="AD13" s="4">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
-        <v>0.30878978388998035</v>
+        <v>0.28699203448464172</v>
       </c>
     </row>
     <row r="14" spans="1:30">
@@ -5608,35 +5638,35 @@
         <v>41365</v>
       </c>
       <c r="C14" s="3">
-        <v>43301.31</v>
+        <v>39356.949999999997</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3">
-        <v>15779.22</v>
+        <v>13420.57</v>
       </c>
       <c r="G14" s="6">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="H14" s="6">
         <f>SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE RF])</f>
-        <v>7845</v>
+        <v>6045</v>
       </c>
       <c r="I14" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>18670.349999999999</v>
+        <v>15884.25</v>
       </c>
       <c r="J14" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>6.9</v>
+        <v>5.87</v>
       </c>
       <c r="K14" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>5.13</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="L14" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>12.97</v>
+        <v>11.03</v>
       </c>
       <c r="M14" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -5648,19 +5678,19 @@
       </c>
       <c r="O14" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>40.769999999999996</v>
+        <v>37.029999999999994</v>
       </c>
       <c r="P14" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>13.81</v>
+        <v>11.75</v>
       </c>
       <c r="Q14" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>10.26</v>
+        <v>8.73</v>
       </c>
       <c r="R14" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>25.95</v>
+        <v>22.07</v>
       </c>
       <c r="S14" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -5672,19 +5702,19 @@
       </c>
       <c r="U14" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>65.789999999999992</v>
+        <v>58.319999999999993</v>
       </c>
       <c r="V14" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>15779.221499999998</v>
+        <v>13420.564999999999</v>
       </c>
       <c r="W14" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>14340.219999999998</v>
+        <v>11948.55</v>
       </c>
       <c r="X14" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.76807451386824555</v>
+        <v>0.75222626186316632</v>
       </c>
       <c r="Y14" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -5692,23 +5722,23 @@
       </c>
       <c r="Z14" s="6">
         <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
-        <v>12623.38</v>
+        <v>10736.46</v>
       </c>
       <c r="AA14" s="6">
         <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
-        <v>3155.84</v>
+        <v>2684.1100000000006</v>
       </c>
       <c r="AB14" s="6">
         <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
-        <v>55924.689999999995</v>
+        <v>50093.409999999996</v>
       </c>
       <c r="AC14" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>77750.880000000005</v>
+        <v>68661.76999999999</v>
       </c>
       <c r="AD14" s="4">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
-        <v>0.29152420561872144</v>
+        <v>0.27279705363347517</v>
       </c>
     </row>
     <row r="15" spans="1:30">
@@ -5719,35 +5749,35 @@
         <v>41395</v>
       </c>
       <c r="C15" s="3">
-        <v>55924.69</v>
+        <v>50093.41</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3">
-        <v>19297.48</v>
+        <v>16285.49</v>
       </c>
       <c r="G15" s="6">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="H15" s="6">
         <f>SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE RF])</f>
-        <v>8845</v>
+        <v>6745</v>
       </c>
       <c r="I15" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>22826.19</v>
+        <v>19268.36</v>
       </c>
       <c r="J15" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>8.44</v>
+        <v>7.12</v>
       </c>
       <c r="K15" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>6.27</v>
+        <v>5.29</v>
       </c>
       <c r="L15" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>15.86</v>
+        <v>13.39</v>
       </c>
       <c r="M15" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -5759,19 +5789,19 @@
       </c>
       <c r="O15" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>46.339999999999996</v>
+        <v>41.57</v>
       </c>
       <c r="P15" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>16.89</v>
+        <v>14.25</v>
       </c>
       <c r="Q15" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>12.55</v>
+        <v>10.59</v>
       </c>
       <c r="R15" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>31.72</v>
+        <v>26.78</v>
       </c>
       <c r="S15" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -5783,19 +5813,19 @@
       </c>
       <c r="U15" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>76.929999999999993</v>
+        <v>67.39</v>
       </c>
       <c r="V15" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>19297.481999999996</v>
+        <v>16285.490000000002</v>
       </c>
       <c r="W15" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>17233.719999999998</v>
+        <v>14259.02</v>
       </c>
       <c r="X15" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.754997658391523</v>
+        <v>0.74002250321252039</v>
       </c>
       <c r="Y15" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -5803,23 +5833,23 @@
       </c>
       <c r="Z15" s="6">
         <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
-        <v>15437.98</v>
+        <v>13028.39</v>
       </c>
       <c r="AA15" s="6">
         <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
-        <v>3859.5</v>
+        <v>3257.1000000000004</v>
       </c>
       <c r="AB15" s="6">
         <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
-        <v>71362.67</v>
+        <v>63121.8</v>
       </c>
       <c r="AC15" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>98048.36</v>
+        <v>85647.260000000009</v>
       </c>
       <c r="AD15" s="4">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
-        <v>0.27604945150344146</v>
+        <v>0.2600819149664596</v>
       </c>
     </row>
     <row r="16" spans="1:30">
@@ -5830,35 +5860,35 @@
         <v>41426</v>
       </c>
       <c r="C16" s="21">
-        <v>71362.67</v>
+        <v>63121.8</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21">
-        <v>23411.45</v>
-      </c>
-      <c r="G16" s="22">
-        <v>1000</v>
+        <v>19635.490000000002</v>
+      </c>
+      <c r="G16" s="6">
+        <v>700</v>
       </c>
       <c r="H16" s="22">
         <f>SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE RF])</f>
-        <v>9845</v>
+        <v>7445</v>
       </c>
       <c r="I16" s="22">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>27685.69</v>
+        <v>23225.46</v>
       </c>
       <c r="J16" s="22">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>10.24</v>
+        <v>8.59</v>
       </c>
       <c r="K16" s="22">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>7.61</v>
+        <v>6.38</v>
       </c>
       <c r="L16" s="22">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>19.239999999999998</v>
+        <v>16.14</v>
       </c>
       <c r="M16" s="22">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -5870,19 +5900,19 @@
       </c>
       <c r="O16" s="22">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>52.86</v>
+        <v>46.879999999999995</v>
       </c>
       <c r="P16" s="22">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>20.48</v>
+        <v>17.18</v>
       </c>
       <c r="Q16" s="22">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>15.22</v>
+        <v>12.77</v>
       </c>
       <c r="R16" s="22">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>38.479999999999997</v>
+        <v>32.28</v>
       </c>
       <c r="S16" s="22">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -5894,19 +5924,19 @@
       </c>
       <c r="U16" s="22">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>89.950000000000017</v>
+        <v>78</v>
       </c>
       <c r="V16" s="22">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>23411.448</v>
+        <v>19635.492999999999</v>
       </c>
       <c r="W16" s="23">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>20549.419999999998</v>
+        <v>16913.28</v>
       </c>
       <c r="X16" s="24">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.74223976357461197</v>
+        <v>0.72822152930447881</v>
       </c>
       <c r="Y16" s="25">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -5914,23 +5944,23 @@
       </c>
       <c r="Z16" s="22">
         <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
-        <v>18729.16</v>
+        <v>15708.39</v>
       </c>
       <c r="AA16" s="22">
         <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
-        <v>4682.2900000000009</v>
+        <v>3927.1000000000022</v>
       </c>
       <c r="AB16" s="22">
         <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
-        <v>90091.83</v>
+        <v>78830.19</v>
       </c>
       <c r="AC16" s="22">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>122459.81</v>
+        <v>105982.75</v>
       </c>
       <c r="AD16" s="24">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
-        <v>0.26245038197141446</v>
+        <v>0.24885839757421363</v>
       </c>
     </row>
     <row r="17" spans="1:30">
@@ -5941,35 +5971,35 @@
         <v>41456</v>
       </c>
       <c r="C17" s="3">
-        <v>90091.83</v>
+        <v>78830.19</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3">
-        <v>28221.97</v>
+        <v>23552.73</v>
       </c>
       <c r="G17" s="6">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="H17" s="6">
         <f>SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE RF])</f>
-        <v>10845</v>
+        <v>8145</v>
       </c>
       <c r="I17" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>33367.979999999996</v>
+        <v>27852.560000000005</v>
       </c>
       <c r="J17" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>12.34</v>
+        <v>10.3</v>
       </c>
       <c r="K17" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>9.17</v>
+        <v>7.65</v>
       </c>
       <c r="L17" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>23.19</v>
+        <v>19.350000000000001</v>
       </c>
       <c r="M17" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -5981,19 +6011,19 @@
       </c>
       <c r="O17" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>60.47</v>
+        <v>53.07</v>
       </c>
       <c r="P17" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>24.69</v>
+        <v>20.61</v>
       </c>
       <c r="Q17" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>18.350000000000001</v>
+        <v>15.31</v>
       </c>
       <c r="R17" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>46.38</v>
+        <v>38.71</v>
       </c>
       <c r="S17" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -6005,19 +6035,19 @@
       </c>
       <c r="U17" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>105.19000000000003</v>
+        <v>90.4</v>
       </c>
       <c r="V17" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>28221.971999999994</v>
+        <v>23552.726500000004</v>
       </c>
       <c r="W17" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>24358.799999999996</v>
+        <v>19969.540000000005</v>
       </c>
       <c r="X17" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.73000523256127581</v>
+        <v>0.71697323334013108</v>
       </c>
       <c r="Y17" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -6025,23 +6055,23 @@
       </c>
       <c r="Z17" s="6">
         <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
-        <v>22577.58</v>
+        <v>18842.18</v>
       </c>
       <c r="AA17" s="6">
         <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
-        <v>5644.3899999999994</v>
+        <v>4710.5499999999993</v>
       </c>
       <c r="AB17" s="6">
         <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
-        <v>112669.41</v>
+        <v>97672.37</v>
       </c>
       <c r="AC17" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>151681.78</v>
+        <v>130235.48000000001</v>
       </c>
       <c r="AD17" s="4">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
-        <v>0.25060629804056594</v>
+        <v>0.23902238469804524</v>
       </c>
     </row>
     <row r="18" spans="1:30">
@@ -6052,35 +6082,35 @@
         <v>41487</v>
       </c>
       <c r="C18" s="3">
-        <v>112669.41</v>
+        <v>97672.37</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3">
-        <v>33847.019999999997</v>
+        <v>28133.21</v>
       </c>
       <c r="G18" s="6">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="H18" s="6">
         <f>SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE RF])</f>
-        <v>11845</v>
+        <v>8845</v>
       </c>
       <c r="I18" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>40012.369999999995</v>
+        <v>33263.11</v>
       </c>
       <c r="J18" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>14.8</v>
+        <v>12.3</v>
       </c>
       <c r="K18" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>11</v>
+        <v>9.14</v>
       </c>
       <c r="L18" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>27.8</v>
+        <v>23.11</v>
       </c>
       <c r="M18" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -6092,19 +6122,19 @@
       </c>
       <c r="O18" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>69.37</v>
+        <v>60.319999999999993</v>
       </c>
       <c r="P18" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>29.6</v>
+        <v>24.61</v>
       </c>
       <c r="Q18" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>22</v>
+        <v>18.29</v>
       </c>
       <c r="R18" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>55.61</v>
+        <v>46.23</v>
       </c>
       <c r="S18" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -6116,19 +6146,19 @@
       </c>
       <c r="U18" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>122.98000000000002</v>
+        <v>104.9</v>
       </c>
       <c r="V18" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>33847.017</v>
+        <v>28133.206500000004</v>
       </c>
       <c r="W18" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>28745.429999999993</v>
+        <v>23495.870000000003</v>
       </c>
       <c r="X18" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.71841358060019933</v>
+        <v>0.70636419745477808</v>
       </c>
       <c r="Y18" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -6136,23 +6166,23 @@
       </c>
       <c r="Z18" s="6">
         <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
-        <v>27077.62</v>
+        <v>22506.57</v>
       </c>
       <c r="AA18" s="6">
         <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
-        <v>6769.3999999999978</v>
+        <v>5626.6399999999994</v>
       </c>
       <c r="AB18" s="6">
         <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
-        <v>139747.03</v>
+        <v>120178.94</v>
       </c>
       <c r="AC18" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>186528.8</v>
+        <v>159068.69</v>
       </c>
       <c r="AD18" s="4">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
-        <v>0.24032805355064873</v>
+        <v>0.23042924012184818</v>
       </c>
     </row>
     <row r="19" spans="1:30">
@@ -6163,35 +6193,35 @@
         <v>41518</v>
       </c>
       <c r="C19" s="3">
-        <v>139747.03</v>
+        <v>120178.94</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3">
-        <v>40424.47</v>
+        <v>33489.24</v>
       </c>
       <c r="G19" s="6">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="H19" s="6">
         <f>SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE RF])</f>
-        <v>12845</v>
+        <v>9545</v>
       </c>
       <c r="I19" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>47781.77</v>
+        <v>39589.75</v>
       </c>
       <c r="J19" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>17.670000000000002</v>
+        <v>14.64</v>
       </c>
       <c r="K19" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>13.13</v>
+        <v>10.88</v>
       </c>
       <c r="L19" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>33.200000000000003</v>
+        <v>27.51</v>
       </c>
       <c r="M19" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -6203,19 +6233,19 @@
       </c>
       <c r="O19" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>79.77000000000001</v>
+        <v>68.8</v>
       </c>
       <c r="P19" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>35.35</v>
+        <v>29.29</v>
       </c>
       <c r="Q19" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>26.27</v>
+        <v>21.77</v>
       </c>
       <c r="R19" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>66.41</v>
+        <v>55.02</v>
       </c>
       <c r="S19" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -6227,19 +6257,19 @@
       </c>
       <c r="U19" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>143.80000000000001</v>
+        <v>121.85000000000002</v>
       </c>
       <c r="V19" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>40424.469999999994</v>
+        <v>33489.234999999993</v>
       </c>
       <c r="W19" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>33807.069999999992</v>
+        <v>27571.86</v>
       </c>
       <c r="X19" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.70753071725890426</v>
+        <v>0.69643935614647734</v>
       </c>
       <c r="Y19" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -6247,23 +6277,23 @@
       </c>
       <c r="Z19" s="6">
         <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
-        <v>32339.58</v>
+        <v>26791.39</v>
       </c>
       <c r="AA19" s="6">
         <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
-        <v>8084.8899999999994</v>
+        <v>6697.8499999999985</v>
       </c>
       <c r="AB19" s="6">
         <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
-        <v>172086.61</v>
+        <v>146970.33000000002</v>
       </c>
       <c r="AC19" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>227953.27</v>
+        <v>193257.93000000002</v>
       </c>
       <c r="AD19" s="4">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
-        <v>0.23141515064756654</v>
+        <v>0.2229291588026987</v>
       </c>
     </row>
     <row r="20" spans="1:30">
@@ -6274,35 +6304,35 @@
         <v>41548</v>
       </c>
       <c r="C20" s="3">
-        <v>172086.61</v>
+        <v>146970.32999999999</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3">
-        <v>48115.56</v>
+        <v>39752.11</v>
       </c>
       <c r="G20" s="6">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="H20" s="6">
         <f>SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE RF])</f>
-        <v>13845</v>
+        <v>10245</v>
       </c>
       <c r="I20" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>56866.659999999996</v>
+        <v>46987.600000000006</v>
       </c>
       <c r="J20" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>21.04</v>
+        <v>17.38</v>
       </c>
       <c r="K20" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>15.63</v>
+        <v>12.92</v>
       </c>
       <c r="L20" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>39.520000000000003</v>
+        <v>32.65</v>
       </c>
       <c r="M20" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -6314,19 +6344,19 @@
       </c>
       <c r="O20" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>91.960000000000008</v>
+        <v>78.72</v>
       </c>
       <c r="P20" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>42.08</v>
+        <v>34.770000000000003</v>
       </c>
       <c r="Q20" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>31.27</v>
+        <v>25.84</v>
       </c>
       <c r="R20" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>79.040000000000006</v>
+        <v>65.31</v>
       </c>
       <c r="S20" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -6338,19 +6368,19 @@
       </c>
       <c r="U20" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>168.16</v>
+        <v>141.69</v>
       </c>
       <c r="V20" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>48115.558999999994</v>
+        <v>39752.111499999999</v>
       </c>
       <c r="W20" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>39658</v>
+        <v>32290.570000000007</v>
       </c>
       <c r="X20" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.69738577929493317</v>
+        <v>0.68721471196656148</v>
       </c>
       <c r="Y20" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -6358,23 +6388,23 @@
       </c>
       <c r="Z20" s="6">
         <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
-        <v>38492.449999999997</v>
+        <v>31801.69</v>
       </c>
       <c r="AA20" s="6">
         <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
-        <v>9623.11</v>
+        <v>7950.4200000000019</v>
       </c>
       <c r="AB20" s="6">
         <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
-        <v>210579.06</v>
+        <v>178772.02</v>
       </c>
       <c r="AC20" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>277068.82999999996</v>
+        <v>233710.04</v>
       </c>
       <c r="AD20" s="4">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
-        <v>0.22368068032719107</v>
+        <v>0.21638170098685905</v>
       </c>
     </row>
     <row r="21" spans="1:30">
@@ -6385,35 +6415,35 @@
         <v>41579</v>
       </c>
       <c r="C21" s="3">
-        <v>210579.06</v>
+        <v>178772.02</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3">
-        <v>57108.91</v>
+        <v>47075.41</v>
       </c>
       <c r="G21" s="6">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="H21" s="6">
         <f>SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE RF])</f>
-        <v>14845</v>
+        <v>10945</v>
       </c>
       <c r="I21" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>67489.76999999999</v>
+        <v>55638.020000000004</v>
       </c>
       <c r="J21" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>24.97</v>
+        <v>20.58</v>
       </c>
       <c r="K21" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>18.55</v>
+        <v>15.3</v>
       </c>
       <c r="L21" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>46.9</v>
+        <v>38.659999999999997</v>
       </c>
       <c r="M21" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -6425,19 +6455,19 @@
       </c>
       <c r="O21" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>106.19</v>
+        <v>90.31</v>
       </c>
       <c r="P21" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>49.94</v>
+        <v>41.17</v>
       </c>
       <c r="Q21" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>37.11</v>
+        <v>30.6</v>
       </c>
       <c r="R21" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>93.81</v>
+        <v>77.33</v>
       </c>
       <c r="S21" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -6449,19 +6479,19 @@
       </c>
       <c r="U21" s="6">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>196.63000000000002</v>
+        <v>164.87000000000003</v>
       </c>
       <c r="V21" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>57108.907499999987</v>
+        <v>47075.414000000012</v>
       </c>
       <c r="W21" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>46431.859999999986</v>
+        <v>37760.820000000007</v>
       </c>
       <c r="X21" s="4">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.68798367515550862</v>
+        <v>0.67868734365457295</v>
       </c>
       <c r="Y21" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -6469,23 +6499,23 @@
       </c>
       <c r="Z21" s="6">
         <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
-        <v>45687.13</v>
+        <v>37660.33</v>
       </c>
       <c r="AA21" s="6">
         <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
-        <v>11421.780000000006</v>
+        <v>9415.0800000000017</v>
       </c>
       <c r="AB21" s="6">
         <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
-        <v>256266.19</v>
+        <v>216432.34999999998</v>
       </c>
       <c r="AC21" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>335177.74</v>
+        <v>281485.45</v>
       </c>
       <c r="AD21" s="4">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
-        <v>0.21695951154877413</v>
+        <v>0.21066120973517</v>
       </c>
     </row>
     <row r="22" spans="1:30">
@@ -6496,35 +6526,35 @@
         <v>41609</v>
       </c>
       <c r="C22" s="21">
-        <v>256266.19</v>
+        <v>216432.35</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21">
-        <v>67624.98</v>
+        <v>55638.68</v>
       </c>
       <c r="G22" s="6">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="H22" s="22">
         <f>SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE RF])</f>
-        <v>15845</v>
+        <v>11645</v>
       </c>
       <c r="I22" s="22">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>79911.55</v>
+        <v>65753.100000000006</v>
       </c>
       <c r="J22" s="22">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>29.56</v>
+        <v>24.32</v>
       </c>
       <c r="K22" s="22">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
-        <v>21.97</v>
+        <v>18.079999999999998</v>
       </c>
       <c r="L22" s="22">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>55.53</v>
+        <v>45.69</v>
       </c>
       <c r="M22" s="22">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -6536,19 +6566,19 @@
       </c>
       <c r="O22" s="22">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
-        <v>122.83000000000001</v>
+        <v>103.86000000000001</v>
       </c>
       <c r="P22" s="22">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>59.13</v>
+        <v>48.65</v>
       </c>
       <c r="Q22" s="22">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>43.95</v>
+        <v>36.159999999999997</v>
       </c>
       <c r="R22" s="22">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>111.07</v>
+        <v>91.39</v>
       </c>
       <c r="S22" s="22">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -6560,19 +6590,19 @@
       </c>
       <c r="U22" s="22">
         <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
-        <v>229.92000000000002</v>
+        <v>191.97</v>
       </c>
       <c r="V22" s="22">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>67624.979999999981</v>
+        <v>55638.679499999998</v>
       </c>
       <c r="W22" s="23">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>54284.930000000008</v>
+        <v>44109.86</v>
       </c>
       <c r="X22" s="24">
         <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.67931269009298412</v>
+        <v>0.67084076644295088</v>
       </c>
       <c r="Y22" s="25">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -6580,59 +6610,949 @@
       </c>
       <c r="Z22" s="22">
         <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
-        <v>54099.98</v>
+        <v>44510.94</v>
       </c>
       <c r="AA22" s="22">
         <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
-        <v>13524.999999999993</v>
+        <v>11127.739999999998</v>
       </c>
       <c r="AB22" s="22">
         <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
-        <v>310366.17</v>
+        <v>260943.29</v>
       </c>
       <c r="AC22" s="22">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>403802.72</v>
+        <v>337824.13</v>
       </c>
       <c r="AD22" s="24">
         <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
-        <v>0.21110853523049608</v>
+        <v>0.20565751838854035</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="15">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:30">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="20">
+        <v>41640</v>
+      </c>
+      <c r="C23" s="3">
+        <v>260943.29</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3">
+        <v>65651.850000000006</v>
+      </c>
+      <c r="G23" s="6">
+        <v>700</v>
+      </c>
+      <c r="H23" s="6">
+        <f>SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE RF])</f>
+        <v>12345</v>
+      </c>
+      <c r="I23" s="6">
+        <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
+        <v>77580.84</v>
+      </c>
+      <c r="J23" s="6">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>28.7</v>
+      </c>
+      <c r="K23" s="6">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>21.33</v>
+      </c>
+      <c r="L23" s="6">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>53.91</v>
+      </c>
+      <c r="M23" s="6">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N23" s="6">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O23" s="6">
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>119.71000000000001</v>
+      </c>
+      <c r="P23" s="6">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>57.4</v>
+      </c>
+      <c r="Q23" s="6">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>42.66</v>
+      </c>
+      <c r="R23" s="6">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>107.83</v>
+      </c>
+      <c r="S23" s="6">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T23" s="6">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U23" s="6">
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>223.66</v>
+      </c>
+      <c r="V23" s="6">
+        <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
+        <v>65651.849499999982</v>
+      </c>
+      <c r="W23" s="14">
+        <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
+        <v>51486.509999999995</v>
+      </c>
+      <c r="X23" s="4">
+        <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
+        <v>0.66364981353643504</v>
+      </c>
+      <c r="Y23" s="15">
+        <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z23" s="6">
+        <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
+        <v>52521.48</v>
+      </c>
+      <c r="AA23" s="6">
+        <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
+        <v>13130.370000000003</v>
+      </c>
+      <c r="AB23" s="6">
+        <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
+        <v>313464.77</v>
+      </c>
+      <c r="AC23" s="6">
+        <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
+        <v>404175.98</v>
+      </c>
+      <c r="AD23" s="4">
+        <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
+        <v>0.20127545720757947</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="20">
+        <v>41671</v>
+      </c>
+      <c r="C24" s="3">
+        <v>313464.77</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3">
+        <v>77360.39</v>
+      </c>
+      <c r="G24" s="6">
+        <v>700</v>
+      </c>
+      <c r="H24" s="6">
+        <f>SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE RF])</f>
+        <v>13045</v>
+      </c>
+      <c r="I24" s="6">
+        <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
+        <v>91411.21</v>
+      </c>
+      <c r="J24" s="6">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>33.82</v>
+      </c>
+      <c r="K24" s="6">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>25.13</v>
+      </c>
+      <c r="L24" s="6">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>63.53</v>
+      </c>
+      <c r="M24" s="6">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N24" s="6">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O24" s="6">
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>138.25</v>
+      </c>
+      <c r="P24" s="6">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>67.64</v>
+      </c>
+      <c r="Q24" s="6">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>50.27</v>
+      </c>
+      <c r="R24" s="6">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>127.06</v>
+      </c>
+      <c r="S24" s="6">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T24" s="6">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U24" s="6">
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>260.74</v>
+      </c>
+      <c r="V24" s="6">
+        <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
+        <v>77360.387000000017</v>
+      </c>
+      <c r="W24" s="14">
+        <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
+        <v>60064.73000000001</v>
+      </c>
+      <c r="X24" s="4">
+        <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
+        <v>0.65708275823063722</v>
+      </c>
+      <c r="Y24" s="15">
+        <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z24" s="6">
+        <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
+        <v>61888.31</v>
+      </c>
+      <c r="AA24" s="6">
+        <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
+        <v>15472.080000000002</v>
+      </c>
+      <c r="AB24" s="6">
+        <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
+        <v>375353.08</v>
+      </c>
+      <c r="AC24" s="6">
+        <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
+        <v>482236.37000000005</v>
+      </c>
+      <c r="AD24" s="4">
+        <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
+        <v>0.19743306400907507</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="20">
+        <v>41699</v>
+      </c>
+      <c r="C25" s="3">
+        <v>375353.08</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3">
+        <v>91051.39</v>
+      </c>
+      <c r="G25" s="6">
+        <v>700</v>
+      </c>
+      <c r="H25" s="6">
+        <f>SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE RF])</f>
+        <v>13745</v>
+      </c>
+      <c r="I25" s="6">
+        <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
+        <v>107583.29000000001</v>
+      </c>
+      <c r="J25" s="6">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>39.799999999999997</v>
+      </c>
+      <c r="K25" s="6">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>29.58</v>
+      </c>
+      <c r="L25" s="6">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>74.77</v>
+      </c>
+      <c r="M25" s="6">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N25" s="6">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O25" s="6">
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>159.91999999999999</v>
+      </c>
+      <c r="P25" s="6">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>79.61</v>
+      </c>
+      <c r="Q25" s="6">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>59.17</v>
+      </c>
+      <c r="R25" s="6">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>149.54</v>
+      </c>
+      <c r="S25" s="6">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T25" s="6">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U25" s="6">
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>304.08999999999997</v>
+      </c>
+      <c r="V25" s="6">
+        <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
+        <v>91051.388000000006</v>
+      </c>
+      <c r="W25" s="14">
+        <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
+        <v>70047.98000000001</v>
+      </c>
+      <c r="X25" s="4">
+        <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
+        <v>0.65110464645578325</v>
+      </c>
+      <c r="Y25" s="15">
+        <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z25" s="6">
+        <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
+        <v>72841.11</v>
+      </c>
+      <c r="AA25" s="6">
+        <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
+        <v>18210.28</v>
+      </c>
+      <c r="AB25" s="6">
+        <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
+        <v>448194.19</v>
+      </c>
+      <c r="AC25" s="6">
+        <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
+        <v>573987.76</v>
+      </c>
+      <c r="AD25" s="4">
+        <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
+        <v>0.1940602432248591</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="20">
+        <v>41730</v>
+      </c>
+      <c r="C26" s="3">
+        <v>448194.19</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3">
+        <v>107060.52</v>
+      </c>
+      <c r="G26" s="6">
+        <v>700</v>
+      </c>
+      <c r="H26" s="6">
+        <f>SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE RF])</f>
+        <v>14445</v>
+      </c>
+      <c r="I26" s="6">
+        <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
+        <v>126493.57</v>
+      </c>
+      <c r="J26" s="6">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>46.8</v>
+      </c>
+      <c r="K26" s="6">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>34.78</v>
+      </c>
+      <c r="L26" s="6">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>87.91</v>
+      </c>
+      <c r="M26" s="6">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N26" s="6">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O26" s="6">
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>185.26000000000002</v>
+      </c>
+      <c r="P26" s="6">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>93.6</v>
+      </c>
+      <c r="Q26" s="6">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>69.569999999999993</v>
+      </c>
+      <c r="R26" s="6">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>175.82</v>
+      </c>
+      <c r="S26" s="6">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T26" s="6">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U26" s="6">
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>354.76</v>
+      </c>
+      <c r="V26" s="6">
+        <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
+        <v>107060.5175</v>
+      </c>
+      <c r="W26" s="14">
+        <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
+        <v>81674.150000000009</v>
+      </c>
+      <c r="X26" s="4">
+        <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
+        <v>0.64567827439766312</v>
+      </c>
+      <c r="Y26" s="15">
+        <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z26" s="6">
+        <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
+        <v>85648.42</v>
+      </c>
+      <c r="AA26" s="6">
+        <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
+        <v>21412.100000000006</v>
+      </c>
+      <c r="AB26" s="6">
+        <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
+        <v>533842.61</v>
+      </c>
+      <c r="AC26" s="6">
+        <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
+        <v>681748.28</v>
+      </c>
+      <c r="AD26" s="4">
+        <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
+        <v>0.19109667619743129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="20">
+        <v>41760</v>
+      </c>
+      <c r="C27" s="3">
+        <v>533842.61</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3">
+        <v>125780.25</v>
+      </c>
+      <c r="G27" s="6">
+        <v>700</v>
+      </c>
+      <c r="H27" s="6">
+        <f>SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE RF])</f>
+        <v>15145</v>
+      </c>
+      <c r="I27" s="6">
+        <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
+        <v>148605.67000000001</v>
+      </c>
+      <c r="J27" s="6">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>54.98</v>
+      </c>
+      <c r="K27" s="6">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>40.86</v>
+      </c>
+      <c r="L27" s="6">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>103.28</v>
+      </c>
+      <c r="M27" s="6">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N27" s="6">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O27" s="6">
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>214.89000000000001</v>
+      </c>
+      <c r="P27" s="6">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>109.96</v>
+      </c>
+      <c r="Q27" s="6">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>81.73</v>
+      </c>
+      <c r="R27" s="6">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>206.56</v>
+      </c>
+      <c r="S27" s="6">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T27" s="6">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U27" s="6">
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>414.02</v>
+      </c>
+      <c r="V27" s="6">
+        <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
+        <v>125780.24599999998</v>
+      </c>
+      <c r="W27" s="14">
+        <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
+        <v>95221.41</v>
+      </c>
+      <c r="X27" s="4">
+        <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
+        <v>0.64076565853779333</v>
+      </c>
+      <c r="Y27" s="15">
+        <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z27" s="6">
+        <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
+        <v>100624.2</v>
+      </c>
+      <c r="AA27" s="6">
+        <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
+        <v>25156.050000000003</v>
+      </c>
+      <c r="AB27" s="6">
+        <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
+        <v>634466.80999999994</v>
+      </c>
+      <c r="AC27" s="6">
+        <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
+        <v>808228.53</v>
+      </c>
+      <c r="AD27" s="4">
+        <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
+        <v>0.18849038670779764</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="20">
+        <v>41791</v>
+      </c>
+      <c r="C28" s="21">
+        <v>634466.81000000006</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21">
+        <v>147669.53</v>
+      </c>
+      <c r="G28" s="6">
+        <v>700</v>
+      </c>
+      <c r="H28" s="22">
+        <f>SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE RF])</f>
+        <v>15845</v>
+      </c>
+      <c r="I28" s="22">
+        <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
+        <v>174461.72000000003</v>
+      </c>
+      <c r="J28" s="22">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>64.55</v>
+      </c>
+      <c r="K28" s="22">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>47.97</v>
+      </c>
+      <c r="L28" s="22">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>121.25</v>
+      </c>
+      <c r="M28" s="22">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N28" s="22">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O28" s="22">
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>249.54</v>
+      </c>
+      <c r="P28" s="22">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>129.1</v>
+      </c>
+      <c r="Q28" s="22">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>95.95</v>
+      </c>
+      <c r="R28" s="22">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>242.5</v>
+      </c>
+      <c r="S28" s="22">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T28" s="22">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U28" s="22">
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>483.32</v>
+      </c>
+      <c r="V28" s="22">
+        <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
+        <v>147669.53100000002</v>
+      </c>
+      <c r="W28" s="23">
+        <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
+        <v>111015.04000000004</v>
+      </c>
+      <c r="X28" s="24">
+        <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
+        <v>0.63632893221504416</v>
+      </c>
+      <c r="Y28" s="25">
+        <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z28" s="22">
+        <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
+        <v>118135.62</v>
+      </c>
+      <c r="AA28" s="22">
+        <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
+        <v>29533.910000000003</v>
+      </c>
+      <c r="AB28" s="22">
+        <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
+        <v>752602.43</v>
+      </c>
+      <c r="AC28" s="22">
+        <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
+        <v>956598.06</v>
+      </c>
+      <c r="AD28" s="24">
+        <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
+        <v>0.18619669009951834</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="20">
+        <v>41821</v>
+      </c>
+      <c r="C29" s="21">
+        <v>752602.43</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21">
+        <v>173265.05</v>
+      </c>
+      <c r="G29" s="6">
+        <v>700</v>
+      </c>
+      <c r="H29" s="22">
+        <f>SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE RF])</f>
+        <v>16545</v>
+      </c>
+      <c r="I29" s="22">
+        <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
+        <v>204695.63000000003</v>
+      </c>
+      <c r="J29" s="22">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>75.73</v>
+      </c>
+      <c r="K29" s="22">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>56.29</v>
+      </c>
+      <c r="L29" s="22">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>142.26</v>
+      </c>
+      <c r="M29" s="22">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N29" s="22">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O29" s="22">
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>290.04999999999995</v>
+      </c>
+      <c r="P29" s="22">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>151.47</v>
+      </c>
+      <c r="Q29" s="22">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>112.58</v>
+      </c>
+      <c r="R29" s="22">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>284.52</v>
+      </c>
+      <c r="S29" s="22">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T29" s="22">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U29" s="22">
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>564.33999999999992</v>
+      </c>
+      <c r="V29" s="22">
+        <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
+        <v>173265.054</v>
+      </c>
+      <c r="W29" s="23">
+        <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
+        <v>129435.39000000003</v>
+      </c>
+      <c r="X29" s="24">
+        <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
+        <v>0.63233098820917677</v>
+      </c>
+      <c r="Y29" s="25">
+        <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z29" s="22">
+        <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
+        <v>138612.04</v>
+      </c>
+      <c r="AA29" s="22">
+        <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
+        <v>34653.00999999998</v>
+      </c>
+      <c r="AB29" s="22">
+        <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
+        <v>891214.47000000009</v>
+      </c>
+      <c r="AC29" s="22">
+        <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
+        <v>1130563.1100000001</v>
+      </c>
+      <c r="AD29" s="24">
+        <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
+        <v>0.18417697641502434</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="20">
+        <v>41852</v>
+      </c>
+      <c r="C30" s="55">
+        <v>891214.47</v>
+      </c>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55">
+        <v>203194.32</v>
+      </c>
+      <c r="G30" s="56">
+        <v>700</v>
+      </c>
+      <c r="H30" s="56">
+        <f>SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [APORTE RF])</f>
+        <v>17245</v>
+      </c>
+      <c r="I30" s="56">
+        <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela1[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela1[[#This Row],[TRADE]]), [REINVESTIR])</f>
+        <v>240048.64000000001</v>
+      </c>
+      <c r="J30" s="56">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>88.81</v>
+      </c>
+      <c r="K30" s="56">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>66.010000000000005</v>
+      </c>
+      <c r="L30" s="56">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>166.83</v>
+      </c>
+      <c r="M30" s="56">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N30" s="56">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O30" s="56">
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL CP]]:Tabela1[[#This Row],[OUTRAS CP]])</f>
+        <v>337.41999999999996</v>
+      </c>
+      <c r="P30" s="56">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>177.63</v>
+      </c>
+      <c r="Q30" s="56">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>132.02000000000001</v>
+      </c>
+      <c r="R30" s="56">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>333.66</v>
+      </c>
+      <c r="S30" s="56">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T30" s="56">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U30" s="56">
+        <f>SETUP!$G$3 + SUM(Tabela1[[#This Row],[EMOL VD]]:Tabela1[[#This Row],[OUTRAS VD]])</f>
+        <v>659.07999999999993</v>
+      </c>
+      <c r="V30" s="56">
+        <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
+        <v>203194.31899999999</v>
+      </c>
+      <c r="W30" s="57">
+        <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
+        <v>150927.19</v>
+      </c>
+      <c r="X30" s="58">
+        <f>Tabela1[[#This Row],[PERDA MAX]]/Tabela1[[#This Row],[APLICAÇÃO]]</f>
+        <v>0.62873586786411284</v>
+      </c>
+      <c r="Y30" s="59">
+        <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z30" s="56">
+        <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
+        <v>162555.46</v>
+      </c>
+      <c r="AA30" s="56">
+        <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
+        <v>40638.860000000015</v>
+      </c>
+      <c r="AB30" s="56">
+        <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
+        <v>1053769.93</v>
+      </c>
+      <c r="AC30" s="56">
+        <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
+        <v>1334457.4300000002</v>
+      </c>
+      <c r="AD30" s="58">
+        <f>IF([RENDA FIXA] &gt; 0, [PROTEÇÃO MÊS] / [RENDA FIXA], 0)</f>
+        <v>0.18239768930143155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" ht="15">
+      <c r="A31" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="16">
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="52">
         <f>SUBTOTAL(109,[APORTE])</f>
-        <v>15845</v>
-      </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="17"/>
-      <c r="AC23" s="16"/>
-      <c r="AD23" s="49"/>
+        <v>17245</v>
+      </c>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="49"/>
+      <c r="Z31" s="51"/>
+      <c r="AA31" s="52"/>
+      <c r="AB31" s="51"/>
+      <c r="AC31" s="52"/>
+      <c r="AD31" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -6645,10 +7565,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Plan3"/>
-  <dimension ref="A1:AC23"/>
+  <dimension ref="A1:AC31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -7119,7 +8039,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="21">
-        <v>397.95</v>
+        <v>403.09</v>
       </c>
       <c r="G5" s="22">
         <f>100</f>
@@ -7199,19 +8119,19 @@
       </c>
       <c r="Z5" s="22">
         <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
-        <v>318.36</v>
+        <v>322.47000000000003</v>
       </c>
       <c r="AA5" s="22">
         <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
-        <v>79.589999999999975</v>
+        <v>80.619999999999948</v>
       </c>
       <c r="AB5" s="22">
         <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
-        <v>1125.19</v>
+        <v>1129.3000000000002</v>
       </c>
       <c r="AC5" s="22">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>1706.48</v>
+        <v>1711.6200000000001</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -7243,7 +8163,7 @@
       </c>
       <c r="I6" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela13[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>681.29</v>
+        <v>682.31999999999994</v>
       </c>
       <c r="J6" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
@@ -7295,15 +8215,15 @@
       </c>
       <c r="V6" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>549.98400000000004</v>
+        <v>550.85950000000003</v>
       </c>
       <c r="W6" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>568.77</v>
+        <v>569.79999999999995</v>
       </c>
       <c r="X6" s="4">
         <f>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.83484272483083566</v>
+        <v>0.83509203892601713</v>
       </c>
       <c r="Y6" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -7323,7 +8243,7 @@
       </c>
       <c r="AC6" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>2356.46</v>
+        <v>2357.4899999999998</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -7355,11 +8275,11 @@
       </c>
       <c r="I7" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela13[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>891.29</v>
+        <v>892.31999999999994</v>
       </c>
       <c r="J7" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="K7" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
@@ -7367,7 +8287,7 @@
       </c>
       <c r="L7" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="M7" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -7379,11 +8299,11 @@
       </c>
       <c r="O7" s="6">
         <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL CP]]:Tabela13[[#This Row],[OUTRAS CP]])</f>
-        <v>16.940000000000001</v>
+        <v>16.96</v>
       </c>
       <c r="P7" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="Q7" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
@@ -7391,7 +8311,7 @@
       </c>
       <c r="R7" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S7" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -7403,19 +8323,19 @@
       </c>
       <c r="U7" s="6">
         <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL VD]]:Tabela13[[#This Row],[OUTRAS VD]])</f>
-        <v>18.14</v>
+        <v>18.16</v>
       </c>
       <c r="V7" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>727.77849999999978</v>
+        <v>728.61999999999978</v>
       </c>
       <c r="W7" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>734.77</v>
+        <v>735.8</v>
       </c>
       <c r="X7" s="4">
         <f>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.82438936821909814</v>
+        <v>0.82459207459207462</v>
       </c>
       <c r="Y7" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -7435,7 +8355,7 @@
       </c>
       <c r="AC7" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>3184.2400000000002</v>
+        <v>3185.2700000000004</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -7467,7 +8387,7 @@
       </c>
       <c r="I8" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela13[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>1136.8499999999999</v>
+        <v>1137.8799999999999</v>
       </c>
       <c r="J8" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
@@ -7519,15 +8439,15 @@
       </c>
       <c r="V8" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>935.63749999999993</v>
+        <v>936.51299999999992</v>
       </c>
       <c r="W8" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>922.1099999999999</v>
+        <v>923.13999999999987</v>
       </c>
       <c r="X8" s="4">
         <f>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.81110964507190919</v>
+        <v>0.81128062713115612</v>
       </c>
       <c r="Y8" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -7547,7 +8467,7 @@
       </c>
       <c r="AC8" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>4219.8799999999992</v>
+        <v>4220.91</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -7579,7 +8499,7 @@
       </c>
       <c r="I9" s="22">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela13[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>1423.98</v>
+        <v>1425.0099999999998</v>
       </c>
       <c r="J9" s="22">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
@@ -7591,7 +8511,7 @@
       </c>
       <c r="L9" s="22">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="M9" s="22">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -7603,7 +8523,7 @@
       </c>
       <c r="O9" s="22">
         <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL CP]]:Tabela13[[#This Row],[OUTRAS CP]])</f>
-        <v>17.66</v>
+        <v>17.670000000000002</v>
       </c>
       <c r="P9" s="22">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
@@ -7615,7 +8535,7 @@
       </c>
       <c r="R9" s="22">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="S9" s="22">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -7627,19 +8547,19 @@
       </c>
       <c r="U9" s="22">
         <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL VD]]:Tabela13[[#This Row],[OUTRAS VD]])</f>
-        <v>19.57</v>
+        <v>19.579999999999998</v>
       </c>
       <c r="V9" s="22">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>1178.7374999999997</v>
+        <v>1179.5959999999998</v>
       </c>
       <c r="W9" s="23">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>1134.3900000000001</v>
+        <v>1135.4199999999998</v>
       </c>
       <c r="X9" s="24">
         <f>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.79663337968229897</v>
+        <v>0.79678037347106334</v>
       </c>
       <c r="Y9" s="25">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -7659,7 +8579,7 @@
       </c>
       <c r="AC9" s="22">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>5498.6200000000008</v>
+        <v>5499.65</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -7691,7 +8611,7 @@
       </c>
       <c r="I10" s="22">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela13[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>1759.73</v>
+        <v>1760.7599999999998</v>
       </c>
       <c r="J10" s="22">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
@@ -7743,15 +8663,15 @@
       </c>
       <c r="V10" s="22">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>1462.9690000000003</v>
+        <v>1463.8444999999999</v>
       </c>
       <c r="W10" s="23">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>1375.8400000000001</v>
+        <v>1376.87</v>
       </c>
       <c r="X10" s="24">
         <f>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.78184721519778611</v>
+        <v>0.78197482905109161</v>
       </c>
       <c r="Y10" s="25">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -7771,7 +8691,7 @@
       </c>
       <c r="AC10" s="22">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>7061.59</v>
+        <v>7062.6200000000008</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -7799,7 +8719,7 @@
       </c>
       <c r="I11" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela13[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>2152.3199999999997</v>
+        <v>2153.35</v>
       </c>
       <c r="J11" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
@@ -7851,15 +8771,15 @@
       </c>
       <c r="V11" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>1795.3275000000001</v>
+        <v>1796.2030000000002</v>
       </c>
       <c r="W11" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>1651.3899999999996</v>
+        <v>1652.4199999999998</v>
       </c>
       <c r="X11" s="4">
         <f>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.76726044454356224</v>
+        <v>0.76737176956834696</v>
       </c>
       <c r="Y11" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -7879,7 +8799,7 @@
       </c>
       <c r="AC11" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>8956.92</v>
+        <v>8957.9500000000007</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -7907,7 +8827,7 @@
       </c>
       <c r="I12" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela13[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>2611.3899999999994</v>
+        <v>2612.42</v>
       </c>
       <c r="J12" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
@@ -7943,7 +8863,7 @@
       </c>
       <c r="R12" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>3.62</v>
+        <v>3.63</v>
       </c>
       <c r="S12" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -7955,19 +8875,19 @@
       </c>
       <c r="U12" s="6">
         <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL VD]]:Tabela13[[#This Row],[OUTRAS VD]])</f>
-        <v>22.75</v>
+        <v>22.76</v>
       </c>
       <c r="V12" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>2183.9814999999994</v>
+        <v>2184.8484999999996</v>
       </c>
       <c r="W12" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>1966.8399999999995</v>
+        <v>1967.8700000000001</v>
       </c>
       <c r="X12" s="4">
         <f>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.75317742658124598</v>
+        <v>0.75327474142748874</v>
       </c>
       <c r="Y12" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -7987,7 +8907,7 @@
       </c>
       <c r="AC12" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>11240.899999999998</v>
+        <v>11241.929999999998</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -8015,7 +8935,7 @@
       </c>
       <c r="I13" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela13[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>3148.1899999999996</v>
+        <v>3149.22</v>
       </c>
       <c r="J13" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
@@ -8043,7 +8963,7 @@
       </c>
       <c r="P13" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
-        <v>2.3199999999999998</v>
+        <v>2.33</v>
       </c>
       <c r="Q13" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
@@ -8063,19 +8983,19 @@
       </c>
       <c r="U13" s="6">
         <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL VD]]:Tabela13[[#This Row],[OUTRAS VD]])</f>
-        <v>24.189999999999998</v>
+        <v>24.2</v>
       </c>
       <c r="V13" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>2638.4255000000003</v>
+        <v>2639.2925</v>
       </c>
       <c r="W13" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>2328.9199999999996</v>
+        <v>2329.9499999999998</v>
       </c>
       <c r="X13" s="4">
         <f>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.739764753715627</v>
+        <v>0.73984986758625948</v>
       </c>
       <c r="Y13" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -8095,7 +9015,7 @@
       </c>
       <c r="AC13" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>13979.329999999998</v>
+        <v>13980.359999999999</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -8123,7 +9043,7 @@
       </c>
       <c r="I14" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela13[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>3775.8799999999997</v>
+        <v>3776.91</v>
       </c>
       <c r="J14" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
@@ -8175,15 +9095,15 @@
       </c>
       <c r="V14" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>3169.8199999999997</v>
+        <v>3170.6954999999998</v>
       </c>
       <c r="W14" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>2745.5299999999997</v>
+        <v>2746.56</v>
       </c>
       <c r="X14" s="4">
         <f>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.72712321366145105</v>
+        <v>0.72719762980849423</v>
       </c>
       <c r="Y14" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -8203,7 +9123,7 @@
       </c>
       <c r="AC14" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>17249.150000000001</v>
+        <v>17250.18</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -8231,7 +9151,7 @@
       </c>
       <c r="I15" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela13[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>4509.84</v>
+        <v>4510.87</v>
       </c>
       <c r="J15" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
@@ -8267,7 +9187,7 @@
       </c>
       <c r="R15" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
-        <v>6.26</v>
+        <v>6.27</v>
       </c>
       <c r="S15" s="6">
         <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
@@ -8279,19 +9199,19 @@
       </c>
       <c r="U15" s="6">
         <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL VD]]:Tabela13[[#This Row],[OUTRAS VD]])</f>
-        <v>27.84</v>
+        <v>27.85</v>
       </c>
       <c r="V15" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>3791.1699999999996</v>
+        <v>3792.0369999999994</v>
       </c>
       <c r="W15" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>3225.91</v>
+        <v>3226.9399999999996</v>
       </c>
       <c r="X15" s="4">
         <f>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.71530475582282294</v>
+        <v>0.71536976237399874</v>
       </c>
       <c r="Y15" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -8311,7 +9231,7 @@
       </c>
       <c r="AC15" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>21140.32</v>
+        <v>21141.35</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -8339,7 +9259,7 @@
       </c>
       <c r="I16" s="22">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela13[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>5368.07</v>
+        <v>5369.1</v>
       </c>
       <c r="J16" s="22">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
@@ -8391,15 +9311,15 @@
       </c>
       <c r="V16" s="22">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>4517.7245000000003</v>
+        <v>4518.6000000000004</v>
       </c>
       <c r="W16" s="23">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>3780.8399999999997</v>
+        <v>3781.8700000000003</v>
       </c>
       <c r="X16" s="24">
         <f>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.70432017466240193</v>
+        <v>0.70437689743159937</v>
       </c>
       <c r="Y16" s="25">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -8419,7 +9339,7 @@
       </c>
       <c r="AC16" s="22">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>25758.04</v>
+        <v>25759.07</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -8447,7 +9367,7 @@
       </c>
       <c r="I17" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela13[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>6371.6100000000006</v>
+        <v>6372.64</v>
       </c>
       <c r="J17" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
@@ -8499,15 +9419,15 @@
       </c>
       <c r="V17" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>5367.3165000000008</v>
+        <v>5368.192</v>
       </c>
       <c r="W17" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>4422.97</v>
+        <v>4424</v>
       </c>
       <c r="X17" s="4">
         <f>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.69416834991469967</v>
+        <v>0.69421778101383413</v>
       </c>
       <c r="Y17" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -8527,7 +9447,7 @@
       </c>
       <c r="AC17" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>31225.360000000001</v>
+        <v>31226.39</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -8555,7 +9475,7 @@
       </c>
       <c r="I18" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela13[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>7545.0700000000006</v>
+        <v>7546.1</v>
       </c>
       <c r="J18" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
@@ -8587,7 +9507,7 @@
       </c>
       <c r="Q18" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
-        <v>4.1399999999999997</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="R18" s="6">
         <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
@@ -8603,19 +9523,19 @@
       </c>
       <c r="U18" s="6">
         <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL VD]]:Tabela13[[#This Row],[OUTRAS VD]])</f>
-        <v>35.97</v>
+        <v>35.979999999999997</v>
       </c>
       <c r="V18" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>6360.7455000000009</v>
+        <v>6361.6125000000002</v>
       </c>
       <c r="W18" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>5167.0400000000009</v>
+        <v>5168.07</v>
       </c>
       <c r="X18" s="4">
         <f>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.6848233349723728</v>
+        <v>0.68486635480579361</v>
       </c>
       <c r="Y18" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -8635,7 +9555,7 @@
       </c>
       <c r="AC18" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>37686.11</v>
+        <v>37687.14</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -8663,7 +9583,7 @@
       </c>
       <c r="I19" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela13[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>8917.2200000000012</v>
+        <v>8918.25</v>
       </c>
       <c r="J19" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
@@ -8715,15 +9635,15 @@
       </c>
       <c r="V19" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>7522.3894999999993</v>
+        <v>7523.2649999999976</v>
       </c>
       <c r="W19" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>6030.3300000000017</v>
+        <v>6031.3600000000006</v>
       </c>
       <c r="X19" s="4">
         <f>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.67625672575085072</v>
+        <v>0.67629411599809386</v>
       </c>
       <c r="Y19" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -8743,7 +9663,7 @@
       </c>
       <c r="AC19" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>45308.500000000007</v>
+        <v>45309.530000000006</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -8771,7 +9691,7 @@
       </c>
       <c r="I20" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela13[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>10521.7</v>
+        <v>10522.73</v>
       </c>
       <c r="J20" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
@@ -8823,15 +9743,15 @@
       </c>
       <c r="V20" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>8880.7064999999984</v>
+        <v>8881.5819999999985</v>
       </c>
       <c r="W20" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>7033.02</v>
+        <v>7034.0499999999993</v>
       </c>
       <c r="X20" s="4">
         <f>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.66843000655787566</v>
+        <v>0.66846246173759083</v>
       </c>
       <c r="Y20" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -8851,7 +9771,7 @@
       </c>
       <c r="AC20" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>54289.210000000006</v>
+        <v>54290.240000000005</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -8879,7 +9799,7 @@
       </c>
       <c r="I21" s="6">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela13[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>12397.84</v>
+        <v>12398.869999999999</v>
       </c>
       <c r="J21" s="6">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
@@ -8931,15 +9851,15 @@
       </c>
       <c r="V21" s="6">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>10469.025</v>
+        <v>10469.900499999998</v>
       </c>
       <c r="W21" s="14">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>8198.7000000000007</v>
+        <v>8199.73</v>
       </c>
       <c r="X21" s="4">
         <f>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.66130067818265126</v>
+        <v>0.66132881464197946</v>
       </c>
       <c r="Y21" s="15">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -8959,7 +9879,7 @@
       </c>
       <c r="AC21" s="6">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>64858.240000000005</v>
+        <v>64859.270000000004</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -8987,7 +9907,7 @@
       </c>
       <c r="I22" s="22">
         <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela13[[#This Row],[TRADE]]), [REINVESTIR])</f>
-        <v>14591.650000000001</v>
+        <v>14592.68</v>
       </c>
       <c r="J22" s="22">
         <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
@@ -9039,15 +9959,15 @@
       </c>
       <c r="V22" s="22">
         <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
-        <v>12326.258000000002</v>
+        <v>12327.1335</v>
       </c>
       <c r="W22" s="23">
         <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
-        <v>9554.9900000000016</v>
+        <v>9556.02</v>
       </c>
       <c r="X22" s="24">
         <f>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</f>
-        <v>0.65482587644303425</v>
+        <v>0.65485023998333414</v>
       </c>
       <c r="Y22" s="25">
         <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
@@ -9067,39 +9987,864 @@
       </c>
       <c r="AC22" s="22">
         <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
-        <v>77284.5</v>
+        <v>77285.53</v>
       </c>
     </row>
     <row r="23" spans="1:29">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="26">
+        <v>41640</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="G23" s="6">
+        <f>100</f>
+        <v>100</v>
+      </c>
+      <c r="H23" s="6">
+        <f>SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE RF])</f>
+        <v>2100</v>
+      </c>
+      <c r="I23" s="6">
+        <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela13[[#This Row],[TRADE]]), [REINVESTIR])</f>
+        <v>17157.93</v>
+      </c>
+      <c r="J23" s="6">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>6.34</v>
+      </c>
+      <c r="K23" s="6">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>4.71</v>
+      </c>
+      <c r="L23" s="6">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>11.92</v>
+      </c>
+      <c r="M23" s="6">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N23" s="6">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O23" s="6">
+        <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL CP]]:Tabela13[[#This Row],[OUTRAS CP]])</f>
+        <v>38.739999999999995</v>
+      </c>
+      <c r="P23" s="6">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>12.69</v>
+      </c>
+      <c r="Q23" s="6">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>9.43</v>
+      </c>
+      <c r="R23" s="6">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>23.84</v>
+      </c>
+      <c r="S23" s="6">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T23" s="6">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U23" s="6">
+        <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL VD]]:Tabela13[[#This Row],[OUTRAS VD]])</f>
+        <v>61.72999999999999</v>
+      </c>
+      <c r="V23" s="6">
+        <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
+        <v>14498.840999999995</v>
+      </c>
+      <c r="W23" s="14">
+        <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
+        <v>17157.93</v>
+      </c>
+      <c r="X23" s="4">
+        <f>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</f>
+        <v>1</v>
+      </c>
+      <c r="Y23" s="15">
+        <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z23" s="6">
+        <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="6">
+        <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
+        <v>0</v>
+      </c>
+      <c r="AB23" s="6">
+        <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
+        <v>0</v>
+      </c>
+      <c r="AC23" s="6">
+        <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
+        <v>17157.93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
+      <c r="A24" s="29">
+        <v>23</v>
+      </c>
+      <c r="B24" s="26">
+        <v>41671</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="G24" s="6">
+        <f>100</f>
+        <v>100</v>
+      </c>
+      <c r="H24" s="6">
+        <f>SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE RF])</f>
+        <v>2200</v>
+      </c>
+      <c r="I24" s="6">
+        <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela13[[#This Row],[TRADE]]), [REINVESTIR])</f>
+        <v>17257.93</v>
+      </c>
+      <c r="J24" s="6">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>6.38</v>
+      </c>
+      <c r="K24" s="6">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>4.74</v>
+      </c>
+      <c r="L24" s="6">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>11.99</v>
+      </c>
+      <c r="M24" s="6">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N24" s="6">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O24" s="6">
+        <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL CP]]:Tabela13[[#This Row],[OUTRAS CP]])</f>
+        <v>38.879999999999995</v>
+      </c>
+      <c r="P24" s="6">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>12.77</v>
+      </c>
+      <c r="Q24" s="6">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>9.49</v>
+      </c>
+      <c r="R24" s="6">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>23.98</v>
+      </c>
+      <c r="S24" s="6">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T24" s="6">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U24" s="6">
+        <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL VD]]:Tabela13[[#This Row],[OUTRAS VD]])</f>
+        <v>62.009999999999991</v>
+      </c>
+      <c r="V24" s="6">
+        <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
+        <v>14583.483999999997</v>
+      </c>
+      <c r="W24" s="14">
+        <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
+        <v>17257.93</v>
+      </c>
+      <c r="X24" s="4">
+        <f>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</f>
+        <v>1</v>
+      </c>
+      <c r="Y24" s="15">
+        <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z24" s="6">
+        <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="6">
+        <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
+        <v>0</v>
+      </c>
+      <c r="AB24" s="6">
+        <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
+        <v>0</v>
+      </c>
+      <c r="AC24" s="6">
+        <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
+        <v>17257.93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="26">
+        <v>41699</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="G25" s="6">
+        <f>100</f>
+        <v>100</v>
+      </c>
+      <c r="H25" s="6">
+        <f>SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE RF])</f>
+        <v>2300</v>
+      </c>
+      <c r="I25" s="6">
+        <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela13[[#This Row],[TRADE]]), [REINVESTIR])</f>
+        <v>17357.93</v>
+      </c>
+      <c r="J25" s="6">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>6.42</v>
+      </c>
+      <c r="K25" s="6">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="L25" s="6">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>12.06</v>
+      </c>
+      <c r="M25" s="6">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N25" s="6">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O25" s="6">
+        <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL CP]]:Tabela13[[#This Row],[OUTRAS CP]])</f>
+        <v>39.019999999999996</v>
+      </c>
+      <c r="P25" s="6">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>12.84</v>
+      </c>
+      <c r="Q25" s="6">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="R25" s="6">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>24.12</v>
+      </c>
+      <c r="S25" s="6">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T25" s="6">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U25" s="6">
+        <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL VD]]:Tabela13[[#This Row],[OUTRAS VD]])</f>
+        <v>62.269999999999996</v>
+      </c>
+      <c r="V25" s="6">
+        <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
+        <v>14668.144000000002</v>
+      </c>
+      <c r="W25" s="14">
+        <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
+        <v>17357.93</v>
+      </c>
+      <c r="X25" s="4">
+        <f>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</f>
+        <v>1</v>
+      </c>
+      <c r="Y25" s="15">
+        <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z25" s="6">
+        <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="6">
+        <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="6">
+        <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
+        <v>0</v>
+      </c>
+      <c r="AC25" s="6">
+        <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
+        <v>17357.93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29">
+      <c r="A26" s="29">
+        <v>25</v>
+      </c>
+      <c r="B26" s="26">
+        <v>41730</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="G26" s="6">
+        <f>100</f>
+        <v>100</v>
+      </c>
+      <c r="H26" s="6">
+        <f>SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE RF])</f>
+        <v>2400</v>
+      </c>
+      <c r="I26" s="6">
+        <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela13[[#This Row],[TRADE]]), [REINVESTIR])</f>
+        <v>17457.93</v>
+      </c>
+      <c r="J26" s="6">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>6.45</v>
+      </c>
+      <c r="K26" s="6">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>4.8</v>
+      </c>
+      <c r="L26" s="6">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>12.13</v>
+      </c>
+      <c r="M26" s="6">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N26" s="6">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O26" s="6">
+        <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL CP]]:Tabela13[[#This Row],[OUTRAS CP]])</f>
+        <v>39.15</v>
+      </c>
+      <c r="P26" s="6">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>12.91</v>
+      </c>
+      <c r="Q26" s="6">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>9.6</v>
+      </c>
+      <c r="R26" s="6">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>24.26</v>
+      </c>
+      <c r="S26" s="6">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T26" s="6">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U26" s="6">
+        <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL VD]]:Tabela13[[#This Row],[OUTRAS VD]])</f>
+        <v>62.539999999999992</v>
+      </c>
+      <c r="V26" s="6">
+        <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
+        <v>14752.803999999998</v>
+      </c>
+      <c r="W26" s="14">
+        <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
+        <v>17457.93</v>
+      </c>
+      <c r="X26" s="4">
+        <f>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</f>
+        <v>1</v>
+      </c>
+      <c r="Y26" s="15">
+        <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z26" s="6">
+        <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="6">
+        <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="6">
+        <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="6">
+        <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
+        <v>17457.93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="26">
+        <v>41760</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="G27" s="6">
+        <f>100</f>
+        <v>100</v>
+      </c>
+      <c r="H27" s="6">
+        <f>SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE RF])</f>
+        <v>2500</v>
+      </c>
+      <c r="I27" s="6">
+        <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela13[[#This Row],[TRADE]]), [REINVESTIR])</f>
+        <v>17557.93</v>
+      </c>
+      <c r="J27" s="6">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>6.49</v>
+      </c>
+      <c r="K27" s="6">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>4.82</v>
+      </c>
+      <c r="L27" s="6">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>12.2</v>
+      </c>
+      <c r="M27" s="6">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N27" s="6">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O27" s="6">
+        <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL CP]]:Tabela13[[#This Row],[OUTRAS CP]])</f>
+        <v>39.279999999999994</v>
+      </c>
+      <c r="P27" s="6">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>12.99</v>
+      </c>
+      <c r="Q27" s="6">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>9.65</v>
+      </c>
+      <c r="R27" s="6">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>24.4</v>
+      </c>
+      <c r="S27" s="6">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T27" s="6">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U27" s="6">
+        <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL VD]]:Tabela13[[#This Row],[OUTRAS VD]])</f>
+        <v>62.809999999999995</v>
+      </c>
+      <c r="V27" s="6">
+        <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
+        <v>14837.464000000004</v>
+      </c>
+      <c r="W27" s="14">
+        <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
+        <v>17557.93</v>
+      </c>
+      <c r="X27" s="4">
+        <f>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</f>
+        <v>1</v>
+      </c>
+      <c r="Y27" s="15">
+        <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z27" s="6">
+        <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="6">
+        <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
+        <v>0</v>
+      </c>
+      <c r="AB27" s="6">
+        <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
+        <v>0</v>
+      </c>
+      <c r="AC27" s="6">
+        <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
+        <v>17557.93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29">
+      <c r="A28" s="29">
+        <v>27</v>
+      </c>
+      <c r="B28" s="26">
+        <v>41791</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="G28" s="6">
+        <f>100</f>
+        <v>100</v>
+      </c>
+      <c r="H28" s="6">
+        <f>SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE RF])</f>
+        <v>2600</v>
+      </c>
+      <c r="I28" s="6">
+        <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela13[[#This Row],[TRADE]]), [REINVESTIR])</f>
+        <v>17657.93</v>
+      </c>
+      <c r="J28" s="6">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>6.53</v>
+      </c>
+      <c r="K28" s="6">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="L28" s="6">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>12.27</v>
+      </c>
+      <c r="M28" s="6">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N28" s="6">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O28" s="6">
+        <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL CP]]:Tabela13[[#This Row],[OUTRAS CP]])</f>
+        <v>39.419999999999995</v>
+      </c>
+      <c r="P28" s="6">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>13.06</v>
+      </c>
+      <c r="Q28" s="6">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="R28" s="6">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>24.54</v>
+      </c>
+      <c r="S28" s="6">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T28" s="6">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U28" s="6">
+        <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL VD]]:Tabela13[[#This Row],[OUTRAS VD]])</f>
+        <v>63.08</v>
+      </c>
+      <c r="V28" s="6">
+        <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
+        <v>14922.1155</v>
+      </c>
+      <c r="W28" s="14">
+        <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
+        <v>17657.93</v>
+      </c>
+      <c r="X28" s="4">
+        <f>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</f>
+        <v>1</v>
+      </c>
+      <c r="Y28" s="15">
+        <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z28" s="6">
+        <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="6">
+        <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
+        <v>0</v>
+      </c>
+      <c r="AB28" s="6">
+        <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="6">
+        <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
+        <v>17657.93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="26">
+        <v>41821</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="G29" s="6">
+        <f>100</f>
+        <v>100</v>
+      </c>
+      <c r="H29" s="6">
+        <f>SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE RF])</f>
+        <v>2700</v>
+      </c>
+      <c r="I29" s="6">
+        <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela13[[#This Row],[TRADE]]), [REINVESTIR])</f>
+        <v>17757.93</v>
+      </c>
+      <c r="J29" s="6">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>6.57</v>
+      </c>
+      <c r="K29" s="6">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>4.88</v>
+      </c>
+      <c r="L29" s="6">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>12.34</v>
+      </c>
+      <c r="M29" s="6">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N29" s="6">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O29" s="6">
+        <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL CP]]:Tabela13[[#This Row],[OUTRAS CP]])</f>
+        <v>39.559999999999995</v>
+      </c>
+      <c r="P29" s="6">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>13.14</v>
+      </c>
+      <c r="Q29" s="6">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>9.76</v>
+      </c>
+      <c r="R29" s="6">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>24.68</v>
+      </c>
+      <c r="S29" s="6">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T29" s="6">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U29" s="6">
+        <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL VD]]:Tabela13[[#This Row],[OUTRAS VD]])</f>
+        <v>63.349999999999994</v>
+      </c>
+      <c r="V29" s="6">
+        <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
+        <v>15006.767</v>
+      </c>
+      <c r="W29" s="14">
+        <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
+        <v>17757.93</v>
+      </c>
+      <c r="X29" s="4">
+        <f>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</f>
+        <v>1</v>
+      </c>
+      <c r="Y29" s="15">
+        <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z29" s="6">
+        <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="6">
+        <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="6">
+        <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
+        <v>0</v>
+      </c>
+      <c r="AC29" s="6">
+        <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
+        <v>17757.93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29">
+      <c r="A30" s="29">
+        <v>29</v>
+      </c>
+      <c r="B30" s="26">
+        <v>41852</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="22">
+        <f>100</f>
+        <v>100</v>
+      </c>
+      <c r="H30" s="22">
+        <f>SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE]) + SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [APORTE RF])</f>
+        <v>2800</v>
+      </c>
+      <c r="I30" s="22">
+        <f>[MONTANTE] - SUMPRODUCT(N([TRADE] &lt;= Tabela13[[#This Row],[TRADE]]), [SAQUE]) + SUMPRODUCT(N([TRADE] &lt; Tabela13[[#This Row],[TRADE]]), [REINVESTIR])</f>
+        <v>17857.93</v>
+      </c>
+      <c r="J30" s="22">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$A$3, 2)</f>
+        <v>6.6</v>
+      </c>
+      <c r="K30" s="22">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$B$3, 2)</f>
+        <v>4.91</v>
+      </c>
+      <c r="L30" s="22">
+        <f>TRUNC([APLICAÇÃO]  * SETUP!$C$3, 2)</f>
+        <v>12.41</v>
+      </c>
+      <c r="M30" s="22">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N30" s="22">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O30" s="22">
+        <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL CP]]:Tabela13[[#This Row],[OUTRAS CP]])</f>
+        <v>39.69</v>
+      </c>
+      <c r="P30" s="22">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$A$3, 2)</f>
+        <v>13.21</v>
+      </c>
+      <c r="Q30" s="22">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$B$3, 2)</f>
+        <v>9.82</v>
+      </c>
+      <c r="R30" s="22">
+        <f>TRUNC([APLICAÇÃO] * 2  * SETUP!$C$3, 2)</f>
+        <v>24.82</v>
+      </c>
+      <c r="S30" s="22">
+        <f>TRUNC(SETUP!$G$3  * SETUP!$H$3, 2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T30" s="22">
+        <f>ROUND(SETUP!$G$3 * SETUP!$I$3, 2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U30" s="22">
+        <f>SETUP!$G$3 + SUM(Tabela13[[#This Row],[EMOL VD]]:Tabela13[[#This Row],[OUTRAS VD]])</f>
+        <v>63.62</v>
+      </c>
+      <c r="V30" s="22">
+        <f>((([APLICAÇÃO] * 2) - [TAXA VD]) - ([APLICAÇÃO] + [TAXA CP])) * 0.85</f>
+        <v>15091.426999999998</v>
+      </c>
+      <c r="W30" s="23">
+        <f>[APLICAÇÃO] - (ROUND([RENDA FIXA] * 0.1,2))</f>
+        <v>17857.93</v>
+      </c>
+      <c r="X30" s="24">
+        <f>Tabela13[[#This Row],[PERDA MAX]]/Tabela13[[#This Row],[APLICAÇÃO]]</f>
+        <v>1</v>
+      </c>
+      <c r="Y30" s="25">
+        <f>IF([LUCRO] &lt; ([RENDA FIXA]/2), 0.8, 0.8)</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z30" s="22">
+        <f>IF([LUCRO] &lt; 0, 0, ROUND([LUCRO]*[NO BOLSO], 2))</f>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="22">
+        <f>[LUCRO]-[PROTEÇÃO MÊS]</f>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="22">
+        <f>[RENDA FIXA] + [PROTEÇÃO MÊS] - [APORTE RF]</f>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="22">
+        <f>[TOT RF] + [REINVESTIR] + [APLICAÇÃO]</f>
+        <v>17857.93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29">
+      <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="17"/>
-      <c r="AC23" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="17"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="17"/>
+      <c r="AC31" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -9551,7 +11296,7 @@
       </c>
     </row>
     <row r="5" spans="1:29">
-      <c r="B5" s="47"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -9649,7 +11394,7 @@
       </c>
     </row>
     <row r="6" spans="1:29">
-      <c r="B6" s="47"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -9747,7 +11492,7 @@
       </c>
     </row>
     <row r="7" spans="1:29">
-      <c r="B7" s="47"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -9845,7 +11590,7 @@
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="B8" s="47"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -9943,8 +11688,8 @@
       </c>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="46"/>
-      <c r="B9" s="48"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -10043,8 +11788,8 @@
       </c>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" s="46"/>
-      <c r="B10" s="48"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -10143,7 +11888,7 @@
       </c>
     </row>
     <row r="11" spans="1:29">
-      <c r="B11" s="47"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -10241,7 +11986,7 @@
       </c>
     </row>
     <row r="12" spans="1:29">
-      <c r="B12" s="47"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -10339,7 +12084,7 @@
       </c>
     </row>
     <row r="13" spans="1:29">
-      <c r="B13" s="47"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -10437,7 +12182,7 @@
       </c>
     </row>
     <row r="14" spans="1:29">
-      <c r="B14" s="47"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -10535,7 +12280,7 @@
       </c>
     </row>
     <row r="15" spans="1:29">
-      <c r="B15" s="47"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -10633,8 +12378,8 @@
       </c>
     </row>
     <row r="16" spans="1:29">
-      <c r="A16" s="46"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -10733,7 +12478,7 @@
       </c>
     </row>
     <row r="17" spans="1:29">
-      <c r="B17" s="47"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -10831,7 +12576,7 @@
       </c>
     </row>
     <row r="18" spans="1:29">
-      <c r="B18" s="47"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -10929,7 +12674,7 @@
       </c>
     </row>
     <row r="19" spans="1:29">
-      <c r="B19" s="47"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -11027,7 +12772,7 @@
       </c>
     </row>
     <row r="20" spans="1:29">
-      <c r="B20" s="47"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -11125,7 +12870,7 @@
       </c>
     </row>
     <row r="21" spans="1:29">
-      <c r="B21" s="47"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -11223,8 +12968,8 @@
       </c>
     </row>
     <row r="22" spans="1:29">
-      <c r="A22" s="46"/>
-      <c r="B22" s="48"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
@@ -11383,23 +13128,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="45" t="s">
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="48" t="s">
         <v>23</v>
       </c>
     </row>
@@ -11422,9 +13167,9 @@
       <c r="F2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="8">
@@ -11471,8 +13216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -11604,7 +13349,7 @@
       </c>
       <c r="B5" s="42">
         <f>Tabela13[PROTEÇÃO MÊS]+Tabela134[PROTEÇÃO MÊS]+Tabela1[PROTEÇÃO MÊS]</f>
-        <v>1535.9099999999999</v>
+        <v>1540.02</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
@@ -11615,15 +13360,15 @@
       </c>
       <c r="E5" s="42">
         <f>B5+D5</f>
-        <v>1535.9099999999999</v>
+        <v>1540.02</v>
       </c>
       <c r="F5" s="42">
         <f>Tabela1[TOT RF]+Tabela13[TOT RF]</f>
-        <v>3260.28</v>
+        <v>3264.3900000000003</v>
       </c>
       <c r="G5" s="42">
         <f>Tabela1[PATRIMÔNIO]+Tabela13[PATRIMÔNIO]</f>
-        <v>5975.35</v>
+        <v>5980.4900000000007</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -11652,7 +13397,7 @@
       </c>
       <c r="G6" s="42">
         <f>Tabela1[PATRIMÔNIO]+Tabela13[PATRIMÔNIO]</f>
-        <v>9208.2200000000012</v>
+        <v>9209.25</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -11681,7 +13426,7 @@
       </c>
       <c r="G7" s="42">
         <f>Tabela1[PATRIMÔNIO]+Tabela13[PATRIMÔNIO]</f>
-        <v>13350.83</v>
+        <v>13351.86</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11710,7 +13455,7 @@
       </c>
       <c r="G8" s="42">
         <f>Tabela1[PATRIMÔNIO]+Tabela13[PATRIMÔNIO]</f>
-        <v>18557.189999999999</v>
+        <v>18558.22</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -11720,7 +13465,7 @@
       </c>
       <c r="B9" s="42">
         <f>Tabela13[PROTEÇÃO MÊS]+Tabela134[PROTEÇÃO MÊS]+Tabela1[PROTEÇÃO MÊS]</f>
-        <v>4935.37</v>
+        <v>4732.17</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -11731,15 +13476,15 @@
       </c>
       <c r="E9" s="42">
         <f t="shared" si="1"/>
-        <v>4935.37</v>
+        <v>4732.17</v>
       </c>
       <c r="F9" s="42">
         <f>Tabela1[TOT RF]+Tabela13[TOT RF]</f>
-        <v>16977.11</v>
+        <v>16773.91</v>
       </c>
       <c r="G9" s="42">
         <f>Tabela1[PATRIMÔNIO]+Tabela13[PATRIMÔNIO]</f>
-        <v>25561.410000000003</v>
+        <v>25008.440000000002</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -11749,7 +13494,7 @@
       </c>
       <c r="B10" s="42">
         <f>Tabela13[PROTEÇÃO MÊS]+Tabela134[PROTEÇÃO MÊS]+Tabela1[PROTEÇÃO MÊS]</f>
-        <v>6408.52</v>
+        <v>5895.76</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
@@ -11760,15 +13505,15 @@
       </c>
       <c r="E10" s="42">
         <f t="shared" si="1"/>
-        <v>6408.52</v>
+        <v>5895.76</v>
       </c>
       <c r="F10" s="42">
         <f>Tabela1[TOT RF]+Tabela13[TOT RF]</f>
-        <v>23385.63</v>
+        <v>22669.670000000002</v>
       </c>
       <c r="G10" s="42">
         <f>Tabela1[PATRIMÔNIO]+Tabela13[PATRIMÔNIO]</f>
-        <v>34407.06</v>
+        <v>32913.130000000005</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -11778,7 +13523,7 @@
       </c>
       <c r="B11" s="42">
         <f>Tabela13[PROTEÇÃO MÊS]+Tabela134[PROTEÇÃO MÊS]+Tabela1[PROTEÇÃO MÊS]</f>
-        <v>7987.1</v>
+        <v>7256.3200000000006</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
@@ -11789,15 +13534,15 @@
       </c>
       <c r="E11" s="42">
         <f t="shared" ref="E11:E16" si="2">B11+D11</f>
-        <v>7987.1</v>
+        <v>7256.3200000000006</v>
       </c>
       <c r="F11" s="42">
         <f>Tabela1[TOT RF]+Tabela13[TOT RF]</f>
-        <v>31372.730000000003</v>
+        <v>29925.990000000005</v>
       </c>
       <c r="G11" s="42">
         <f>Tabela1[PATRIMÔNIO]+Tabela13[PATRIMÔNIO]</f>
-        <v>45225.939999999995</v>
+        <v>42518.540000000008</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -11807,7 +13552,7 @@
       </c>
       <c r="B12" s="42">
         <f>Tabela13[PROTEÇÃO MÊS]+Tabela134[PROTEÇÃO MÊS]+Tabela1[PROTEÇÃO MÊS]</f>
-        <v>9904.98</v>
+        <v>8847.2899999999991</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
@@ -11818,15 +13563,15 @@
       </c>
       <c r="E12" s="42">
         <f t="shared" si="2"/>
-        <v>9904.98</v>
+        <v>8847.2899999999991</v>
       </c>
       <c r="F12" s="42">
         <f>Tabela1[TOT RF]+Tabela13[TOT RF]</f>
-        <v>41277.71</v>
+        <v>38773.279999999999</v>
       </c>
       <c r="G12" s="42">
         <f>Tabela1[PATRIMÔNIO]+Tabela13[PATRIMÔNIO]</f>
-        <v>58442.17</v>
+        <v>54112.659999999996</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -11836,7 +13581,7 @@
       </c>
       <c r="B13" s="42">
         <f>Tabela13[PROTEÇÃO MÊS]+Tabela134[PROTEÇÃO MÊS]+Tabela1[PROTEÇÃO MÊS]</f>
-        <v>12327.05</v>
+        <v>10887.119999999999</v>
       </c>
       <c r="C13" s="3">
         <v>0</v>
@@ -11847,15 +13592,15 @@
       </c>
       <c r="E13" s="42">
         <f t="shared" si="2"/>
-        <v>12327.05</v>
+        <v>10887.119999999999</v>
       </c>
       <c r="F13" s="42">
         <f>Tabela1[TOT RF]+Tabela13[TOT RF]</f>
-        <v>53604.759999999995</v>
+        <v>49660.399999999994</v>
       </c>
       <c r="G13" s="42">
         <f>Tabela1[PATRIMÔNIO]+Tabela13[PATRIMÔNIO]</f>
-        <v>74950.989999999991</v>
+        <v>68521.56</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -11865,7 +13610,7 @@
       </c>
       <c r="B14" s="42">
         <f>Tabela13[PROTEÇÃO MÊS]+Tabela134[PROTEÇÃO MÊS]+Tabela1[PROTEÇÃO MÊS]</f>
-        <v>15159.24</v>
+        <v>13272.32</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
@@ -11876,15 +13621,15 @@
       </c>
       <c r="E14" s="42">
         <f t="shared" si="2"/>
-        <v>15159.24</v>
+        <v>13272.32</v>
       </c>
       <c r="F14" s="42">
         <f>Tabela1[TOT RF]+Tabela13[TOT RF]</f>
-        <v>68764</v>
+        <v>62932.72</v>
       </c>
       <c r="G14" s="42">
         <f>Tabela1[PATRIMÔNIO]+Tabela13[PATRIMÔNIO]</f>
-        <v>95000.03</v>
+        <v>85911.949999999983</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -11894,7 +13639,7 @@
       </c>
       <c r="B15" s="42">
         <f>Tabela13[PROTEÇÃO MÊS]+Tabela134[PROTEÇÃO MÊS]+Tabela1[PROTEÇÃO MÊS]</f>
-        <v>18470.919999999998</v>
+        <v>16061.33</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
@@ -11905,15 +13650,15 @@
       </c>
       <c r="E15" s="42">
         <f t="shared" si="2"/>
-        <v>18470.919999999998</v>
+        <v>16061.33</v>
       </c>
       <c r="F15" s="42">
         <f>Tabela1[TOT RF]+Tabela13[TOT RF]</f>
-        <v>87234.92</v>
+        <v>78994.05</v>
       </c>
       <c r="G15" s="42">
         <f>Tabela1[PATRIMÔNIO]+Tabela13[PATRIMÔNIO]</f>
-        <v>119188.68</v>
+        <v>106788.61000000002</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -11923,7 +13668,7 @@
       </c>
       <c r="B16" s="42">
         <f>Tabela13[PROTEÇÃO MÊS]+Tabela134[PROTEÇÃO MÊS]+Tabela1[PROTEÇÃO MÊS]</f>
-        <v>22343.34</v>
+        <v>19322.57</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
@@ -11934,15 +13679,15 @@
       </c>
       <c r="E16" s="42">
         <f t="shared" si="2"/>
-        <v>22343.34</v>
+        <v>19322.57</v>
       </c>
       <c r="F16" s="42">
         <f>Tabela1[TOT RF]+Tabela13[TOT RF]</f>
-        <v>109578.26000000001</v>
+        <v>98316.62</v>
       </c>
       <c r="G16" s="42">
         <f>Tabela1[PATRIMÔNIO]+Tabela13[PATRIMÔNIO]</f>
-        <v>148217.85</v>
+        <v>131741.82</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -11952,7 +13697,7 @@
       </c>
       <c r="B17" s="42">
         <f>Tabela13[PROTEÇÃO MÊS]+Tabela134[PROTEÇÃO MÊS]+Tabela1[PROTEÇÃO MÊS]</f>
-        <v>26871.440000000002</v>
+        <v>23136.04</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
@@ -11963,15 +13708,15 @@
       </c>
       <c r="E17" s="42">
         <f t="shared" ref="E17:E22" si="3">B17+D17</f>
-        <v>26871.440000000002</v>
+        <v>23136.04</v>
       </c>
       <c r="F17" s="42">
         <f>Tabela1[TOT RF]+Tabela13[TOT RF]</f>
-        <v>136449.70000000001</v>
+        <v>121452.66</v>
       </c>
       <c r="G17" s="42">
         <f>Tabela1[PATRIMÔNIO]+Tabela13[PATRIMÔNIO]</f>
-        <v>182907.14</v>
+        <v>161461.87</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -11981,7 +13726,7 @@
       </c>
       <c r="B18" s="42">
         <f>Tabela13[PROTEÇÃO MÊS]+Tabela134[PROTEÇÃO MÊS]+Tabela1[PROTEÇÃO MÊS]</f>
-        <v>32166.22</v>
+        <v>27595.17</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
@@ -11992,15 +13737,15 @@
       </c>
       <c r="E18" s="42">
         <f t="shared" si="3"/>
-        <v>32166.22</v>
+        <v>27595.17</v>
       </c>
       <c r="F18" s="42">
         <f>Tabela1[TOT RF]+Tabela13[TOT RF]</f>
-        <v>168615.91999999998</v>
+        <v>149047.83000000002</v>
       </c>
       <c r="G18" s="42">
         <f>Tabela1[PATRIMÔNIO]+Tabela13[PATRIMÔNIO]</f>
-        <v>224214.90999999997</v>
+        <v>196755.83000000002</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -12010,7 +13755,7 @@
       </c>
       <c r="B19" s="42">
         <f>Tabela13[PROTEÇÃO MÊS]+Tabela134[PROTEÇÃO MÊS]+Tabela1[PROTEÇÃO MÊS]</f>
-        <v>38357.490000000005</v>
+        <v>32809.300000000003</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
@@ -12021,15 +13766,15 @@
       </c>
       <c r="E19" s="42">
         <f t="shared" si="3"/>
-        <v>38357.490000000005</v>
+        <v>32809.300000000003</v>
       </c>
       <c r="F19" s="42">
         <f>Tabela1[TOT RF]+Tabela13[TOT RF]</f>
-        <v>206973.40999999997</v>
+        <v>181857.13</v>
       </c>
       <c r="G19" s="42">
         <f>Tabela1[PATRIMÔNIO]+Tabela13[PATRIMÔNIO]</f>
-        <v>273261.77</v>
+        <v>238567.46000000002</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -12039,7 +13784,7 @@
       </c>
       <c r="B20" s="42">
         <f>Tabela13[PROTEÇÃO MÊS]+Tabela134[PROTEÇÃO MÊS]+Tabela1[PROTEÇÃO MÊS]</f>
-        <v>45597.02</v>
+        <v>38906.259999999995</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
@@ -12050,15 +13795,15 @@
       </c>
       <c r="E20" s="42">
         <f t="shared" si="3"/>
-        <v>45597.02</v>
+        <v>38906.259999999995</v>
       </c>
       <c r="F20" s="42">
         <f>Tabela1[TOT RF]+Tabela13[TOT RF]</f>
-        <v>252570.43</v>
+        <v>220763.38999999998</v>
       </c>
       <c r="G20" s="42">
         <f>Tabela1[PATRIMÔNIO]+Tabela13[PATRIMÔNIO]</f>
-        <v>331358.03999999998</v>
+        <v>288000.28000000003</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -12068,7 +13813,7 @@
       </c>
       <c r="B21" s="42">
         <f>Tabela13[PROTEÇÃO MÊS]+Tabela134[PROTEÇÃO MÊS]+Tabela1[PROTEÇÃO MÊS]</f>
-        <v>54062.35</v>
+        <v>46035.55</v>
       </c>
       <c r="C21" s="3">
         <v>0</v>
@@ -12079,15 +13824,15 @@
       </c>
       <c r="E21" s="42">
         <f t="shared" si="3"/>
-        <v>54062.35</v>
+        <v>46035.55</v>
       </c>
       <c r="F21" s="42">
         <f>Tabela1[TOT RF]+Tabela13[TOT RF]</f>
-        <v>306632.78000000003</v>
+        <v>266798.94</v>
       </c>
       <c r="G21" s="42">
         <f>Tabela1[PATRIMÔNIO]+Tabela13[PATRIMÔNIO]</f>
-        <v>400035.98</v>
+        <v>346344.72000000003</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -12097,7 +13842,7 @@
       </c>
       <c r="B22" s="42">
         <f>Tabela13[PROTEÇÃO MÊS]+Tabela134[PROTEÇÃO MÊS]+Tabela1[PROTEÇÃO MÊS]</f>
-        <v>63960.990000000005</v>
+        <v>54371.950000000004</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
@@ -12108,15 +13853,15 @@
       </c>
       <c r="E22" s="42">
         <f t="shared" si="3"/>
-        <v>63960.990000000005</v>
+        <v>54371.950000000004</v>
       </c>
       <c r="F22" s="42">
         <f>Tabela1[TOT RF]+Tabela13[TOT RF]</f>
-        <v>370593.76999999996</v>
+        <v>321170.89</v>
       </c>
       <c r="G22" s="42">
         <f>Tabela1[PATRIMÔNIO]+Tabela13[PATRIMÔNIO]</f>
-        <v>481087.22</v>
+        <v>415109.66000000003</v>
       </c>
     </row>
   </sheetData>

--- a/stocks/gama.xlsx
+++ b/stocks/gama.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="210" windowWidth="11790" windowHeight="5505" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="210" windowWidth="11790" windowHeight="5505"/>
   </bookViews>
   <sheets>
     <sheet name="VOLATILIDADE" sheetId="1" r:id="rId1"/>
     <sheet name="TRAVA" sheetId="3" r:id="rId2"/>
     <sheet name="TENDENCIA" sheetId="4" r:id="rId3"/>
-    <sheet name="SETUP" sheetId="2" r:id="rId4"/>
-    <sheet name="RESUMO DE PROTEÇÃO" sheetId="5" r:id="rId5"/>
+    <sheet name="RESUMO DE PROTEÇÃO" sheetId="5" r:id="rId4"/>
+    <sheet name="DIVISAO PATRIMONIO" sheetId="6" r:id="rId5"/>
+    <sheet name="SETUP" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="51">
   <si>
     <t>APORTE</t>
   </si>
@@ -154,6 +155,24 @@
   <si>
     <t>TOTAL PATRIMÔNIO</t>
   </si>
+  <si>
+    <t>TESOURO DIRETO</t>
+  </si>
+  <si>
+    <t>FUNDO AÇÕES</t>
+  </si>
+  <si>
+    <t>FUNDOS MM</t>
+  </si>
+  <si>
+    <t>FUNDOS RF E REFER.</t>
+  </si>
+  <si>
+    <t>RENTABILIDADE</t>
+  </si>
+  <si>
+    <t>RF x PATRIMONIO</t>
+  </si>
 </sst>
 </file>
 
@@ -168,7 +187,7 @@
     <numFmt numFmtId="168" formatCode="[$-416]mmmm\-yy;@"/>
     <numFmt numFmtId="169" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +276,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -310,7 +336,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -369,25 +395,30 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="165">
+  <dxfs count="179">
     <dxf>
       <font>
         <b val="0"/>
@@ -867,7 +898,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color theme="1"/>
+        <color theme="9" tint="-0.499984740745262"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -889,11 +920,333 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="[$-416]mmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -943,23 +1296,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -974,6 +1310,598 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="[$-416]mmmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
         <color rgb="FFFF0000"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -992,6 +1920,24 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -1014,6 +1960,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1032,6 +1996,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1050,6 +2032,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1068,6 +2068,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1086,6 +2104,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1104,6 +2140,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1122,6 +2176,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1140,6 +2212,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1158,6 +2248,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="Gener